--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -59,7 +59,7 @@
     <t>模组ID</t>
   </si>
   <si>
-    <t>部件类型(0:基础类型 1:头 2:帽子 11:护甲肩膀 12:护甲裤子)</t>
+    <t>部件类型(0:基础类型 1:头 2:帽子 3：发型 4:身体 5:眼睛 6:嘴巴 10:衣服 12:裤子 20:左肩上 21:左肩下 22:左手手套 25:右肩上 26:右肩下 27:右手手套 30:左腿上 31:左腿下 32:鞋子左 35:右腿上 36:右腿下 37:鞋子右 90：武器左 91：武器右)</t>
   </si>
   <si>
     <t>资源名字</t>
@@ -98,6 +98,12 @@
     <t>骷髅-帽子-皇冠1</t>
   </si>
   <si>
+    <t>ArmorPants/Armor_Pants_1</t>
+  </si>
+  <si>
+    <t>骷髅-护甲裤子-初级皮裤</t>
+  </si>
+  <si>
     <t>ArmorShoulder/Armor_Shoulder_1</t>
   </si>
   <si>
@@ -110,10 +116,166 @@
     <t>骷髅-护甲肩部-中级皮甲</t>
   </si>
   <si>
-    <t>ArmorPants/Armor_Pants_1</t>
-  </si>
-  <si>
-    <t>骷髅-护甲裤子-初级皮裤</t>
+    <t>人类-基础</t>
+  </si>
+  <si>
+    <t>人类-帽子-1</t>
+  </si>
+  <si>
+    <t>Hair/Hair_1</t>
+  </si>
+  <si>
+    <t>人类-发型</t>
+  </si>
+  <si>
+    <t>Hair/Hair_2</t>
+  </si>
+  <si>
+    <t>Hair/Hair_3</t>
+  </si>
+  <si>
+    <t>Hair/Hair_4</t>
+  </si>
+  <si>
+    <t>人类-发型-飞机头</t>
+  </si>
+  <si>
+    <t>Body/Body_1</t>
+  </si>
+  <si>
+    <t>人类-身体-男</t>
+  </si>
+  <si>
+    <t>Body/Body_2</t>
+  </si>
+  <si>
+    <t>人类-身体-女</t>
+  </si>
+  <si>
+    <t>Eye/Eye_1</t>
+  </si>
+  <si>
+    <t>人类-眼睛</t>
+  </si>
+  <si>
+    <t>Eye/Eye_2</t>
+  </si>
+  <si>
+    <t>Eye/Eye_3</t>
+  </si>
+  <si>
+    <t>Eye/Eye_4</t>
+  </si>
+  <si>
+    <t>Eye/Eye_5</t>
+  </si>
+  <si>
+    <t>Eye/Eye_6</t>
+  </si>
+  <si>
+    <t>Eye/Eye_7</t>
+  </si>
+  <si>
+    <t>Eye/Eye_8</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_1</t>
+  </si>
+  <si>
+    <t>人类-嘴巴</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_2</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_1</t>
+  </si>
+  <si>
+    <t>人类-衣服-1</t>
+  </si>
+  <si>
+    <t>Pants/Pants_1</t>
+  </si>
+  <si>
+    <t>人类-裤子-1</t>
+  </si>
+  <si>
+    <t>ArmUp_L/Armor_ArmUp_L_1</t>
+  </si>
+  <si>
+    <t>人类-手臂上-左-1</t>
+  </si>
+  <si>
+    <t>ArmDown_L/Armor_ArmDown_L_1</t>
+  </si>
+  <si>
+    <t>人类-手臂下-左-1</t>
+  </si>
+  <si>
+    <t>Palm_L/Armor_Palm_L_1</t>
+  </si>
+  <si>
+    <t>人类-手掌-左-1</t>
+  </si>
+  <si>
+    <t>ArmUp_R/Armor_ArmUp_R_1</t>
+  </si>
+  <si>
+    <t>人类-手臂上-右-1</t>
+  </si>
+  <si>
+    <t>ArmDown_R/Armor_ArmDown_R_1</t>
+  </si>
+  <si>
+    <t>人类-手臂下-右-1</t>
+  </si>
+  <si>
+    <t>Palm_R/Armor_Palm_R_1</t>
+  </si>
+  <si>
+    <t>人类-手掌-右-1</t>
+  </si>
+  <si>
+    <t>Thigh_L/Armor_Thigh_L_1</t>
+  </si>
+  <si>
+    <t>人类-大腿-左-1</t>
+  </si>
+  <si>
+    <t>Calf_L/Armor_Calf_L_1</t>
+  </si>
+  <si>
+    <t>人类-小腿-左-1</t>
+  </si>
+  <si>
+    <t>Shoe_L/Shoe_L_1</t>
+  </si>
+  <si>
+    <t>人类-鞋子-左-1</t>
+  </si>
+  <si>
+    <t>Thigh_R/Armor_Thigh_R_1</t>
+  </si>
+  <si>
+    <t>人类-大腿-右-1</t>
+  </si>
+  <si>
+    <t>Calf_R/Armor_Calf_R_1</t>
+  </si>
+  <si>
+    <t>人类-小腿-右-1</t>
+  </si>
+  <si>
+    <t>Shoe_R/Shoe_R_1</t>
+  </si>
+  <si>
+    <t>人类-鞋子-右-1</t>
+  </si>
+  <si>
+    <t>Weapon_L/Weapon_1</t>
+  </si>
+  <si>
+    <t>人类-武器-普通刀</t>
   </si>
 </sst>
 </file>
@@ -1081,19 +1243,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="47.625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="42.875" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
@@ -1271,13 +1433,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>1110001</v>
+        <v>1120001</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1288,13 +1450,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1110002</v>
+        <v>1200001</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -1305,13 +1467,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1120001</v>
+        <v>1200002</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1320,28 +1482,589 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1"/>
-    <row r="31" ht="15" customHeight="1"/>
-    <row r="32" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1"/>
-    <row r="37" ht="15" customHeight="1"/>
-    <row r="38" ht="15" customHeight="1"/>
-    <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2000001</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2020001</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2030001</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2030002</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2030003</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2030004</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2040001</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2040002</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2050001</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2050002</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2050003</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2050004</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>2050005</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2050006</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>2050007</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>2050008</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>2060001</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>2060002</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>2100001</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>2120001</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>2200001</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>2210001</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>2220001</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>2250001</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>2260001</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>2270001</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>2300001</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>2310001</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2320001</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>2350001</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>2360001</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>2370001</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>2900001</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1"/>
+    <row r="48" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
+    <row r="51" ht="15" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
+    <row r="53" ht="15" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="89" ht="12" customHeight="1"/>
+    <row r="90" ht="12" customHeight="1"/>
+    <row r="91" ht="12" customHeight="1"/>
+    <row r="92" ht="12" customHeight="1"/>
+    <row r="93" ht="12" customHeight="1"/>
+    <row r="94" ht="12" customHeight="1"/>
+    <row r="95" ht="12" customHeight="1"/>
+    <row r="96" ht="12" customHeight="1"/>
+    <row r="97" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:N88">
+  <sortState ref="A4:E36">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -891,8 +891,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1248,10 @@
   <sheetPr/>
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2043,7 +2046,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
     <row r="48" ht="15" customHeight="1"/>
     <row r="49" ht="15" customHeight="1"/>
     <row r="50" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>model_id</t>
   </si>
   <si>
+    <t>show_type</t>
+  </si>
+  <si>
     <t>part_type</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>模组ID</t>
   </si>
   <si>
+    <t>展示类型0默认 1立绘</t>
+  </si>
+  <si>
     <t>部件类型(0:基础类型 1:头 2:帽子 3：发型 4:身体 5:眼睛 6:嘴巴 10:衣服 12:裤子 20:左肩上 21:左肩下 22:左手手套 25:右肩上 26:右肩下 27:右手手套 30:左腿上 31:左腿下 32:鞋子左 35:右腿上 36:右腿下 37:鞋子右 90：武器左 91：武器右)</t>
   </si>
   <si>
@@ -276,6 +282,33 @@
   </si>
   <si>
     <t>人类-武器-普通刀</t>
+  </si>
+  <si>
+    <t>biyan</t>
+  </si>
+  <si>
+    <t>fankun</t>
+  </si>
+  <si>
+    <t>haoqi</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>weixiao</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>surprised</t>
   </si>
 </sst>
 </file>
@@ -1246,25 +1279,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C49" sqref="C49"/>
+      <selection pane="topRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="47.625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="2" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="47.625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1280,42 +1313,51 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -1325,14 +1367,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1010010</v>
       </c>
@@ -1340,16 +1385,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1010011</v>
       </c>
@@ -1357,16 +1405,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1010012</v>
       </c>
@@ -1374,16 +1425,19 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1010020</v>
       </c>
@@ -1391,16 +1445,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1010030</v>
       </c>
@@ -1408,16 +1465,19 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1020030</v>
       </c>
@@ -1425,16 +1485,19 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1120001</v>
       </c>
@@ -1442,16 +1505,19 @@
         <v>1</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1200001</v>
       </c>
@@ -1459,16 +1525,19 @@
         <v>1</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1200002</v>
       </c>
@@ -1476,16 +1545,19 @@
         <v>1</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>2000001</v>
       </c>
@@ -1495,14 +1567,17 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2020001</v>
       </c>
@@ -1510,16 +1585,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>2030001</v>
       </c>
@@ -1527,16 +1605,19 @@
         <v>2</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>2030002</v>
       </c>
@@ -1544,16 +1625,19 @@
         <v>2</v>
       </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>2030003</v>
       </c>
@@ -1561,16 +1645,19 @@
         <v>2</v>
       </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2030004</v>
       </c>
@@ -1578,16 +1665,19 @@
         <v>2</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
       <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>2040001</v>
       </c>
@@ -1595,16 +1685,19 @@
         <v>2</v>
       </c>
       <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
       <c r="E20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2040002</v>
       </c>
@@ -1612,16 +1705,19 @@
         <v>2</v>
       </c>
       <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2050001</v>
       </c>
@@ -1629,16 +1725,19 @@
         <v>2</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
       <c r="E22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2050002</v>
       </c>
@@ -1646,16 +1745,19 @@
         <v>2</v>
       </c>
       <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>5</v>
       </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
       <c r="E23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2050003</v>
       </c>
@@ -1663,16 +1765,19 @@
         <v>2</v>
       </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2050004</v>
       </c>
@@ -1680,16 +1785,19 @@
         <v>2</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
       <c r="E25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2050005</v>
       </c>
@@ -1697,16 +1805,19 @@
         <v>2</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
       <c r="E26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2050006</v>
       </c>
@@ -1714,16 +1825,19 @@
         <v>2</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
       <c r="E27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2050007</v>
       </c>
@@ -1731,16 +1845,19 @@
         <v>2</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
       <c r="E28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2050008</v>
       </c>
@@ -1748,16 +1865,19 @@
         <v>2</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
       <c r="E29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2060001</v>
       </c>
@@ -1765,16 +1885,19 @@
         <v>2</v>
       </c>
       <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
       <c r="E30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>2060002</v>
       </c>
@@ -1782,16 +1905,19 @@
         <v>2</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
       <c r="E31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>2100001</v>
       </c>
@@ -1799,16 +1925,19 @@
         <v>2</v>
       </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
       <c r="E32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>2120001</v>
       </c>
@@ -1816,16 +1945,19 @@
         <v>2</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
       <c r="E33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>2200001</v>
       </c>
@@ -1833,16 +1965,19 @@
         <v>2</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>20</v>
       </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
       <c r="E34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>2210001</v>
       </c>
@@ -1850,16 +1985,19 @@
         <v>2</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
-        <v>59</v>
-      </c>
       <c r="E35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>2220001</v>
       </c>
@@ -1867,16 +2005,19 @@
         <v>2</v>
       </c>
       <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>22</v>
       </c>
-      <c r="D36" t="s">
-        <v>61</v>
-      </c>
       <c r="E36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>2250001</v>
       </c>
@@ -1884,16 +2025,19 @@
         <v>2</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>25</v>
       </c>
-      <c r="D37" t="s">
-        <v>63</v>
-      </c>
       <c r="E37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2260001</v>
       </c>
@@ -1901,16 +2045,19 @@
         <v>2</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>26</v>
       </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
       <c r="E38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2270001</v>
       </c>
@@ -1918,16 +2065,19 @@
         <v>2</v>
       </c>
       <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>27</v>
       </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
       <c r="E39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>2300001</v>
       </c>
@@ -1935,16 +2085,19 @@
         <v>2</v>
       </c>
       <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>30</v>
       </c>
-      <c r="D40" t="s">
-        <v>69</v>
-      </c>
       <c r="E40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>2310001</v>
       </c>
@@ -1952,16 +2105,19 @@
         <v>2</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>31</v>
       </c>
-      <c r="D41" t="s">
-        <v>71</v>
-      </c>
       <c r="E41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>2320001</v>
       </c>
@@ -1969,16 +2125,19 @@
         <v>2</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>32</v>
       </c>
-      <c r="D42" t="s">
-        <v>73</v>
-      </c>
       <c r="E42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>2350001</v>
       </c>
@@ -1986,16 +2145,19 @@
         <v>2</v>
       </c>
       <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>35</v>
       </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
       <c r="E43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>2360001</v>
       </c>
@@ -2003,16 +2165,19 @@
         <v>2</v>
       </c>
       <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>36</v>
       </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
       <c r="E44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>2370001</v>
       </c>
@@ -2020,16 +2185,19 @@
         <v>2</v>
       </c>
       <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>37</v>
       </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
       <c r="E45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>2900001</v>
       </c>
@@ -2037,39 +2205,205 @@
         <v>2</v>
       </c>
       <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
-        <v>81</v>
-      </c>
       <c r="E46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1" spans="1:1">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" ht="15" customHeight="1"/>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>99999505001</v>
+      </c>
+      <c r="B47" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>99999505002</v>
+      </c>
+      <c r="B48" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>99999505003</v>
+      </c>
+      <c r="B49" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>99999505004</v>
+      </c>
+      <c r="B50" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>99999505005</v>
+      </c>
+      <c r="B51" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" spans="1:5">
+      <c r="A52" s="1">
+        <v>99999605001</v>
+      </c>
+      <c r="B52">
+        <v>999996</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="1:5">
+      <c r="A53" s="1">
+        <v>99999605002</v>
+      </c>
+      <c r="B53">
+        <v>999996</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" spans="1:5">
+      <c r="A54" s="1">
+        <v>99999605003</v>
+      </c>
+      <c r="B54">
+        <v>999996</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1" spans="1:5">
+      <c r="A55" s="1">
+        <v>99999605004</v>
+      </c>
+      <c r="B55">
+        <v>999996</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" spans="1:5">
+      <c r="A56" s="1">
+        <v>99999605005</v>
+      </c>
+      <c r="B56">
+        <v>999996</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="57" ht="15" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
-    <row r="91" ht="12" customHeight="1"/>
-    <row r="92" ht="12" customHeight="1"/>
-    <row r="93" ht="12" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
+    <row r="61" ht="15" customHeight="1"/>
+    <row r="62" ht="15" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
     <row r="95" ht="12" customHeight="1"/>
     <row r="96" ht="12" customHeight="1"/>
     <row r="97" ht="12" customHeight="1"/>
+    <row r="98" ht="12" customHeight="1"/>
+    <row r="99" ht="12" customHeight="1"/>
+    <row r="100" ht="12" customHeight="1"/>
+    <row r="101" ht="12" customHeight="1"/>
+    <row r="102" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:E36">
+  <sortState ref="A4:F36">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -309,6 +309,15 @@
   </si>
   <si>
     <t>surprised</t>
+  </si>
+  <si>
+    <t>jingya</t>
+  </si>
+  <si>
+    <t>yansu</t>
+  </si>
+  <si>
+    <t>yaoya</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1290,10 @@
   <sheetPr/>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F44" sqref="F44"/>
+      <selection pane="topRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2387,11 +2396,91 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1"/>
-    <row r="58" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="60" ht="15" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
+    <row r="57" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A57" s="1">
+        <v>99999905001</v>
+      </c>
+      <c r="B57">
+        <v>999999</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:5">
+      <c r="A58" s="1">
+        <v>99999905002</v>
+      </c>
+      <c r="B58">
+        <v>999999</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" spans="1:5">
+      <c r="A59" s="1">
+        <v>99999905003</v>
+      </c>
+      <c r="B59">
+        <v>999999</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" spans="1:5">
+      <c r="A60" s="1">
+        <v>99999905004</v>
+      </c>
+      <c r="B60">
+        <v>999999</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" spans="1:5">
+      <c r="A61" s="1">
+        <v>99999905005</v>
+      </c>
+      <c r="B61">
+        <v>999999</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="62" ht="15" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
     <row r="95" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22080" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>人类-武器-普通刀</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Xiao</t>
   </si>
   <si>
     <t>biyan</t>
@@ -1288,12 +1300,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F49" sqref="F49"/>
+      <selection pane="topRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2228,10 +2240,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>99999505001</v>
-      </c>
-      <c r="B47" s="1">
-        <v>999995</v>
+        <v>99998905001</v>
+      </c>
+      <c r="B47">
+        <v>999989</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2245,10 +2257,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>99999505002</v>
-      </c>
-      <c r="B48" s="1">
-        <v>999995</v>
+        <v>99998905002</v>
+      </c>
+      <c r="B48">
+        <v>999989</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2262,10 +2274,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>99999505003</v>
-      </c>
-      <c r="B49" s="1">
-        <v>999995</v>
+        <v>99998905003</v>
+      </c>
+      <c r="B49">
+        <v>999989</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2279,10 +2291,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>99999505004</v>
-      </c>
-      <c r="B50" s="1">
-        <v>999995</v>
+        <v>99998905004</v>
+      </c>
+      <c r="B50">
+        <v>999989</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2296,7 +2308,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>99999505005</v>
+        <v>99999505001</v>
       </c>
       <c r="B51" s="1">
         <v>999995</v>
@@ -2311,12 +2323,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="1:5">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>99999605001</v>
-      </c>
-      <c r="B52">
-        <v>999996</v>
+        <v>99999505002</v>
+      </c>
+      <c r="B52" s="1">
+        <v>999995</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2328,12 +2340,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1" spans="1:5">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>99999605002</v>
-      </c>
-      <c r="B53">
-        <v>999996</v>
+        <v>99999505003</v>
+      </c>
+      <c r="B53" s="1">
+        <v>999995</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2345,12 +2357,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:5">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>99999605003</v>
-      </c>
-      <c r="B54">
-        <v>999996</v>
+        <v>99999505004</v>
+      </c>
+      <c r="B54" s="1">
+        <v>999995</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2362,12 +2374,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1" spans="1:5">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>99999605004</v>
-      </c>
-      <c r="B55">
-        <v>999996</v>
+        <v>99999505005</v>
+      </c>
+      <c r="B55" s="1">
+        <v>999995</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2381,7 +2393,7 @@
     </row>
     <row r="56" ht="15" customHeight="1" spans="1:5">
       <c r="A56" s="1">
-        <v>99999605005</v>
+        <v>99999605001</v>
       </c>
       <c r="B56">
         <v>999996</v>
@@ -2393,15 +2405,15 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" ht="15" customHeight="1" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" spans="1:5">
       <c r="A57" s="1">
-        <v>99999905001</v>
+        <v>99999605002</v>
       </c>
       <c r="B57">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2410,15 +2422,15 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="1:5">
       <c r="A58" s="1">
-        <v>99999905002</v>
+        <v>99999605003</v>
       </c>
       <c r="B58">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2427,15 +2439,15 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="1:5">
       <c r="A59" s="1">
-        <v>99999905003</v>
+        <v>99999605004</v>
       </c>
       <c r="B59">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2444,15 +2456,15 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="1:5">
       <c r="A60" s="1">
-        <v>99999905004</v>
+        <v>99999605005</v>
       </c>
       <c r="B60">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2461,12 +2473,12 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A61" s="1">
-        <v>99999905005</v>
+        <v>99999905001</v>
       </c>
       <c r="B61">
         <v>999999</v>
@@ -2478,19 +2490,87 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1"/>
-    <row r="94" ht="12" customHeight="1"/>
-    <row r="95" ht="12" customHeight="1"/>
-    <row r="96" ht="12" customHeight="1"/>
-    <row r="97" ht="12" customHeight="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" spans="1:5">
+      <c r="A62" s="1">
+        <v>99999905002</v>
+      </c>
+      <c r="B62">
+        <v>999999</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1" spans="1:5">
+      <c r="A63" s="1">
+        <v>99999905003</v>
+      </c>
+      <c r="B63">
+        <v>999999</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" spans="1:5">
+      <c r="A64" s="1">
+        <v>99999905004</v>
+      </c>
+      <c r="B64">
+        <v>999999</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" spans="1:5">
+      <c r="A65" s="1">
+        <v>99999905005</v>
+      </c>
+      <c r="B65">
+        <v>999999</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1"/>
     <row r="98" ht="12" customHeight="1"/>
     <row r="99" ht="12" customHeight="1"/>
     <row r="100" ht="12" customHeight="1"/>
     <row r="101" ht="12" customHeight="1"/>
     <row r="102" ht="12" customHeight="1"/>
+    <row r="103" ht="12" customHeight="1"/>
+    <row r="104" ht="12" customHeight="1"/>
+    <row r="105" ht="12" customHeight="1"/>
+    <row r="106" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="15540"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -284,15 +284,39 @@
     <t>人类-武器-普通刀</t>
   </si>
   <si>
+    <t>Beishang</t>
+  </si>
+  <si>
+    <t>Shengqi</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>exciting</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
     <t>Angry</t>
   </si>
   <si>
     <t>Sad</t>
   </si>
   <si>
-    <t>Wait</t>
-  </si>
-  <si>
     <t>Xiao</t>
   </si>
   <si>
@@ -305,19 +329,10 @@
     <t>haoqi</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>weixiao</t>
   </si>
   <si>
-    <t>angry</t>
-  </si>
-  <si>
     <t>happy</t>
-  </si>
-  <si>
-    <t>sad</t>
   </si>
   <si>
     <t>surprised</t>
@@ -1300,12 +1315,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F48" sqref="F48"/>
+      <selection pane="topRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2239,11 +2254,11 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>99998905001</v>
+      <c r="A47">
+        <v>99998605001</v>
       </c>
       <c r="B47">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2256,11 +2271,11 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>99998905002</v>
+      <c r="A48">
+        <v>99998605002</v>
       </c>
       <c r="B48">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2273,11 +2288,11 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>99998905003</v>
+      <c r="A49">
+        <v>99998605003</v>
       </c>
       <c r="B49">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2290,11 +2305,11 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>99998905004</v>
+      <c r="A50">
+        <v>99998605004</v>
       </c>
       <c r="B50">
-        <v>999989</v>
+        <v>999986</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2307,11 +2322,11 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>99999505001</v>
-      </c>
-      <c r="B51" s="1">
-        <v>999995</v>
+      <c r="A51">
+        <v>99998705001</v>
+      </c>
+      <c r="B51">
+        <v>999987</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2324,11 +2339,11 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>99999505002</v>
-      </c>
-      <c r="B52" s="1">
-        <v>999995</v>
+      <c r="A52">
+        <v>99998705002</v>
+      </c>
+      <c r="B52">
+        <v>999987</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2341,11 +2356,11 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>99999505003</v>
-      </c>
-      <c r="B53" s="1">
-        <v>999995</v>
+      <c r="A53">
+        <v>99998705003</v>
+      </c>
+      <c r="B53">
+        <v>999987</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2358,11 +2373,11 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>99999505004</v>
-      </c>
-      <c r="B54" s="1">
-        <v>999995</v>
+      <c r="A54">
+        <v>99998705004</v>
+      </c>
+      <c r="B54">
+        <v>999987</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2375,11 +2390,11 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>99999505005</v>
-      </c>
-      <c r="B55" s="1">
-        <v>999995</v>
+      <c r="A55">
+        <v>99998705005</v>
+      </c>
+      <c r="B55">
+        <v>999988</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2391,12 +2406,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:5">
+    <row r="56" ht="12" customHeight="1" spans="1:5">
       <c r="A56" s="1">
-        <v>99999605001</v>
+        <v>99998905001</v>
       </c>
       <c r="B56">
-        <v>999996</v>
+        <v>999989</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2408,12 +2423,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1" spans="1:5">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>99999605002</v>
+        <v>99998905002</v>
       </c>
       <c r="B57">
-        <v>999996</v>
+        <v>999989</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2425,12 +2440,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:5">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>99999605003</v>
+        <v>99998905003</v>
       </c>
       <c r="B58">
-        <v>999996</v>
+        <v>999989</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2439,49 +2454,49 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>99998905004</v>
+      </c>
+      <c r="B59">
+        <v>999989</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1" spans="1:5">
-      <c r="A59" s="1">
-        <v>99999605004</v>
-      </c>
-      <c r="B59">
-        <v>999996</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>99999505001</v>
+      </c>
+      <c r="B60" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:5">
-      <c r="A60" s="1">
-        <v>99999605005</v>
-      </c>
-      <c r="B60">
-        <v>999996</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>99999905001</v>
-      </c>
-      <c r="B61">
-        <v>999999</v>
+        <v>99999505002</v>
+      </c>
+      <c r="B61" s="1">
+        <v>999995</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2493,12 +2508,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:5">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>99999905002</v>
-      </c>
-      <c r="B62">
-        <v>999999</v>
+        <v>99999505003</v>
+      </c>
+      <c r="B62" s="1">
+        <v>999995</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2507,15 +2522,15 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" ht="15" customHeight="1" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>99999905003</v>
-      </c>
-      <c r="B63">
-        <v>999999</v>
+        <v>99999505004</v>
+      </c>
+      <c r="B63" s="1">
+        <v>999995</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2527,12 +2542,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:5">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>99999905004</v>
-      </c>
-      <c r="B64">
-        <v>999999</v>
+        <v>99999505005</v>
+      </c>
+      <c r="B64" s="1">
+        <v>999995</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2541,36 +2556,189 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:5">
       <c r="A65" s="1">
+        <v>99999605001</v>
+      </c>
+      <c r="B65">
+        <v>999996</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="1:5">
+      <c r="A66" s="1">
+        <v>99999605002</v>
+      </c>
+      <c r="B66">
+        <v>999996</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" spans="1:5">
+      <c r="A67" s="1">
+        <v>99999605003</v>
+      </c>
+      <c r="B67">
+        <v>999996</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" spans="1:5">
+      <c r="A68" s="1">
+        <v>99999605004</v>
+      </c>
+      <c r="B68">
+        <v>999996</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" spans="1:5">
+      <c r="A69" s="1">
+        <v>99999605005</v>
+      </c>
+      <c r="B69">
+        <v>999996</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A70" s="1">
+        <v>99999905001</v>
+      </c>
+      <c r="B70">
+        <v>999999</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" spans="1:5">
+      <c r="A71" s="1">
+        <v>99999905002</v>
+      </c>
+      <c r="B71">
+        <v>999999</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" spans="1:5">
+      <c r="A72" s="1">
+        <v>99999905003</v>
+      </c>
+      <c r="B72">
+        <v>999999</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" spans="1:5">
+      <c r="A73" s="1">
+        <v>99999905004</v>
+      </c>
+      <c r="B73">
+        <v>999999</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" spans="1:5">
+      <c r="A74" s="1">
         <v>99999905005</v>
       </c>
-      <c r="B65">
+      <c r="B74">
         <v>999999</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="98" ht="12" customHeight="1"/>
-    <row r="99" ht="12" customHeight="1"/>
-    <row r="100" ht="12" customHeight="1"/>
-    <row r="101" ht="12" customHeight="1"/>
-    <row r="102" ht="12" customHeight="1"/>
-    <row r="103" ht="12" customHeight="1"/>
-    <row r="104" ht="12" customHeight="1"/>
-    <row r="105" ht="12" customHeight="1"/>
-    <row r="106" ht="12" customHeight="1"/>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1"/>
+    <row r="107" ht="12" customHeight="1"/>
+    <row r="108" ht="12" customHeight="1"/>
+    <row r="109" ht="12" customHeight="1"/>
+    <row r="110" ht="12" customHeight="1"/>
+    <row r="111" ht="12" customHeight="1"/>
+    <row r="112" ht="12" customHeight="1"/>
+    <row r="113" ht="12" customHeight="1"/>
+    <row r="114" ht="12" customHeight="1"/>
+    <row r="115" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="24690" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -284,6 +284,27 @@
     <t>人类-武器-普通刀</t>
   </si>
   <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Relax</t>
+  </si>
+  <si>
+    <t>anran</t>
+  </si>
+  <si>
+    <t>biyan</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>fennu</t>
+  </si>
+  <si>
+    <t>weixiao</t>
+  </si>
+  <si>
     <t>Beishang</t>
   </si>
   <si>
@@ -308,9 +329,6 @@
     <t>sad</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>Angry</t>
   </si>
   <si>
@@ -320,16 +338,10 @@
     <t>Xiao</t>
   </si>
   <si>
-    <t>biyan</t>
-  </si>
-  <si>
     <t>fankun</t>
   </si>
   <si>
     <t>haoqi</t>
-  </si>
-  <si>
-    <t>weixiao</t>
   </si>
   <si>
     <t>happy</t>
@@ -1315,12 +1327,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F45" sqref="F45"/>
+      <selection pane="topRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2255,10 +2267,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>99998605001</v>
+        <v>99997905001</v>
       </c>
       <c r="B47">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2272,10 +2284,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>99998605002</v>
+        <v>99997905002</v>
       </c>
       <c r="B48">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2289,10 +2301,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>99998605003</v>
+        <v>99997905003</v>
       </c>
       <c r="B49">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2306,10 +2318,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>99998605004</v>
+        <v>99997905004</v>
       </c>
       <c r="B50">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2323,10 +2335,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>99998705001</v>
+        <v>99997905005</v>
       </c>
       <c r="B51">
-        <v>999987</v>
+        <v>999979</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2339,249 +2351,249 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
+      <c r="A52" s="1">
+        <v>99997405001</v>
+      </c>
+      <c r="B52" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>99997405002</v>
+      </c>
+      <c r="B53" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>99997405003</v>
+      </c>
+      <c r="B54" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>99997405004</v>
+      </c>
+      <c r="B55" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>99998605001</v>
+      </c>
+      <c r="B56">
+        <v>999986</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>99998605002</v>
+      </c>
+      <c r="B57">
+        <v>999986</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>99998605003</v>
+      </c>
+      <c r="B58">
+        <v>999986</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>99998605004</v>
+      </c>
+      <c r="B59">
+        <v>999986</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>99998705001</v>
+      </c>
+      <c r="B60">
+        <v>999987</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
         <v>99998705002</v>
       </c>
-      <c r="B52">
+      <c r="B61">
         <v>999987</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
         <v>99998705003</v>
       </c>
-      <c r="B53">
+      <c r="B62">
         <v>999987</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
         <v>99998705004</v>
       </c>
-      <c r="B54">
+      <c r="B63">
         <v>999987</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
         <v>99998705005</v>
       </c>
-      <c r="B55">
+      <c r="B64">
         <v>999988</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" ht="12" customHeight="1" spans="1:5">
-      <c r="A56" s="1">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" ht="12" customHeight="1" spans="1:5">
+      <c r="A65" s="1">
         <v>99998905001</v>
       </c>
-      <c r="B56">
+      <c r="B65">
         <v>999989</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
         <v>99998905002</v>
       </c>
-      <c r="B57">
+      <c r="B66">
         <v>999989</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>99998905003</v>
-      </c>
-      <c r="B58">
-        <v>999989</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>99998905004</v>
-      </c>
-      <c r="B59">
-        <v>999989</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>99999505001</v>
-      </c>
-      <c r="B60" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>99999505002</v>
-      </c>
-      <c r="B61" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>99999505003</v>
-      </c>
-      <c r="B62" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>99999505004</v>
-      </c>
-      <c r="B63" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>99999505005</v>
-      </c>
-      <c r="B64" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1" spans="1:5">
-      <c r="A65" s="1">
-        <v>99999605001</v>
-      </c>
-      <c r="B65">
-        <v>999996</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1" spans="1:5">
-      <c r="A66" s="1">
-        <v>99999605002</v>
-      </c>
-      <c r="B66">
-        <v>999996</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2593,12 +2605,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1" spans="1:5">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>99999605003</v>
+        <v>99998905003</v>
       </c>
       <c r="B67">
-        <v>999996</v>
+        <v>999989</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2607,15 +2619,15 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" ht="15" customHeight="1" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>99999605004</v>
+        <v>99998905004</v>
       </c>
       <c r="B68">
-        <v>999996</v>
+        <v>999989</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2627,12 +2639,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>99999605005</v>
-      </c>
-      <c r="B69">
-        <v>999996</v>
+        <v>99999505001</v>
+      </c>
+      <c r="B69" s="1">
+        <v>999995</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2641,15 +2653,15 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" ht="15" customHeight="1" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>99999905001</v>
-      </c>
-      <c r="B70">
-        <v>999999</v>
+        <v>99999505002</v>
+      </c>
+      <c r="B70" s="1">
+        <v>999995</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2661,12 +2673,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" spans="1:5">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>99999905002</v>
-      </c>
-      <c r="B71">
-        <v>999999</v>
+        <v>99999505003</v>
+      </c>
+      <c r="B71" s="1">
+        <v>999995</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2675,15 +2687,15 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>99999905003</v>
-      </c>
-      <c r="B72">
-        <v>999999</v>
+        <v>99999505004</v>
+      </c>
+      <c r="B72" s="1">
+        <v>999995</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2692,15 +2704,15 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>99999905004</v>
-      </c>
-      <c r="B73">
-        <v>999999</v>
+        <v>99999505005</v>
+      </c>
+      <c r="B73" s="1">
+        <v>999995</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2709,36 +2721,189 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="1:5">
       <c r="A74" s="1">
+        <v>99999605001</v>
+      </c>
+      <c r="B74">
+        <v>999996</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="1:5">
+      <c r="A75" s="1">
+        <v>99999605002</v>
+      </c>
+      <c r="B75">
+        <v>999996</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1" spans="1:5">
+      <c r="A76" s="1">
+        <v>99999605003</v>
+      </c>
+      <c r="B76">
+        <v>999996</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1" spans="1:5">
+      <c r="A77" s="1">
+        <v>99999605004</v>
+      </c>
+      <c r="B77">
+        <v>999996</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1" spans="1:5">
+      <c r="A78" s="1">
+        <v>99999605005</v>
+      </c>
+      <c r="B78">
+        <v>999996</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A79" s="1">
+        <v>99999905001</v>
+      </c>
+      <c r="B79">
+        <v>999999</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" ht="15" customHeight="1" spans="1:5">
+      <c r="A80" s="1">
+        <v>99999905002</v>
+      </c>
+      <c r="B80">
+        <v>999999</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" ht="15" customHeight="1" spans="1:5">
+      <c r="A81" s="1">
+        <v>99999905003</v>
+      </c>
+      <c r="B81">
+        <v>999999</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1" spans="1:5">
+      <c r="A82" s="1">
+        <v>99999905004</v>
+      </c>
+      <c r="B82">
+        <v>999999</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1" spans="1:5">
+      <c r="A83" s="1">
         <v>99999905005</v>
       </c>
-      <c r="B74">
+      <c r="B83">
         <v>999999</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1"/>
-    <row r="107" ht="12" customHeight="1"/>
-    <row r="108" ht="12" customHeight="1"/>
-    <row r="109" ht="12" customHeight="1"/>
-    <row r="110" ht="12" customHeight="1"/>
-    <row r="111" ht="12" customHeight="1"/>
-    <row r="112" ht="12" customHeight="1"/>
-    <row r="113" ht="12" customHeight="1"/>
-    <row r="114" ht="12" customHeight="1"/>
-    <row r="115" ht="12" customHeight="1"/>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1"/>
+    <row r="116" ht="12" customHeight="1"/>
+    <row r="117" ht="12" customHeight="1"/>
+    <row r="118" ht="12" customHeight="1"/>
+    <row r="119" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
+    <row r="122" ht="12" customHeight="1"/>
+    <row r="123" ht="12" customHeight="1"/>
+    <row r="124" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24690" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -284,6 +284,18 @@
     <t>人类-武器-普通刀</t>
   </si>
   <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>blinky</t>
+  </si>
+  <si>
+    <t>sleepy</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
     <t>Pain</t>
   </si>
   <si>
@@ -296,9 +308,6 @@
     <t>biyan</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>fennu</t>
   </si>
   <si>
@@ -315,9 +324,6 @@
   </si>
   <si>
     <t>Wait</t>
-  </si>
-  <si>
-    <t>angry</t>
   </si>
   <si>
     <t>calm</t>
@@ -1327,12 +1333,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G55" sqref="G55"/>
+      <selection pane="topRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2267,10 +2273,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>99997905001</v>
-      </c>
-      <c r="B47">
-        <v>999979</v>
+        <v>99996805001</v>
+      </c>
+      <c r="B47" s="1">
+        <v>999968</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2284,10 +2290,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>99997905002</v>
-      </c>
-      <c r="B48">
-        <v>999979</v>
+        <v>99996805002</v>
+      </c>
+      <c r="B48" s="1">
+        <v>999968</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2301,10 +2307,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>99997905003</v>
-      </c>
-      <c r="B49">
-        <v>999979</v>
+        <v>99996805003</v>
+      </c>
+      <c r="B49" s="1">
+        <v>999968</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2318,10 +2324,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>99997905004</v>
-      </c>
-      <c r="B50">
-        <v>999979</v>
+        <v>99996805004</v>
+      </c>
+      <c r="B50" s="1">
+        <v>999968</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>99997905005</v>
+        <v>99997905001</v>
       </c>
       <c r="B51">
         <v>999979</v>
@@ -2351,79 +2357,79 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1">
+      <c r="A52">
+        <v>99997905002</v>
+      </c>
+      <c r="B52">
+        <v>999979</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>99997905003</v>
+      </c>
+      <c r="B53">
+        <v>999979</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>99997905004</v>
+      </c>
+      <c r="B54">
+        <v>999979</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>99997905005</v>
+      </c>
+      <c r="B55">
+        <v>999979</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
         <v>99997405001</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B56" s="1">
         <v>999974</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>99997405002</v>
-      </c>
-      <c r="B53" s="1">
-        <v>999974</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>99997405003</v>
-      </c>
-      <c r="B54" s="1">
-        <v>999974</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>99997405004</v>
-      </c>
-      <c r="B55" s="1">
-        <v>999974</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>99998605001</v>
-      </c>
-      <c r="B56">
-        <v>999986</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2436,11 +2442,11 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
-        <v>99998605002</v>
-      </c>
-      <c r="B57">
-        <v>999986</v>
+      <c r="A57" s="1">
+        <v>99997405002</v>
+      </c>
+      <c r="B57" s="1">
+        <v>999974</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2453,11 +2459,11 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
-        <v>99998605003</v>
-      </c>
-      <c r="B58">
-        <v>999986</v>
+      <c r="A58" s="1">
+        <v>99997405003</v>
+      </c>
+      <c r="B58" s="1">
+        <v>999974</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2466,32 +2472,32 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>99997405004</v>
+      </c>
+      <c r="B59" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59">
-        <v>99998605004</v>
-      </c>
-      <c r="B59">
-        <v>999986</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>99998705001</v>
+        <v>99998605001</v>
       </c>
       <c r="B60">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2500,15 +2506,15 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>99998705002</v>
+        <v>99998605002</v>
       </c>
       <c r="B61">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2517,15 +2523,15 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>99998705003</v>
+        <v>99998605003</v>
       </c>
       <c r="B62">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2534,15 +2540,15 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>99998705004</v>
+        <v>99998605004</v>
       </c>
       <c r="B63">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2551,117 +2557,117 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
+        <v>99998705001</v>
+      </c>
+      <c r="B64">
+        <v>999987</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>99998705002</v>
+      </c>
+      <c r="B65">
+        <v>999987</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>99998705003</v>
+      </c>
+      <c r="B66">
+        <v>999987</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>99998705004</v>
+      </c>
+      <c r="B67">
+        <v>999987</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
         <v>99998705005</v>
       </c>
-      <c r="B64">
+      <c r="B68">
         <v>999988</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" ht="12" customHeight="1" spans="1:5">
-      <c r="A65" s="1">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" ht="12" customHeight="1" spans="1:5">
+      <c r="A69" s="1">
         <v>99998905001</v>
       </c>
-      <c r="B65">
+      <c r="B69">
         <v>999989</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>99998905002</v>
-      </c>
-      <c r="B66">
-        <v>999989</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>99998905003</v>
-      </c>
-      <c r="B67">
-        <v>999989</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>99998905004</v>
-      </c>
-      <c r="B68">
-        <v>999989</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>99999505001</v>
-      </c>
-      <c r="B69" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>99999505002</v>
-      </c>
-      <c r="B70" s="1">
-        <v>999995</v>
+        <v>99998905002</v>
+      </c>
+      <c r="B70">
+        <v>999989</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2675,10 +2681,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>99999505003</v>
-      </c>
-      <c r="B71" s="1">
-        <v>999995</v>
+        <v>99998905003</v>
+      </c>
+      <c r="B71">
+        <v>999989</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2687,15 +2693,15 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>99999505004</v>
-      </c>
-      <c r="B72" s="1">
-        <v>999995</v>
+        <v>99998905004</v>
+      </c>
+      <c r="B72">
+        <v>999989</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2704,12 +2710,12 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>99999505005</v>
+        <v>99999505001</v>
       </c>
       <c r="B73" s="1">
         <v>999995</v>
@@ -2721,15 +2727,15 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="1:5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>99999605001</v>
-      </c>
-      <c r="B74">
-        <v>999996</v>
+        <v>99999505002</v>
+      </c>
+      <c r="B74" s="1">
+        <v>999995</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2738,15 +2744,15 @@
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>99999605002</v>
-      </c>
-      <c r="B75">
-        <v>999996</v>
+        <v>99999505003</v>
+      </c>
+      <c r="B75" s="1">
+        <v>999995</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2755,15 +2761,15 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" ht="15" customHeight="1" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>99999605003</v>
-      </c>
-      <c r="B76">
-        <v>999996</v>
+        <v>99999505004</v>
+      </c>
+      <c r="B76" s="1">
+        <v>999995</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2772,15 +2778,15 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" ht="15" customHeight="1" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>99999605004</v>
-      </c>
-      <c r="B77">
-        <v>999996</v>
+        <v>99999505005</v>
+      </c>
+      <c r="B77" s="1">
+        <v>999995</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2789,12 +2795,12 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" spans="1:5">
       <c r="A78" s="1">
-        <v>99999605005</v>
+        <v>99999605001</v>
       </c>
       <c r="B78">
         <v>999996</v>
@@ -2806,15 +2812,15 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" ht="15" customHeight="1" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1" spans="1:5">
       <c r="A79" s="1">
-        <v>99999905001</v>
+        <v>99999605002</v>
       </c>
       <c r="B79">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2828,10 +2834,10 @@
     </row>
     <row r="80" ht="15" customHeight="1" spans="1:5">
       <c r="A80" s="1">
-        <v>99999905002</v>
+        <v>99999605003</v>
       </c>
       <c r="B80">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2840,15 +2846,15 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" spans="1:5">
       <c r="A81" s="1">
-        <v>99999905003</v>
+        <v>99999605004</v>
       </c>
       <c r="B81">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2857,15 +2863,15 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="1:5">
       <c r="A82" s="1">
-        <v>99999905004</v>
+        <v>99999605005</v>
       </c>
       <c r="B82">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2874,12 +2880,12 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" ht="15" customHeight="1" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A83" s="1">
-        <v>99999905005</v>
+        <v>99999905001</v>
       </c>
       <c r="B83">
         <v>999999</v>
@@ -2894,16 +2900,84 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1"/>
-    <row r="116" ht="12" customHeight="1"/>
-    <row r="117" ht="12" customHeight="1"/>
-    <row r="118" ht="12" customHeight="1"/>
-    <row r="119" ht="12" customHeight="1"/>
+    <row r="84" ht="15" customHeight="1" spans="1:5">
+      <c r="A84" s="1">
+        <v>99999905002</v>
+      </c>
+      <c r="B84">
+        <v>999999</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" ht="15" customHeight="1" spans="1:5">
+      <c r="A85" s="1">
+        <v>99999905003</v>
+      </c>
+      <c r="B85">
+        <v>999999</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1" spans="1:5">
+      <c r="A86" s="1">
+        <v>99999905004</v>
+      </c>
+      <c r="B86">
+        <v>999999</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="1:5">
+      <c r="A87" s="1">
+        <v>99999905005</v>
+      </c>
+      <c r="B87">
+        <v>999999</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
     <row r="121" ht="12" customHeight="1"/>
     <row r="122" ht="12" customHeight="1"/>
     <row r="123" ht="12" customHeight="1"/>
     <row r="124" ht="12" customHeight="1"/>
+    <row r="125" ht="12" customHeight="1"/>
+    <row r="126" ht="12" customHeight="1"/>
+    <row r="127" ht="12" customHeight="1"/>
+    <row r="128" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -284,6 +284,21 @@
     <t>人类-武器-普通刀</t>
   </si>
   <si>
+    <t>fennu</t>
+  </si>
+  <si>
+    <t>haixiu</t>
+  </si>
+  <si>
+    <t>jingya</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>xiao</t>
+  </si>
+  <si>
     <t>angry</t>
   </si>
   <si>
@@ -293,9 +308,6 @@
     <t>sleepy</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>Pain</t>
   </si>
   <si>
@@ -308,9 +320,6 @@
     <t>biyan</t>
   </si>
   <si>
-    <t>fennu</t>
-  </si>
-  <si>
     <t>weixiao</t>
   </si>
   <si>
@@ -354,9 +363,6 @@
   </si>
   <si>
     <t>surprised</t>
-  </si>
-  <si>
-    <t>jingya</t>
   </si>
   <si>
     <t>yansu</t>
@@ -1333,12 +1339,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C47" sqref="C47"/>
+      <selection pane="topRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2272,11 +2278,11 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
-        <v>99996805001</v>
-      </c>
-      <c r="B47" s="1">
-        <v>999968</v>
+      <c r="A47" s="1">
+        <v>99996105001</v>
+      </c>
+      <c r="B47">
+        <v>999961</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2289,11 +2295,11 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
-        <v>99996805002</v>
-      </c>
-      <c r="B48" s="1">
-        <v>999968</v>
+      <c r="A48" s="1">
+        <v>99996105002</v>
+      </c>
+      <c r="B48">
+        <v>999961</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2306,11 +2312,11 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
-        <v>99996805003</v>
-      </c>
-      <c r="B49" s="1">
-        <v>999968</v>
+      <c r="A49" s="1">
+        <v>99996105003</v>
+      </c>
+      <c r="B49">
+        <v>999961</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2323,11 +2329,11 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
-        <v>99996805004</v>
-      </c>
-      <c r="B50" s="1">
-        <v>999968</v>
+      <c r="A50" s="1">
+        <v>99996105004</v>
+      </c>
+      <c r="B50">
+        <v>999961</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2340,11 +2346,11 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
-        <v>99997905001</v>
+      <c r="A51" s="1">
+        <v>99996105005</v>
       </c>
       <c r="B51">
-        <v>999979</v>
+        <v>999961</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2358,10 +2364,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>99997905002</v>
-      </c>
-      <c r="B52">
-        <v>999979</v>
+        <v>99996805001</v>
+      </c>
+      <c r="B52" s="1">
+        <v>999968</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2375,10 +2381,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>99997905003</v>
-      </c>
-      <c r="B53">
-        <v>999979</v>
+        <v>99996805002</v>
+      </c>
+      <c r="B53" s="1">
+        <v>999968</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2392,10 +2398,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>99997905004</v>
-      </c>
-      <c r="B54">
-        <v>999979</v>
+        <v>99996805003</v>
+      </c>
+      <c r="B54" s="1">
+        <v>999968</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2409,10 +2415,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>99997905005</v>
-      </c>
-      <c r="B55">
-        <v>999979</v>
+        <v>99996805004</v>
+      </c>
+      <c r="B55" s="1">
+        <v>999968</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2425,11 +2431,11 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>99997405001</v>
-      </c>
-      <c r="B56" s="1">
-        <v>999974</v>
+      <c r="A56">
+        <v>99997905001</v>
+      </c>
+      <c r="B56">
+        <v>999979</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2438,15 +2444,15 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>99997405002</v>
-      </c>
-      <c r="B57" s="1">
-        <v>999974</v>
+      <c r="A57">
+        <v>99997905002</v>
+      </c>
+      <c r="B57">
+        <v>999979</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2455,15 +2461,15 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>99997405003</v>
-      </c>
-      <c r="B58" s="1">
-        <v>999974</v>
+      <c r="A58">
+        <v>99997905003</v>
+      </c>
+      <c r="B58">
+        <v>999979</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2472,15 +2478,15 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>99997405004</v>
-      </c>
-      <c r="B59" s="1">
-        <v>999974</v>
+      <c r="A59">
+        <v>99997905004</v>
+      </c>
+      <c r="B59">
+        <v>999979</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2489,15 +2495,15 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>99998605001</v>
+        <v>99997905005</v>
       </c>
       <c r="B60">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2506,15 +2512,15 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
-        <v>99998605002</v>
-      </c>
-      <c r="B61">
-        <v>999986</v>
+      <c r="A61" s="1">
+        <v>99997405001</v>
+      </c>
+      <c r="B61" s="1">
+        <v>999974</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2527,11 +2533,11 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
-        <v>99998605003</v>
-      </c>
-      <c r="B62">
-        <v>999986</v>
+      <c r="A62" s="1">
+        <v>99997405002</v>
+      </c>
+      <c r="B62" s="1">
+        <v>999974</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2540,49 +2546,49 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>99997405003</v>
+      </c>
+      <c r="B63" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>99997405004</v>
+      </c>
+      <c r="B64" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
-        <v>99998605004</v>
-      </c>
-      <c r="B63">
-        <v>999986</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>99998705001</v>
-      </c>
-      <c r="B64">
-        <v>999987</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>99998705002</v>
+        <v>99998605001</v>
       </c>
       <c r="B65">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2591,15 +2597,15 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>99998705003</v>
+        <v>99998605002</v>
       </c>
       <c r="B66">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2608,15 +2614,15 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>99998705004</v>
+        <v>99998605003</v>
       </c>
       <c r="B67">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2625,15 +2631,15 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>99998705005</v>
+        <v>99998605004</v>
       </c>
       <c r="B68">
-        <v>999988</v>
+        <v>999986</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2642,15 +2648,15 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" ht="12" customHeight="1" spans="1:5">
-      <c r="A69" s="1">
-        <v>99998905001</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>99998705001</v>
       </c>
       <c r="B69">
-        <v>999989</v>
+        <v>999987</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2659,49 +2665,49 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>99998705002</v>
+      </c>
+      <c r="B70">
+        <v>999987</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>99998905002</v>
-      </c>
-      <c r="B70">
-        <v>999989</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-      <c r="E70" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>99998705003</v>
+      </c>
+      <c r="B71">
+        <v>999987</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>99998905003</v>
-      </c>
-      <c r="B71">
-        <v>999989</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-      <c r="E71" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>99998905004</v>
+      <c r="A72">
+        <v>99998705004</v>
       </c>
       <c r="B72">
-        <v>999989</v>
+        <v>999987</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2714,11 +2720,11 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>99999505001</v>
-      </c>
-      <c r="B73" s="1">
-        <v>999995</v>
+      <c r="A73">
+        <v>99998705005</v>
+      </c>
+      <c r="B73">
+        <v>999988</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2727,15 +2733,15 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" ht="12" customHeight="1" spans="1:5">
       <c r="A74" s="1">
-        <v>99999505002</v>
-      </c>
-      <c r="B74" s="1">
-        <v>999995</v>
+        <v>99998905001</v>
+      </c>
+      <c r="B74">
+        <v>999989</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2749,10 +2755,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>99999505003</v>
-      </c>
-      <c r="B75" s="1">
-        <v>999995</v>
+        <v>99998905002</v>
+      </c>
+      <c r="B75">
+        <v>999989</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2766,10 +2772,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>99999505004</v>
-      </c>
-      <c r="B76" s="1">
-        <v>999995</v>
+        <v>99998905003</v>
+      </c>
+      <c r="B76">
+        <v>999989</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2778,118 +2784,118 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
+        <v>99998905004</v>
+      </c>
+      <c r="B77">
+        <v>999989</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>99999505001</v>
+      </c>
+      <c r="B78" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>99999505002</v>
+      </c>
+      <c r="B79" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>99999505003</v>
+      </c>
+      <c r="B80" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>99999505004</v>
+      </c>
+      <c r="B81" s="1">
+        <v>999995</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
         <v>99999505005</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B82" s="1">
         <v>999995</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" ht="15" customHeight="1" spans="1:5">
-      <c r="A78" s="1">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1" spans="1:5">
+      <c r="A83" s="1">
         <v>99999605001</v>
       </c>
-      <c r="B78">
+      <c r="B83">
         <v>999996</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" ht="15" customHeight="1" spans="1:5">
-      <c r="A79" s="1">
-        <v>99999605002</v>
-      </c>
-      <c r="B79">
-        <v>999996</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" ht="15" customHeight="1" spans="1:5">
-      <c r="A80" s="1">
-        <v>99999605003</v>
-      </c>
-      <c r="B80">
-        <v>999996</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" ht="15" customHeight="1" spans="1:5">
-      <c r="A81" s="1">
-        <v>99999605004</v>
-      </c>
-      <c r="B81">
-        <v>999996</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-      <c r="E81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" ht="15" customHeight="1" spans="1:5">
-      <c r="A82" s="1">
-        <v>99999605005</v>
-      </c>
-      <c r="B82">
-        <v>999996</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-      <c r="E82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A83" s="1">
-        <v>99999905001</v>
-      </c>
-      <c r="B83">
-        <v>999999</v>
-      </c>
       <c r="C83">
         <v>1</v>
       </c>
@@ -2897,15 +2903,15 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" spans="1:5">
       <c r="A84" s="1">
-        <v>99999905002</v>
+        <v>99999605002</v>
       </c>
       <c r="B84">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2914,15 +2920,15 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:5">
       <c r="A85" s="1">
-        <v>99999905003</v>
+        <v>99999605003</v>
       </c>
       <c r="B85">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2931,15 +2937,15 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="1:5">
       <c r="A86" s="1">
-        <v>99999905004</v>
+        <v>99999605004</v>
       </c>
       <c r="B86">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2948,36 +2954,121 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" spans="1:5">
       <c r="A87" s="1">
+        <v>99999605005</v>
+      </c>
+      <c r="B87">
+        <v>999996</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A88" s="1">
+        <v>99999905001</v>
+      </c>
+      <c r="B88">
+        <v>999999</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="1:5">
+      <c r="A89" s="1">
+        <v>99999905002</v>
+      </c>
+      <c r="B89">
+        <v>999999</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1" spans="1:5">
+      <c r="A90" s="1">
+        <v>99999905003</v>
+      </c>
+      <c r="B90">
+        <v>999999</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1" spans="1:5">
+      <c r="A91" s="1">
+        <v>99999905004</v>
+      </c>
+      <c r="B91">
+        <v>999999</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="1:5">
+      <c r="A92" s="1">
         <v>99999905005</v>
       </c>
-      <c r="B87">
+      <c r="B92">
         <v>999999</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" ht="15" customHeight="1"/>
-    <row r="120" ht="12" customHeight="1"/>
-    <row r="121" ht="12" customHeight="1"/>
-    <row r="122" ht="12" customHeight="1"/>
-    <row r="123" ht="12" customHeight="1"/>
-    <row r="124" ht="12" customHeight="1"/>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="12" customHeight="1"/>
     <row r="127" ht="12" customHeight="1"/>
     <row r="128" ht="12" customHeight="1"/>
+    <row r="129" ht="12" customHeight="1"/>
+    <row r="130" ht="12" customHeight="1"/>
+    <row r="131" ht="12" customHeight="1"/>
+    <row r="132" ht="12" customHeight="1"/>
+    <row r="133" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -1341,7 +1341,7 @@
   <sheetPr/>
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D48" sqref="D48"/>
@@ -1351,7 +1351,7 @@
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="47.625" customWidth="1"/>
+    <col min="4" max="4" width="67.875" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="42.875" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -287,21 +287,36 @@
     <t>fennu</t>
   </si>
   <si>
+    <t>jinghuang</t>
+  </si>
+  <si>
+    <t>kaixin</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
     <t>haixiu</t>
   </si>
   <si>
     <t>jingya</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>xiao</t>
   </si>
   <si>
-    <t>angry</t>
-  </si>
-  <si>
     <t>blinky</t>
   </si>
   <si>
@@ -341,9 +356,6 @@
     <t>exciting</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
     <t>Angry</t>
   </si>
   <si>
@@ -357,9 +369,6 @@
   </si>
   <si>
     <t>haoqi</t>
-  </si>
-  <si>
-    <t>happy</t>
   </si>
   <si>
     <t>surprised</t>
@@ -1339,12 +1348,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D48" sqref="D48"/>
+      <selection pane="topRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2279,10 +2288,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>99996105001</v>
-      </c>
-      <c r="B47">
-        <v>999961</v>
+        <v>99995005001</v>
+      </c>
+      <c r="B47" s="1">
+        <v>999950</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2296,10 +2305,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>99996105002</v>
-      </c>
-      <c r="B48">
-        <v>999961</v>
+        <v>99995005002</v>
+      </c>
+      <c r="B48" s="1">
+        <v>999950</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2313,10 +2322,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>99996105003</v>
-      </c>
-      <c r="B49">
-        <v>999961</v>
+        <v>99995005003</v>
+      </c>
+      <c r="B49" s="1">
+        <v>999950</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2330,10 +2339,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>99996105004</v>
-      </c>
-      <c r="B50">
-        <v>999961</v>
+        <v>99995005004</v>
+      </c>
+      <c r="B50" s="1">
+        <v>999950</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2347,10 +2356,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>99996105005</v>
-      </c>
-      <c r="B51">
-        <v>999961</v>
+        <v>99995005005</v>
+      </c>
+      <c r="B51" s="1">
+        <v>999950</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2363,11 +2372,11 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
-        <v>99996805001</v>
+      <c r="A52" s="1">
+        <v>99994705001</v>
       </c>
       <c r="B52" s="1">
-        <v>999968</v>
+        <v>999947</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2380,11 +2389,11 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
-        <v>99996805002</v>
+      <c r="A53" s="1">
+        <v>99994705002</v>
       </c>
       <c r="B53" s="1">
-        <v>999968</v>
+        <v>999947</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2397,11 +2406,11 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
-        <v>99996805003</v>
+      <c r="A54" s="1">
+        <v>99994705003</v>
       </c>
       <c r="B54" s="1">
-        <v>999968</v>
+        <v>999947</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2414,165 +2423,165 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="A55" s="1">
+        <v>99994705004</v>
+      </c>
+      <c r="B55" s="1">
+        <v>999947</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>99996105001</v>
+      </c>
+      <c r="B56">
+        <v>999961</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>99996105002</v>
+      </c>
+      <c r="B57">
+        <v>999961</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>99996105003</v>
+      </c>
+      <c r="B58">
+        <v>999961</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>99996105004</v>
+      </c>
+      <c r="B59">
+        <v>999961</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>99996105005</v>
+      </c>
+      <c r="B60">
+        <v>999961</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>99996805001</v>
+      </c>
+      <c r="B61" s="1">
+        <v>999968</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>99996805002</v>
+      </c>
+      <c r="B62" s="1">
+        <v>999968</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>99996805003</v>
+      </c>
+      <c r="B63" s="1">
+        <v>999968</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
         <v>99996805004</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B64" s="1">
         <v>999968</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>99997905001</v>
-      </c>
-      <c r="B56">
-        <v>999979</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
-        <v>99997905002</v>
-      </c>
-      <c r="B57">
-        <v>999979</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58">
-        <v>99997905003</v>
-      </c>
-      <c r="B58">
-        <v>999979</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59">
-        <v>99997905004</v>
-      </c>
-      <c r="B59">
-        <v>999979</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60">
-        <v>99997905005</v>
-      </c>
-      <c r="B60">
-        <v>999979</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>99997405001</v>
-      </c>
-      <c r="B61" s="1">
-        <v>999974</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>99997405002</v>
-      </c>
-      <c r="B62" s="1">
-        <v>999974</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>99997405003</v>
-      </c>
-      <c r="B63" s="1">
-        <v>999974</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>99997405004</v>
-      </c>
-      <c r="B64" s="1">
-        <v>999974</v>
-      </c>
       <c r="C64">
         <v>1</v>
       </c>
@@ -2580,15 +2589,15 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>99998605001</v>
+        <v>99997905001</v>
       </c>
       <c r="B65">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2602,10 +2611,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>99998605002</v>
+        <v>99997905002</v>
       </c>
       <c r="B66">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2619,10 +2628,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>99998605003</v>
+        <v>99997905003</v>
       </c>
       <c r="B67">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2636,10 +2645,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>99998605004</v>
+        <v>99997905004</v>
       </c>
       <c r="B68">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2653,265 +2662,265 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
+        <v>99997905005</v>
+      </c>
+      <c r="B69">
+        <v>999979</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>99997405001</v>
+      </c>
+      <c r="B70" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>99997405002</v>
+      </c>
+      <c r="B71" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>99997405003</v>
+      </c>
+      <c r="B72" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>99997405004</v>
+      </c>
+      <c r="B73" s="1">
+        <v>999974</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>99998605001</v>
+      </c>
+      <c r="B74">
+        <v>999986</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>99998605002</v>
+      </c>
+      <c r="B75">
+        <v>999986</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>99998605003</v>
+      </c>
+      <c r="B76">
+        <v>999986</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>99998605004</v>
+      </c>
+      <c r="B77">
+        <v>999986</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
         <v>99998705001</v>
       </c>
-      <c r="B69">
+      <c r="B78">
         <v>999987</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
+    <row r="79" spans="1:5">
+      <c r="A79">
         <v>99998705002</v>
       </c>
-      <c r="B70">
+      <c r="B79">
         <v>999987</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
         <v>99998705003</v>
       </c>
-      <c r="B71">
+      <c r="B80">
         <v>999987</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-      <c r="E71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
         <v>99998705004</v>
       </c>
-      <c r="B72">
+      <c r="B81">
         <v>999987</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
         <v>99998705005</v>
       </c>
-      <c r="B73">
+      <c r="B82">
         <v>999988</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" ht="12" customHeight="1" spans="1:5">
-      <c r="A74" s="1">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" ht="12" customHeight="1" spans="1:5">
+      <c r="A83" s="1">
         <v>99998905001</v>
       </c>
-      <c r="B74">
+      <c r="B83">
         <v>999989</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
         <v>99998905002</v>
       </c>
-      <c r="B75">
+      <c r="B84">
         <v>999989</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>99998905003</v>
-      </c>
-      <c r="B76">
-        <v>999989</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>99998905004</v>
-      </c>
-      <c r="B77">
-        <v>999989</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
-        <v>99999505001</v>
-      </c>
-      <c r="B78" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>99999505002</v>
-      </c>
-      <c r="B79" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
-        <v>99999505003</v>
-      </c>
-      <c r="B80" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>99999505004</v>
-      </c>
-      <c r="B81" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-      <c r="E81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>99999505005</v>
-      </c>
-      <c r="B82" s="1">
-        <v>999995</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-      <c r="E82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" ht="15" customHeight="1" spans="1:5">
-      <c r="A83" s="1">
-        <v>99999605001</v>
-      </c>
-      <c r="B83">
-        <v>999996</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" ht="15" customHeight="1" spans="1:5">
-      <c r="A84" s="1">
-        <v>99999605002</v>
-      </c>
-      <c r="B84">
-        <v>999996</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2923,12 +2932,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:5">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>99999605003</v>
+        <v>99998905003</v>
       </c>
       <c r="B85">
-        <v>999996</v>
+        <v>999989</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -2937,15 +2946,15 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" ht="15" customHeight="1" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>99999605004</v>
+        <v>99998905004</v>
       </c>
       <c r="B86">
-        <v>999996</v>
+        <v>999989</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2957,12 +2966,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:5">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>99999605005</v>
-      </c>
-      <c r="B87">
-        <v>999996</v>
+        <v>99999505001</v>
+      </c>
+      <c r="B87" s="1">
+        <v>999995</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2971,15 +2980,15 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" ht="15" customHeight="1" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>99999905001</v>
-      </c>
-      <c r="B88">
-        <v>999999</v>
+        <v>99999505002</v>
+      </c>
+      <c r="B88" s="1">
+        <v>999995</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2988,15 +2997,15 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" ht="15" customHeight="1" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>99999905002</v>
-      </c>
-      <c r="B89">
-        <v>999999</v>
+        <v>99999505003</v>
+      </c>
+      <c r="B89" s="1">
+        <v>999995</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3005,15 +3014,15 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" ht="15" customHeight="1" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>99999905003</v>
-      </c>
-      <c r="B90">
-        <v>999999</v>
+        <v>99999505004</v>
+      </c>
+      <c r="B90" s="1">
+        <v>999995</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3022,15 +3031,15 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" ht="15" customHeight="1" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>99999905004</v>
-      </c>
-      <c r="B91">
-        <v>999999</v>
+        <v>99999505005</v>
+      </c>
+      <c r="B91" s="1">
+        <v>999995</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3039,36 +3048,189 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="1:5">
       <c r="A92" s="1">
+        <v>99999605001</v>
+      </c>
+      <c r="B92">
+        <v>999996</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" spans="1:5">
+      <c r="A93" s="1">
+        <v>99999605002</v>
+      </c>
+      <c r="B93">
+        <v>999996</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="1:5">
+      <c r="A94" s="1">
+        <v>99999605003</v>
+      </c>
+      <c r="B94">
+        <v>999996</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="1:5">
+      <c r="A95" s="1">
+        <v>99999605004</v>
+      </c>
+      <c r="B95">
+        <v>999996</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="1:5">
+      <c r="A96" s="1">
+        <v>99999605005</v>
+      </c>
+      <c r="B96">
+        <v>999996</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A97" s="1">
+        <v>99999905001</v>
+      </c>
+      <c r="B97">
+        <v>999999</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="1:5">
+      <c r="A98" s="1">
+        <v>99999905002</v>
+      </c>
+      <c r="B98">
+        <v>999999</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="1:5">
+      <c r="A99" s="1">
+        <v>99999905003</v>
+      </c>
+      <c r="B99">
+        <v>999999</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1" spans="1:5">
+      <c r="A100" s="1">
+        <v>99999905004</v>
+      </c>
+      <c r="B100">
+        <v>999999</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1" spans="1:5">
+      <c r="A101" s="1">
         <v>99999905005</v>
       </c>
-      <c r="B92">
+      <c r="B101">
         <v>999999</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1"/>
-    <row r="125" ht="12" customHeight="1"/>
-    <row r="126" ht="12" customHeight="1"/>
-    <row r="127" ht="12" customHeight="1"/>
-    <row r="128" ht="12" customHeight="1"/>
-    <row r="129" ht="12" customHeight="1"/>
-    <row r="130" ht="12" customHeight="1"/>
-    <row r="131" ht="12" customHeight="1"/>
-    <row r="132" ht="12" customHeight="1"/>
-    <row r="133" ht="12" customHeight="1"/>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="134" ht="12" customHeight="1"/>
+    <row r="135" ht="12" customHeight="1"/>
+    <row r="136" ht="12" customHeight="1"/>
+    <row r="137" ht="12" customHeight="1"/>
+    <row r="138" ht="12" customHeight="1"/>
+    <row r="139" ht="12" customHeight="1"/>
+    <row r="140" ht="12" customHeight="1"/>
+    <row r="141" ht="12" customHeight="1"/>
+    <row r="142" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -282,6 +282,123 @@
   </si>
   <si>
     <t>人类-武器-普通刀</t>
+  </si>
+  <si>
+    <t>身体-1</t>
+  </si>
+  <si>
+    <t>身体-2</t>
+  </si>
+  <si>
+    <t>Body/Body_3</t>
+  </si>
+  <si>
+    <t>身体-3</t>
+  </si>
+  <si>
+    <t>Body/Body_4</t>
+  </si>
+  <si>
+    <t>身体-4</t>
+  </si>
+  <si>
+    <t>Body/Body_5</t>
+  </si>
+  <si>
+    <t>身体-5</t>
+  </si>
+  <si>
+    <t>Body/Body_6</t>
+  </si>
+  <si>
+    <t>身体-6</t>
+  </si>
+  <si>
+    <t>Body/Body_7</t>
+  </si>
+  <si>
+    <t>身体-7</t>
+  </si>
+  <si>
+    <t>Body/Body_8</t>
+  </si>
+  <si>
+    <t>身体-8</t>
+  </si>
+  <si>
+    <t>Body/Body_9</t>
+  </si>
+  <si>
+    <t>身体-9</t>
+  </si>
+  <si>
+    <t>Body/Body_10</t>
+  </si>
+  <si>
+    <t>身体-10</t>
+  </si>
+  <si>
+    <t>眼睛-1</t>
+  </si>
+  <si>
+    <t>眼睛-2</t>
+  </si>
+  <si>
+    <t>眼睛-3</t>
+  </si>
+  <si>
+    <t>眼睛-4</t>
+  </si>
+  <si>
+    <t>眼睛-5</t>
+  </si>
+  <si>
+    <t>眼睛-6</t>
+  </si>
+  <si>
+    <t>眼睛-7</t>
+  </si>
+  <si>
+    <t>眼睛-8</t>
+  </si>
+  <si>
+    <t>Eye/Eye_9</t>
+  </si>
+  <si>
+    <t>眼睛-9</t>
+  </si>
+  <si>
+    <t>Eye/Eye_10</t>
+  </si>
+  <si>
+    <t>眼睛-10</t>
+  </si>
+  <si>
+    <t>帽子-1</t>
+  </si>
+  <si>
+    <t>Hat/Hat_2</t>
+  </si>
+  <si>
+    <t>帽子-2</t>
+  </si>
+  <si>
+    <t>Hat/Hat_3</t>
+  </si>
+  <si>
+    <t>帽子-3</t>
+  </si>
+  <si>
+    <t>Hat/Hat_4</t>
+  </si>
+  <si>
+    <t>帽子-4</t>
+  </si>
+  <si>
+    <t>Hat/Hat_5</t>
+  </si>
+  <si>
+    <t>帽子-5</t>
   </si>
   <si>
     <t>fennu</t>
@@ -993,8 +1110,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1348,12 +1468,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F48" sqref="F48"/>
+      <selection pane="topRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2286,951 +2406,1451 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>99995005001</v>
-      </c>
-      <c r="B47" s="1">
-        <v>999950</v>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>3040001</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>99995005002</v>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>3040002</v>
       </c>
       <c r="B48" s="1">
-        <v>999950</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>99995005003</v>
-      </c>
-      <c r="B49" s="1">
-        <v>999950</v>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>3040003</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>3040004</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>3040005</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>3040006</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>3040007</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>3040008</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>3040009</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>3040010</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>3050001</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>3050002</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>3050003</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>3050004</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>3050005</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>3050006</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>3050007</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>3050008</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>3050009</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>3050010</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>3020001</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>3020002</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>3020003</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>3020004</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>3020005</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>99995005001</v>
+      </c>
+      <c r="B72" s="2">
+        <v>999950</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>99995005002</v>
+      </c>
+      <c r="B73" s="2">
+        <v>999950</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>99995005003</v>
+      </c>
+      <c r="B74" s="2">
+        <v>999950</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
         <v>99995005004</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B75" s="2">
         <v>999950</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
         <v>99995005005</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B76" s="2">
         <v>999950</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
         <v>99994705001</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B77" s="2">
         <v>999947</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
         <v>99994705002</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B78" s="2">
         <v>999947</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
         <v>99994705003</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B79" s="2">
         <v>999947</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
         <v>99994705004</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B80" s="2">
         <v>999947</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
         <v>99996105001</v>
       </c>
-      <c r="B56">
+      <c r="B81">
         <v>999961</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2">
         <v>99996105002</v>
       </c>
-      <c r="B57">
+      <c r="B82">
         <v>999961</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
         <v>99996105003</v>
       </c>
-      <c r="B58">
+      <c r="B83">
         <v>999961</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
         <v>99996105004</v>
       </c>
-      <c r="B59">
+      <c r="B84">
         <v>999961</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
         <v>99996105005</v>
       </c>
-      <c r="B60">
+      <c r="B85">
         <v>999961</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
         <v>99996805001</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B86" s="2">
         <v>999968</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
         <v>99996805002</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B87" s="2">
         <v>999968</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
         <v>99996805003</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B88" s="2">
         <v>999968</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
         <v>99996805004</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B89" s="2">
         <v>999968</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
         <v>99997905001</v>
       </c>
-      <c r="B65">
+      <c r="B90">
         <v>999979</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
         <v>99997905002</v>
       </c>
-      <c r="B66">
+      <c r="B91">
         <v>999979</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-      <c r="E66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
         <v>99997905003</v>
       </c>
-      <c r="B67">
+      <c r="B92">
         <v>999979</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
         <v>99997905004</v>
       </c>
-      <c r="B68">
+      <c r="B93">
         <v>999979</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
         <v>99997905005</v>
       </c>
-      <c r="B69">
+      <c r="B94">
         <v>999979</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
         <v>99997405001</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B95" s="2">
         <v>999974</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
         <v>99997405002</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B96" s="2">
         <v>999974</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-      <c r="E71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
         <v>99997405003</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B97" s="2">
         <v>999974</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
         <v>99997405004</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B98" s="2">
         <v>999974</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
         <v>99998605001</v>
       </c>
-      <c r="B74">
+      <c r="B99">
         <v>999986</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75">
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
         <v>99998605002</v>
       </c>
-      <c r="B75">
+      <c r="B100">
         <v>999986</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
         <v>99998605003</v>
       </c>
-      <c r="B76">
+      <c r="B101">
         <v>999986</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
         <v>99998605004</v>
       </c>
-      <c r="B77">
+      <c r="B102">
         <v>999986</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
         <v>99998705001</v>
       </c>
-      <c r="B78">
+      <c r="B103">
         <v>999987</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
         <v>99998705002</v>
       </c>
-      <c r="B79">
+      <c r="B104">
         <v>999987</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
         <v>99998705003</v>
       </c>
-      <c r="B80">
+      <c r="B105">
         <v>999987</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
         <v>99998705004</v>
       </c>
-      <c r="B81">
+      <c r="B106">
         <v>999987</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-      <c r="E81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
         <v>99998705005</v>
       </c>
-      <c r="B82">
+      <c r="B107">
         <v>999988</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-      <c r="E82" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" ht="12" customHeight="1" spans="1:5">
-      <c r="A83" s="1">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" ht="12" customHeight="1" spans="1:5">
+      <c r="A108" s="2">
         <v>99998905001</v>
       </c>
-      <c r="B83">
+      <c r="B108">
         <v>999989</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2">
         <v>99998905002</v>
       </c>
-      <c r="B84">
+      <c r="B109">
         <v>999989</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
         <v>99998905003</v>
       </c>
-      <c r="B85">
+      <c r="B110">
         <v>999989</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
         <v>99998905004</v>
       </c>
-      <c r="B86">
+      <c r="B111">
         <v>999989</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
         <v>99999505001</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B112" s="2">
         <v>999995</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
         <v>99999505002</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B113" s="2">
         <v>999995</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
         <v>99999505003</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B114" s="2">
         <v>999995</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
         <v>99999505004</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B115" s="2">
         <v>999995</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
         <v>99999505005</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B116" s="2">
         <v>999995</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" ht="15" customHeight="1" spans="1:5">
-      <c r="A92" s="1">
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" ht="15" customHeight="1" spans="1:5">
+      <c r="A117" s="2">
         <v>99999605001</v>
       </c>
-      <c r="B92">
+      <c r="B117">
         <v>999996</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1" spans="1:5">
-      <c r="A93" s="1">
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" ht="15" customHeight="1" spans="1:5">
+      <c r="A118" s="2">
         <v>99999605002</v>
       </c>
-      <c r="B93">
+      <c r="B118">
         <v>999996</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="1:5">
-      <c r="A94" s="1">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" ht="15" customHeight="1" spans="1:5">
+      <c r="A119" s="2">
         <v>99999605003</v>
       </c>
-      <c r="B94">
+      <c r="B119">
         <v>999996</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>5</v>
-      </c>
-      <c r="E94" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1" spans="1:5">
-      <c r="A95" s="1">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" ht="15" customHeight="1" spans="1:5">
+      <c r="A120" s="2">
         <v>99999605004</v>
       </c>
-      <c r="B95">
+      <c r="B120">
         <v>999996</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>5</v>
-      </c>
-      <c r="E95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1" spans="1:5">
-      <c r="A96" s="1">
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" ht="15" customHeight="1" spans="1:5">
+      <c r="A121" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B96">
+      <c r="B121">
         <v>999996</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-      <c r="E96" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A97" s="1">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A122" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B97">
+      <c r="B122">
         <v>999999</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-      <c r="E97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="1:5">
-      <c r="A98" s="1">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" ht="15" customHeight="1" spans="1:5">
+      <c r="A123" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B98">
+      <c r="B123">
         <v>999999</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1" spans="1:5">
-      <c r="A99" s="1">
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" ht="15" customHeight="1" spans="1:5">
+      <c r="A124" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B99">
+      <c r="B124">
         <v>999999</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" ht="15" customHeight="1" spans="1:5">
-      <c r="A100" s="1">
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" ht="15" customHeight="1" spans="1:5">
+      <c r="A125" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B100">
+      <c r="B125">
         <v>999999</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-      <c r="E100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1" spans="1:5">
-      <c r="A101" s="1">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" ht="15" customHeight="1" spans="1:5">
+      <c r="A126" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B101">
+      <c r="B126">
         <v>999999</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-      <c r="E101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" ht="15" customHeight="1"/>
-    <row r="134" ht="12" customHeight="1"/>
-    <row r="135" ht="12" customHeight="1"/>
-    <row r="136" ht="12" customHeight="1"/>
-    <row r="137" ht="12" customHeight="1"/>
-    <row r="138" ht="12" customHeight="1"/>
-    <row r="139" ht="12" customHeight="1"/>
-    <row r="140" ht="12" customHeight="1"/>
-    <row r="141" ht="12" customHeight="1"/>
-    <row r="142" ht="12" customHeight="1"/>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="159" ht="12" customHeight="1"/>
+    <row r="160" ht="12" customHeight="1"/>
+    <row r="161" ht="12" customHeight="1"/>
+    <row r="162" ht="12" customHeight="1"/>
+    <row r="163" ht="12" customHeight="1"/>
+    <row r="164" ht="12" customHeight="1"/>
+    <row r="165" ht="12" customHeight="1"/>
+    <row r="166" ht="12" customHeight="1"/>
+    <row r="167" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -65,7 +65,7 @@
     <t>展示类型0默认 1立绘</t>
   </si>
   <si>
-    <t>部件类型(0:基础类型 1:头 2:帽子 3：发型 4:身体 5:眼睛 6:嘴巴 10:衣服 12:裤子 20:左肩上 21:左肩下 22:左手手套 25:右肩上 26:右肩下 27:右手手套 30:左腿上 31:左腿下 32:鞋子左 35:右腿上 36:右腿下 37:鞋子右 90：武器左 91：武器右)</t>
+    <t>部件类型(0:基础类型 1:头 2:帽子 3：发型 4:身体 5:眼睛 6:嘴巴 7:角 10:衣服 12:裤子 20:左肩上 21:左肩下 22:左手手套 25:右肩上 26:右肩下 27:右手手套 30:左腿上 31:左腿下 32:鞋子左 35:右腿上 36:右腿下 37:鞋子右 90：武器左 91：武器右)</t>
   </si>
   <si>
     <t>资源名字</t>
@@ -399,6 +399,135 @@
   </si>
   <si>
     <t>帽子-5</t>
+  </si>
+  <si>
+    <t>Base/Base_1</t>
+  </si>
+  <si>
+    <t>基础1</t>
+  </si>
+  <si>
+    <t>发型1</t>
+  </si>
+  <si>
+    <t>发型2</t>
+  </si>
+  <si>
+    <t>发型3</t>
+  </si>
+  <si>
+    <t>发型4</t>
+  </si>
+  <si>
+    <t>Hair/Hair_5</t>
+  </si>
+  <si>
+    <t>发型5</t>
+  </si>
+  <si>
+    <t>嘴巴-1</t>
+  </si>
+  <si>
+    <t>嘴巴-2</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_3</t>
+  </si>
+  <si>
+    <t>嘴巴-3</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_4</t>
+  </si>
+  <si>
+    <t>嘴巴-4</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_5</t>
+  </si>
+  <si>
+    <t>嘴巴-5</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_6</t>
+  </si>
+  <si>
+    <t>嘴巴-6</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_7</t>
+  </si>
+  <si>
+    <t>嘴巴-7</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_8</t>
+  </si>
+  <si>
+    <t>嘴巴-8</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_9</t>
+  </si>
+  <si>
+    <t>嘴巴-9</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_10</t>
+  </si>
+  <si>
+    <t>嘴巴-10</t>
+  </si>
+  <si>
+    <t>Horn/Horn_1</t>
+  </si>
+  <si>
+    <t>角-1</t>
+  </si>
+  <si>
+    <t>Horn/Horn_2</t>
+  </si>
+  <si>
+    <t>角-2</t>
+  </si>
+  <si>
+    <t>Horn/Horn_3</t>
+  </si>
+  <si>
+    <t>角-3</t>
+  </si>
+  <si>
+    <t>Horn/Horn_4</t>
+  </si>
+  <si>
+    <t>角-4</t>
+  </si>
+  <si>
+    <t>Horn/Horn_5</t>
+  </si>
+  <si>
+    <t>角-5</t>
+  </si>
+  <si>
+    <t>Wing/Wing_1</t>
+  </si>
+  <si>
+    <t>翅膀-1</t>
+  </si>
+  <si>
+    <t>Wing/Wing_2</t>
+  </si>
+  <si>
+    <t>翅膀-2</t>
+  </si>
+  <si>
+    <t>Armor/Armor_1</t>
+  </si>
+  <si>
+    <t>Armor/Armor_2</t>
+  </si>
+  <si>
+    <t>人类-衣服-2</t>
   </si>
   <si>
     <t>fennu</t>
@@ -1468,19 +1597,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D66" sqref="D66"/>
+      <selection pane="topRight" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="67.875" customWidth="1"/>
+    <col min="4" max="4" width="96.25" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="42.875" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
@@ -2906,607 +3035,710 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2">
-        <v>99995005001</v>
-      </c>
-      <c r="B72" s="2">
-        <v>999950</v>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>4000001</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2">
-        <v>99995005002</v>
-      </c>
-      <c r="B73" s="2">
-        <v>999950</v>
+      <c r="F72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:6">
+      <c r="A73">
+        <v>4030001</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2">
-        <v>99995005003</v>
-      </c>
-      <c r="B74" s="2">
-        <v>999950</v>
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>4030002</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2">
-        <v>99995005004</v>
-      </c>
-      <c r="B75" s="2">
-        <v>999950</v>
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>4030003</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2">
-        <v>99995005005</v>
-      </c>
-      <c r="B76" s="2">
-        <v>999950</v>
+        <v>36</v>
+      </c>
+      <c r="F75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>4030004</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2">
-        <v>99994705001</v>
-      </c>
-      <c r="B77" s="2">
-        <v>999947</v>
+        <v>37</v>
+      </c>
+      <c r="F76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>4030005</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2">
-        <v>99994705002</v>
-      </c>
-      <c r="B78" s="2">
-        <v>999947</v>
+        <v>130</v>
+      </c>
+      <c r="F77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>4050001</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2">
-        <v>99994705003</v>
-      </c>
-      <c r="B79" s="2">
-        <v>999947</v>
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>4050002</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2">
-        <v>99994705004</v>
-      </c>
-      <c r="B80" s="2">
-        <v>999947</v>
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>4050003</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B81">
-        <v>999961</v>
+        <v>46</v>
+      </c>
+      <c r="F80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>4050004</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2">
-        <v>99996105002</v>
-      </c>
-      <c r="B82">
-        <v>999961</v>
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>4050005</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
       <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>4050006</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>4050007</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>4050008</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>4050009</v>
+      </c>
+      <c r="B86" s="1">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>4050010</v>
+      </c>
+      <c r="B87" s="1">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>4060001</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2">
-        <v>99996105003</v>
-      </c>
-      <c r="B83">
-        <v>999961</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>4060002</v>
+      </c>
+      <c r="B89" s="1">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>54</v>
+      </c>
+      <c r="F89" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2">
-        <v>99996105004</v>
-      </c>
-      <c r="B84">
-        <v>999961</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2">
-        <v>99996105005</v>
-      </c>
-      <c r="B85">
-        <v>999961</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>4060003</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <v>99996805001</v>
-      </c>
-      <c r="B86" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>99996805002</v>
-      </c>
-      <c r="B87" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F90" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <v>99996805003</v>
-      </c>
-      <c r="B88" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>4060004</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>99996805004</v>
-      </c>
-      <c r="B89" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90">
-        <v>99997905001</v>
-      </c>
-      <c r="B90">
-        <v>999979</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F91" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>99997905002</v>
-      </c>
-      <c r="B91">
-        <v>999979</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>4060005</v>
+      </c>
+      <c r="B92" s="1">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92">
-        <v>99997905003</v>
-      </c>
-      <c r="B92">
-        <v>999979</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93">
-        <v>99997905004</v>
-      </c>
-      <c r="B93">
-        <v>999979</v>
+        <v>4060006</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E93" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
-        <v>99997905005</v>
-      </c>
-      <c r="B94">
-        <v>999979</v>
+        <v>4060007</v>
+      </c>
+      <c r="B94" s="1">
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2">
-        <v>99997405001</v>
-      </c>
-      <c r="B95" s="2">
-        <v>999974</v>
+        <v>142</v>
+      </c>
+      <c r="F94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>4060008</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="2">
-        <v>99997405002</v>
-      </c>
-      <c r="B96" s="2">
-        <v>999974</v>
+        <v>144</v>
+      </c>
+      <c r="F95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>4060009</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2">
-        <v>99997405003</v>
-      </c>
-      <c r="B97" s="2">
-        <v>999974</v>
+        <v>146</v>
+      </c>
+      <c r="F96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>4060010</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2">
-        <v>99997405004</v>
-      </c>
-      <c r="B98" s="2">
-        <v>999974</v>
+        <v>148</v>
+      </c>
+      <c r="F97" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:6">
+      <c r="A98">
+        <v>4070001</v>
+      </c>
+      <c r="B98" s="1">
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>150</v>
+      </c>
+      <c r="F98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:6">
       <c r="A99">
-        <v>99998605001</v>
-      </c>
-      <c r="B99">
-        <v>999986</v>
+        <v>4070002</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="F99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:6">
       <c r="A100">
-        <v>99998605002</v>
-      </c>
-      <c r="B100">
-        <v>999986</v>
+        <v>4070003</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:6">
       <c r="A101">
-        <v>99998605003</v>
-      </c>
-      <c r="B101">
-        <v>999986</v>
+        <v>4070004</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>156</v>
+      </c>
+      <c r="F101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" spans="1:6">
       <c r="A102">
-        <v>99998605004</v>
-      </c>
-      <c r="B102">
-        <v>999986</v>
+        <v>4070005</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="F102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" spans="1:6">
       <c r="A103">
-        <v>99998705001</v>
-      </c>
-      <c r="B103">
-        <v>999987</v>
+        <v>4080001</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="F103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:6">
       <c r="A104">
-        <v>99998705002</v>
-      </c>
-      <c r="B104">
-        <v>999987</v>
-      </c>
+        <v>4080002</v>
+      </c>
+      <c r="B104" s="1"/>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="F104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="1:6">
       <c r="A105">
-        <v>99998705003</v>
+        <v>4100001</v>
       </c>
       <c r="B105">
-        <v>999987</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>164</v>
+      </c>
+      <c r="F105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
-        <v>99998705004</v>
-      </c>
-      <c r="B106">
-        <v>999987</v>
+        <v>4100002</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>131</v>
+        <v>165</v>
+      </c>
+      <c r="F106" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107">
-        <v>99998705005</v>
-      </c>
-      <c r="B107">
-        <v>999988</v>
+      <c r="A107" s="2">
+        <v>99995005001</v>
+      </c>
+      <c r="B107" s="2">
+        <v>999950</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3515,15 +3747,15 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" ht="12" customHeight="1" spans="1:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>99998905001</v>
-      </c>
-      <c r="B108">
-        <v>999989</v>
+        <v>99995005002</v>
+      </c>
+      <c r="B108" s="2">
+        <v>999950</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3532,15 +3764,15 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>99998905002</v>
-      </c>
-      <c r="B109">
-        <v>999989</v>
+        <v>99995005003</v>
+      </c>
+      <c r="B109" s="2">
+        <v>999950</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -3549,15 +3781,15 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>99998905003</v>
-      </c>
-      <c r="B110">
-        <v>999989</v>
+        <v>99995005004</v>
+      </c>
+      <c r="B110" s="2">
+        <v>999950</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3566,15 +3798,15 @@
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>99998905004</v>
-      </c>
-      <c r="B111">
-        <v>999989</v>
+        <v>99995005005</v>
+      </c>
+      <c r="B111" s="2">
+        <v>999950</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3583,15 +3815,15 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>99999505001</v>
+        <v>99994705001</v>
       </c>
       <c r="B112" s="2">
-        <v>999995</v>
+        <v>999947</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3600,15 +3832,15 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>99999505002</v>
+        <v>99994705002</v>
       </c>
       <c r="B113" s="2">
-        <v>999995</v>
+        <v>999947</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3617,15 +3849,15 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>99999505003</v>
+        <v>99994705003</v>
       </c>
       <c r="B114" s="2">
-        <v>999995</v>
+        <v>999947</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3634,15 +3866,15 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>99999505004</v>
+        <v>99994705004</v>
       </c>
       <c r="B115" s="2">
-        <v>999995</v>
+        <v>999947</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3651,206 +3883,801 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
+        <v>99996105001</v>
+      </c>
+      <c r="B116">
+        <v>999961</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2">
+        <v>99996105002</v>
+      </c>
+      <c r="B117">
+        <v>999961</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2">
+        <v>99996105003</v>
+      </c>
+      <c r="B118">
+        <v>999961</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
+        <v>99996105004</v>
+      </c>
+      <c r="B119">
+        <v>999961</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>99996105005</v>
+      </c>
+      <c r="B120">
+        <v>999961</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>99996805001</v>
+      </c>
+      <c r="B121" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>99996805002</v>
+      </c>
+      <c r="B122" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>99996805003</v>
+      </c>
+      <c r="B123" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>99996805004</v>
+      </c>
+      <c r="B124" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>99997905001</v>
+      </c>
+      <c r="B125">
+        <v>999979</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>99997905002</v>
+      </c>
+      <c r="B126">
+        <v>999979</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>99997905003</v>
+      </c>
+      <c r="B127">
+        <v>999979</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>99997905004</v>
+      </c>
+      <c r="B128">
+        <v>999979</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>99997905005</v>
+      </c>
+      <c r="B129">
+        <v>999979</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>99997405001</v>
+      </c>
+      <c r="B130" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>99997405002</v>
+      </c>
+      <c r="B131" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>99997405003</v>
+      </c>
+      <c r="B132" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B133" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>99998605001</v>
+      </c>
+      <c r="B134">
+        <v>999986</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>99998605002</v>
+      </c>
+      <c r="B135">
+        <v>999986</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>99998605003</v>
+      </c>
+      <c r="B136">
+        <v>999986</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>99998605004</v>
+      </c>
+      <c r="B137">
+        <v>999986</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>99998705001</v>
+      </c>
+      <c r="B138">
+        <v>999987</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>99998705002</v>
+      </c>
+      <c r="B139">
+        <v>999987</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>99998705003</v>
+      </c>
+      <c r="B140">
+        <v>999987</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>99998705004</v>
+      </c>
+      <c r="B141">
+        <v>999987</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>99998705005</v>
+      </c>
+      <c r="B142">
+        <v>999988</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" ht="12" customHeight="1" spans="1:5">
+      <c r="A143" s="2">
+        <v>99998905001</v>
+      </c>
+      <c r="B143">
+        <v>999989</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>99998905002</v>
+      </c>
+      <c r="B144">
+        <v>999989</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>99998905003</v>
+      </c>
+      <c r="B145">
+        <v>999989</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>99998905004</v>
+      </c>
+      <c r="B146">
+        <v>999989</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>99999505001</v>
+      </c>
+      <c r="B147" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>99999505002</v>
+      </c>
+      <c r="B148" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>99999505003</v>
+      </c>
+      <c r="B149" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>99999505004</v>
+      </c>
+      <c r="B150" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
         <v>99999505005</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B151" s="2">
         <v>999995</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" ht="15" customHeight="1" spans="1:5">
-      <c r="A117" s="2">
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" ht="15" customHeight="1" spans="1:5">
+      <c r="A152" s="2">
         <v>99999605001</v>
       </c>
-      <c r="B117">
+      <c r="B152">
         <v>999996</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" ht="15" customHeight="1" spans="1:5">
-      <c r="A118" s="2">
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" ht="15" customHeight="1" spans="1:5">
+      <c r="A153" s="2">
         <v>99999605002</v>
       </c>
-      <c r="B118">
+      <c r="B153">
         <v>999996</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" ht="15" customHeight="1" spans="1:5">
-      <c r="A119" s="2">
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" ht="15" customHeight="1" spans="1:5">
+      <c r="A154" s="2">
         <v>99999605003</v>
       </c>
-      <c r="B119">
+      <c r="B154">
         <v>999996</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" ht="15" customHeight="1" spans="1:5">
-      <c r="A120" s="2">
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" ht="15" customHeight="1" spans="1:5">
+      <c r="A155" s="2">
         <v>99999605004</v>
       </c>
-      <c r="B120">
+      <c r="B155">
         <v>999996</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" ht="15" customHeight="1" spans="1:5">
-      <c r="A121" s="2">
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" ht="15" customHeight="1" spans="1:5">
+      <c r="A156" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B121">
+      <c r="B156">
         <v>999996</v>
       </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A122" s="2">
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A157" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B122">
+      <c r="B157">
         <v>999999</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-      <c r="E122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" ht="15" customHeight="1" spans="1:5">
-      <c r="A123" s="2">
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" ht="15" customHeight="1" spans="1:5">
+      <c r="A158" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B123">
+      <c r="B158">
         <v>999999</v>
       </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-      <c r="E123" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" ht="15" customHeight="1" spans="1:5">
-      <c r="A124" s="2">
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="159" ht="15" customHeight="1" spans="1:5">
+      <c r="A159" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B124">
+      <c r="B159">
         <v>999999</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-      <c r="E124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" ht="15" customHeight="1" spans="1:5">
-      <c r="A125" s="2">
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" ht="15" customHeight="1" spans="1:5">
+      <c r="A160" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B125">
+      <c r="B160">
         <v>999999</v>
       </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" ht="15" customHeight="1" spans="1:5">
-      <c r="A126" s="2">
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" ht="15" customHeight="1" spans="1:5">
+      <c r="A161" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B126">
+      <c r="B161">
         <v>999999</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" ht="15" customHeight="1"/>
-    <row r="159" ht="12" customHeight="1"/>
-    <row r="160" ht="12" customHeight="1"/>
-    <row r="161" ht="12" customHeight="1"/>
-    <row r="162" ht="12" customHeight="1"/>
-    <row r="163" ht="12" customHeight="1"/>
-    <row r="164" ht="12" customHeight="1"/>
-    <row r="165" ht="12" customHeight="1"/>
-    <row r="166" ht="12" customHeight="1"/>
-    <row r="167" ht="12" customHeight="1"/>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="194" ht="12" customHeight="1"/>
+    <row r="195" ht="12" customHeight="1"/>
+    <row r="196" ht="12" customHeight="1"/>
+    <row r="197" ht="12" customHeight="1"/>
+    <row r="198" ht="12" customHeight="1"/>
+    <row r="199" ht="12" customHeight="1"/>
+    <row r="200" ht="12" customHeight="1"/>
+    <row r="201" ht="12" customHeight="1"/>
+    <row r="202" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="200">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,171 @@
     <t>Base</t>
   </si>
   <si>
+    <t>人类-基础</t>
+  </si>
+  <si>
+    <t>Hat/Hat_1</t>
+  </si>
+  <si>
+    <t>人类-帽子-1</t>
+  </si>
+  <si>
+    <t>Hair/Hair_1</t>
+  </si>
+  <si>
+    <t>人类-发型</t>
+  </si>
+  <si>
+    <t>Hair/Hair_2</t>
+  </si>
+  <si>
+    <t>Hair/Hair_3</t>
+  </si>
+  <si>
+    <t>Hair/Hair_4</t>
+  </si>
+  <si>
+    <t>人类-发型-飞机头</t>
+  </si>
+  <si>
+    <t>Body/Body_1</t>
+  </si>
+  <si>
+    <t>人类-身体-男</t>
+  </si>
+  <si>
+    <t>Body/Body_2</t>
+  </si>
+  <si>
+    <t>人类-身体-女</t>
+  </si>
+  <si>
+    <t>Eye/Eye_1</t>
+  </si>
+  <si>
+    <t>人类-眼睛</t>
+  </si>
+  <si>
+    <t>Eye/Eye_2</t>
+  </si>
+  <si>
+    <t>Eye/Eye_3</t>
+  </si>
+  <si>
+    <t>Eye/Eye_4</t>
+  </si>
+  <si>
+    <t>Eye/Eye_5</t>
+  </si>
+  <si>
+    <t>Eye/Eye_6</t>
+  </si>
+  <si>
+    <t>Eye/Eye_7</t>
+  </si>
+  <si>
+    <t>Eye/Eye_8</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_1</t>
+  </si>
+  <si>
+    <t>人类-嘴巴</t>
+  </si>
+  <si>
+    <t>Mouth/Mouth_2</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_1</t>
+  </si>
+  <si>
+    <t>人类-衣服-1</t>
+  </si>
+  <si>
+    <t>Pants/Pants_1</t>
+  </si>
+  <si>
+    <t>人类-裤子-1</t>
+  </si>
+  <si>
+    <t>ArmUp_L/Armor_ArmUp_L_1</t>
+  </si>
+  <si>
+    <t>人类-手臂上-左-1</t>
+  </si>
+  <si>
+    <t>ArmDown_L/Armor_ArmDown_L_1</t>
+  </si>
+  <si>
+    <t>人类-手臂下-左-1</t>
+  </si>
+  <si>
+    <t>Palm_L/Armor_Palm_L_1</t>
+  </si>
+  <si>
+    <t>人类-手掌-左-1</t>
+  </si>
+  <si>
+    <t>ArmUp_R/Armor_ArmUp_R_1</t>
+  </si>
+  <si>
+    <t>人类-手臂上-右-1</t>
+  </si>
+  <si>
+    <t>ArmDown_R/Armor_ArmDown_R_1</t>
+  </si>
+  <si>
+    <t>人类-手臂下-右-1</t>
+  </si>
+  <si>
+    <t>Palm_R/Armor_Palm_R_1</t>
+  </si>
+  <si>
+    <t>人类-手掌-右-1</t>
+  </si>
+  <si>
+    <t>Thigh_L/Armor_Thigh_L_1</t>
+  </si>
+  <si>
+    <t>人类-大腿-左-1</t>
+  </si>
+  <si>
+    <t>Calf_L/Armor_Calf_L_1</t>
+  </si>
+  <si>
+    <t>人类-小腿-左-1</t>
+  </si>
+  <si>
+    <t>Shoe_L/Shoe_L_1</t>
+  </si>
+  <si>
+    <t>人类-鞋子-左-1</t>
+  </si>
+  <si>
+    <t>Thigh_R/Armor_Thigh_R_1</t>
+  </si>
+  <si>
+    <t>人类-大腿-右-1</t>
+  </si>
+  <si>
+    <t>Calf_R/Armor_Calf_R_1</t>
+  </si>
+  <si>
+    <t>人类-小腿-右-1</t>
+  </si>
+  <si>
+    <t>Shoe_R/Shoe_R_1</t>
+  </si>
+  <si>
+    <t>人类-鞋子-右-1</t>
+  </si>
+  <si>
+    <t>Weapon_L/Weapon_1</t>
+  </si>
+  <si>
+    <t>人类-武器-普通刀</t>
+  </si>
+  <si>
     <t>骷髅-基础</t>
   </si>
   <si>
@@ -98,9 +263,6 @@
     <t>Head/Head_30</t>
   </si>
   <si>
-    <t>Hat/Hat_1</t>
-  </si>
-  <si>
     <t>骷髅-帽子-皇冠1</t>
   </si>
   <si>
@@ -122,168 +284,6 @@
     <t>骷髅-护甲肩部-中级皮甲</t>
   </si>
   <si>
-    <t>人类-基础</t>
-  </si>
-  <si>
-    <t>人类-帽子-1</t>
-  </si>
-  <si>
-    <t>Hair/Hair_1</t>
-  </si>
-  <si>
-    <t>人类-发型</t>
-  </si>
-  <si>
-    <t>Hair/Hair_2</t>
-  </si>
-  <si>
-    <t>Hair/Hair_3</t>
-  </si>
-  <si>
-    <t>Hair/Hair_4</t>
-  </si>
-  <si>
-    <t>人类-发型-飞机头</t>
-  </si>
-  <si>
-    <t>Body/Body_1</t>
-  </si>
-  <si>
-    <t>人类-身体-男</t>
-  </si>
-  <si>
-    <t>Body/Body_2</t>
-  </si>
-  <si>
-    <t>人类-身体-女</t>
-  </si>
-  <si>
-    <t>Eye/Eye_1</t>
-  </si>
-  <si>
-    <t>人类-眼睛</t>
-  </si>
-  <si>
-    <t>Eye/Eye_2</t>
-  </si>
-  <si>
-    <t>Eye/Eye_3</t>
-  </si>
-  <si>
-    <t>Eye/Eye_4</t>
-  </si>
-  <si>
-    <t>Eye/Eye_5</t>
-  </si>
-  <si>
-    <t>Eye/Eye_6</t>
-  </si>
-  <si>
-    <t>Eye/Eye_7</t>
-  </si>
-  <si>
-    <t>Eye/Eye_8</t>
-  </si>
-  <si>
-    <t>Mouth/Mouth_1</t>
-  </si>
-  <si>
-    <t>人类-嘴巴</t>
-  </si>
-  <si>
-    <t>Mouth/Mouth_2</t>
-  </si>
-  <si>
-    <t>Clothes/Clothes_1</t>
-  </si>
-  <si>
-    <t>人类-衣服-1</t>
-  </si>
-  <si>
-    <t>Pants/Pants_1</t>
-  </si>
-  <si>
-    <t>人类-裤子-1</t>
-  </si>
-  <si>
-    <t>ArmUp_L/Armor_ArmUp_L_1</t>
-  </si>
-  <si>
-    <t>人类-手臂上-左-1</t>
-  </si>
-  <si>
-    <t>ArmDown_L/Armor_ArmDown_L_1</t>
-  </si>
-  <si>
-    <t>人类-手臂下-左-1</t>
-  </si>
-  <si>
-    <t>Palm_L/Armor_Palm_L_1</t>
-  </si>
-  <si>
-    <t>人类-手掌-左-1</t>
-  </si>
-  <si>
-    <t>ArmUp_R/Armor_ArmUp_R_1</t>
-  </si>
-  <si>
-    <t>人类-手臂上-右-1</t>
-  </si>
-  <si>
-    <t>ArmDown_R/Armor_ArmDown_R_1</t>
-  </si>
-  <si>
-    <t>人类-手臂下-右-1</t>
-  </si>
-  <si>
-    <t>Palm_R/Armor_Palm_R_1</t>
-  </si>
-  <si>
-    <t>人类-手掌-右-1</t>
-  </si>
-  <si>
-    <t>Thigh_L/Armor_Thigh_L_1</t>
-  </si>
-  <si>
-    <t>人类-大腿-左-1</t>
-  </si>
-  <si>
-    <t>Calf_L/Armor_Calf_L_1</t>
-  </si>
-  <si>
-    <t>人类-小腿-左-1</t>
-  </si>
-  <si>
-    <t>Shoe_L/Shoe_L_1</t>
-  </si>
-  <si>
-    <t>人类-鞋子-左-1</t>
-  </si>
-  <si>
-    <t>Thigh_R/Armor_Thigh_R_1</t>
-  </si>
-  <si>
-    <t>人类-大腿-右-1</t>
-  </si>
-  <si>
-    <t>Calf_R/Armor_Calf_R_1</t>
-  </si>
-  <si>
-    <t>人类-小腿-右-1</t>
-  </si>
-  <si>
-    <t>Shoe_R/Shoe_R_1</t>
-  </si>
-  <si>
-    <t>人类-鞋子-右-1</t>
-  </si>
-  <si>
-    <t>Weapon_L/Weapon_1</t>
-  </si>
-  <si>
-    <t>人类-武器-普通刀</t>
-  </si>
-  <si>
     <t>身体-1</t>
   </si>
   <si>
@@ -524,10 +524,13 @@
     <t>Armor/Armor_1</t>
   </si>
   <si>
+    <t>衣服-1</t>
+  </si>
+  <si>
     <t>Armor/Armor_2</t>
   </si>
   <si>
-    <t>人类-衣服-2</t>
+    <t>衣服-2</t>
   </si>
   <si>
     <t>fennu</t>
@@ -1599,17 +1602,17 @@
   <sheetPr/>
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F98" sqref="F98"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="96.25" customWidth="1"/>
+    <col min="4" max="4" width="102.125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="42.875" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
@@ -1675,7 +1678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" customFormat="1" spans="1:6">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -1695,9 +1698,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" customFormat="1" spans="1:6">
       <c r="A5">
-        <v>1010010</v>
+        <v>1020001</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1706,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1715,9 +1718,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" customFormat="1" spans="1:6">
       <c r="A6">
-        <v>1010011</v>
+        <v>1030001</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1726,18 +1729,18 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
       <c r="A7">
-        <v>1010012</v>
+        <v>1030002</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1746,18 +1749,18 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
       <c r="A8">
-        <v>1010020</v>
+        <v>1030003</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1766,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
       <c r="A9">
-        <v>1010030</v>
+        <v>1030004</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1786,18 +1789,18 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
       <c r="A10">
-        <v>1020030</v>
+        <v>1040001</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1806,18 +1809,18 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
       <c r="A11">
-        <v>1120001</v>
+        <v>1040002</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1826,18 +1829,18 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
       <c r="A12">
-        <v>1200001</v>
+        <v>1050001</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1846,18 +1849,18 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
       <c r="A13">
-        <v>1200002</v>
+        <v>1050002</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1866,478 +1869,478 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" customFormat="1" spans="1:6">
       <c r="A14">
-        <v>2000001</v>
+        <v>1050003</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
       <c r="A15">
-        <v>2020001</v>
+        <v>1050004</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
       <c r="A16">
-        <v>2030001</v>
+        <v>1050005</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
       <c r="A17">
-        <v>2030002</v>
+        <v>1050006</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
       <c r="A18">
-        <v>2030003</v>
+        <v>1050007</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
       <c r="A19">
-        <v>2030004</v>
+        <v>1050008</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
       </c>
       <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:6">
+      <c r="A20">
+        <v>1060001</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>2040001</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="21" customFormat="1" spans="1:6">
+      <c r="A21">
+        <v>1060002</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>2040002</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:6">
+      <c r="A22">
+        <v>1100001</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>2050001</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23">
+        <v>1120001</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>2050002</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" customFormat="1" spans="1:6">
       <c r="A24">
-        <v>2050003</v>
+        <v>1200001</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
         <v>46</v>
       </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" customFormat="1" spans="1:6">
       <c r="A25">
-        <v>2050004</v>
+        <v>1210001</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:6">
       <c r="A26">
-        <v>2050005</v>
+        <v>1220001</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:6">
       <c r="A27">
-        <v>2050006</v>
+        <v>1250001</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:6">
       <c r="A28">
-        <v>2050007</v>
+        <v>1260001</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:6">
       <c r="A29">
-        <v>2050008</v>
+        <v>1270001</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:6">
       <c r="A30">
-        <v>2060001</v>
+        <v>1300001</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:6">
       <c r="A31">
-        <v>2060002</v>
+        <v>1310001</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:6">
       <c r="A32">
-        <v>2100001</v>
+        <v>1320001</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:6">
       <c r="A33">
-        <v>2120001</v>
+        <v>1350001</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:6">
       <c r="A34">
-        <v>2200001</v>
+        <v>1360001</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:6">
       <c r="A35">
-        <v>2210001</v>
+        <v>1370001</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:6">
       <c r="A36">
-        <v>2220001</v>
+        <v>1900001</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>2250001</v>
+        <v>2000001</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2346,18 +2349,18 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>2260001</v>
+        <v>2010010</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2366,18 +2369,18 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>2270001</v>
+        <v>2010011</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2386,18 +2389,18 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>2300001</v>
+        <v>2010012</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2406,18 +2409,18 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>2310001</v>
+        <v>2010020</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2426,18 +2429,18 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>73</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>2320001</v>
+        <v>2010030</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2446,18 +2449,18 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>2350001</v>
+        <v>2020030</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2466,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
         <v>78</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>2360001</v>
+        <v>2120001</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2486,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
         <v>79</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>2370001</v>
+        <v>2200001</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2506,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
         <v>81</v>
@@ -2517,7 +2520,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>2900001</v>
+        <v>2200002</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2526,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
         <v>83</v>
@@ -2549,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
         <v>85</v>
@@ -2569,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
         <v>86</v>
@@ -2749,7 +2752,7 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
         <v>103</v>
@@ -2769,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
         <v>104</v>
@@ -2789,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
         <v>105</v>
@@ -2809,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
         <v>106</v>
@@ -2829,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
         <v>107</v>
@@ -2849,7 +2852,7 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
         <v>108</v>
@@ -2869,7 +2872,7 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
         <v>109</v>
@@ -2889,7 +2892,7 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
         <v>110</v>
@@ -2949,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -3069,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
         <v>126</v>
@@ -3089,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
         <v>127</v>
@@ -3109,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
         <v>128</v>
@@ -3129,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
         <v>129</v>
@@ -3169,7 +3172,7 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
         <v>103</v>
@@ -3189,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
         <v>104</v>
@@ -3209,7 +3212,7 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
         <v>105</v>
@@ -3229,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
         <v>106</v>
@@ -3249,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
         <v>107</v>
@@ -3269,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
         <v>108</v>
@@ -3289,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
         <v>109</v>
@@ -3309,7 +3312,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
         <v>110</v>
@@ -3369,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
         <v>132</v>
@@ -3389,7 +3392,7 @@
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
         <v>133</v>
@@ -3710,7 +3713,7 @@
         <v>164</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3727,10 +3730,10 @@
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3747,7 +3750,7 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3764,7 +3767,7 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3781,7 +3784,7 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3798,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3815,7 +3818,7 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3832,7 +3835,7 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3849,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3866,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3883,7 +3886,7 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3900,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3917,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3934,7 +3937,7 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3951,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3968,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3985,7 +3988,7 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4002,7 +4005,7 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4019,7 +4022,7 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4036,7 +4039,7 @@
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4053,7 +4056,7 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4070,7 +4073,7 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4087,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4104,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4121,7 +4124,7 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4138,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4155,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4172,7 +4175,7 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4189,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4206,7 +4209,7 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4223,7 +4226,7 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4240,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4257,7 +4260,7 @@
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4274,7 +4277,7 @@
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4291,7 +4294,7 @@
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4308,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4325,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4342,7 +4345,7 @@
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" ht="12" customHeight="1" spans="1:5">
@@ -4359,7 +4362,7 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4376,7 +4379,7 @@
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4393,7 +4396,7 @@
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4410,7 +4413,7 @@
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4427,7 +4430,7 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4444,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4461,7 +4464,7 @@
         <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4478,7 +4481,7 @@
         <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4495,7 +4498,7 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1" spans="1:5">
@@ -4512,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1" spans="1:5">
@@ -4529,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:5">
@@ -4546,7 +4549,7 @@
         <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1" spans="1:5">
@@ -4563,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1" spans="1:5">
@@ -4580,7 +4583,7 @@
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" customFormat="1" ht="15" customHeight="1" spans="1:5">
@@ -4597,7 +4600,7 @@
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1" spans="1:5">
@@ -4614,7 +4617,7 @@
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1" spans="1:5">
@@ -4631,7 +4634,7 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1" spans="1:5">
@@ -4648,7 +4651,7 @@
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1" spans="1:5">
@@ -4665,7 +4668,7 @@
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$161</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1605,7 +1608,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4682,6 +4685,9 @@
     <row r="201" ht="12" customHeight="1"/>
     <row r="202" ht="12" customHeight="1"/>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F161" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A4:F36">
     <sortCondition ref="A4"/>
   </sortState>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -1608,7 +1608,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -68,7 +68,7 @@
     <t>展示类型0默认 1立绘</t>
   </si>
   <si>
-    <t>部件类型(0:基础类型 1:头 2:帽子 3：发型 4:身体 5:眼睛 6:嘴巴 7:角 10:衣服 12:裤子 20:左肩上 21:左肩下 22:左手手套 25:右肩上 26:右肩下 27:右手手套 30:左腿上 31:左腿下 32:鞋子左 35:右腿上 36:右腿下 37:鞋子右 90：武器左 91：武器右)</t>
+    <t>部件类型(0:基础类型 1:头 3：发型 4:身体 5:眼睛 6:嘴巴 7:角 8:翅膀 50:帽子 51:衣服 52:裤子 53:鞋子 54:腰带 55:鞋子 90：武器左 91：武器右)</t>
   </si>
   <si>
     <t>资源名字</t>
@@ -245,46 +245,121 @@
     <t>人类-武器-普通刀</t>
   </si>
   <si>
+    <t>Base/Base_1</t>
+  </si>
+  <si>
     <t>骷髅-基础</t>
   </si>
   <si>
+    <t>Head/Head_1</t>
+  </si>
+  <si>
+    <t>骷髅-头</t>
+  </si>
+  <si>
+    <t>Head/Head_2</t>
+  </si>
+  <si>
+    <t>Head/Head_3</t>
+  </si>
+  <si>
+    <t>Head/Head_4</t>
+  </si>
+  <si>
+    <t>Head/Head_5</t>
+  </si>
+  <si>
+    <t>Head/Head_6</t>
+  </si>
+  <si>
+    <t>Head/Head_7</t>
+  </si>
+  <si>
+    <t>Head/Head_8</t>
+  </si>
+  <si>
+    <t>Head/Head_9</t>
+  </si>
+  <si>
     <t>Head/Head_10</t>
   </si>
   <si>
-    <t>骷髅-头</t>
-  </si>
-  <si>
     <t>Head/Head_11</t>
   </si>
   <si>
     <t>Head/Head_12</t>
   </si>
   <si>
-    <t>Head/Head_20</t>
-  </si>
-  <si>
-    <t>Head/Head_30</t>
-  </si>
-  <si>
-    <t>骷髅-帽子-皇冠1</t>
-  </si>
-  <si>
-    <t>ArmorPants/Armor_Pants_1</t>
-  </si>
-  <si>
-    <t>骷髅-护甲裤子-初级皮裤</t>
-  </si>
-  <si>
-    <t>ArmorShoulder/Armor_Shoulder_1</t>
-  </si>
-  <si>
-    <t>骷髅-护甲肩部-初级皮甲</t>
-  </si>
-  <si>
-    <t>ArmorShoulder/Armor_Shoulder_2</t>
-  </si>
-  <si>
-    <t>骷髅-护甲肩部-中级皮甲</t>
+    <t>Head/Head_13</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-皇冠</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-肩甲1</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_2</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-肩甲2</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_3</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-破烂的肩甲</t>
+  </si>
+  <si>
+    <t>骷髅-裤子-破烂的腰带</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_1</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骨头</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_2</t>
+  </si>
+  <si>
+    <t>骷髅-武器-鸡腿</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_1</t>
+  </si>
+  <si>
+    <t>骷髅-武器-铁剑</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_2</t>
+  </si>
+  <si>
+    <t>骷髅-武器-火法杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_3</t>
+  </si>
+  <si>
+    <t>骷髅-武器-冰法杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_4</t>
+  </si>
+  <si>
+    <t>骷髅-武器-残破剑</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_11</t>
+  </si>
+  <si>
+    <t>骷髅-武器-绿宝石法杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_12</t>
+  </si>
+  <si>
+    <t>骷髅-武器-魔力法杖</t>
   </si>
   <si>
     <t>身体-1</t>
@@ -402,9 +477,6 @@
   </si>
   <si>
     <t>帽子-5</t>
-  </si>
-  <si>
-    <t>Base/Base_1</t>
   </si>
   <si>
     <t>基础1</t>
@@ -1603,21 +1675,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="102.125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2355,15 +2429,15 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>2010010</v>
+        <v>2010001</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2375,15 +2449,15 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>2010011</v>
+        <v>2010002</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2395,15 +2469,15 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
         <v>74</v>
-      </c>
-      <c r="F39" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>2010012</v>
+        <v>2010003</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2415,15 +2489,15 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>2010020</v>
+        <v>2010004</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -2435,15 +2509,15 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>2010030</v>
+        <v>2010005</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2455,15 +2529,15 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>2020030</v>
+        <v>2010006</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -2472,18 +2546,18 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>2120001</v>
+        <v>2010007</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2492,18 +2566,18 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>2200001</v>
+        <v>2010008</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2512,18 +2586,18 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>2200002</v>
+        <v>2010009</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2532,350 +2606,350 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>3040001</v>
+        <v>2010010</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>3040002</v>
-      </c>
-      <c r="B48" s="1">
-        <v>3</v>
+        <v>2010011</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>3040003</v>
+        <v>2010012</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>3040004</v>
-      </c>
-      <c r="B50" s="1">
-        <v>3</v>
+        <v>2010013</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>3040005</v>
+        <v>2500001</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>3040006</v>
-      </c>
-      <c r="B52" s="1">
-        <v>3</v>
+        <v>2510001</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>3040007</v>
+        <v>2510002</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>3040008</v>
-      </c>
-      <c r="B54" s="1">
-        <v>3</v>
+        <v>2510003</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>3040009</v>
+        <v>2520001</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>3040010</v>
-      </c>
-      <c r="B56" s="1">
-        <v>3</v>
+        <v>2900001</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>3050001</v>
+        <v>2900002</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>3050002</v>
-      </c>
-      <c r="B58" s="1">
-        <v>3</v>
+        <v>2910001</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>3050003</v>
+        <v>2910002</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>3050004</v>
-      </c>
-      <c r="B60" s="1">
-        <v>3</v>
+        <v>2910003</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>3050005</v>
+        <v>2910004</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>3050006</v>
-      </c>
-      <c r="B62" s="1">
-        <v>3</v>
+        <v>2910011</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>3050007</v>
+        <v>2910012</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s">
         <v>109</v>
@@ -2883,19 +2957,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>3050008</v>
-      </c>
-      <c r="B64" s="1">
+        <v>3040001</v>
+      </c>
+      <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
         <v>110</v>
@@ -2903,47 +2977,47 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>3050009</v>
-      </c>
-      <c r="B65">
+        <v>3040002</v>
+      </c>
+      <c r="B65" s="1">
         <v>3</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
         <v>111</v>
-      </c>
-      <c r="F65" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>3050010</v>
-      </c>
-      <c r="B66" s="1">
+        <v>3040003</v>
+      </c>
+      <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" t="s">
         <v>113</v>
-      </c>
-      <c r="F66" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>3020001</v>
+        <v>3040004</v>
       </c>
       <c r="B67" s="1">
         <v>3</v>
@@ -2952,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="F67" t="s">
         <v>115</v>
@@ -2963,7 +3037,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>3020002</v>
+        <v>3040005</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -2972,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
         <v>116</v>
@@ -2983,7 +3057,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>3020003</v>
+        <v>3040006</v>
       </c>
       <c r="B69" s="1">
         <v>3</v>
@@ -2992,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
         <v>118</v>
@@ -3003,7 +3077,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>3020004</v>
+        <v>3040007</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -3012,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
         <v>120</v>
@@ -3023,7 +3097,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>3020005</v>
+        <v>3040008</v>
       </c>
       <c r="B71" s="1">
         <v>3</v>
@@ -3032,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
         <v>122</v>
@@ -3043,16 +3117,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>4000001</v>
-      </c>
-      <c r="B72" s="1">
+        <v>3040009</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
         <v>4</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>124</v>
@@ -3061,101 +3135,101 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="1:6">
+    <row r="73" spans="1:6">
       <c r="A73">
-        <v>4030001</v>
-      </c>
-      <c r="B73">
+        <v>3040010</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
         <v>4</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>4030002</v>
-      </c>
-      <c r="B74" s="1">
-        <v>4</v>
+        <v>3050001</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>4030003</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
+        <v>3050002</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>4030004</v>
-      </c>
-      <c r="B76" s="1">
-        <v>4</v>
+        <v>3050003</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>4030005</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
+        <v>3050004</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
         <v>131</v>
@@ -3163,10 +3237,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>4050001</v>
-      </c>
-      <c r="B78" s="1">
-        <v>4</v>
+        <v>3050005</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3175,18 +3249,18 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>4050002</v>
+        <v>3050006</v>
       </c>
       <c r="B79" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3195,18 +3269,18 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>4050003</v>
-      </c>
-      <c r="B80" s="1">
-        <v>4</v>
+        <v>3050007</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3215,18 +3289,18 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>4050004</v>
+        <v>3050008</v>
       </c>
       <c r="B81" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3235,18 +3309,18 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>4050005</v>
-      </c>
-      <c r="B82" s="1">
-        <v>4</v>
+        <v>3050009</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3255,18 +3329,18 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>4050006</v>
+        <v>3050010</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3275,115 +3349,115 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>4050007</v>
+        <v>3020001</v>
       </c>
       <c r="B84" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>4050008</v>
-      </c>
-      <c r="B85" s="1">
-        <v>4</v>
+        <v>3020002</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>4050009</v>
+        <v>3020003</v>
       </c>
       <c r="B86" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>4050010</v>
-      </c>
-      <c r="B87" s="1">
-        <v>4</v>
+        <v>3020004</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>4060001</v>
+        <v>3020005</v>
       </c>
       <c r="B88" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>4060002</v>
+        <v>4000001</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
@@ -3392,38 +3466,38 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:6">
       <c r="A90">
-        <v>4060003</v>
-      </c>
-      <c r="B90" s="1">
+        <v>4030001</v>
+      </c>
+      <c r="B90">
         <v>4</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>4060004</v>
+        <v>4030002</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
@@ -3432,38 +3506,38 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>4060005</v>
-      </c>
-      <c r="B92" s="1">
+        <v>4030003</v>
+      </c>
+      <c r="B92">
         <v>4</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>4060006</v>
+        <v>4030004</v>
       </c>
       <c r="B93" s="1">
         <v>4</v>
@@ -3472,38 +3546,38 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>4060007</v>
-      </c>
-      <c r="B94" s="1">
+        <v>4030005</v>
+      </c>
+      <c r="B94">
         <v>4</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F94" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>4060008</v>
+        <v>4050001</v>
       </c>
       <c r="B95" s="1">
         <v>4</v>
@@ -3512,18 +3586,18 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>4060009</v>
+        <v>4050002</v>
       </c>
       <c r="B96" s="1">
         <v>4</v>
@@ -3532,18 +3606,18 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>4060010</v>
+        <v>4050003</v>
       </c>
       <c r="B97" s="1">
         <v>4</v>
@@ -3552,18 +3626,18 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
-        <v>4070001</v>
+        <v>4050004</v>
       </c>
       <c r="B98" s="1">
         <v>4</v>
@@ -3572,18 +3646,18 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
-        <v>4070002</v>
+        <v>4050005</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -3592,18 +3666,18 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
-        <v>4070003</v>
+        <v>4050006</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -3612,18 +3686,18 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" spans="1:6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
-        <v>4070004</v>
+        <v>4050007</v>
       </c>
       <c r="B101" s="1">
         <v>4</v>
@@ -3632,18 +3706,18 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" spans="1:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
-        <v>4070005</v>
+        <v>4050008</v>
       </c>
       <c r="B102" s="1">
         <v>4</v>
@@ -3652,18 +3726,18 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
-        <v>4080001</v>
+        <v>4050009</v>
       </c>
       <c r="B103" s="1">
         <v>4</v>
@@ -3672,56 +3746,58 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F103" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
-        <v>4080002</v>
-      </c>
-      <c r="B104" s="1"/>
+        <v>4050010</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4</v>
+      </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
-        <v>4100001</v>
-      </c>
-      <c r="B105">
+        <v>4060001</v>
+      </c>
+      <c r="B105" s="1">
         <v>4</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>4100002</v>
+        <v>4060002</v>
       </c>
       <c r="B106" s="1">
         <v>4</v>
@@ -3730,396 +3806,445 @@
         <v>0</v>
       </c>
       <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>4060003</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>4060004</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>160</v>
+      </c>
+      <c r="F108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>4060005</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
+        <v>162</v>
+      </c>
+      <c r="F109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>4060006</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>164</v>
+      </c>
+      <c r="F110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>4060007</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>166</v>
+      </c>
+      <c r="F111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>4060008</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>168</v>
+      </c>
+      <c r="F112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>4060009</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>4060010</v>
+      </c>
+      <c r="B114" s="1">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>172</v>
+      </c>
+      <c r="F114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" customFormat="1" spans="1:6">
+      <c r="A115">
+        <v>4070001</v>
+      </c>
+      <c r="B115" s="1">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>174</v>
+      </c>
+      <c r="F115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="1:6">
+      <c r="A116">
+        <v>4070002</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>176</v>
+      </c>
+      <c r="F116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" spans="1:6">
+      <c r="A117">
+        <v>4070003</v>
+      </c>
+      <c r="B117" s="1">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>178</v>
+      </c>
+      <c r="F117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:6">
+      <c r="A118">
+        <v>4070004</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>180</v>
+      </c>
+      <c r="F118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:6">
+      <c r="A119">
+        <v>4070005</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>182</v>
+      </c>
+      <c r="F119" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:6">
+      <c r="A120">
+        <v>4080001</v>
+      </c>
+      <c r="B120" s="1">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>184</v>
+      </c>
+      <c r="F120" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:6">
+      <c r="A121">
+        <v>4080002</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>186</v>
+      </c>
+      <c r="F121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:6">
+      <c r="A122">
+        <v>4100001</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
         <v>10</v>
       </c>
-      <c r="E106" t="s">
-        <v>166</v>
-      </c>
-      <c r="F106" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="2">
+      <c r="E122" t="s">
+        <v>188</v>
+      </c>
+      <c r="F122" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>4100002</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>190</v>
+      </c>
+      <c r="F123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
         <v>99995005001</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B124" s="2">
         <v>999950</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="2">
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
         <v>99995005002</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B125" s="2">
         <v>999950</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="2">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
         <v>99995005003</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B126" s="2">
         <v>999950</v>
       </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-      <c r="E109" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="2">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
         <v>99995005004</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B127" s="2">
         <v>999950</v>
       </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-      <c r="E110" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="2">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
         <v>99995005005</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B128" s="2">
         <v>999950</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-      <c r="E111" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="2">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
         <v>99994705001</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B129" s="2">
         <v>999947</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>5</v>
-      </c>
-      <c r="E112" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2">
-        <v>99994705002</v>
-      </c>
-      <c r="B113" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="2">
-        <v>99994705003</v>
-      </c>
-      <c r="B114" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-      <c r="E114" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="2">
-        <v>99994705004</v>
-      </c>
-      <c r="B115" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-      <c r="E115" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B116">
-        <v>999961</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="2">
-        <v>99996105002</v>
-      </c>
-      <c r="B117">
-        <v>999961</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="2">
-        <v>99996105003</v>
-      </c>
-      <c r="B118">
-        <v>999961</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="2">
-        <v>99996105004</v>
-      </c>
-      <c r="B119">
-        <v>999961</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2">
-        <v>99996105005</v>
-      </c>
-      <c r="B120">
-        <v>999961</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <v>99996805001</v>
-      </c>
-      <c r="B121" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <v>99996805002</v>
-      </c>
-      <c r="B122" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-      <c r="E122" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
-        <v>99996805003</v>
-      </c>
-      <c r="B123" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-      <c r="E123" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124">
-        <v>99996805004</v>
-      </c>
-      <c r="B124" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-      <c r="E124" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125">
-        <v>99997905001</v>
-      </c>
-      <c r="B125">
-        <v>999979</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126">
-        <v>99997905002</v>
-      </c>
-      <c r="B126">
-        <v>999979</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127">
-        <v>99997905003</v>
-      </c>
-      <c r="B127">
-        <v>999979</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-      <c r="E127" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128">
-        <v>99997905004</v>
-      </c>
-      <c r="B128">
-        <v>999979</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129">
-        <v>99997905005</v>
-      </c>
-      <c r="B129">
-        <v>999979</v>
-      </c>
       <c r="C129">
         <v>1</v>
       </c>
@@ -4127,15 +4252,15 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>99997405001</v>
+        <v>99994705002</v>
       </c>
       <c r="B130" s="2">
-        <v>999974</v>
+        <v>999947</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -4144,15 +4269,15 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>99997405002</v>
+        <v>99994705003</v>
       </c>
       <c r="B131" s="2">
-        <v>999974</v>
+        <v>999947</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -4161,15 +4286,15 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>99997405003</v>
+        <v>99994705004</v>
       </c>
       <c r="B132" s="2">
-        <v>999974</v>
+        <v>999947</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -4178,15 +4303,15 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>99997405004</v>
-      </c>
-      <c r="B133" s="2">
-        <v>999974</v>
+        <v>99996105001</v>
+      </c>
+      <c r="B133">
+        <v>999961</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -4195,15 +4320,15 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134">
-        <v>99998605001</v>
+      <c r="A134" s="2">
+        <v>99996105002</v>
       </c>
       <c r="B134">
-        <v>999986</v>
+        <v>999961</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -4212,15 +4337,15 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135">
-        <v>99998605002</v>
+      <c r="A135" s="2">
+        <v>99996105003</v>
       </c>
       <c r="B135">
-        <v>999986</v>
+        <v>999961</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -4229,15 +4354,15 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136">
-        <v>99998605003</v>
+      <c r="A136" s="2">
+        <v>99996105004</v>
       </c>
       <c r="B136">
-        <v>999986</v>
+        <v>999961</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -4246,15 +4371,15 @@
         <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137">
-        <v>99998605004</v>
+      <c r="A137" s="2">
+        <v>99996105005</v>
       </c>
       <c r="B137">
-        <v>999986</v>
+        <v>999961</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -4263,15 +4388,15 @@
         <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>99998705001</v>
-      </c>
-      <c r="B138">
-        <v>999987</v>
+        <v>99996805001</v>
+      </c>
+      <c r="B138" s="2">
+        <v>999968</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -4280,15 +4405,15 @@
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>99998705002</v>
-      </c>
-      <c r="B139">
-        <v>999987</v>
+        <v>99996805002</v>
+      </c>
+      <c r="B139" s="2">
+        <v>999968</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -4297,15 +4422,15 @@
         <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>99998705003</v>
-      </c>
-      <c r="B140">
-        <v>999987</v>
+        <v>99996805003</v>
+      </c>
+      <c r="B140" s="2">
+        <v>999968</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -4314,15 +4439,15 @@
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>99998705004</v>
-      </c>
-      <c r="B141">
-        <v>999987</v>
+        <v>99996805004</v>
+      </c>
+      <c r="B141" s="2">
+        <v>999968</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -4331,15 +4456,15 @@
         <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>99998705005</v>
+        <v>99997905001</v>
       </c>
       <c r="B142">
-        <v>999988</v>
+        <v>999979</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -4348,15 +4473,15 @@
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="143" ht="12" customHeight="1" spans="1:5">
-      <c r="A143" s="2">
-        <v>99998905001</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>99997905002</v>
       </c>
       <c r="B143">
-        <v>999989</v>
+        <v>999979</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -4365,15 +4490,15 @@
         <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="2">
-        <v>99998905002</v>
+      <c r="A144">
+        <v>99997905003</v>
       </c>
       <c r="B144">
-        <v>999989</v>
+        <v>999979</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -4382,15 +4507,15 @@
         <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="2">
-        <v>99998905003</v>
+      <c r="A145">
+        <v>99997905004</v>
       </c>
       <c r="B145">
-        <v>999989</v>
+        <v>999979</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -4399,15 +4524,15 @@
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="2">
-        <v>99998905004</v>
+      <c r="A146">
+        <v>99997905005</v>
       </c>
       <c r="B146">
-        <v>999989</v>
+        <v>999979</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -4416,15 +4541,15 @@
         <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>99999505001</v>
+        <v>99997405001</v>
       </c>
       <c r="B147" s="2">
-        <v>999995</v>
+        <v>999974</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4433,15 +4558,15 @@
         <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>99999505002</v>
+        <v>99997405002</v>
       </c>
       <c r="B148" s="2">
-        <v>999995</v>
+        <v>999974</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4450,15 +4575,15 @@
         <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>99999505003</v>
+        <v>99997405003</v>
       </c>
       <c r="B149" s="2">
-        <v>999995</v>
+        <v>999974</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4472,10 +4597,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>99999505004</v>
+        <v>99997405004</v>
       </c>
       <c r="B150" s="2">
-        <v>999995</v>
+        <v>999974</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4484,15 +4609,15 @@
         <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="2">
-        <v>99999505005</v>
-      </c>
-      <c r="B151" s="2">
-        <v>999995</v>
+      <c r="A151">
+        <v>99998605001</v>
+      </c>
+      <c r="B151">
+        <v>999986</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -4501,15 +4626,15 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" ht="15" customHeight="1" spans="1:5">
-      <c r="A152" s="2">
-        <v>99999605001</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>99998605002</v>
       </c>
       <c r="B152">
-        <v>999996</v>
+        <v>999986</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -4518,15 +4643,15 @@
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" ht="15" customHeight="1" spans="1:5">
-      <c r="A153" s="2">
-        <v>99999605002</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>99998605003</v>
       </c>
       <c r="B153">
-        <v>999996</v>
+        <v>999986</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4535,15 +4660,15 @@
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" ht="15" customHeight="1" spans="1:5">
-      <c r="A154" s="2">
-        <v>99999605003</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>99998605004</v>
       </c>
       <c r="B154">
-        <v>999996</v>
+        <v>999986</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4552,15 +4677,15 @@
         <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" ht="15" customHeight="1" spans="1:5">
-      <c r="A155" s="2">
-        <v>99999605004</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>99998705001</v>
       </c>
       <c r="B155">
-        <v>999996</v>
+        <v>999987</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -4572,120 +4697,409 @@
         <v>197</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1" spans="1:5">
-      <c r="A156" s="2">
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>99998705002</v>
+      </c>
+      <c r="B156">
+        <v>999987</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>99998705003</v>
+      </c>
+      <c r="B157">
+        <v>999987</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>99998705004</v>
+      </c>
+      <c r="B158">
+        <v>999987</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>99998705005</v>
+      </c>
+      <c r="B159">
+        <v>999988</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" ht="12" customHeight="1" spans="1:5">
+      <c r="A160" s="2">
+        <v>99998905001</v>
+      </c>
+      <c r="B160">
+        <v>999989</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>99998905002</v>
+      </c>
+      <c r="B161">
+        <v>999989</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>99998905003</v>
+      </c>
+      <c r="B162">
+        <v>999989</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>99998905004</v>
+      </c>
+      <c r="B163">
+        <v>999989</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>99999505001</v>
+      </c>
+      <c r="B164" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>99999505002</v>
+      </c>
+      <c r="B165" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>99999505003</v>
+      </c>
+      <c r="B166" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>99999505004</v>
+      </c>
+      <c r="B167" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>99999505005</v>
+      </c>
+      <c r="B168" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" ht="15" customHeight="1" spans="1:5">
+      <c r="A169" s="2">
+        <v>99999605001</v>
+      </c>
+      <c r="B169">
+        <v>999996</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="170" ht="15" customHeight="1" spans="1:5">
+      <c r="A170" s="2">
+        <v>99999605002</v>
+      </c>
+      <c r="B170">
+        <v>999996</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" ht="15" customHeight="1" spans="1:5">
+      <c r="A171" s="2">
+        <v>99999605003</v>
+      </c>
+      <c r="B171">
+        <v>999996</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" ht="15" customHeight="1" spans="1:5">
+      <c r="A172" s="2">
+        <v>99999605004</v>
+      </c>
+      <c r="B172">
+        <v>999996</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" ht="15" customHeight="1" spans="1:5">
+      <c r="A173" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B156">
+      <c r="B173">
         <v>999996</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A157" s="2">
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A174" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B157">
+      <c r="B174">
         <v>999999</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>5</v>
-      </c>
-      <c r="E157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" ht="15" customHeight="1" spans="1:5">
-      <c r="A158" s="2">
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" ht="15" customHeight="1" spans="1:5">
+      <c r="A175" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B158">
+      <c r="B175">
         <v>999999</v>
       </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>5</v>
-      </c>
-      <c r="E158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" ht="15" customHeight="1" spans="1:5">
-      <c r="A159" s="2">
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" ht="15" customHeight="1" spans="1:5">
+      <c r="A176" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B159">
+      <c r="B176">
         <v>999999</v>
       </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-      <c r="E159" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" ht="15" customHeight="1" spans="1:5">
-      <c r="A160" s="2">
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" ht="15" customHeight="1" spans="1:5">
+      <c r="A177" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B160">
+      <c r="B177">
         <v>999999</v>
       </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-      <c r="E160" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" ht="15" customHeight="1" spans="1:5">
-      <c r="A161" s="2">
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" ht="15" customHeight="1" spans="1:5">
+      <c r="A178" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B161">
+      <c r="B178">
         <v>999999</v>
       </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>5</v>
-      </c>
-      <c r="E161" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="162" ht="15" customHeight="1"/>
-    <row r="194" ht="12" customHeight="1"/>
-    <row r="195" ht="12" customHeight="1"/>
-    <row r="196" ht="12" customHeight="1"/>
-    <row r="197" ht="12" customHeight="1"/>
-    <row r="198" ht="12" customHeight="1"/>
-    <row r="199" ht="12" customHeight="1"/>
-    <row r="200" ht="12" customHeight="1"/>
-    <row r="201" ht="12" customHeight="1"/>
-    <row r="202" ht="12" customHeight="1"/>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" ht="15" customHeight="1"/>
+    <row r="211" ht="12" customHeight="1"/>
+    <row r="212" ht="12" customHeight="1"/>
+    <row r="213" ht="12" customHeight="1"/>
+    <row r="214" ht="12" customHeight="1"/>
+    <row r="215" ht="12" customHeight="1"/>
+    <row r="216" ht="12" customHeight="1"/>
+    <row r="217" ht="12" customHeight="1"/>
+    <row r="218" ht="12" customHeight="1"/>
+    <row r="219" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F161" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F178" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -1678,11 +1678,11 @@
   <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4099,7 +4099,9 @@
       <c r="A121">
         <v>4080002</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="1">
+        <v>4</v>
+      </c>
       <c r="C121">
         <v>0</v>
       </c>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
   <si>
     <t>id</t>
   </si>
@@ -296,22 +296,130 @@
     <t>骷髅-帽子-皇冠</t>
   </si>
   <si>
-    <t>骷髅-衣服-肩甲1</t>
+    <t>Hat/Hat_2</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-铁制头盔</t>
+  </si>
+  <si>
+    <t>Hat/Hat_3</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-异域头巾</t>
+  </si>
+  <si>
+    <t>Hat/Hat_4</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-魔力帽</t>
+  </si>
+  <si>
+    <t>Hat/Hat_5</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-草帽</t>
+  </si>
+  <si>
+    <t>Hat/Hat_6</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-恶魔头颅</t>
+  </si>
+  <si>
+    <t>Hat/Hat_7</t>
+  </si>
+  <si>
+    <t>骷髅-帽子-魔王之角</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-质朴肩甲</t>
   </si>
   <si>
     <t>Clothes/Clothes_2</t>
   </si>
   <si>
-    <t>骷髅-衣服-肩甲2</t>
+    <t>骷髅-衣服-加长肩甲</t>
   </si>
   <si>
     <t>Clothes/Clothes_3</t>
   </si>
   <si>
-    <t>骷髅-衣服-破烂的肩甲</t>
-  </si>
-  <si>
-    <t>骷髅-裤子-破烂的腰带</t>
+    <t>骷髅-衣服-破烂肩甲</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_4</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-丝绸披肩</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_5</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-魔法披肩</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_6</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-麻布衣</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_7</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-蔚蓝铠甲</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_8</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-破烂法衣</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_9</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-琥珀铠甲</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_10</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-远古铠甲</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_11</t>
+  </si>
+  <si>
+    <t>骷髅-衣服-深红战衣</t>
+  </si>
+  <si>
+    <t>骷髅-裤子-破烂腰带</t>
+  </si>
+  <si>
+    <t>Pants/Pants_2</t>
+  </si>
+  <si>
+    <t>骷髅-裤子-蔚蓝腰带</t>
+  </si>
+  <si>
+    <t>Pants/Pants_3</t>
+  </si>
+  <si>
+    <t>骷髅-裤子-破烂法裤</t>
+  </si>
+  <si>
+    <t>Pants/Pants_4</t>
+  </si>
+  <si>
+    <t>骷髅-裤子-琥珀腰带</t>
+  </si>
+  <si>
+    <t>Pants/Pants_5</t>
+  </si>
+  <si>
+    <t>骷髅-裤子-深红腰带</t>
   </si>
   <si>
     <t>Weapon/Weapon_L_1</t>
@@ -326,6 +434,54 @@
     <t>骷髅-武器-鸡腿</t>
   </si>
   <si>
+    <t>Weapon/Weapon_L_3</t>
+  </si>
+  <si>
+    <t>骷髅-武器-无用之书</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_4</t>
+  </si>
+  <si>
+    <t>骷髅-武器-木制圆盾</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_5</t>
+  </si>
+  <si>
+    <t>骷髅-武器-飞镖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_6</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骷髅头</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_7</t>
+  </si>
+  <si>
+    <t>骷髅-武器-欧里给</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_8</t>
+  </si>
+  <si>
+    <t>骷髅-武器-苹果</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_9</t>
+  </si>
+  <si>
+    <t>骷髅-武器-28年拉菲</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_L_10</t>
+  </si>
+  <si>
+    <t>骷髅-武器-金币</t>
+  </si>
+  <si>
     <t>Weapon/Weapon_R_1</t>
   </si>
   <si>
@@ -455,25 +611,13 @@
     <t>帽子-1</t>
   </si>
   <si>
-    <t>Hat/Hat_2</t>
-  </si>
-  <si>
     <t>帽子-2</t>
   </si>
   <si>
-    <t>Hat/Hat_3</t>
-  </si>
-  <si>
     <t>帽子-3</t>
   </si>
   <si>
-    <t>Hat/Hat_4</t>
-  </si>
-  <si>
     <t>帽子-4</t>
-  </si>
-  <si>
-    <t>Hat/Hat_5</t>
   </si>
   <si>
     <t>帽子-5</t>
@@ -1675,14 +1819,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:A63"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2717,7 +2861,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>2510001</v>
+        <v>2500002</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2726,18 +2870,18 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>2510002</v>
+        <v>2500003</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2746,18 +2890,18 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>2510003</v>
+        <v>2500004</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2766,18 +2910,18 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>2520001</v>
+        <v>2500005</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -2786,18 +2930,18 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>2900001</v>
+        <v>2500006</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -2806,18 +2950,18 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>2900002</v>
+        <v>2500007</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2826,18 +2970,18 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>2910001</v>
+        <v>2510001</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2846,18 +2990,18 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>2910002</v>
+        <v>2510002</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -2866,18 +3010,18 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>2910003</v>
+        <v>2510003</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -2886,18 +3030,18 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>2910004</v>
+        <v>2510004</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2906,18 +3050,18 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>2910011</v>
+        <v>2510005</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2926,18 +3070,18 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>2910012</v>
+        <v>2510006</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -2946,741 +3090,741 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>3040001</v>
+        <v>2510007</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>3040002</v>
-      </c>
-      <c r="B65" s="1">
-        <v>3</v>
+        <v>2510008</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>3040003</v>
+        <v>2510009</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>3040004</v>
-      </c>
-      <c r="B67" s="1">
-        <v>3</v>
+        <v>2510010</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>3040005</v>
+        <v>2510011</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>3040006</v>
-      </c>
-      <c r="B69" s="1">
-        <v>3</v>
+        <v>2520001</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>3040007</v>
+        <v>2520002</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>3040008</v>
-      </c>
-      <c r="B71" s="1">
-        <v>3</v>
+        <v>2520003</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>3040009</v>
+        <v>2520004</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>3040010</v>
-      </c>
-      <c r="B73" s="1">
-        <v>3</v>
+        <v>2520005</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>3050001</v>
+        <v>2900001</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="F74" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>3050002</v>
-      </c>
-      <c r="B75" s="1">
-        <v>3</v>
+        <v>2900002</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="F75" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>3050003</v>
+        <v>2900003</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="F76" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>3050004</v>
-      </c>
-      <c r="B77" s="1">
-        <v>3</v>
+        <v>2900004</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>3050005</v>
+        <v>2900005</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>3050006</v>
-      </c>
-      <c r="B79" s="1">
-        <v>3</v>
+        <v>2900006</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>3050007</v>
+        <v>2900007</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>3050008</v>
-      </c>
-      <c r="B81" s="1">
-        <v>3</v>
+        <v>2900008</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="F81" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>3050009</v>
+        <v>2900009</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>3050010</v>
-      </c>
-      <c r="B83" s="1">
-        <v>3</v>
+        <v>2900010</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>3020001</v>
-      </c>
-      <c r="B84" s="1">
-        <v>3</v>
+        <v>2910001</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>3020002</v>
+        <v>2910002</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>3020003</v>
-      </c>
-      <c r="B86" s="1">
-        <v>3</v>
+        <v>2910003</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>3020004</v>
+        <v>2910004</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>3020005</v>
-      </c>
-      <c r="B88" s="1">
-        <v>3</v>
+        <v>2910011</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>4000001</v>
-      </c>
-      <c r="B89" s="1">
+        <v>2910012</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>91</v>
+      </c>
+      <c r="E89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>3040001</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
         <v>4</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>71</v>
-      </c>
-      <c r="F89" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:6">
-      <c r="A90">
-        <v>4030001</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
       <c r="E90" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>4030002</v>
+        <v>3040002</v>
       </c>
       <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
         <v>4</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F91" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>4030003</v>
+        <v>3040003</v>
       </c>
       <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
         <v>4</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>3</v>
-      </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>4030004</v>
+        <v>3040004</v>
       </c>
       <c r="B93" s="1">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
         <v>4</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>4030005</v>
+        <v>3040005</v>
       </c>
       <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
         <v>4</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
       <c r="E94" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>4050001</v>
+        <v>3040006</v>
       </c>
       <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
         <v>4</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>5</v>
-      </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>4050002</v>
-      </c>
-      <c r="B96" s="1">
+        <v>3040007</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
         <v>4</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>4050003</v>
+        <v>3040008</v>
       </c>
       <c r="B97" s="1">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
         <v>4</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>4050004</v>
-      </c>
-      <c r="B98" s="1">
+        <v>3040009</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
         <v>4</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>4050005</v>
+        <v>3040010</v>
       </c>
       <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <v>4</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>4050006</v>
-      </c>
-      <c r="B100" s="1">
-        <v>4</v>
+        <v>3050001</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3689,18 +3833,18 @@
         <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>4050007</v>
+        <v>3050002</v>
       </c>
       <c r="B101" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3709,18 +3853,18 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>4050008</v>
-      </c>
-      <c r="B102" s="1">
-        <v>4</v>
+        <v>3050003</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3729,18 +3873,18 @@
         <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>4050009</v>
+        <v>3050004</v>
       </c>
       <c r="B103" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3749,18 +3893,18 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>4050010</v>
-      </c>
-      <c r="B104" s="1">
-        <v>4</v>
+        <v>3050005</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3769,215 +3913,215 @@
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>4060001</v>
+        <v>3050006</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>4060002</v>
-      </c>
-      <c r="B106" s="1">
-        <v>4</v>
+        <v>3050007</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>4060003</v>
+        <v>3050008</v>
       </c>
       <c r="B107" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>4060004</v>
-      </c>
-      <c r="B108" s="1">
-        <v>4</v>
+        <v>3050009</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="F108" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>4060005</v>
+        <v>3050010</v>
       </c>
       <c r="B109" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F109" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>4060006</v>
+        <v>3020001</v>
       </c>
       <c r="B110" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>4060007</v>
-      </c>
-      <c r="B111" s="1">
-        <v>4</v>
+        <v>3020002</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="F111" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>4060008</v>
+        <v>3020003</v>
       </c>
       <c r="B112" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="F112" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>4060009</v>
-      </c>
-      <c r="B113" s="1">
-        <v>4</v>
+        <v>3020004</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="F113" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>4060010</v>
+        <v>3020005</v>
       </c>
       <c r="B114" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="F114" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
-        <v>4070001</v>
+        <v>4000001</v>
       </c>
       <c r="B115" s="1">
         <v>4</v>
@@ -3986,38 +4130,38 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="F115" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:6">
       <c r="A116">
-        <v>4070002</v>
-      </c>
-      <c r="B116" s="1">
+        <v>4030001</v>
+      </c>
+      <c r="B116">
         <v>4</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="117" customFormat="1" spans="1:6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
-        <v>4070003</v>
+        <v>4030002</v>
       </c>
       <c r="B117" s="1">
         <v>4</v>
@@ -4026,38 +4170,38 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="F117" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="118" customFormat="1" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
-        <v>4070004</v>
-      </c>
-      <c r="B118" s="1">
+        <v>4030003</v>
+      </c>
+      <c r="B118">
         <v>4</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="119" customFormat="1" spans="1:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
-        <v>4070005</v>
+        <v>4030004</v>
       </c>
       <c r="B119" s="1">
         <v>4</v>
@@ -4066,38 +4210,38 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="120" customFormat="1" spans="1:6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
-        <v>4080001</v>
-      </c>
-      <c r="B120" s="1">
+        <v>4030005</v>
+      </c>
+      <c r="B120">
         <v>4</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F120" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="121" customFormat="1" spans="1:6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
-        <v>4080002</v>
+        <v>4050001</v>
       </c>
       <c r="B121" s="1">
         <v>4</v>
@@ -4106,38 +4250,38 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" customFormat="1" spans="1:6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
-        <v>4100001</v>
-      </c>
-      <c r="B122">
+        <v>4050002</v>
+      </c>
+      <c r="B122" s="1">
         <v>4</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4100002</v>
+        <v>4050003</v>
       </c>
       <c r="B123" s="1">
         <v>4</v>
@@ -4146,463 +4290,541 @@
         <v>0</v>
       </c>
       <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>4050004</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>4050005</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>4050006</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>4050007</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>4050008</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>4050009</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>188</v>
+      </c>
+      <c r="F129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>4050010</v>
+      </c>
+      <c r="B130" s="1">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>190</v>
+      </c>
+      <c r="F130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>4060001</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>4060002</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>4060003</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133" t="s">
+        <v>206</v>
+      </c>
+      <c r="F133" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>4060004</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134" t="s">
+        <v>208</v>
+      </c>
+      <c r="F134" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>4060005</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135" t="s">
+        <v>210</v>
+      </c>
+      <c r="F135" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>4060006</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136" t="s">
+        <v>212</v>
+      </c>
+      <c r="F136" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>4060007</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>214</v>
+      </c>
+      <c r="F137" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>4060008</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138" t="s">
+        <v>216</v>
+      </c>
+      <c r="F138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>4060009</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
+        <v>218</v>
+      </c>
+      <c r="F139" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>4060010</v>
+      </c>
+      <c r="B140" s="1">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140" t="s">
+        <v>220</v>
+      </c>
+      <c r="F140" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" customFormat="1" spans="1:6">
+      <c r="A141">
+        <v>4070001</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>222</v>
+      </c>
+      <c r="F141" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" customFormat="1" spans="1:6">
+      <c r="A142">
+        <v>4070002</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>224</v>
+      </c>
+      <c r="F142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" customFormat="1" spans="1:6">
+      <c r="A143">
+        <v>4070003</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>226</v>
+      </c>
+      <c r="F143" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="144" customFormat="1" spans="1:6">
+      <c r="A144">
+        <v>4070004</v>
+      </c>
+      <c r="B144" s="1">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>228</v>
+      </c>
+      <c r="F144" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" spans="1:6">
+      <c r="A145">
+        <v>4070005</v>
+      </c>
+      <c r="B145" s="1">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>230</v>
+      </c>
+      <c r="F145" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="1:6">
+      <c r="A146">
+        <v>4080001</v>
+      </c>
+      <c r="B146" s="1">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>232</v>
+      </c>
+      <c r="F146" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" spans="1:6">
+      <c r="A147">
+        <v>4080002</v>
+      </c>
+      <c r="B147" s="1">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>234</v>
+      </c>
+      <c r="F147" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="1:6">
+      <c r="A148">
+        <v>4100001</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
         <v>10</v>
       </c>
-      <c r="E123" t="s">
-        <v>190</v>
-      </c>
-      <c r="F123" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2">
-        <v>99995005001</v>
-      </c>
-      <c r="B124" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-      <c r="E124" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2">
-        <v>99995005002</v>
-      </c>
-      <c r="B125" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2">
-        <v>99995005003</v>
-      </c>
-      <c r="B126" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2">
-        <v>99995005004</v>
-      </c>
-      <c r="B127" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-      <c r="E127" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2">
-        <v>99995005005</v>
-      </c>
-      <c r="B128" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2">
-        <v>99994705001</v>
-      </c>
-      <c r="B129" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>5</v>
-      </c>
-      <c r="E129" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2">
-        <v>99994705002</v>
-      </c>
-      <c r="B130" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2">
-        <v>99994705003</v>
-      </c>
-      <c r="B131" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>5</v>
-      </c>
-      <c r="E131" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2">
-        <v>99994705004</v>
-      </c>
-      <c r="B132" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
-      <c r="E132" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B133">
-        <v>999961</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-      <c r="E133" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2">
-        <v>99996105002</v>
-      </c>
-      <c r="B134">
-        <v>999961</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-      <c r="E134" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2">
-        <v>99996105003</v>
-      </c>
-      <c r="B135">
-        <v>999961</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-      <c r="E135" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2">
-        <v>99996105004</v>
-      </c>
-      <c r="B136">
-        <v>999961</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>5</v>
-      </c>
-      <c r="E136" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="2">
-        <v>99996105005</v>
-      </c>
-      <c r="B137">
-        <v>999961</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>5</v>
-      </c>
-      <c r="E137" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138">
-        <v>99996805001</v>
-      </c>
-      <c r="B138" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>5</v>
-      </c>
-      <c r="E138" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139">
-        <v>99996805002</v>
-      </c>
-      <c r="B139" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>5</v>
-      </c>
-      <c r="E139" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140">
-        <v>99996805003</v>
-      </c>
-      <c r="B140" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-      <c r="E140" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141">
-        <v>99996805004</v>
-      </c>
-      <c r="B141" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>5</v>
-      </c>
-      <c r="E141" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
-        <v>99997905001</v>
-      </c>
-      <c r="B142">
-        <v>999979</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>5</v>
-      </c>
-      <c r="E142" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143">
-        <v>99997905002</v>
-      </c>
-      <c r="B143">
-        <v>999979</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>5</v>
-      </c>
-      <c r="E143" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144">
-        <v>99997905003</v>
-      </c>
-      <c r="B144">
-        <v>999979</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>5</v>
-      </c>
-      <c r="E144" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145">
-        <v>99997905004</v>
-      </c>
-      <c r="B145">
-        <v>999979</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>5</v>
-      </c>
-      <c r="E145" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146">
-        <v>99997905005</v>
-      </c>
-      <c r="B146">
-        <v>999979</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>5</v>
-      </c>
-      <c r="E146" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="2">
-        <v>99997405001</v>
-      </c>
-      <c r="B147" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>5</v>
-      </c>
-      <c r="E147" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="2">
-        <v>99997405002</v>
-      </c>
-      <c r="B148" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>5</v>
-      </c>
       <c r="E148" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="2">
-        <v>99997405003</v>
-      </c>
-      <c r="B149" s="2">
-        <v>999974</v>
+        <v>236</v>
+      </c>
+      <c r="F148" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>4100002</v>
+      </c>
+      <c r="B149" s="1">
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>196</v>
+        <v>238</v>
+      </c>
+      <c r="F149" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>99997405004</v>
+        <v>99995005001</v>
       </c>
       <c r="B150" s="2">
-        <v>999974</v>
+        <v>999950</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4611,15 +4833,15 @@
         <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151">
-        <v>99998605001</v>
-      </c>
-      <c r="B151">
-        <v>999986</v>
+      <c r="A151" s="2">
+        <v>99995005002</v>
+      </c>
+      <c r="B151" s="2">
+        <v>999950</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -4628,15 +4850,15 @@
         <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152">
-        <v>99998605002</v>
-      </c>
-      <c r="B152">
-        <v>999986</v>
+      <c r="A152" s="2">
+        <v>99995005003</v>
+      </c>
+      <c r="B152" s="2">
+        <v>999950</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -4645,15 +4867,15 @@
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153">
-        <v>99998605003</v>
-      </c>
-      <c r="B153">
-        <v>999986</v>
+      <c r="A153" s="2">
+        <v>99995005004</v>
+      </c>
+      <c r="B153" s="2">
+        <v>999950</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4662,15 +4884,15 @@
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154">
-        <v>99998605004</v>
-      </c>
-      <c r="B154">
-        <v>999986</v>
+      <c r="A154" s="2">
+        <v>99995005005</v>
+      </c>
+      <c r="B154" s="2">
+        <v>999950</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4679,15 +4901,15 @@
         <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155">
-        <v>99998705001</v>
-      </c>
-      <c r="B155">
-        <v>999987</v>
+      <c r="A155" s="2">
+        <v>99994705001</v>
+      </c>
+      <c r="B155" s="2">
+        <v>999947</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -4696,15 +4918,15 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156">
-        <v>99998705002</v>
-      </c>
-      <c r="B156">
-        <v>999987</v>
+      <c r="A156" s="2">
+        <v>99994705002</v>
+      </c>
+      <c r="B156" s="2">
+        <v>999947</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -4713,15 +4935,15 @@
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157">
-        <v>99998705003</v>
-      </c>
-      <c r="B157">
-        <v>999987</v>
+      <c r="A157" s="2">
+        <v>99994705003</v>
+      </c>
+      <c r="B157" s="2">
+        <v>999947</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -4730,15 +4952,15 @@
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158">
-        <v>99998705004</v>
-      </c>
-      <c r="B158">
-        <v>999987</v>
+      <c r="A158" s="2">
+        <v>99994705004</v>
+      </c>
+      <c r="B158" s="2">
+        <v>999947</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -4747,15 +4969,15 @@
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159">
-        <v>99998705005</v>
+      <c r="A159" s="2">
+        <v>99996105001</v>
       </c>
       <c r="B159">
-        <v>999988</v>
+        <v>999961</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -4764,15 +4986,15 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" ht="12" customHeight="1" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>99998905001</v>
+        <v>99996105002</v>
       </c>
       <c r="B160">
-        <v>999989</v>
+        <v>999961</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4781,15 +5003,15 @@
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>99998905002</v>
+        <v>99996105003</v>
       </c>
       <c r="B161">
-        <v>999989</v>
+        <v>999961</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4798,15 +5020,15 @@
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>99998905003</v>
+        <v>99996105004</v>
       </c>
       <c r="B162">
-        <v>999989</v>
+        <v>999961</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4815,293 +5037,735 @@
         <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
+        <v>99996105005</v>
+      </c>
+      <c r="B163">
+        <v>999961</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>99996805001</v>
+      </c>
+      <c r="B164" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>99996805002</v>
+      </c>
+      <c r="B165" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>99996805003</v>
+      </c>
+      <c r="B166" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>99996805004</v>
+      </c>
+      <c r="B167" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>99997905001</v>
+      </c>
+      <c r="B168">
+        <v>999979</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>99997905002</v>
+      </c>
+      <c r="B169">
+        <v>999979</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>99997905003</v>
+      </c>
+      <c r="B170">
+        <v>999979</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>99997905004</v>
+      </c>
+      <c r="B171">
+        <v>999979</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>99997905005</v>
+      </c>
+      <c r="B172">
+        <v>999979</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>99997405001</v>
+      </c>
+      <c r="B173" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>99997405002</v>
+      </c>
+      <c r="B174" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>99997405003</v>
+      </c>
+      <c r="B175" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B176" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>99998605001</v>
+      </c>
+      <c r="B177">
+        <v>999986</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>99998605002</v>
+      </c>
+      <c r="B178">
+        <v>999986</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>99998605003</v>
+      </c>
+      <c r="B179">
+        <v>999986</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>99998605004</v>
+      </c>
+      <c r="B180">
+        <v>999986</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>99998705001</v>
+      </c>
+      <c r="B181">
+        <v>999987</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>99998705002</v>
+      </c>
+      <c r="B182">
+        <v>999987</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>99998705003</v>
+      </c>
+      <c r="B183">
+        <v>999987</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>99998705004</v>
+      </c>
+      <c r="B184">
+        <v>999987</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>99998705005</v>
+      </c>
+      <c r="B185">
+        <v>999988</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" ht="12" customHeight="1" spans="1:5">
+      <c r="A186" s="2">
+        <v>99998905001</v>
+      </c>
+      <c r="B186">
+        <v>999989</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>99998905002</v>
+      </c>
+      <c r="B187">
+        <v>999989</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>99998905003</v>
+      </c>
+      <c r="B188">
+        <v>999989</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
         <v>99998905004</v>
       </c>
-      <c r="B163">
+      <c r="B189">
         <v>999989</v>
       </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="D163">
-        <v>5</v>
-      </c>
-      <c r="E163" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2">
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
         <v>99999505001</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B190" s="2">
         <v>999995</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="E164" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="2">
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
         <v>99999505002</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B191" s="2">
         <v>999995</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>5</v>
-      </c>
-      <c r="E165" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="2">
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
         <v>99999505003</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B192" s="2">
         <v>999995</v>
       </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-      <c r="E166" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="2">
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="E192" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
         <v>99999505004</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B193" s="2">
         <v>999995</v>
       </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-      <c r="E167" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="2">
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
         <v>99999505005</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B194" s="2">
         <v>999995</v>
       </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>5</v>
-      </c>
-      <c r="E168" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="169" ht="15" customHeight="1" spans="1:5">
-      <c r="A169" s="2">
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" ht="15" customHeight="1" spans="1:5">
+      <c r="A195" s="2">
         <v>99999605001</v>
       </c>
-      <c r="B169">
+      <c r="B195">
         <v>999996</v>
       </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <v>5</v>
-      </c>
-      <c r="E169" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="170" ht="15" customHeight="1" spans="1:5">
-      <c r="A170" s="2">
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="196" ht="15" customHeight="1" spans="1:5">
+      <c r="A196" s="2">
         <v>99999605002</v>
       </c>
-      <c r="B170">
+      <c r="B196">
         <v>999996</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-      <c r="E170" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="171" ht="15" customHeight="1" spans="1:5">
-      <c r="A171" s="2">
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+      <c r="E196" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="197" ht="15" customHeight="1" spans="1:5">
+      <c r="A197" s="2">
         <v>99999605003</v>
       </c>
-      <c r="B171">
+      <c r="B197">
         <v>999996</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>5</v>
-      </c>
-      <c r="E171" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" ht="15" customHeight="1" spans="1:5">
-      <c r="A172" s="2">
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="198" ht="15" customHeight="1" spans="1:5">
+      <c r="A198" s="2">
         <v>99999605004</v>
       </c>
-      <c r="B172">
+      <c r="B198">
         <v>999996</v>
       </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172">
-        <v>5</v>
-      </c>
-      <c r="E172" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="173" ht="15" customHeight="1" spans="1:5">
-      <c r="A173" s="2">
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="199" ht="15" customHeight="1" spans="1:5">
+      <c r="A199" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B173">
+      <c r="B199">
         <v>999996</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>5</v>
-      </c>
-      <c r="E173" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A174" s="2">
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A200" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B174">
+      <c r="B200">
         <v>999999</v>
       </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174">
-        <v>5</v>
-      </c>
-      <c r="E174" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" ht="15" customHeight="1" spans="1:5">
-      <c r="A175" s="2">
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" ht="15" customHeight="1" spans="1:5">
+      <c r="A201" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B175">
+      <c r="B201">
         <v>999999</v>
       </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175">
-        <v>5</v>
-      </c>
-      <c r="E175" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="176" ht="15" customHeight="1" spans="1:5">
-      <c r="A176" s="2">
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="202" ht="15" customHeight="1" spans="1:5">
+      <c r="A202" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B176">
+      <c r="B202">
         <v>999999</v>
       </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176">
-        <v>5</v>
-      </c>
-      <c r="E176" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="177" ht="15" customHeight="1" spans="1:5">
-      <c r="A177" s="2">
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>5</v>
+      </c>
+      <c r="E202" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="203" ht="15" customHeight="1" spans="1:5">
+      <c r="A203" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B177">
+      <c r="B203">
         <v>999999</v>
       </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177">
-        <v>5</v>
-      </c>
-      <c r="E177" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="178" ht="15" customHeight="1" spans="1:5">
-      <c r="A178" s="2">
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="204" ht="15" customHeight="1" spans="1:5">
+      <c r="A204" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B178">
+      <c r="B204">
         <v>999999</v>
       </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-      <c r="D178">
-        <v>5</v>
-      </c>
-      <c r="E178" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="179" ht="15" customHeight="1"/>
-    <row r="211" ht="12" customHeight="1"/>
-    <row r="212" ht="12" customHeight="1"/>
-    <row r="213" ht="12" customHeight="1"/>
-    <row r="214" ht="12" customHeight="1"/>
-    <row r="215" ht="12" customHeight="1"/>
-    <row r="216" ht="12" customHeight="1"/>
-    <row r="217" ht="12" customHeight="1"/>
-    <row r="218" ht="12" customHeight="1"/>
-    <row r="219" ht="12" customHeight="1"/>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="205" ht="15" customHeight="1"/>
+    <row r="237" ht="12" customHeight="1"/>
+    <row r="238" ht="12" customHeight="1"/>
+    <row r="239" ht="12" customHeight="1"/>
+    <row r="240" ht="12" customHeight="1"/>
+    <row r="241" ht="12" customHeight="1"/>
+    <row r="242" ht="12" customHeight="1"/>
+    <row r="243" ht="12" customHeight="1"/>
+    <row r="244" ht="12" customHeight="1"/>
+    <row r="245" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F178" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F204" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$218</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="300">
   <si>
     <t>id</t>
   </si>
@@ -506,6 +506,42 @@
     <t>骷髅-武器-残破剑</t>
   </si>
   <si>
+    <t>Weapon/Weapon_R_5</t>
+  </si>
+  <si>
+    <t>骷髅-武器-波斯短刀</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_6</t>
+  </si>
+  <si>
+    <t>骷髅-武器-骷髅剑</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_7</t>
+  </si>
+  <si>
+    <t>骷髅-武器-金色刺剑</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_8</t>
+  </si>
+  <si>
+    <t>骷髅-武器-铲子</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_9</t>
+  </si>
+  <si>
+    <t>骷髅-武器-冰之哀伤</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_10</t>
+  </si>
+  <si>
+    <t>骷髅-武器-火之高兴</t>
+  </si>
+  <si>
     <t>Weapon/Weapon_R_11</t>
   </si>
   <si>
@@ -516,6 +552,54 @@
   </si>
   <si>
     <t>骷髅-武器-魔力法杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_13</t>
+  </si>
+  <si>
+    <t>骷髅-武器-扫帚</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_14</t>
+  </si>
+  <si>
+    <t>骷髅-武器-星之法杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_15</t>
+  </si>
+  <si>
+    <t>骷髅-武器-百变法杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_16</t>
+  </si>
+  <si>
+    <t>骷髅-武器-琥珀法杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_17</t>
+  </si>
+  <si>
+    <t>骷髅-武器-爱之天使</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_18</t>
+  </si>
+  <si>
+    <t>骷髅-武器-星域之杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_19</t>
+  </si>
+  <si>
+    <t>骷髅-武器-结晶法杖</t>
+  </si>
+  <si>
+    <t>Weapon/Weapon_R_20</t>
+  </si>
+  <si>
+    <t>骷髅-武器-黑暗法杖</t>
   </si>
   <si>
     <t>身体-1</t>
@@ -1819,14 +1903,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3581,7 +3665,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>2910011</v>
+        <v>2910005</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -3601,7 +3685,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>2910012</v>
+        <v>2910006</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -3621,287 +3705,287 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>3040001</v>
+        <v>2910007</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>3040002</v>
-      </c>
-      <c r="B91" s="1">
-        <v>3</v>
+        <v>2910008</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>3040003</v>
+        <v>2910009</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>3040004</v>
-      </c>
-      <c r="B93" s="1">
-        <v>3</v>
+        <v>2910010</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>3040005</v>
+        <v>2910011</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>3040006</v>
-      </c>
-      <c r="B95" s="1">
-        <v>3</v>
+        <v>2910012</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>3040007</v>
+        <v>2910013</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>3040008</v>
-      </c>
-      <c r="B97" s="1">
-        <v>3</v>
+        <v>2910014</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E97" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>3040009</v>
+        <v>2910015</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E98" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>3040010</v>
-      </c>
-      <c r="B99" s="1">
-        <v>3</v>
+        <v>2910016</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E99" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>3050001</v>
+        <v>2910017</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>3050002</v>
-      </c>
-      <c r="B101" s="1">
-        <v>3</v>
+        <v>2910018</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="F101" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>3050003</v>
+        <v>2910019</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>3050004</v>
-      </c>
-      <c r="B103" s="1">
-        <v>3</v>
+        <v>2910020</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>3050005</v>
+        <v>3040001</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -3910,18 +3994,18 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>3050006</v>
+        <v>3040002</v>
       </c>
       <c r="B105" s="1">
         <v>3</v>
@@ -3930,18 +4014,18 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>3050007</v>
+        <v>3040003</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -3950,18 +4034,18 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="F106" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>3050008</v>
+        <v>3040004</v>
       </c>
       <c r="B107" s="1">
         <v>3</v>
@@ -3970,18 +4054,18 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>3050009</v>
+        <v>3040005</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -3990,18 +4074,18 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>3050010</v>
+        <v>3040006</v>
       </c>
       <c r="B109" s="1">
         <v>3</v>
@@ -4010,241 +4094,241 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>3020001</v>
-      </c>
-      <c r="B110" s="1">
+        <v>3040007</v>
+      </c>
+      <c r="B110">
         <v>3</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>3020002</v>
-      </c>
-      <c r="B111">
+        <v>3040008</v>
+      </c>
+      <c r="B111" s="1">
         <v>3</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>3020003</v>
-      </c>
-      <c r="B112" s="1">
+        <v>3040009</v>
+      </c>
+      <c r="B112">
         <v>3</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>3020004</v>
-      </c>
-      <c r="B113">
+        <v>3040010</v>
+      </c>
+      <c r="B113" s="1">
         <v>3</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>3020005</v>
-      </c>
-      <c r="B114" s="1">
+        <v>3050001</v>
+      </c>
+      <c r="B114">
         <v>3</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>4000001</v>
+        <v>3050002</v>
       </c>
       <c r="B115" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" customFormat="1" spans="1:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
-        <v>4030001</v>
+        <v>3050003</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>4030002</v>
+        <v>3050004</v>
       </c>
       <c r="B117" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4030003</v>
+        <v>3050005</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>4030004</v>
+        <v>3050006</v>
       </c>
       <c r="B119" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>4030005</v>
+        <v>3050007</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>4050001</v>
+        <v>3050008</v>
       </c>
       <c r="B121" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -4253,18 +4337,18 @@
         <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>4050002</v>
-      </c>
-      <c r="B122" s="1">
-        <v>4</v>
+        <v>3050009</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4273,18 +4357,18 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="F122" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4050003</v>
+        <v>3050010</v>
       </c>
       <c r="B123" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4293,115 +4377,115 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>4050004</v>
+        <v>3020001</v>
       </c>
       <c r="B124" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4050005</v>
-      </c>
-      <c r="B125" s="1">
-        <v>4</v>
+        <v>3020002</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4050006</v>
+        <v>3020003</v>
       </c>
       <c r="B126" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F126" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>4050007</v>
-      </c>
-      <c r="B127" s="1">
-        <v>4</v>
+        <v>3020004</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F127" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>4050008</v>
+        <v>3020005</v>
       </c>
       <c r="B128" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F128" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>4050009</v>
+        <v>4000001</v>
       </c>
       <c r="B129" s="1">
         <v>4</v>
@@ -4410,38 +4494,38 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="F129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="130" customFormat="1" spans="1:6">
       <c r="A130">
-        <v>4050010</v>
-      </c>
-      <c r="B130" s="1">
+        <v>4030001</v>
+      </c>
+      <c r="B130">
         <v>4</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="F130" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>4060001</v>
+        <v>4030002</v>
       </c>
       <c r="B131" s="1">
         <v>4</v>
@@ -4450,38 +4534,38 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F131" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>4060002</v>
-      </c>
-      <c r="B132" s="1">
+        <v>4030003</v>
+      </c>
+      <c r="B132">
         <v>4</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F132" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>4060003</v>
+        <v>4030004</v>
       </c>
       <c r="B133" s="1">
         <v>4</v>
@@ -4490,38 +4574,38 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>4060004</v>
-      </c>
-      <c r="B134" s="1">
+        <v>4030005</v>
+      </c>
+      <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F134" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>4060005</v>
+        <v>4050001</v>
       </c>
       <c r="B135" s="1">
         <v>4</v>
@@ -4530,18 +4614,18 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>4060006</v>
+        <v>4050002</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -4550,18 +4634,18 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>4060007</v>
+        <v>4050003</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -4570,18 +4654,18 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>4060008</v>
+        <v>4050004</v>
       </c>
       <c r="B138" s="1">
         <v>4</v>
@@ -4590,18 +4674,18 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>4060009</v>
+        <v>4050005</v>
       </c>
       <c r="B139" s="1">
         <v>4</v>
@@ -4610,18 +4694,18 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>4060010</v>
+        <v>4050006</v>
       </c>
       <c r="B140" s="1">
         <v>4</v>
@@ -4630,18 +4714,18 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="141" customFormat="1" spans="1:6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
-        <v>4070001</v>
+        <v>4050007</v>
       </c>
       <c r="B141" s="1">
         <v>4</v>
@@ -4650,18 +4734,18 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="142" customFormat="1" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
-        <v>4070002</v>
+        <v>4050008</v>
       </c>
       <c r="B142" s="1">
         <v>4</v>
@@ -4670,18 +4754,18 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="143" customFormat="1" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
-        <v>4070003</v>
+        <v>4050009</v>
       </c>
       <c r="B143" s="1">
         <v>4</v>
@@ -4690,18 +4774,18 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F143" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="144" customFormat="1" spans="1:6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
-        <v>4070004</v>
+        <v>4050010</v>
       </c>
       <c r="B144" s="1">
         <v>4</v>
@@ -4710,18 +4794,18 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F144" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="145" customFormat="1" spans="1:6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
-        <v>4070005</v>
+        <v>4060001</v>
       </c>
       <c r="B145" s="1">
         <v>4</v>
@@ -4730,18 +4814,18 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E145" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="146" customFormat="1" spans="1:6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
-        <v>4080001</v>
+        <v>4060002</v>
       </c>
       <c r="B146" s="1">
         <v>4</v>
@@ -4750,18 +4834,18 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="147" customFormat="1" spans="1:6">
+    <row r="147" spans="1:6">
       <c r="A147">
-        <v>4080002</v>
+        <v>4060003</v>
       </c>
       <c r="B147" s="1">
         <v>4</v>
@@ -4770,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E147" t="s">
         <v>234</v>
@@ -4779,18 +4863,18 @@
         <v>235</v>
       </c>
     </row>
-    <row r="148" customFormat="1" spans="1:6">
+    <row r="148" spans="1:6">
       <c r="A148">
-        <v>4100001</v>
-      </c>
-      <c r="B148">
+        <v>4060004</v>
+      </c>
+      <c r="B148" s="1">
         <v>4</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E148" t="s">
         <v>236</v>
@@ -4801,7 +4885,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>4100002</v>
+        <v>4060005</v>
       </c>
       <c r="B149" s="1">
         <v>4</v>
@@ -4810,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
         <v>238</v>
@@ -4819,387 +4903,429 @@
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2">
-        <v>99995005001</v>
-      </c>
-      <c r="B150" s="2">
-        <v>999950</v>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>4060006</v>
+      </c>
+      <c r="B150" s="1">
+        <v>4</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E150" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2">
+      <c r="F150" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>4060007</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>242</v>
+      </c>
+      <c r="F151" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>4060008</v>
+      </c>
+      <c r="B152" s="1">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" t="s">
+        <v>244</v>
+      </c>
+      <c r="F152" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>4060009</v>
+      </c>
+      <c r="B153" s="1">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>246</v>
+      </c>
+      <c r="F153" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>4060010</v>
+      </c>
+      <c r="B154" s="1">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>248</v>
+      </c>
+      <c r="F154" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="155" customFormat="1" spans="1:6">
+      <c r="A155">
+        <v>4070001</v>
+      </c>
+      <c r="B155" s="1">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>250</v>
+      </c>
+      <c r="F155" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="156" customFormat="1" spans="1:6">
+      <c r="A156">
+        <v>4070002</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>252</v>
+      </c>
+      <c r="F156" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="157" customFormat="1" spans="1:6">
+      <c r="A157">
+        <v>4070003</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>254</v>
+      </c>
+      <c r="F157" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" customFormat="1" spans="1:6">
+      <c r="A158">
+        <v>4070004</v>
+      </c>
+      <c r="B158" s="1">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>256</v>
+      </c>
+      <c r="F158" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" customFormat="1" spans="1:6">
+      <c r="A159">
+        <v>4070005</v>
+      </c>
+      <c r="B159" s="1">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>258</v>
+      </c>
+      <c r="F159" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="160" customFormat="1" spans="1:6">
+      <c r="A160">
+        <v>4080001</v>
+      </c>
+      <c r="B160" s="1">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>260</v>
+      </c>
+      <c r="F160" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="161" customFormat="1" spans="1:6">
+      <c r="A161">
+        <v>4080002</v>
+      </c>
+      <c r="B161" s="1">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>262</v>
+      </c>
+      <c r="F161" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="162" customFormat="1" spans="1:6">
+      <c r="A162">
+        <v>4100001</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>264</v>
+      </c>
+      <c r="F162" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>4100002</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
+        <v>266</v>
+      </c>
+      <c r="F163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>99995005001</v>
+      </c>
+      <c r="B164" s="2">
+        <v>999950</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
         <v>99995005002</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B165" s="2">
         <v>999950</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>5</v>
-      </c>
-      <c r="E151" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2">
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
         <v>99995005003</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B166" s="2">
         <v>999950</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>5</v>
-      </c>
-      <c r="E152" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2">
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
         <v>99995005004</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B167" s="2">
         <v>999950</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>5</v>
-      </c>
-      <c r="E153" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2">
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
         <v>99995005005</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B168" s="2">
         <v>999950</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>5</v>
-      </c>
-      <c r="E154" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="2">
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
         <v>99994705001</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B169" s="2">
         <v>999947</v>
       </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
-      <c r="E155" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2">
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
         <v>99994705002</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B170" s="2">
         <v>999947</v>
       </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="2">
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
         <v>99994705003</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B171" s="2">
         <v>999947</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>5</v>
-      </c>
-      <c r="E157" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2">
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
         <v>99994705004</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B172" s="2">
         <v>999947</v>
       </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>5</v>
-      </c>
-      <c r="E158" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B159">
-        <v>999961</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-      <c r="E159" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="2">
-        <v>99996105002</v>
-      </c>
-      <c r="B160">
-        <v>999961</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-      <c r="E160" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2">
-        <v>99996105003</v>
-      </c>
-      <c r="B161">
-        <v>999961</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>5</v>
-      </c>
-      <c r="E161" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="2">
-        <v>99996105004</v>
-      </c>
-      <c r="B162">
-        <v>999961</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162">
-        <v>5</v>
-      </c>
-      <c r="E162" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="2">
-        <v>99996105005</v>
-      </c>
-      <c r="B163">
-        <v>999961</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="D163">
-        <v>5</v>
-      </c>
-      <c r="E163" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164">
-        <v>99996805001</v>
-      </c>
-      <c r="B164" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="E164" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165">
-        <v>99996805002</v>
-      </c>
-      <c r="B165" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>5</v>
-      </c>
-      <c r="E165" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166">
-        <v>99996805003</v>
-      </c>
-      <c r="B166" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-      <c r="E166" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167">
-        <v>99996805004</v>
-      </c>
-      <c r="B167" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-      <c r="E167" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168">
-        <v>99997905001</v>
-      </c>
-      <c r="B168">
-        <v>999979</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>5</v>
-      </c>
-      <c r="E168" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169">
-        <v>99997905002</v>
-      </c>
-      <c r="B169">
-        <v>999979</v>
-      </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <v>5</v>
-      </c>
-      <c r="E169" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170">
-        <v>99997905003</v>
-      </c>
-      <c r="B170">
-        <v>999979</v>
-      </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-      <c r="E170" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171">
-        <v>99997905004</v>
-      </c>
-      <c r="B171">
-        <v>999979</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>5</v>
-      </c>
-      <c r="E171" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172">
-        <v>99997905005</v>
-      </c>
-      <c r="B172">
-        <v>999979</v>
-      </c>
       <c r="C172">
         <v>1</v>
       </c>
@@ -5207,15 +5333,15 @@
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>99997405001</v>
-      </c>
-      <c r="B173" s="2">
-        <v>999974</v>
+        <v>99996105001</v>
+      </c>
+      <c r="B173">
+        <v>999961</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -5224,15 +5350,15 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>99997405002</v>
-      </c>
-      <c r="B174" s="2">
-        <v>999974</v>
+        <v>99996105002</v>
+      </c>
+      <c r="B174">
+        <v>999961</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -5241,15 +5367,15 @@
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>99997405003</v>
-      </c>
-      <c r="B175" s="2">
-        <v>999974</v>
+        <v>99996105003</v>
+      </c>
+      <c r="B175">
+        <v>999961</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -5258,15 +5384,15 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>99997405004</v>
-      </c>
-      <c r="B176" s="2">
-        <v>999974</v>
+        <v>99996105004</v>
+      </c>
+      <c r="B176">
+        <v>999961</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -5275,15 +5401,15 @@
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177">
-        <v>99998605001</v>
+      <c r="A177" s="2">
+        <v>99996105005</v>
       </c>
       <c r="B177">
-        <v>999986</v>
+        <v>999961</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -5292,15 +5418,15 @@
         <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>99998605002</v>
-      </c>
-      <c r="B178">
-        <v>999986</v>
+        <v>99996805001</v>
+      </c>
+      <c r="B178" s="2">
+        <v>999968</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -5309,15 +5435,15 @@
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>99998605003</v>
-      </c>
-      <c r="B179">
-        <v>999986</v>
+        <v>99996805002</v>
+      </c>
+      <c r="B179" s="2">
+        <v>999968</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -5326,15 +5452,15 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>99998605004</v>
-      </c>
-      <c r="B180">
-        <v>999986</v>
+        <v>99996805003</v>
+      </c>
+      <c r="B180" s="2">
+        <v>999968</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -5343,15 +5469,15 @@
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>99998705001</v>
-      </c>
-      <c r="B181">
-        <v>999987</v>
+        <v>99996805004</v>
+      </c>
+      <c r="B181" s="2">
+        <v>999968</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -5360,15 +5486,15 @@
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>99998705002</v>
+        <v>99997905001</v>
       </c>
       <c r="B182">
-        <v>999987</v>
+        <v>999979</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -5377,15 +5503,15 @@
         <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>99998705003</v>
+        <v>99997905002</v>
       </c>
       <c r="B183">
-        <v>999987</v>
+        <v>999979</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -5394,15 +5520,15 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>99998705004</v>
+        <v>99997905003</v>
       </c>
       <c r="B184">
-        <v>999987</v>
+        <v>999979</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -5411,15 +5537,15 @@
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>99998705005</v>
+        <v>99997905004</v>
       </c>
       <c r="B185">
-        <v>999988</v>
+        <v>999979</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -5428,15 +5554,15 @@
         <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="186" ht="12" customHeight="1" spans="1:5">
-      <c r="A186" s="2">
-        <v>99998905001</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>99997905005</v>
       </c>
       <c r="B186">
-        <v>999989</v>
+        <v>999979</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -5445,15 +5571,15 @@
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>99998905002</v>
-      </c>
-      <c r="B187">
-        <v>999989</v>
+        <v>99997405001</v>
+      </c>
+      <c r="B187" s="2">
+        <v>999974</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -5462,15 +5588,15 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>99998905003</v>
-      </c>
-      <c r="B188">
-        <v>999989</v>
+        <v>99997405002</v>
+      </c>
+      <c r="B188" s="2">
+        <v>999974</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -5479,15 +5605,15 @@
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>99998905004</v>
-      </c>
-      <c r="B189">
-        <v>999989</v>
+        <v>99997405003</v>
+      </c>
+      <c r="B189" s="2">
+        <v>999974</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -5496,276 +5622,514 @@
         <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B190" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>99998605001</v>
+      </c>
+      <c r="B191">
+        <v>999986</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>99998605002</v>
+      </c>
+      <c r="B192">
+        <v>999986</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="E192" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>99998605003</v>
+      </c>
+      <c r="B193">
+        <v>999986</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>99998605004</v>
+      </c>
+      <c r="B194">
+        <v>999986</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>99998705001</v>
+      </c>
+      <c r="B195">
+        <v>999987</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>99998705002</v>
+      </c>
+      <c r="B196">
+        <v>999987</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+      <c r="E196" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>99998705003</v>
+      </c>
+      <c r="B197">
+        <v>999987</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>99998705004</v>
+      </c>
+      <c r="B198">
+        <v>999987</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>99998705005</v>
+      </c>
+      <c r="B199">
+        <v>999988</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" ht="12" customHeight="1" spans="1:5">
+      <c r="A200" s="2">
+        <v>99998905001</v>
+      </c>
+      <c r="B200">
+        <v>999989</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>99998905002</v>
+      </c>
+      <c r="B201">
+        <v>999989</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>99998905003</v>
+      </c>
+      <c r="B202">
+        <v>999989</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>5</v>
+      </c>
+      <c r="E202" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>99998905004</v>
+      </c>
+      <c r="B203">
+        <v>999989</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
         <v>99999505001</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B204" s="2">
         <v>999995</v>
       </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190">
-        <v>5</v>
-      </c>
-      <c r="E190" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="2">
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
         <v>99999505002</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B205" s="2">
         <v>999995</v>
       </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-      <c r="D191">
-        <v>5</v>
-      </c>
-      <c r="E191" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="2">
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
         <v>99999505003</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B206" s="2">
         <v>999995</v>
       </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192">
-        <v>5</v>
-      </c>
-      <c r="E192" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="2">
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
         <v>99999505004</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B207" s="2">
         <v>999995</v>
       </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193">
-        <v>5</v>
-      </c>
-      <c r="E193" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="2">
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>5</v>
+      </c>
+      <c r="E207" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
         <v>99999505005</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B208" s="2">
         <v>999995</v>
       </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-      <c r="D194">
-        <v>5</v>
-      </c>
-      <c r="E194" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="195" ht="15" customHeight="1" spans="1:5">
-      <c r="A195" s="2">
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="209" ht="15" customHeight="1" spans="1:5">
+      <c r="A209" s="2">
         <v>99999605001</v>
       </c>
-      <c r="B195">
+      <c r="B209">
         <v>999996</v>
       </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
-        <v>5</v>
-      </c>
-      <c r="E195" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="196" ht="15" customHeight="1" spans="1:5">
-      <c r="A196" s="2">
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="210" ht="15" customHeight="1" spans="1:5">
+      <c r="A210" s="2">
         <v>99999605002</v>
       </c>
-      <c r="B196">
+      <c r="B210">
         <v>999996</v>
       </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-      <c r="D196">
-        <v>5</v>
-      </c>
-      <c r="E196" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="197" ht="15" customHeight="1" spans="1:5">
-      <c r="A197" s="2">
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="211" ht="15" customHeight="1" spans="1:5">
+      <c r="A211" s="2">
         <v>99999605003</v>
       </c>
-      <c r="B197">
+      <c r="B211">
         <v>999996</v>
       </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197">
-        <v>5</v>
-      </c>
-      <c r="E197" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="198" ht="15" customHeight="1" spans="1:5">
-      <c r="A198" s="2">
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="212" ht="15" customHeight="1" spans="1:5">
+      <c r="A212" s="2">
         <v>99999605004</v>
       </c>
-      <c r="B198">
+      <c r="B212">
         <v>999996</v>
       </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198">
-        <v>5</v>
-      </c>
-      <c r="E198" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="199" ht="15" customHeight="1" spans="1:5">
-      <c r="A199" s="2">
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="213" ht="15" customHeight="1" spans="1:5">
+      <c r="A213" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B199">
+      <c r="B213">
         <v>999996</v>
       </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-      <c r="D199">
-        <v>5</v>
-      </c>
-      <c r="E199" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A200" s="2">
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="214" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A214" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B200">
+      <c r="B214">
         <v>999999</v>
       </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-      <c r="D200">
-        <v>5</v>
-      </c>
-      <c r="E200" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="201" ht="15" customHeight="1" spans="1:5">
-      <c r="A201" s="2">
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="215" ht="15" customHeight="1" spans="1:5">
+      <c r="A215" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B201">
+      <c r="B215">
         <v>999999</v>
       </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201">
-        <v>5</v>
-      </c>
-      <c r="E201" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="202" ht="15" customHeight="1" spans="1:5">
-      <c r="A202" s="2">
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" ht="15" customHeight="1" spans="1:5">
+      <c r="A216" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B202">
+      <c r="B216">
         <v>999999</v>
       </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-      <c r="D202">
-        <v>5</v>
-      </c>
-      <c r="E202" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="203" ht="15" customHeight="1" spans="1:5">
-      <c r="A203" s="2">
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="217" ht="15" customHeight="1" spans="1:5">
+      <c r="A217" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B203">
+      <c r="B217">
         <v>999999</v>
       </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-      <c r="D203">
-        <v>5</v>
-      </c>
-      <c r="E203" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="204" ht="15" customHeight="1" spans="1:5">
-      <c r="A204" s="2">
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="218" ht="15" customHeight="1" spans="1:5">
+      <c r="A218" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B204">
+      <c r="B218">
         <v>999999</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204">
-        <v>5</v>
-      </c>
-      <c r="E204" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="205" ht="15" customHeight="1"/>
-    <row r="237" ht="12" customHeight="1"/>
-    <row r="238" ht="12" customHeight="1"/>
-    <row r="239" ht="12" customHeight="1"/>
-    <row r="240" ht="12" customHeight="1"/>
-    <row r="241" ht="12" customHeight="1"/>
-    <row r="242" ht="12" customHeight="1"/>
-    <row r="243" ht="12" customHeight="1"/>
-    <row r="244" ht="12" customHeight="1"/>
-    <row r="245" ht="12" customHeight="1"/>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="219" ht="15" customHeight="1"/>
+    <row r="251" ht="12" customHeight="1"/>
+    <row r="252" ht="12" customHeight="1"/>
+    <row r="253" ht="12" customHeight="1"/>
+    <row r="254" ht="12" customHeight="1"/>
+    <row r="255" ht="12" customHeight="1"/>
+    <row r="256" ht="12" customHeight="1"/>
+    <row r="257" ht="12" customHeight="1"/>
+    <row r="258" ht="12" customHeight="1"/>
+    <row r="259" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F204" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F218" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="338">
   <si>
     <t>id</t>
   </si>
@@ -602,58 +602,214 @@
     <t>骷髅-武器-黑暗法杖</t>
   </si>
   <si>
-    <t>身体-1</t>
-  </si>
-  <si>
-    <t>身体-2</t>
+    <t>史莱姆-身体-1</t>
+  </si>
+  <si>
+    <t>史莱姆-身体-2</t>
   </si>
   <si>
     <t>Body/Body_3</t>
   </si>
   <si>
-    <t>身体-3</t>
+    <t>史莱姆-身体-3</t>
   </si>
   <si>
     <t>Body/Body_4</t>
   </si>
   <si>
-    <t>身体-4</t>
+    <t>史莱姆-身体-4</t>
   </si>
   <si>
     <t>Body/Body_5</t>
   </si>
   <si>
-    <t>身体-5</t>
+    <t>史莱姆-身体-5</t>
   </si>
   <si>
     <t>Body/Body_6</t>
   </si>
   <si>
-    <t>身体-6</t>
+    <t>史莱姆-身体-6</t>
   </si>
   <si>
     <t>Body/Body_7</t>
   </si>
   <si>
-    <t>身体-7</t>
+    <t>史莱姆-身体-7</t>
   </si>
   <si>
     <t>Body/Body_8</t>
   </si>
   <si>
-    <t>身体-8</t>
+    <t>史莱姆-身体-8</t>
   </si>
   <si>
     <t>Body/Body_9</t>
   </si>
   <si>
-    <t>身体-9</t>
+    <t>史莱姆-身体-9</t>
   </si>
   <si>
     <t>Body/Body_10</t>
   </si>
   <si>
-    <t>身体-10</t>
+    <t>史莱姆-身体-10</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-1</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-2</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-3</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-4</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-5</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-6</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-7</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-8</t>
+  </si>
+  <si>
+    <t>Eye/Eye_9</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-9</t>
+  </si>
+  <si>
+    <t>Eye/Eye_10</t>
+  </si>
+  <si>
+    <t>史莱姆-眼睛-10</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-1</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-2</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-3</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-4</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-5</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-6</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-7</t>
+  </si>
+  <si>
+    <t>Hat/Hat_8</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-8</t>
+  </si>
+  <si>
+    <t>Hat/Hat_9</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-9</t>
+  </si>
+  <si>
+    <t>Hat/Hat_10</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-10</t>
+  </si>
+  <si>
+    <t>Hat/Hat_11</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-11</t>
+  </si>
+  <si>
+    <t>Hat/Hat_12</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-12</t>
+  </si>
+  <si>
+    <t>Hat/Hat_13</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-13</t>
+  </si>
+  <si>
+    <t>Hat/Hat_14</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-14</t>
+  </si>
+  <si>
+    <t>Hat/Hat_15</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-15</t>
+  </si>
+  <si>
+    <t>Hat/Hat_16</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-16</t>
+  </si>
+  <si>
+    <t>Hat/Hat_17</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-17</t>
+  </si>
+  <si>
+    <t>Hat/Hat_18</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-18</t>
+  </si>
+  <si>
+    <t>Hat/Hat_19</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-19</t>
+  </si>
+  <si>
+    <t>Hat/Hat_20</t>
+  </si>
+  <si>
+    <t>史莱姆-帽子-20</t>
+  </si>
+  <si>
+    <t>基础1</t>
+  </si>
+  <si>
+    <t>发型1</t>
+  </si>
+  <si>
+    <t>发型2</t>
+  </si>
+  <si>
+    <t>发型3</t>
+  </si>
+  <si>
+    <t>发型4</t>
+  </si>
+  <si>
+    <t>Hair/Hair_5</t>
+  </si>
+  <si>
+    <t>发型5</t>
   </si>
   <si>
     <t>眼睛-1</t>
@@ -680,52 +836,10 @@
     <t>眼睛-8</t>
   </si>
   <si>
-    <t>Eye/Eye_9</t>
-  </si>
-  <si>
     <t>眼睛-9</t>
   </si>
   <si>
-    <t>Eye/Eye_10</t>
-  </si>
-  <si>
     <t>眼睛-10</t>
-  </si>
-  <si>
-    <t>帽子-1</t>
-  </si>
-  <si>
-    <t>帽子-2</t>
-  </si>
-  <si>
-    <t>帽子-3</t>
-  </si>
-  <si>
-    <t>帽子-4</t>
-  </si>
-  <si>
-    <t>帽子-5</t>
-  </si>
-  <si>
-    <t>基础1</t>
-  </si>
-  <si>
-    <t>发型1</t>
-  </si>
-  <si>
-    <t>发型2</t>
-  </si>
-  <si>
-    <t>发型3</t>
-  </si>
-  <si>
-    <t>发型4</t>
-  </si>
-  <si>
-    <t>Hair/Hair_5</t>
-  </si>
-  <si>
-    <t>发型5</t>
   </si>
   <si>
     <t>嘴巴-1</t>
@@ -1903,14 +2017,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E102" sqref="E102"/>
+      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4485,39 +4599,39 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>4000001</v>
-      </c>
-      <c r="B129" s="1">
-        <v>4</v>
+        <v>3020006</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F129" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="130" customFormat="1" spans="1:6">
+    <row r="130" spans="1:6">
       <c r="A130">
-        <v>4030001</v>
-      </c>
-      <c r="B130">
-        <v>4</v>
+        <v>3020007</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F130" t="s">
         <v>226</v>
@@ -4525,267 +4639,267 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>4030002</v>
-      </c>
-      <c r="B131" s="1">
-        <v>4</v>
+        <v>3020008</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="F131" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>4030003</v>
-      </c>
-      <c r="B132">
-        <v>4</v>
+        <v>3020009</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="F132" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>4030004</v>
-      </c>
-      <c r="B133" s="1">
-        <v>4</v>
+        <v>3020010</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="F133" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>4030005</v>
-      </c>
-      <c r="B134">
-        <v>4</v>
+        <v>3020011</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F134" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>4050001</v>
-      </c>
-      <c r="B135" s="1">
-        <v>4</v>
+        <v>3020012</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="F135" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>4050002</v>
+        <v>3020013</v>
       </c>
       <c r="B136" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="F136" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>4050003</v>
-      </c>
-      <c r="B137" s="1">
-        <v>4</v>
+        <v>3020014</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="F137" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>4050004</v>
+        <v>3020015</v>
       </c>
       <c r="B138" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="F138" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>4050005</v>
-      </c>
-      <c r="B139" s="1">
-        <v>4</v>
+        <v>3020016</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="F139" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>4050006</v>
+        <v>3020017</v>
       </c>
       <c r="B140" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="F140" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>4050007</v>
-      </c>
-      <c r="B141" s="1">
-        <v>4</v>
+        <v>3020018</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="F141" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>4050008</v>
+        <v>3020019</v>
       </c>
       <c r="B142" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="F142" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>4050009</v>
-      </c>
-      <c r="B143" s="1">
-        <v>4</v>
+        <v>3020020</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="F143" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>4050010</v>
+        <v>4000001</v>
       </c>
       <c r="B144" s="1">
         <v>4</v>
@@ -4794,38 +4908,38 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="F144" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" spans="1:6">
       <c r="A145">
-        <v>4060001</v>
-      </c>
-      <c r="B145" s="1">
+        <v>4030001</v>
+      </c>
+      <c r="B145">
         <v>4</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>4060002</v>
+        <v>4030002</v>
       </c>
       <c r="B146" s="1">
         <v>4</v>
@@ -4834,38 +4948,38 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F146" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>4060003</v>
-      </c>
-      <c r="B147" s="1">
+        <v>4030003</v>
+      </c>
+      <c r="B147">
         <v>4</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>4060004</v>
+        <v>4030004</v>
       </c>
       <c r="B148" s="1">
         <v>4</v>
@@ -4874,38 +4988,38 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>4060005</v>
-      </c>
-      <c r="B149" s="1">
+        <v>4030005</v>
+      </c>
+      <c r="B149">
         <v>4</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="F149" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>4060006</v>
+        <v>4050001</v>
       </c>
       <c r="B150" s="1">
         <v>4</v>
@@ -4914,18 +5028,18 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="F150" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>4060007</v>
+        <v>4050002</v>
       </c>
       <c r="B151" s="1">
         <v>4</v>
@@ -4934,18 +5048,18 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>4060008</v>
+        <v>4050003</v>
       </c>
       <c r="B152" s="1">
         <v>4</v>
@@ -4954,18 +5068,18 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>4060009</v>
+        <v>4050004</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
@@ -4974,18 +5088,18 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>4060010</v>
+        <v>4050005</v>
       </c>
       <c r="B154" s="1">
         <v>4</v>
@@ -4994,18 +5108,18 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="155" customFormat="1" spans="1:6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
-        <v>4070001</v>
+        <v>4050006</v>
       </c>
       <c r="B155" s="1">
         <v>4</v>
@@ -5014,18 +5128,18 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="156" customFormat="1" spans="1:6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
-        <v>4070002</v>
+        <v>4050007</v>
       </c>
       <c r="B156" s="1">
         <v>4</v>
@@ -5034,18 +5148,18 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="157" customFormat="1" spans="1:6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
-        <v>4070003</v>
+        <v>4050008</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -5054,18 +5168,18 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="158" customFormat="1" spans="1:6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
-        <v>4070004</v>
+        <v>4050009</v>
       </c>
       <c r="B158" s="1">
         <v>4</v>
@@ -5074,18 +5188,18 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="F158" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="159" customFormat="1" spans="1:6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
-        <v>4070005</v>
+        <v>4050010</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -5094,18 +5208,18 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="F159" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="160" customFormat="1" spans="1:6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
-        <v>4080001</v>
+        <v>4060001</v>
       </c>
       <c r="B160" s="1">
         <v>4</v>
@@ -5114,18 +5228,18 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="161" customFormat="1" spans="1:6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
-        <v>4080002</v>
+        <v>4060002</v>
       </c>
       <c r="B161" s="1">
         <v>4</v>
@@ -5134,38 +5248,38 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E161" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="162" customFormat="1" spans="1:6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
-        <v>4100001</v>
-      </c>
-      <c r="B162">
+        <v>4060003</v>
+      </c>
+      <c r="B162" s="1">
         <v>4</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E162" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F162" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>4100002</v>
+        <v>4060004</v>
       </c>
       <c r="B163" s="1">
         <v>4</v>
@@ -5174,396 +5288,441 @@
         <v>0</v>
       </c>
       <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="E163" t="s">
+        <v>274</v>
+      </c>
+      <c r="F163" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>4060005</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+      <c r="E164" t="s">
+        <v>276</v>
+      </c>
+      <c r="F164" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>4060006</v>
+      </c>
+      <c r="B165" s="1">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165" t="s">
+        <v>278</v>
+      </c>
+      <c r="F165" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>4060007</v>
+      </c>
+      <c r="B166" s="1">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>6</v>
+      </c>
+      <c r="E166" t="s">
+        <v>280</v>
+      </c>
+      <c r="F166" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>4060008</v>
+      </c>
+      <c r="B167" s="1">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+      <c r="E167" t="s">
+        <v>282</v>
+      </c>
+      <c r="F167" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>4060009</v>
+      </c>
+      <c r="B168" s="1">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>6</v>
+      </c>
+      <c r="E168" t="s">
+        <v>284</v>
+      </c>
+      <c r="F168" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>4060010</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>6</v>
+      </c>
+      <c r="E169" t="s">
+        <v>286</v>
+      </c>
+      <c r="F169" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="170" customFormat="1" spans="1:6">
+      <c r="A170">
+        <v>4070001</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>288</v>
+      </c>
+      <c r="F170" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="171" customFormat="1" spans="1:6">
+      <c r="A171">
+        <v>4070002</v>
+      </c>
+      <c r="B171" s="1">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>290</v>
+      </c>
+      <c r="F171" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" customFormat="1" spans="1:6">
+      <c r="A172">
+        <v>4070003</v>
+      </c>
+      <c r="B172" s="1">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>292</v>
+      </c>
+      <c r="F172" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="173" customFormat="1" spans="1:6">
+      <c r="A173">
+        <v>4070004</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="E173" t="s">
+        <v>294</v>
+      </c>
+      <c r="F173" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="174" customFormat="1" spans="1:6">
+      <c r="A174">
+        <v>4070005</v>
+      </c>
+      <c r="B174" s="1">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>296</v>
+      </c>
+      <c r="F174" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="175" customFormat="1" spans="1:6">
+      <c r="A175">
+        <v>4080001</v>
+      </c>
+      <c r="B175" s="1">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
+        <v>298</v>
+      </c>
+      <c r="F175" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" customFormat="1" spans="1:6">
+      <c r="A176">
+        <v>4080002</v>
+      </c>
+      <c r="B176" s="1">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>8</v>
+      </c>
+      <c r="E176" t="s">
+        <v>300</v>
+      </c>
+      <c r="F176" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="177" customFormat="1" spans="1:6">
+      <c r="A177">
+        <v>4100001</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
         <v>10</v>
       </c>
-      <c r="E163" t="s">
-        <v>266</v>
-      </c>
-      <c r="F163" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2">
+      <c r="E177" t="s">
+        <v>302</v>
+      </c>
+      <c r="F177" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>4100002</v>
+      </c>
+      <c r="B178" s="1">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s">
+        <v>304</v>
+      </c>
+      <c r="F178" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
         <v>99995005001</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B179" s="2">
         <v>999950</v>
       </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="E164" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="2">
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
         <v>99995005002</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B180" s="2">
         <v>999950</v>
       </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>5</v>
-      </c>
-      <c r="E165" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="2">
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
         <v>99995005003</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B181" s="2">
         <v>999950</v>
       </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-      <c r="E166" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="2">
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
         <v>99995005004</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B182" s="2">
         <v>999950</v>
       </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-      <c r="E167" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="2">
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
         <v>99995005005</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B183" s="2">
         <v>999950</v>
       </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>5</v>
-      </c>
-      <c r="E168" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="2">
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
         <v>99994705001</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B184" s="2">
         <v>999947</v>
       </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169">
-        <v>5</v>
-      </c>
-      <c r="E169" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="2">
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
         <v>99994705002</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B185" s="2">
         <v>999947</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-      <c r="E170" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="2">
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
         <v>99994705003</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B186" s="2">
         <v>999947</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171">
-        <v>5</v>
-      </c>
-      <c r="E171" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="2">
-        <v>99994705004</v>
-      </c>
-      <c r="B172" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172">
-        <v>5</v>
-      </c>
-      <c r="E172" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B173">
-        <v>999961</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>5</v>
-      </c>
-      <c r="E173" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="2">
-        <v>99996105002</v>
-      </c>
-      <c r="B174">
-        <v>999961</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174">
-        <v>5</v>
-      </c>
-      <c r="E174" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="2">
-        <v>99996105003</v>
-      </c>
-      <c r="B175">
-        <v>999961</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175">
-        <v>5</v>
-      </c>
-      <c r="E175" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="2">
-        <v>99996105004</v>
-      </c>
-      <c r="B176">
-        <v>999961</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176">
-        <v>5</v>
-      </c>
-      <c r="E176" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="2">
-        <v>99996105005</v>
-      </c>
-      <c r="B177">
-        <v>999961</v>
-      </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177">
-        <v>5</v>
-      </c>
-      <c r="E177" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178">
-        <v>99996805001</v>
-      </c>
-      <c r="B178" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-      <c r="D178">
-        <v>5</v>
-      </c>
-      <c r="E178" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179">
-        <v>99996805002</v>
-      </c>
-      <c r="B179" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-      <c r="D179">
-        <v>5</v>
-      </c>
-      <c r="E179" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180">
-        <v>99996805003</v>
-      </c>
-      <c r="B180" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180">
-        <v>5</v>
-      </c>
-      <c r="E180" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181">
-        <v>99996805004</v>
-      </c>
-      <c r="B181" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-      <c r="E181" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182">
-        <v>99997905001</v>
-      </c>
-      <c r="B182">
-        <v>999979</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-      <c r="D182">
-        <v>5</v>
-      </c>
-      <c r="E182" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183">
-        <v>99997905002</v>
-      </c>
-      <c r="B183">
-        <v>999979</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183">
-        <v>5</v>
-      </c>
-      <c r="E183" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184">
-        <v>99997905003</v>
-      </c>
-      <c r="B184">
-        <v>999979</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184">
-        <v>5</v>
-      </c>
-      <c r="E184" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185">
-        <v>99997905004</v>
-      </c>
-      <c r="B185">
-        <v>999979</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-      <c r="E185" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186">
-        <v>99997905005</v>
-      </c>
-      <c r="B186">
-        <v>999979</v>
-      </c>
       <c r="C186">
         <v>1</v>
       </c>
@@ -5571,15 +5730,15 @@
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>99997405001</v>
+        <v>99994705004</v>
       </c>
       <c r="B187" s="2">
-        <v>999974</v>
+        <v>999947</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -5588,15 +5747,15 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>99997405002</v>
-      </c>
-      <c r="B188" s="2">
-        <v>999974</v>
+        <v>99996105001</v>
+      </c>
+      <c r="B188">
+        <v>999961</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -5605,15 +5764,15 @@
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>99997405003</v>
-      </c>
-      <c r="B189" s="2">
-        <v>999974</v>
+        <v>99996105002</v>
+      </c>
+      <c r="B189">
+        <v>999961</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -5622,15 +5781,15 @@
         <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>99997405004</v>
-      </c>
-      <c r="B190" s="2">
-        <v>999974</v>
+        <v>99996105003</v>
+      </c>
+      <c r="B190">
+        <v>999961</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -5639,15 +5798,15 @@
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191">
-        <v>99998605001</v>
+      <c r="A191" s="2">
+        <v>99996105004</v>
       </c>
       <c r="B191">
-        <v>999986</v>
+        <v>999961</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -5656,15 +5815,15 @@
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192">
-        <v>99998605002</v>
+      <c r="A192" s="2">
+        <v>99996105005</v>
       </c>
       <c r="B192">
-        <v>999986</v>
+        <v>999961</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -5673,15 +5832,15 @@
         <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>99998605003</v>
-      </c>
-      <c r="B193">
-        <v>999986</v>
+        <v>99996805001</v>
+      </c>
+      <c r="B193" s="2">
+        <v>999968</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -5690,15 +5849,15 @@
         <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>99998605004</v>
-      </c>
-      <c r="B194">
-        <v>999986</v>
+        <v>99996805002</v>
+      </c>
+      <c r="B194" s="2">
+        <v>999968</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -5707,15 +5866,15 @@
         <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>99998705001</v>
-      </c>
-      <c r="B195">
-        <v>999987</v>
+        <v>99996805003</v>
+      </c>
+      <c r="B195" s="2">
+        <v>999968</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -5724,15 +5883,15 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>99998705002</v>
-      </c>
-      <c r="B196">
-        <v>999987</v>
+        <v>99996805004</v>
+      </c>
+      <c r="B196" s="2">
+        <v>999968</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -5741,15 +5900,15 @@
         <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>99998705003</v>
+        <v>99997905001</v>
       </c>
       <c r="B197">
-        <v>999987</v>
+        <v>999979</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -5758,15 +5917,15 @@
         <v>5</v>
       </c>
       <c r="E197" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>99998705004</v>
+        <v>99997905002</v>
       </c>
       <c r="B198">
-        <v>999987</v>
+        <v>999979</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -5775,15 +5934,15 @@
         <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>99998705005</v>
+        <v>99997905003</v>
       </c>
       <c r="B199">
-        <v>999988</v>
+        <v>999979</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -5792,15 +5951,15 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="200" ht="12" customHeight="1" spans="1:5">
-      <c r="A200" s="2">
-        <v>99998905001</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>99997905004</v>
       </c>
       <c r="B200">
-        <v>999989</v>
+        <v>999979</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5809,15 +5968,15 @@
         <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="2">
-        <v>99998905002</v>
+      <c r="A201">
+        <v>99997905005</v>
       </c>
       <c r="B201">
-        <v>999989</v>
+        <v>999979</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5826,15 +5985,15 @@
         <v>5</v>
       </c>
       <c r="E201" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2">
-        <v>99998905003</v>
-      </c>
-      <c r="B202">
-        <v>999989</v>
+        <v>99997405001</v>
+      </c>
+      <c r="B202" s="2">
+        <v>999974</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5843,15 +6002,15 @@
         <v>5</v>
       </c>
       <c r="E202" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2">
-        <v>99998905004</v>
-      </c>
-      <c r="B203">
-        <v>999989</v>
+        <v>99997405002</v>
+      </c>
+      <c r="B203" s="2">
+        <v>999974</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5860,15 +6019,15 @@
         <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2">
-        <v>99999505001</v>
+        <v>99997405003</v>
       </c>
       <c r="B204" s="2">
-        <v>999995</v>
+        <v>999974</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -5877,259 +6036,514 @@
         <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B205" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>99998605001</v>
+      </c>
+      <c r="B206">
+        <v>999986</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>99998605002</v>
+      </c>
+      <c r="B207">
+        <v>999986</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>5</v>
+      </c>
+      <c r="E207" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>99998605003</v>
+      </c>
+      <c r="B208">
+        <v>999986</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>99998605004</v>
+      </c>
+      <c r="B209">
+        <v>999986</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>99998705001</v>
+      </c>
+      <c r="B210">
+        <v>999987</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>99998705002</v>
+      </c>
+      <c r="B211">
+        <v>999987</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>99998705003</v>
+      </c>
+      <c r="B212">
+        <v>999987</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>99998705004</v>
+      </c>
+      <c r="B213">
+        <v>999987</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>99998705005</v>
+      </c>
+      <c r="B214">
+        <v>999988</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="215" ht="12" customHeight="1" spans="1:5">
+      <c r="A215" s="2">
+        <v>99998905001</v>
+      </c>
+      <c r="B215">
+        <v>999989</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>99998905002</v>
+      </c>
+      <c r="B216">
+        <v>999989</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>99998905003</v>
+      </c>
+      <c r="B217">
+        <v>999989</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>99998905004</v>
+      </c>
+      <c r="B218">
+        <v>999989</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>99999505001</v>
+      </c>
+      <c r="B219" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
         <v>99999505002</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B220" s="2">
         <v>999995</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>5</v>
-      </c>
-      <c r="E205" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="2">
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>5</v>
+      </c>
+      <c r="E220" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
         <v>99999505003</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B221" s="2">
         <v>999995</v>
       </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-      <c r="D206">
-        <v>5</v>
-      </c>
-      <c r="E206" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="2">
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>5</v>
+      </c>
+      <c r="E221" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
         <v>99999505004</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B222" s="2">
         <v>999995</v>
       </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207">
-        <v>5</v>
-      </c>
-      <c r="E207" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="2">
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>5</v>
+      </c>
+      <c r="E222" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
         <v>99999505005</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B223" s="2">
         <v>999995</v>
       </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208">
-        <v>5</v>
-      </c>
-      <c r="E208" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="209" ht="15" customHeight="1" spans="1:5">
-      <c r="A209" s="2">
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="224" ht="15" customHeight="1" spans="1:5">
+      <c r="A224" s="2">
         <v>99999605001</v>
       </c>
-      <c r="B209">
+      <c r="B224">
         <v>999996</v>
       </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209">
-        <v>5</v>
-      </c>
-      <c r="E209" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="210" ht="15" customHeight="1" spans="1:5">
-      <c r="A210" s="2">
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="225" ht="15" customHeight="1" spans="1:5">
+      <c r="A225" s="2">
         <v>99999605002</v>
       </c>
-      <c r="B210">
+      <c r="B225">
         <v>999996</v>
       </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-      <c r="D210">
-        <v>5</v>
-      </c>
-      <c r="E210" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="211" ht="15" customHeight="1" spans="1:5">
-      <c r="A211" s="2">
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>5</v>
+      </c>
+      <c r="E225" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="226" ht="15" customHeight="1" spans="1:5">
+      <c r="A226" s="2">
         <v>99999605003</v>
       </c>
-      <c r="B211">
+      <c r="B226">
         <v>999996</v>
       </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>5</v>
-      </c>
-      <c r="E211" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="212" ht="15" customHeight="1" spans="1:5">
-      <c r="A212" s="2">
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>5</v>
+      </c>
+      <c r="E226" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="227" ht="15" customHeight="1" spans="1:5">
+      <c r="A227" s="2">
         <v>99999605004</v>
       </c>
-      <c r="B212">
+      <c r="B227">
         <v>999996</v>
       </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>5</v>
-      </c>
-      <c r="E212" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="213" ht="15" customHeight="1" spans="1:5">
-      <c r="A213" s="2">
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="228" ht="15" customHeight="1" spans="1:5">
+      <c r="A228" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B213">
+      <c r="B228">
         <v>999996</v>
       </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>5</v>
-      </c>
-      <c r="E213" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="214" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A214" s="2">
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>5</v>
+      </c>
+      <c r="E228" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A229" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B214">
+      <c r="B229">
         <v>999999</v>
       </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>5</v>
-      </c>
-      <c r="E214" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="215" ht="15" customHeight="1" spans="1:5">
-      <c r="A215" s="2">
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="230" ht="15" customHeight="1" spans="1:5">
+      <c r="A230" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B215">
+      <c r="B230">
         <v>999999</v>
       </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>5</v>
-      </c>
-      <c r="E215" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="216" ht="15" customHeight="1" spans="1:5">
-      <c r="A216" s="2">
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>5</v>
+      </c>
+      <c r="E230" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="231" ht="15" customHeight="1" spans="1:5">
+      <c r="A231" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B216">
+      <c r="B231">
         <v>999999</v>
       </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>5</v>
-      </c>
-      <c r="E216" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="217" ht="15" customHeight="1" spans="1:5">
-      <c r="A217" s="2">
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="232" ht="15" customHeight="1" spans="1:5">
+      <c r="A232" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B217">
+      <c r="B232">
         <v>999999</v>
       </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>5</v>
-      </c>
-      <c r="E217" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="218" ht="15" customHeight="1" spans="1:5">
-      <c r="A218" s="2">
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="233" ht="15" customHeight="1" spans="1:5">
+      <c r="A233" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B218">
+      <c r="B233">
         <v>999999</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>5</v>
-      </c>
-      <c r="E218" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="219" ht="15" customHeight="1"/>
-    <row r="251" ht="12" customHeight="1"/>
-    <row r="252" ht="12" customHeight="1"/>
-    <row r="253" ht="12" customHeight="1"/>
-    <row r="254" ht="12" customHeight="1"/>
-    <row r="255" ht="12" customHeight="1"/>
-    <row r="256" ht="12" customHeight="1"/>
-    <row r="257" ht="12" customHeight="1"/>
-    <row r="258" ht="12" customHeight="1"/>
-    <row r="259" ht="12" customHeight="1"/>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="234" ht="15" customHeight="1"/>
+    <row r="266" ht="12" customHeight="1"/>
+    <row r="267" ht="12" customHeight="1"/>
+    <row r="268" ht="12" customHeight="1"/>
+    <row r="269" ht="12" customHeight="1"/>
+    <row r="270" ht="12" customHeight="1"/>
+    <row r="271" ht="12" customHeight="1"/>
+    <row r="272" ht="12" customHeight="1"/>
+    <row r="273" ht="12" customHeight="1"/>
+    <row r="274" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F218" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F233" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="21300" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="374">
   <si>
     <t>id</t>
   </si>
@@ -812,6 +812,36 @@
     <t>发型5</t>
   </si>
   <si>
+    <t>Hair/Hair_6</t>
+  </si>
+  <si>
+    <t>发型6</t>
+  </si>
+  <si>
+    <t>Hair/Hair_7</t>
+  </si>
+  <si>
+    <t>发型7</t>
+  </si>
+  <si>
+    <t>Hair/Hair_8</t>
+  </si>
+  <si>
+    <t>发型8</t>
+  </si>
+  <si>
+    <t>Hair/Hair_9</t>
+  </si>
+  <si>
+    <t>发型9</t>
+  </si>
+  <si>
+    <t>Hair/Hair_10</t>
+  </si>
+  <si>
+    <t>发型10</t>
+  </si>
+  <si>
     <t>眼睛-1</t>
   </si>
   <si>
@@ -926,6 +956,36 @@
     <t>角-5</t>
   </si>
   <si>
+    <t>Horn/Horn_6</t>
+  </si>
+  <si>
+    <t>角-6</t>
+  </si>
+  <si>
+    <t>Horn/Horn_7</t>
+  </si>
+  <si>
+    <t>角-7</t>
+  </si>
+  <si>
+    <t>Horn/Horn_8</t>
+  </si>
+  <si>
+    <t>角-8</t>
+  </si>
+  <si>
+    <t>Horn/Horn_9</t>
+  </si>
+  <si>
+    <t>角-9</t>
+  </si>
+  <si>
+    <t>Horn/Horn_10</t>
+  </si>
+  <si>
+    <t>角-10</t>
+  </si>
+  <si>
     <t>Wing/Wing_1</t>
   </si>
   <si>
@@ -938,16 +998,64 @@
     <t>翅膀-2</t>
   </si>
   <si>
-    <t>Armor/Armor_1</t>
+    <t>Wing/Wing_3</t>
+  </si>
+  <si>
+    <t>翅膀-3</t>
+  </si>
+  <si>
+    <t>Wing/Wing_4</t>
+  </si>
+  <si>
+    <t>翅膀-4</t>
+  </si>
+  <si>
+    <t>帽子-3</t>
   </si>
   <si>
     <t>衣服-1</t>
   </si>
   <si>
-    <t>Armor/Armor_2</t>
-  </si>
-  <si>
     <t>衣服-2</t>
+  </si>
+  <si>
+    <t>衣服-3</t>
+  </si>
+  <si>
+    <t>衣服-4</t>
+  </si>
+  <si>
+    <t>衣服-5</t>
+  </si>
+  <si>
+    <t>衣服-6</t>
+  </si>
+  <si>
+    <t>裤子1</t>
+  </si>
+  <si>
+    <t>裤子2</t>
+  </si>
+  <si>
+    <t>裤子3</t>
+  </si>
+  <si>
+    <t>裤子4</t>
+  </si>
+  <si>
+    <t>武器-左-1</t>
+  </si>
+  <si>
+    <t>武器-左-2</t>
+  </si>
+  <si>
+    <t>武器-左-3</t>
+  </si>
+  <si>
+    <t>武器-左-4</t>
+  </si>
+  <si>
+    <t>武器-左-5</t>
   </si>
   <si>
     <t>fennu</t>
@@ -2016,15 +2124,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F274"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D186" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
+      <selection pane="bottomRight" activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2097,7 +2205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:6">
+    <row r="4" customFormat="1" hidden="1" spans="1:6">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -2117,7 +2225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
+    <row r="5" customFormat="1" hidden="1" spans="1:6">
       <c r="A5">
         <v>1020001</v>
       </c>
@@ -2137,7 +2245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:6">
+    <row r="6" customFormat="1" hidden="1" spans="1:6">
       <c r="A6">
         <v>1030001</v>
       </c>
@@ -2157,7 +2265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
+    <row r="7" customFormat="1" hidden="1" spans="1:6">
       <c r="A7">
         <v>1030002</v>
       </c>
@@ -2177,7 +2285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
+    <row r="8" customFormat="1" hidden="1" spans="1:6">
       <c r="A8">
         <v>1030003</v>
       </c>
@@ -2197,7 +2305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:6">
+    <row r="9" customFormat="1" hidden="1" spans="1:6">
       <c r="A9">
         <v>1030004</v>
       </c>
@@ -2217,7 +2325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
+    <row r="10" customFormat="1" hidden="1" spans="1:6">
       <c r="A10">
         <v>1040001</v>
       </c>
@@ -2237,7 +2345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
+    <row r="11" customFormat="1" hidden="1" spans="1:6">
       <c r="A11">
         <v>1040002</v>
       </c>
@@ -2257,7 +2365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
+    <row r="12" customFormat="1" hidden="1" spans="1:6">
       <c r="A12">
         <v>1050001</v>
       </c>
@@ -2277,7 +2385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:6">
+    <row r="13" customFormat="1" hidden="1" spans="1:6">
       <c r="A13">
         <v>1050002</v>
       </c>
@@ -2297,7 +2405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:6">
+    <row r="14" customFormat="1" hidden="1" spans="1:6">
       <c r="A14">
         <v>1050003</v>
       </c>
@@ -2317,7 +2425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:6">
+    <row r="15" customFormat="1" hidden="1" spans="1:6">
       <c r="A15">
         <v>1050004</v>
       </c>
@@ -2337,7 +2445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:6">
+    <row r="16" customFormat="1" hidden="1" spans="1:6">
       <c r="A16">
         <v>1050005</v>
       </c>
@@ -2357,7 +2465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:6">
+    <row r="17" customFormat="1" hidden="1" spans="1:6">
       <c r="A17">
         <v>1050006</v>
       </c>
@@ -2377,7 +2485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:6">
+    <row r="18" customFormat="1" hidden="1" spans="1:6">
       <c r="A18">
         <v>1050007</v>
       </c>
@@ -2397,7 +2505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:6">
+    <row r="19" customFormat="1" hidden="1" spans="1:6">
       <c r="A19">
         <v>1050008</v>
       </c>
@@ -2417,7 +2525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:6">
+    <row r="20" customFormat="1" hidden="1" spans="1:6">
       <c r="A20">
         <v>1060001</v>
       </c>
@@ -2437,7 +2545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:6">
+    <row r="21" customFormat="1" hidden="1" spans="1:6">
       <c r="A21">
         <v>1060002</v>
       </c>
@@ -2457,7 +2565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:6">
+    <row r="22" customFormat="1" hidden="1" spans="1:6">
       <c r="A22">
         <v>1100001</v>
       </c>
@@ -2477,7 +2585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:6">
+    <row r="23" customFormat="1" hidden="1" spans="1:6">
       <c r="A23">
         <v>1120001</v>
       </c>
@@ -2497,7 +2605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:6">
+    <row r="24" customFormat="1" hidden="1" spans="1:6">
       <c r="A24">
         <v>1200001</v>
       </c>
@@ -2517,7 +2625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:6">
+    <row r="25" customFormat="1" hidden="1" spans="1:6">
       <c r="A25">
         <v>1210001</v>
       </c>
@@ -2537,7 +2645,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:6">
+    <row r="26" customFormat="1" hidden="1" spans="1:6">
       <c r="A26">
         <v>1220001</v>
       </c>
@@ -2557,7 +2665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:6">
+    <row r="27" customFormat="1" hidden="1" spans="1:6">
       <c r="A27">
         <v>1250001</v>
       </c>
@@ -2577,7 +2685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:6">
+    <row r="28" customFormat="1" hidden="1" spans="1:6">
       <c r="A28">
         <v>1260001</v>
       </c>
@@ -2597,7 +2705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:6">
+    <row r="29" customFormat="1" hidden="1" spans="1:6">
       <c r="A29">
         <v>1270001</v>
       </c>
@@ -2617,7 +2725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:6">
+    <row r="30" customFormat="1" hidden="1" spans="1:6">
       <c r="A30">
         <v>1300001</v>
       </c>
@@ -2637,7 +2745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:6">
+    <row r="31" customFormat="1" hidden="1" spans="1:6">
       <c r="A31">
         <v>1310001</v>
       </c>
@@ -2657,7 +2765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:6">
+    <row r="32" customFormat="1" hidden="1" spans="1:6">
       <c r="A32">
         <v>1320001</v>
       </c>
@@ -2677,7 +2785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:6">
+    <row r="33" customFormat="1" hidden="1" spans="1:6">
       <c r="A33">
         <v>1350001</v>
       </c>
@@ -2697,7 +2805,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:6">
+    <row r="34" customFormat="1" hidden="1" spans="1:6">
       <c r="A34">
         <v>1360001</v>
       </c>
@@ -2717,7 +2825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:6">
+    <row r="35" customFormat="1" hidden="1" spans="1:6">
       <c r="A35">
         <v>1370001</v>
       </c>
@@ -2737,7 +2845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:6">
+    <row r="36" customFormat="1" hidden="1" spans="1:6">
       <c r="A36">
         <v>1900001</v>
       </c>
@@ -2757,7 +2865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" hidden="1" spans="1:6">
       <c r="A37">
         <v>2000001</v>
       </c>
@@ -2777,7 +2885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" hidden="1" spans="1:6">
       <c r="A38">
         <v>2010001</v>
       </c>
@@ -2797,7 +2905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" hidden="1" spans="1:6">
       <c r="A39">
         <v>2010002</v>
       </c>
@@ -2817,7 +2925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" hidden="1" spans="1:6">
       <c r="A40">
         <v>2010003</v>
       </c>
@@ -2837,7 +2945,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" hidden="1" spans="1:6">
       <c r="A41">
         <v>2010004</v>
       </c>
@@ -2857,7 +2965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" hidden="1" spans="1:6">
       <c r="A42">
         <v>2010005</v>
       </c>
@@ -2877,7 +2985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" hidden="1" spans="1:6">
       <c r="A43">
         <v>2010006</v>
       </c>
@@ -2897,7 +3005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" hidden="1" spans="1:6">
       <c r="A44">
         <v>2010007</v>
       </c>
@@ -2917,7 +3025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" hidden="1" spans="1:6">
       <c r="A45">
         <v>2010008</v>
       </c>
@@ -2937,7 +3045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" hidden="1" spans="1:6">
       <c r="A46">
         <v>2010009</v>
       </c>
@@ -2957,7 +3065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" hidden="1" spans="1:6">
       <c r="A47">
         <v>2010010</v>
       </c>
@@ -2977,7 +3085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" hidden="1" spans="1:6">
       <c r="A48">
         <v>2010011</v>
       </c>
@@ -2997,7 +3105,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" hidden="1" spans="1:6">
       <c r="A49">
         <v>2010012</v>
       </c>
@@ -3017,7 +3125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" hidden="1" spans="1:6">
       <c r="A50">
         <v>2010013</v>
       </c>
@@ -3037,7 +3145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" hidden="1" spans="1:6">
       <c r="A51">
         <v>2500001</v>
       </c>
@@ -3057,7 +3165,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" hidden="1" spans="1:6">
       <c r="A52">
         <v>2500002</v>
       </c>
@@ -3077,7 +3185,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" hidden="1" spans="1:6">
       <c r="A53">
         <v>2500003</v>
       </c>
@@ -3097,7 +3205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" hidden="1" spans="1:6">
       <c r="A54">
         <v>2500004</v>
       </c>
@@ -3117,7 +3225,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" hidden="1" spans="1:6">
       <c r="A55">
         <v>2500005</v>
       </c>
@@ -3137,7 +3245,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" hidden="1" spans="1:6">
       <c r="A56">
         <v>2500006</v>
       </c>
@@ -3157,7 +3265,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" hidden="1" spans="1:6">
       <c r="A57">
         <v>2500007</v>
       </c>
@@ -3177,7 +3285,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" hidden="1" spans="1:6">
       <c r="A58">
         <v>2510001</v>
       </c>
@@ -3197,7 +3305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" hidden="1" spans="1:6">
       <c r="A59">
         <v>2510002</v>
       </c>
@@ -3217,7 +3325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" hidden="1" spans="1:6">
       <c r="A60">
         <v>2510003</v>
       </c>
@@ -3237,7 +3345,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" hidden="1" spans="1:6">
       <c r="A61">
         <v>2510004</v>
       </c>
@@ -3257,7 +3365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" hidden="1" spans="1:6">
       <c r="A62">
         <v>2510005</v>
       </c>
@@ -3277,7 +3385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" hidden="1" spans="1:6">
       <c r="A63">
         <v>2510006</v>
       </c>
@@ -3297,7 +3405,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" hidden="1" spans="1:6">
       <c r="A64">
         <v>2510007</v>
       </c>
@@ -3317,7 +3425,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" hidden="1" spans="1:6">
       <c r="A65">
         <v>2510008</v>
       </c>
@@ -3337,7 +3445,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" hidden="1" spans="1:6">
       <c r="A66">
         <v>2510009</v>
       </c>
@@ -3357,7 +3465,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" hidden="1" spans="1:6">
       <c r="A67">
         <v>2510010</v>
       </c>
@@ -3377,7 +3485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" hidden="1" spans="1:6">
       <c r="A68">
         <v>2510011</v>
       </c>
@@ -3397,7 +3505,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" hidden="1" spans="1:6">
       <c r="A69">
         <v>2520001</v>
       </c>
@@ -3417,7 +3525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" hidden="1" spans="1:6">
       <c r="A70">
         <v>2520002</v>
       </c>
@@ -3437,7 +3545,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" hidden="1" spans="1:6">
       <c r="A71">
         <v>2520003</v>
       </c>
@@ -3457,7 +3565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" hidden="1" spans="1:6">
       <c r="A72">
         <v>2520004</v>
       </c>
@@ -3477,7 +3585,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" hidden="1" spans="1:6">
       <c r="A73">
         <v>2520005</v>
       </c>
@@ -3497,7 +3605,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" hidden="1" spans="1:6">
       <c r="A74">
         <v>2900001</v>
       </c>
@@ -3517,7 +3625,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" hidden="1" spans="1:6">
       <c r="A75">
         <v>2900002</v>
       </c>
@@ -3537,7 +3645,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" hidden="1" spans="1:6">
       <c r="A76">
         <v>2900003</v>
       </c>
@@ -3557,7 +3665,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" hidden="1" spans="1:6">
       <c r="A77">
         <v>2900004</v>
       </c>
@@ -3577,7 +3685,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" hidden="1" spans="1:6">
       <c r="A78">
         <v>2900005</v>
       </c>
@@ -3597,7 +3705,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" hidden="1" spans="1:6">
       <c r="A79">
         <v>2900006</v>
       </c>
@@ -3617,7 +3725,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" hidden="1" spans="1:6">
       <c r="A80">
         <v>2900007</v>
       </c>
@@ -3637,7 +3745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" hidden="1" spans="1:6">
       <c r="A81">
         <v>2900008</v>
       </c>
@@ -3657,7 +3765,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" hidden="1" spans="1:6">
       <c r="A82">
         <v>2900009</v>
       </c>
@@ -3677,7 +3785,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" hidden="1" spans="1:6">
       <c r="A83">
         <v>2900010</v>
       </c>
@@ -3697,7 +3805,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" hidden="1" spans="1:6">
       <c r="A84">
         <v>2910001</v>
       </c>
@@ -3717,7 +3825,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" hidden="1" spans="1:6">
       <c r="A85">
         <v>2910002</v>
       </c>
@@ -3737,7 +3845,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" hidden="1" spans="1:6">
       <c r="A86">
         <v>2910003</v>
       </c>
@@ -3757,7 +3865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" hidden="1" spans="1:6">
       <c r="A87">
         <v>2910004</v>
       </c>
@@ -3777,7 +3885,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" hidden="1" spans="1:6">
       <c r="A88">
         <v>2910005</v>
       </c>
@@ -3797,7 +3905,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" hidden="1" spans="1:6">
       <c r="A89">
         <v>2910006</v>
       </c>
@@ -3817,7 +3925,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" hidden="1" spans="1:6">
       <c r="A90">
         <v>2910007</v>
       </c>
@@ -3837,7 +3945,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" hidden="1" spans="1:6">
       <c r="A91">
         <v>2910008</v>
       </c>
@@ -3857,7 +3965,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" hidden="1" spans="1:6">
       <c r="A92">
         <v>2910009</v>
       </c>
@@ -3877,7 +3985,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" hidden="1" spans="1:6">
       <c r="A93">
         <v>2910010</v>
       </c>
@@ -3897,7 +4005,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" hidden="1" spans="1:6">
       <c r="A94">
         <v>2910011</v>
       </c>
@@ -3917,7 +4025,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" hidden="1" spans="1:6">
       <c r="A95">
         <v>2910012</v>
       </c>
@@ -3937,7 +4045,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" hidden="1" spans="1:6">
       <c r="A96">
         <v>2910013</v>
       </c>
@@ -3957,7 +4065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" hidden="1" spans="1:6">
       <c r="A97">
         <v>2910014</v>
       </c>
@@ -3977,7 +4085,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" hidden="1" spans="1:6">
       <c r="A98">
         <v>2910015</v>
       </c>
@@ -3997,7 +4105,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" hidden="1" spans="1:6">
       <c r="A99">
         <v>2910016</v>
       </c>
@@ -4017,7 +4125,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" hidden="1" spans="1:6">
       <c r="A100">
         <v>2910017</v>
       </c>
@@ -4037,7 +4145,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" hidden="1" spans="1:6">
       <c r="A101">
         <v>2910018</v>
       </c>
@@ -4057,7 +4165,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" hidden="1" spans="1:6">
       <c r="A102">
         <v>2910019</v>
       </c>
@@ -4077,7 +4185,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" hidden="1" spans="1:6">
       <c r="A103">
         <v>2910020</v>
       </c>
@@ -4097,7 +4205,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" hidden="1" spans="1:6">
       <c r="A104">
         <v>3040001</v>
       </c>
@@ -4117,7 +4225,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" hidden="1" spans="1:6">
       <c r="A105">
         <v>3040002</v>
       </c>
@@ -4137,7 +4245,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" hidden="1" spans="1:6">
       <c r="A106">
         <v>3040003</v>
       </c>
@@ -4157,7 +4265,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" hidden="1" spans="1:6">
       <c r="A107">
         <v>3040004</v>
       </c>
@@ -4177,7 +4285,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" hidden="1" spans="1:6">
       <c r="A108">
         <v>3040005</v>
       </c>
@@ -4197,7 +4305,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" hidden="1" spans="1:6">
       <c r="A109">
         <v>3040006</v>
       </c>
@@ -4217,7 +4325,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" hidden="1" spans="1:6">
       <c r="A110">
         <v>3040007</v>
       </c>
@@ -4237,7 +4345,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" hidden="1" spans="1:6">
       <c r="A111">
         <v>3040008</v>
       </c>
@@ -4257,7 +4365,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" hidden="1" spans="1:6">
       <c r="A112">
         <v>3040009</v>
       </c>
@@ -4277,7 +4385,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" hidden="1" spans="1:6">
       <c r="A113">
         <v>3040010</v>
       </c>
@@ -4297,7 +4405,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" hidden="1" spans="1:6">
       <c r="A114">
         <v>3050001</v>
       </c>
@@ -4317,7 +4425,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" hidden="1" spans="1:6">
       <c r="A115">
         <v>3050002</v>
       </c>
@@ -4337,7 +4445,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" hidden="1" spans="1:6">
       <c r="A116">
         <v>3050003</v>
       </c>
@@ -4357,7 +4465,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" hidden="1" spans="1:6">
       <c r="A117">
         <v>3050004</v>
       </c>
@@ -4377,7 +4485,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" hidden="1" spans="1:6">
       <c r="A118">
         <v>3050005</v>
       </c>
@@ -4397,7 +4505,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" hidden="1" spans="1:6">
       <c r="A119">
         <v>3050006</v>
       </c>
@@ -4417,7 +4525,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" hidden="1" spans="1:6">
       <c r="A120">
         <v>3050007</v>
       </c>
@@ -4437,7 +4545,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" hidden="1" spans="1:6">
       <c r="A121">
         <v>3050008</v>
       </c>
@@ -4457,7 +4565,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" hidden="1" spans="1:6">
       <c r="A122">
         <v>3050009</v>
       </c>
@@ -4477,7 +4585,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" hidden="1" spans="1:6">
       <c r="A123">
         <v>3050010</v>
       </c>
@@ -4497,7 +4605,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" hidden="1" spans="1:6">
       <c r="A124">
         <v>3020001</v>
       </c>
@@ -4517,7 +4625,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" hidden="1" spans="1:6">
       <c r="A125">
         <v>3020002</v>
       </c>
@@ -4537,7 +4645,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" hidden="1" spans="1:6">
       <c r="A126">
         <v>3020003</v>
       </c>
@@ -4557,7 +4665,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" hidden="1" spans="1:6">
       <c r="A127">
         <v>3020004</v>
       </c>
@@ -4577,7 +4685,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" hidden="1" spans="1:6">
       <c r="A128">
         <v>3020005</v>
       </c>
@@ -4597,7 +4705,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" hidden="1" spans="1:6">
       <c r="A129">
         <v>3020006</v>
       </c>
@@ -4617,7 +4725,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" hidden="1" spans="1:6">
       <c r="A130">
         <v>3020007</v>
       </c>
@@ -4637,7 +4745,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" hidden="1" spans="1:6">
       <c r="A131">
         <v>3020008</v>
       </c>
@@ -4657,7 +4765,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" hidden="1" spans="1:6">
       <c r="A132">
         <v>3020009</v>
       </c>
@@ -4677,7 +4785,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" hidden="1" spans="1:6">
       <c r="A133">
         <v>3020010</v>
       </c>
@@ -4697,7 +4805,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" hidden="1" spans="1:6">
       <c r="A134">
         <v>3020011</v>
       </c>
@@ -4717,7 +4825,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" hidden="1" spans="1:6">
       <c r="A135">
         <v>3020012</v>
       </c>
@@ -4737,7 +4845,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" hidden="1" spans="1:6">
       <c r="A136">
         <v>3020013</v>
       </c>
@@ -4757,7 +4865,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" hidden="1" spans="1:6">
       <c r="A137">
         <v>3020014</v>
       </c>
@@ -4777,7 +4885,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" hidden="1" spans="1:6">
       <c r="A138">
         <v>3020015</v>
       </c>
@@ -4797,7 +4905,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" hidden="1" spans="1:6">
       <c r="A139">
         <v>3020016</v>
       </c>
@@ -4817,7 +4925,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" hidden="1" spans="1:6">
       <c r="A140">
         <v>3020017</v>
       </c>
@@ -4837,7 +4945,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" hidden="1" spans="1:6">
       <c r="A141">
         <v>3020018</v>
       </c>
@@ -4857,7 +4965,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" hidden="1" spans="1:6">
       <c r="A142">
         <v>3020019</v>
       </c>
@@ -4877,7 +4985,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" hidden="1" spans="1:6">
       <c r="A143">
         <v>3020020</v>
       </c>
@@ -5019,27 +5127,27 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>4050001</v>
-      </c>
-      <c r="B150" s="1">
+        <v>4030006</v>
+      </c>
+      <c r="B150">
         <v>4</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="F150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>4050002</v>
+        <v>4030007</v>
       </c>
       <c r="B151" s="1">
         <v>4</v>
@@ -5048,58 +5156,58 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="F151" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>4050003</v>
-      </c>
-      <c r="B152" s="1">
+        <v>4030008</v>
+      </c>
+      <c r="B152">
         <v>4</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="F152" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>4050004</v>
-      </c>
-      <c r="B153" s="1">
+        <v>4030009</v>
+      </c>
+      <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="F153" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>4050005</v>
+        <v>4030010</v>
       </c>
       <c r="B154" s="1">
         <v>4</v>
@@ -5108,20 +5216,20 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="F154" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>4050006</v>
-      </c>
-      <c r="B155" s="1">
+        <v>4050001</v>
+      </c>
+      <c r="B155">
         <v>4</v>
       </c>
       <c r="C155">
@@ -5131,15 +5239,15 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>4050007</v>
+        <v>4050002</v>
       </c>
       <c r="B156" s="1">
         <v>4</v>
@@ -5151,15 +5259,15 @@
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>4050008</v>
+        <v>4050003</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -5171,15 +5279,15 @@
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>4050009</v>
+        <v>4050004</v>
       </c>
       <c r="B158" s="1">
         <v>4</v>
@@ -5191,15 +5299,15 @@
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>4050010</v>
+        <v>4050005</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -5211,15 +5319,15 @@
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>4060001</v>
+        <v>4050006</v>
       </c>
       <c r="B160" s="1">
         <v>4</v>
@@ -5228,18 +5336,18 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>4060002</v>
+        <v>4050007</v>
       </c>
       <c r="B161" s="1">
         <v>4</v>
@@ -5248,18 +5356,18 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>4060003</v>
+        <v>4050008</v>
       </c>
       <c r="B162" s="1">
         <v>4</v>
@@ -5268,18 +5376,18 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>4060004</v>
+        <v>4050009</v>
       </c>
       <c r="B163" s="1">
         <v>4</v>
@@ -5288,18 +5396,18 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="F163" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>4060005</v>
+        <v>4050010</v>
       </c>
       <c r="B164" s="1">
         <v>4</v>
@@ -5308,18 +5416,18 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E164" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="F164" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>4060006</v>
+        <v>4060001</v>
       </c>
       <c r="B165" s="1">
         <v>4</v>
@@ -5331,15 +5439,15 @@
         <v>6</v>
       </c>
       <c r="E165" t="s">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>4060007</v>
+        <v>4060002</v>
       </c>
       <c r="B166" s="1">
         <v>4</v>
@@ -5351,7 +5459,7 @@
         <v>6</v>
       </c>
       <c r="E166" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
         <v>281</v>
@@ -5359,7 +5467,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>4060008</v>
+        <v>4060003</v>
       </c>
       <c r="B167" s="1">
         <v>4</v>
@@ -5379,7 +5487,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>4060009</v>
+        <v>4060004</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
@@ -5399,7 +5507,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>4060010</v>
+        <v>4060005</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -5417,9 +5525,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="170" customFormat="1" spans="1:6">
+    <row r="170" spans="1:6">
       <c r="A170">
-        <v>4070001</v>
+        <v>4060006</v>
       </c>
       <c r="B170" s="1">
         <v>4</v>
@@ -5428,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E170" t="s">
         <v>288</v>
@@ -5437,9 +5545,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="171" customFormat="1" spans="1:6">
+    <row r="171" spans="1:6">
       <c r="A171">
-        <v>4070002</v>
+        <v>4060007</v>
       </c>
       <c r="B171" s="1">
         <v>4</v>
@@ -5448,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E171" t="s">
         <v>290</v>
@@ -5457,9 +5565,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="172" customFormat="1" spans="1:6">
+    <row r="172" spans="1:6">
       <c r="A172">
-        <v>4070003</v>
+        <v>4060008</v>
       </c>
       <c r="B172" s="1">
         <v>4</v>
@@ -5468,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E172" t="s">
         <v>292</v>
@@ -5477,9 +5585,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="173" customFormat="1" spans="1:6">
+    <row r="173" spans="1:6">
       <c r="A173">
-        <v>4070004</v>
+        <v>4060009</v>
       </c>
       <c r="B173" s="1">
         <v>4</v>
@@ -5488,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E173" t="s">
         <v>294</v>
@@ -5497,9 +5605,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" customFormat="1" spans="1:6">
+    <row r="174" spans="1:6">
       <c r="A174">
-        <v>4070005</v>
+        <v>4060010</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -5508,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
         <v>296</v>
@@ -5519,7 +5627,7 @@
     </row>
     <row r="175" customFormat="1" spans="1:6">
       <c r="A175">
-        <v>4080001</v>
+        <v>4070001</v>
       </c>
       <c r="B175" s="1">
         <v>4</v>
@@ -5528,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
         <v>298</v>
@@ -5539,7 +5647,7 @@
     </row>
     <row r="176" customFormat="1" spans="1:6">
       <c r="A176">
-        <v>4080002</v>
+        <v>4070002</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -5548,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E176" t="s">
         <v>300</v>
@@ -5559,16 +5667,16 @@
     </row>
     <row r="177" customFormat="1" spans="1:6">
       <c r="A177">
-        <v>4100001</v>
-      </c>
-      <c r="B177">
+        <v>4070003</v>
+      </c>
+      <c r="B177" s="1">
         <v>4</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E177" t="s">
         <v>302</v>
@@ -5577,9 +5685,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" customFormat="1" spans="1:6">
       <c r="A178">
-        <v>4100002</v>
+        <v>4070004</v>
       </c>
       <c r="B178" s="1">
         <v>4</v>
@@ -5588,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
         <v>304</v>
@@ -5597,953 +5705,1478 @@
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="2">
-        <v>99995005001</v>
-      </c>
-      <c r="B179" s="2">
-        <v>999950</v>
+    <row r="179" customFormat="1" spans="1:6">
+      <c r="A179">
+        <v>4070005</v>
+      </c>
+      <c r="B179" s="1">
+        <v>4</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E179" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="2">
+      <c r="F179" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="180" customFormat="1" spans="1:6">
+      <c r="A180">
+        <v>4070006</v>
+      </c>
+      <c r="B180" s="1">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>308</v>
+      </c>
+      <c r="F180" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="181" customFormat="1" spans="1:6">
+      <c r="A181">
+        <v>4070007</v>
+      </c>
+      <c r="B181" s="1">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>310</v>
+      </c>
+      <c r="F181" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" customFormat="1" spans="1:6">
+      <c r="A182">
+        <v>4070008</v>
+      </c>
+      <c r="B182" s="1">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>312</v>
+      </c>
+      <c r="F182" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" customFormat="1" spans="1:6">
+      <c r="A183">
+        <v>4070009</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>314</v>
+      </c>
+      <c r="F183" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" customFormat="1" spans="1:6">
+      <c r="A184">
+        <v>4070010</v>
+      </c>
+      <c r="B184" s="1">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>316</v>
+      </c>
+      <c r="F184" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" customFormat="1" spans="1:6">
+      <c r="A185">
+        <v>4080001</v>
+      </c>
+      <c r="B185" s="1">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s">
+        <v>318</v>
+      </c>
+      <c r="F185" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="186" customFormat="1" spans="1:6">
+      <c r="A186">
+        <v>4080002</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>320</v>
+      </c>
+      <c r="F186" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="187" customFormat="1" spans="1:6">
+      <c r="A187">
+        <v>4080003</v>
+      </c>
+      <c r="B187" s="1">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>322</v>
+      </c>
+      <c r="F187" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="188" customFormat="1" spans="1:6">
+      <c r="A188">
+        <v>4080004</v>
+      </c>
+      <c r="B188" s="1">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
+        <v>324</v>
+      </c>
+      <c r="F188" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" customFormat="1" spans="1:6">
+      <c r="A189">
+        <v>4500003</v>
+      </c>
+      <c r="B189" s="1">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>50</v>
+      </c>
+      <c r="E189" t="s">
+        <v>90</v>
+      </c>
+      <c r="F189" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="190" customFormat="1" spans="1:6">
+      <c r="A190">
+        <v>4510001</v>
+      </c>
+      <c r="B190" s="1">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>51</v>
+      </c>
+      <c r="E190" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>4510002</v>
+      </c>
+      <c r="B191" s="1">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>51</v>
+      </c>
+      <c r="E191" t="s">
+        <v>101</v>
+      </c>
+      <c r="F191" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>4510003</v>
+      </c>
+      <c r="B192" s="1">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>51</v>
+      </c>
+      <c r="E192" t="s">
+        <v>103</v>
+      </c>
+      <c r="F192" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>4510004</v>
+      </c>
+      <c r="B193" s="1">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>51</v>
+      </c>
+      <c r="E193" t="s">
+        <v>105</v>
+      </c>
+      <c r="F193" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>4510005</v>
+      </c>
+      <c r="B194" s="1">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>51</v>
+      </c>
+      <c r="E194" t="s">
+        <v>107</v>
+      </c>
+      <c r="F194" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>4510006</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>51</v>
+      </c>
+      <c r="E195" t="s">
+        <v>109</v>
+      </c>
+      <c r="F195" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>4520001</v>
+      </c>
+      <c r="B196" s="1">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>52</v>
+      </c>
+      <c r="E196" t="s">
+        <v>43</v>
+      </c>
+      <c r="F196" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>4520002</v>
+      </c>
+      <c r="B197" s="1">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>52</v>
+      </c>
+      <c r="E197" t="s">
+        <v>122</v>
+      </c>
+      <c r="F197" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>4520003</v>
+      </c>
+      <c r="B198" s="1">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>52</v>
+      </c>
+      <c r="E198" t="s">
+        <v>124</v>
+      </c>
+      <c r="F198" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>4520004</v>
+      </c>
+      <c r="B199" s="1">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>52</v>
+      </c>
+      <c r="E199" t="s">
+        <v>126</v>
+      </c>
+      <c r="F199" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>4900001</v>
+      </c>
+      <c r="B200" s="1">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>90</v>
+      </c>
+      <c r="E200" t="s">
+        <v>130</v>
+      </c>
+      <c r="F200" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>4900002</v>
+      </c>
+      <c r="B201" s="1">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>90</v>
+      </c>
+      <c r="E201" t="s">
+        <v>132</v>
+      </c>
+      <c r="F201" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>4900003</v>
+      </c>
+      <c r="B202" s="1">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>90</v>
+      </c>
+      <c r="E202" t="s">
+        <v>134</v>
+      </c>
+      <c r="F202" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>4900004</v>
+      </c>
+      <c r="B203" s="1">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>90</v>
+      </c>
+      <c r="E203" t="s">
+        <v>136</v>
+      </c>
+      <c r="F203" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>4900005</v>
+      </c>
+      <c r="B204" s="1">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>90</v>
+      </c>
+      <c r="E204" t="s">
+        <v>138</v>
+      </c>
+      <c r="F204" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="205" hidden="1" spans="1:5">
+      <c r="A205" s="2">
+        <v>99995005001</v>
+      </c>
+      <c r="B205" s="2">
+        <v>999950</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="206" hidden="1" spans="1:5">
+      <c r="A206" s="2">
         <v>99995005002</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B206" s="2">
         <v>999950</v>
       </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180">
-        <v>5</v>
-      </c>
-      <c r="E180" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="2">
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="207" hidden="1" spans="1:5">
+      <c r="A207" s="2">
         <v>99995005003</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B207" s="2">
         <v>999950</v>
       </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-      <c r="E181" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="2">
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>5</v>
+      </c>
+      <c r="E207" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="208" hidden="1" spans="1:5">
+      <c r="A208" s="2">
         <v>99995005004</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B208" s="2">
         <v>999950</v>
       </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-      <c r="D182">
-        <v>5</v>
-      </c>
-      <c r="E182" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="2">
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="209" hidden="1" spans="1:5">
+      <c r="A209" s="2">
         <v>99995005005</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B209" s="2">
         <v>999950</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183">
-        <v>5</v>
-      </c>
-      <c r="E183" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="2">
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="210" hidden="1" spans="1:5">
+      <c r="A210" s="2">
         <v>99994705001</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B210" s="2">
         <v>999947</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184">
-        <v>5</v>
-      </c>
-      <c r="E184" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="2">
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="211" hidden="1" spans="1:5">
+      <c r="A211" s="2">
         <v>99994705002</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B211" s="2">
         <v>999947</v>
       </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-      <c r="E185" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="2">
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="212" hidden="1" spans="1:5">
+      <c r="A212" s="2">
         <v>99994705003</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B212" s="2">
         <v>999947</v>
       </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>5</v>
-      </c>
-      <c r="E186" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="2">
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="213" hidden="1" spans="1:5">
+      <c r="A213" s="2">
         <v>99994705004</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B213" s="2">
         <v>999947</v>
       </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187">
-        <v>5</v>
-      </c>
-      <c r="E187" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="2">
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="214" hidden="1" spans="1:5">
+      <c r="A214" s="2">
         <v>99996105001</v>
       </c>
-      <c r="B188">
+      <c r="B214">
         <v>999961</v>
       </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-      <c r="D188">
-        <v>5</v>
-      </c>
-      <c r="E188" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="2">
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="215" hidden="1" spans="1:5">
+      <c r="A215" s="2">
         <v>99996105002</v>
       </c>
-      <c r="B189">
+      <c r="B215">
         <v>999961</v>
       </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189">
-        <v>5</v>
-      </c>
-      <c r="E189" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="2">
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="216" hidden="1" spans="1:5">
+      <c r="A216" s="2">
         <v>99996105003</v>
       </c>
-      <c r="B190">
+      <c r="B216">
         <v>999961</v>
       </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190">
-        <v>5</v>
-      </c>
-      <c r="E190" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="2">
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="217" hidden="1" spans="1:5">
+      <c r="A217" s="2">
         <v>99996105004</v>
       </c>
-      <c r="B191">
+      <c r="B217">
         <v>999961</v>
       </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-      <c r="D191">
-        <v>5</v>
-      </c>
-      <c r="E191" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="2">
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="218" hidden="1" spans="1:5">
+      <c r="A218" s="2">
         <v>99996105005</v>
       </c>
-      <c r="B192">
+      <c r="B218">
         <v>999961</v>
       </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192">
-        <v>5</v>
-      </c>
-      <c r="E192" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193">
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+      <c r="E218" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="219" hidden="1" spans="1:5">
+      <c r="A219">
         <v>99996805001</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B219" s="2">
         <v>999968</v>
       </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-      <c r="D193">
-        <v>5</v>
-      </c>
-      <c r="E193" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194">
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="220" hidden="1" spans="1:5">
+      <c r="A220">
         <v>99996805002</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B220" s="2">
         <v>999968</v>
       </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-      <c r="D194">
-        <v>5</v>
-      </c>
-      <c r="E194" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195">
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>5</v>
+      </c>
+      <c r="E220" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" hidden="1" spans="1:5">
+      <c r="A221">
         <v>99996805003</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B221" s="2">
         <v>999968</v>
       </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
-        <v>5</v>
-      </c>
-      <c r="E195" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196">
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>5</v>
+      </c>
+      <c r="E221" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" hidden="1" spans="1:5">
+      <c r="A222">
         <v>99996805004</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B222" s="2">
         <v>999968</v>
       </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-      <c r="D196">
-        <v>5</v>
-      </c>
-      <c r="E196" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197">
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>5</v>
+      </c>
+      <c r="E222" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="223" hidden="1" spans="1:5">
+      <c r="A223">
         <v>99997905001</v>
       </c>
-      <c r="B197">
+      <c r="B223">
         <v>999979</v>
       </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197">
-        <v>5</v>
-      </c>
-      <c r="E197" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198">
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="224" hidden="1" spans="1:5">
+      <c r="A224">
         <v>99997905002</v>
       </c>
-      <c r="B198">
+      <c r="B224">
         <v>999979</v>
       </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198">
-        <v>5</v>
-      </c>
-      <c r="E198" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199">
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="225" hidden="1" spans="1:5">
+      <c r="A225">
         <v>99997905003</v>
       </c>
-      <c r="B199">
+      <c r="B225">
         <v>999979</v>
       </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-      <c r="D199">
-        <v>5</v>
-      </c>
-      <c r="E199" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200">
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>5</v>
+      </c>
+      <c r="E225" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="226" hidden="1" spans="1:5">
+      <c r="A226">
         <v>99997905004</v>
       </c>
-      <c r="B200">
+      <c r="B226">
         <v>999979</v>
       </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-      <c r="D200">
-        <v>5</v>
-      </c>
-      <c r="E200" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201">
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>5</v>
+      </c>
+      <c r="E226" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="227" hidden="1" spans="1:5">
+      <c r="A227">
         <v>99997905005</v>
       </c>
-      <c r="B201">
+      <c r="B227">
         <v>999979</v>
       </c>
-      <c r="C201">
-        <v>1</v>
-      </c>
-      <c r="D201">
-        <v>5</v>
-      </c>
-      <c r="E201" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="2">
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="228" hidden="1" spans="1:5">
+      <c r="A228" s="2">
         <v>99997405001</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B228" s="2">
         <v>999974</v>
       </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-      <c r="D202">
-        <v>5</v>
-      </c>
-      <c r="E202" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="2">
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>5</v>
+      </c>
+      <c r="E228" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="229" hidden="1" spans="1:5">
+      <c r="A229" s="2">
         <v>99997405002</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B229" s="2">
         <v>999974</v>
       </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-      <c r="D203">
-        <v>5</v>
-      </c>
-      <c r="E203" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="2">
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="230" hidden="1" spans="1:5">
+      <c r="A230" s="2">
         <v>99997405003</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B230" s="2">
         <v>999974</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204">
-        <v>5</v>
-      </c>
-      <c r="E204" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="2">
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>5</v>
+      </c>
+      <c r="E230" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="231" hidden="1" spans="1:5">
+      <c r="A231" s="2">
         <v>99997405004</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B231" s="2">
         <v>999974</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>5</v>
-      </c>
-      <c r="E205" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206">
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="232" hidden="1" spans="1:5">
+      <c r="A232">
         <v>99998605001</v>
       </c>
-      <c r="B206">
+      <c r="B232">
         <v>999986</v>
       </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-      <c r="D206">
-        <v>5</v>
-      </c>
-      <c r="E206" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207">
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="233" hidden="1" spans="1:5">
+      <c r="A233">
         <v>99998605002</v>
       </c>
-      <c r="B207">
+      <c r="B233">
         <v>999986</v>
       </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207">
-        <v>5</v>
-      </c>
-      <c r="E207" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208">
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="234" hidden="1" spans="1:5">
+      <c r="A234">
         <v>99998605003</v>
       </c>
-      <c r="B208">
+      <c r="B234">
         <v>999986</v>
       </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208">
-        <v>5</v>
-      </c>
-      <c r="E208" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209">
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>5</v>
+      </c>
+      <c r="E234" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="235" hidden="1" spans="1:5">
+      <c r="A235">
         <v>99998605004</v>
       </c>
-      <c r="B209">
+      <c r="B235">
         <v>999986</v>
       </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209">
-        <v>5</v>
-      </c>
-      <c r="E209" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210">
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="E235" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="236" hidden="1" spans="1:5">
+      <c r="A236">
         <v>99998705001</v>
       </c>
-      <c r="B210">
+      <c r="B236">
         <v>999987</v>
       </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-      <c r="D210">
-        <v>5</v>
-      </c>
-      <c r="E210" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211">
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+      <c r="E236" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237" hidden="1" spans="1:5">
+      <c r="A237">
         <v>99998705002</v>
       </c>
-      <c r="B211">
+      <c r="B237">
         <v>999987</v>
       </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>5</v>
-      </c>
-      <c r="E211" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212">
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="238" hidden="1" spans="1:5">
+      <c r="A238">
         <v>99998705003</v>
       </c>
-      <c r="B212">
+      <c r="B238">
         <v>999987</v>
       </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>5</v>
-      </c>
-      <c r="E212" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213">
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>5</v>
+      </c>
+      <c r="E238" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="239" hidden="1" spans="1:5">
+      <c r="A239">
         <v>99998705004</v>
       </c>
-      <c r="B213">
+      <c r="B239">
         <v>999987</v>
       </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>5</v>
-      </c>
-      <c r="E213" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214">
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>5</v>
+      </c>
+      <c r="E239" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="240" hidden="1" spans="1:5">
+      <c r="A240">
         <v>99998705005</v>
       </c>
-      <c r="B214">
+      <c r="B240">
         <v>999988</v>
       </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>5</v>
-      </c>
-      <c r="E214" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="215" ht="12" customHeight="1" spans="1:5">
-      <c r="A215" s="2">
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="241" ht="12" hidden="1" customHeight="1" spans="1:5">
+      <c r="A241" s="2">
         <v>99998905001</v>
       </c>
-      <c r="B215">
+      <c r="B241">
         <v>999989</v>
       </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>5</v>
-      </c>
-      <c r="E215" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="2">
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="242" hidden="1" spans="1:5">
+      <c r="A242" s="2">
         <v>99998905002</v>
       </c>
-      <c r="B216">
+      <c r="B242">
         <v>999989</v>
       </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>5</v>
-      </c>
-      <c r="E216" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="2">
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="243" hidden="1" spans="1:5">
+      <c r="A243" s="2">
         <v>99998905003</v>
       </c>
-      <c r="B217">
+      <c r="B243">
         <v>999989</v>
       </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>5</v>
-      </c>
-      <c r="E217" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="2">
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="244" hidden="1" spans="1:5">
+      <c r="A244" s="2">
         <v>99998905004</v>
       </c>
-      <c r="B218">
+      <c r="B244">
         <v>999989</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>5</v>
-      </c>
-      <c r="E218" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="2">
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>5</v>
+      </c>
+      <c r="E244" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="245" hidden="1" spans="1:5">
+      <c r="A245" s="2">
         <v>99999505001</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B245" s="2">
         <v>999995</v>
       </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>5</v>
-      </c>
-      <c r="E219" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="2">
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>5</v>
+      </c>
+      <c r="E245" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="246" hidden="1" spans="1:5">
+      <c r="A246" s="2">
         <v>99999505002</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B246" s="2">
         <v>999995</v>
       </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>5</v>
-      </c>
-      <c r="E220" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="2">
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>5</v>
+      </c>
+      <c r="E246" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="247" hidden="1" spans="1:5">
+      <c r="A247" s="2">
         <v>99999505003</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B247" s="2">
         <v>999995</v>
       </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <v>5</v>
-      </c>
-      <c r="E221" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="2">
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>5</v>
+      </c>
+      <c r="E247" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="248" hidden="1" spans="1:5">
+      <c r="A248" s="2">
         <v>99999505004</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B248" s="2">
         <v>999995</v>
       </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222">
-        <v>5</v>
-      </c>
-      <c r="E222" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="2">
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>5</v>
+      </c>
+      <c r="E248" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="249" hidden="1" spans="1:5">
+      <c r="A249" s="2">
         <v>99999505005</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B249" s="2">
         <v>999995</v>
       </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>5</v>
-      </c>
-      <c r="E223" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="224" ht="15" customHeight="1" spans="1:5">
-      <c r="A224" s="2">
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
+      <c r="E249" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="250" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A250" s="2">
         <v>99999605001</v>
       </c>
-      <c r="B224">
+      <c r="B250">
         <v>999996</v>
       </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>5</v>
-      </c>
-      <c r="E224" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="225" ht="15" customHeight="1" spans="1:5">
-      <c r="A225" s="2">
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="251" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A251" s="2">
         <v>99999605002</v>
       </c>
-      <c r="B225">
+      <c r="B251">
         <v>999996</v>
       </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225">
-        <v>5</v>
-      </c>
-      <c r="E225" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="226" ht="15" customHeight="1" spans="1:5">
-      <c r="A226" s="2">
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>5</v>
+      </c>
+      <c r="E251" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="252" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A252" s="2">
         <v>99999605003</v>
       </c>
-      <c r="B226">
+      <c r="B252">
         <v>999996</v>
       </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>5</v>
-      </c>
-      <c r="E226" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="227" ht="15" customHeight="1" spans="1:5">
-      <c r="A227" s="2">
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="253" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A253" s="2">
         <v>99999605004</v>
       </c>
-      <c r="B227">
+      <c r="B253">
         <v>999996</v>
       </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
-        <v>5</v>
-      </c>
-      <c r="E227" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="228" ht="15" customHeight="1" spans="1:5">
-      <c r="A228" s="2">
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="E253" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="254" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A254" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B228">
+      <c r="B254">
         <v>999996</v>
       </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>5</v>
-      </c>
-      <c r="E228" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="229" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A229" s="2">
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>5</v>
+      </c>
+      <c r="E254" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="255" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A255" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B229">
+      <c r="B255">
         <v>999999</v>
       </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>5</v>
-      </c>
-      <c r="E229" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="230" ht="15" customHeight="1" spans="1:5">
-      <c r="A230" s="2">
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>5</v>
+      </c>
+      <c r="E255" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="256" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A256" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B230">
+      <c r="B256">
         <v>999999</v>
       </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>5</v>
-      </c>
-      <c r="E230" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="231" ht="15" customHeight="1" spans="1:5">
-      <c r="A231" s="2">
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>5</v>
+      </c>
+      <c r="E256" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="257" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A257" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B231">
+      <c r="B257">
         <v>999999</v>
       </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>5</v>
-      </c>
-      <c r="E231" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="232" ht="15" customHeight="1" spans="1:5">
-      <c r="A232" s="2">
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>5</v>
+      </c>
+      <c r="E257" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="258" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A258" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B232">
+      <c r="B258">
         <v>999999</v>
       </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>5</v>
-      </c>
-      <c r="E232" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="233" ht="15" customHeight="1" spans="1:5">
-      <c r="A233" s="2">
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>5</v>
+      </c>
+      <c r="E258" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="259" ht="15" hidden="1" customHeight="1" spans="1:5">
+      <c r="A259" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B233">
+      <c r="B259">
         <v>999999</v>
       </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <v>5</v>
-      </c>
-      <c r="E233" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="234" ht="15" customHeight="1"/>
-    <row r="266" ht="12" customHeight="1"/>
-    <row r="267" ht="12" customHeight="1"/>
-    <row r="268" ht="12" customHeight="1"/>
-    <row r="269" ht="12" customHeight="1"/>
-    <row r="270" ht="12" customHeight="1"/>
-    <row r="271" ht="12" customHeight="1"/>
-    <row r="272" ht="12" customHeight="1"/>
-    <row r="273" ht="12" customHeight="1"/>
-    <row r="274" ht="12" customHeight="1"/>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="E259" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="260" ht="15" customHeight="1"/>
+    <row r="292" ht="12" customHeight="1"/>
+    <row r="293" ht="12" customHeight="1"/>
+    <row r="294" ht="12" customHeight="1"/>
+    <row r="295" ht="12" customHeight="1"/>
+    <row r="296" ht="12" customHeight="1"/>
+    <row r="297" ht="12" customHeight="1"/>
+    <row r="298" ht="12" customHeight="1"/>
+    <row r="299" ht="12" customHeight="1"/>
+    <row r="300" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F233" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F259" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21300" windowHeight="8175"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$348</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="449">
   <si>
     <t>id</t>
   </si>
@@ -68,7 +68,7 @@
     <t>展示类型0默认 1立绘</t>
   </si>
   <si>
-    <t>部件类型(0:基础类型 1:头 3：发型 4:身体 5:眼睛 6:嘴巴 7:角 8:翅膀 50:帽子 51:衣服 52:裤子 53:鞋子 54:腰带 55:鞋子 90：武器左 91：武器右)</t>
+    <t>部件类型(0:基础类型 1:头 3：发型 4:身体 5:眼睛 6:嘴巴 7:角 8:翅膀 9鼻环 50:帽子 51:衣服 52:裤子 53:鞋子 54:腰带 55:鞋子 90：武器左 91：武器右 80：弓箭线)</t>
   </si>
   <si>
     <t>资源名字</t>
@@ -1056,6 +1056,231 @@
   </si>
   <si>
     <t>武器-左-5</t>
+  </si>
+  <si>
+    <t>牛头人-基础</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-1</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-2</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-3</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-4</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-5</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-6</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-7</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-8</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-9</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-10</t>
+  </si>
+  <si>
+    <t>Eye/Eye_11</t>
+  </si>
+  <si>
+    <t>牛头人-眼睛-11</t>
+  </si>
+  <si>
+    <t>NoseRing/NoseRing_1</t>
+  </si>
+  <si>
+    <t>鼻环-1</t>
+  </si>
+  <si>
+    <t>NoseRing/NoseRing_2</t>
+  </si>
+  <si>
+    <t>鼻环-2</t>
+  </si>
+  <si>
+    <t>NoseRing/NoseRing_3</t>
+  </si>
+  <si>
+    <t>鼻环-3</t>
+  </si>
+  <si>
+    <t>NoseRing/NoseRing_4</t>
+  </si>
+  <si>
+    <t>鼻环-4</t>
+  </si>
+  <si>
+    <t>NoseRing/NoseRing_5</t>
+  </si>
+  <si>
+    <t>鼻环-5</t>
+  </si>
+  <si>
+    <t>牛头人帽子-1</t>
+  </si>
+  <si>
+    <t>牛头人帽子-2</t>
+  </si>
+  <si>
+    <t>牛头人帽子-3</t>
+  </si>
+  <si>
+    <t>牛头人-衣服-银制盔甲</t>
+  </si>
+  <si>
+    <t>牛头人-衣服-皮甲</t>
+  </si>
+  <si>
+    <t>牛头人-衣服-皮带胸甲</t>
+  </si>
+  <si>
+    <t>哥布林-基础</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-1</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-2</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-3</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-4</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-5</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-6</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-7</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-8</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-9</t>
+  </si>
+  <si>
+    <t>哥布林-眼睛-10</t>
+  </si>
+  <si>
+    <t>哥布林帽子-1</t>
+  </si>
+  <si>
+    <t>哥布林帽子-2</t>
+  </si>
+  <si>
+    <t>哥布林帽子-3</t>
+  </si>
+  <si>
+    <t>哥布林帽子-4</t>
+  </si>
+  <si>
+    <t>哥布林帽子-5</t>
+  </si>
+  <si>
+    <t>哥布林帽子-6</t>
+  </si>
+  <si>
+    <t>哥布林帽子-7</t>
+  </si>
+  <si>
+    <t>哥布林帽子-8</t>
+  </si>
+  <si>
+    <t>哥布林帽子-9</t>
+  </si>
+  <si>
+    <t>哥布林帽子-10</t>
+  </si>
+  <si>
+    <t>哥布林-衣服-布衣</t>
+  </si>
+  <si>
+    <t>哥布林-衣服-质朴蓝衣</t>
+  </si>
+  <si>
+    <t>裤子5</t>
+  </si>
+  <si>
+    <t>Other/Line_1</t>
+  </si>
+  <si>
+    <t>弓箭线</t>
+  </si>
+  <si>
+    <t>哥布林-武器-金刀</t>
+  </si>
+  <si>
+    <t>哥布林-武器-木弓</t>
+  </si>
+  <si>
+    <t>哥布林-武器-木法杖</t>
+  </si>
+  <si>
+    <t>哥布林-武器-骷髅法杖</t>
+  </si>
+  <si>
+    <t>哥布林-武器-十字法杖</t>
+  </si>
+  <si>
+    <t>哥布林-武器-蔚来法棍</t>
+  </si>
+  <si>
+    <t>哥布林-武器-死亡之书</t>
+  </si>
+  <si>
+    <t>哥布林-武器-猩红之酒</t>
+  </si>
+  <si>
+    <t>哥布林-武器-铁剑</t>
+  </si>
+  <si>
+    <t>哥布林-武器-三叉戟</t>
+  </si>
+  <si>
+    <t>哥布林-武器-华丽刺剑</t>
+  </si>
+  <si>
+    <t>哥布林-武器-拐杖剑</t>
+  </si>
+  <si>
+    <t>哥布林-武器-木铁弓</t>
+  </si>
+  <si>
+    <t>哥布林-武器-直弓</t>
+  </si>
+  <si>
+    <t>哥布林-武器-魔力弓</t>
+  </si>
+  <si>
+    <t>哥布林-武器-金闪闪弓</t>
+  </si>
+  <si>
+    <t>哥布林-武器-炸弹</t>
+  </si>
+  <si>
+    <t>哥布林-武器-火药</t>
+  </si>
+  <si>
+    <t>哥布林-武器-危险药剂</t>
+  </si>
+  <si>
+    <t>哥布林-武器-奥里给</t>
   </si>
   <si>
     <t>fennu</t>
@@ -2124,15 +2349,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F300"/>
+  <sheetPr/>
+  <dimension ref="A1:F389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D259" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E196" sqref="E196"/>
+      <selection pane="bottomRight" activeCell="F274" sqref="F274:F293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2205,7 +2430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="1" hidden="1" spans="1:6">
+    <row r="4" customFormat="1" spans="1:6">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -2225,7 +2450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="1" hidden="1" spans="1:6">
+    <row r="5" customFormat="1" spans="1:6">
       <c r="A5">
         <v>1020001</v>
       </c>
@@ -2245,7 +2470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="1" hidden="1" spans="1:6">
+    <row r="6" customFormat="1" spans="1:6">
       <c r="A6">
         <v>1030001</v>
       </c>
@@ -2265,7 +2490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="1" hidden="1" spans="1:6">
+    <row r="7" customFormat="1" spans="1:6">
       <c r="A7">
         <v>1030002</v>
       </c>
@@ -2285,7 +2510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="1" hidden="1" spans="1:6">
+    <row r="8" customFormat="1" spans="1:6">
       <c r="A8">
         <v>1030003</v>
       </c>
@@ -2305,7 +2530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="1" hidden="1" spans="1:6">
+    <row r="9" customFormat="1" spans="1:6">
       <c r="A9">
         <v>1030004</v>
       </c>
@@ -2325,7 +2550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="1" hidden="1" spans="1:6">
+    <row r="10" customFormat="1" spans="1:6">
       <c r="A10">
         <v>1040001</v>
       </c>
@@ -2345,7 +2570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="1" hidden="1" spans="1:6">
+    <row r="11" customFormat="1" spans="1:6">
       <c r="A11">
         <v>1040002</v>
       </c>
@@ -2365,7 +2590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="1" hidden="1" spans="1:6">
+    <row r="12" customFormat="1" spans="1:6">
       <c r="A12">
         <v>1050001</v>
       </c>
@@ -2385,7 +2610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="1" hidden="1" spans="1:6">
+    <row r="13" customFormat="1" spans="1:6">
       <c r="A13">
         <v>1050002</v>
       </c>
@@ -2405,7 +2630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="1" hidden="1" spans="1:6">
+    <row r="14" customFormat="1" spans="1:6">
       <c r="A14">
         <v>1050003</v>
       </c>
@@ -2425,7 +2650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="1" hidden="1" spans="1:6">
+    <row r="15" customFormat="1" spans="1:6">
       <c r="A15">
         <v>1050004</v>
       </c>
@@ -2445,7 +2670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="1" hidden="1" spans="1:6">
+    <row r="16" customFormat="1" spans="1:6">
       <c r="A16">
         <v>1050005</v>
       </c>
@@ -2465,7 +2690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="1" hidden="1" spans="1:6">
+    <row r="17" customFormat="1" spans="1:6">
       <c r="A17">
         <v>1050006</v>
       </c>
@@ -2485,7 +2710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="1" hidden="1" spans="1:6">
+    <row r="18" customFormat="1" spans="1:6">
       <c r="A18">
         <v>1050007</v>
       </c>
@@ -2505,7 +2730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" customFormat="1" hidden="1" spans="1:6">
+    <row r="19" customFormat="1" spans="1:6">
       <c r="A19">
         <v>1050008</v>
       </c>
@@ -2525,7 +2750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" customFormat="1" hidden="1" spans="1:6">
+    <row r="20" customFormat="1" spans="1:6">
       <c r="A20">
         <v>1060001</v>
       </c>
@@ -2545,7 +2770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="1" hidden="1" spans="1:6">
+    <row r="21" customFormat="1" spans="1:6">
       <c r="A21">
         <v>1060002</v>
       </c>
@@ -2565,7 +2790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" customFormat="1" hidden="1" spans="1:6">
+    <row r="22" customFormat="1" spans="1:6">
       <c r="A22">
         <v>1100001</v>
       </c>
@@ -2585,7 +2810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="1" hidden="1" spans="1:6">
+    <row r="23" customFormat="1" spans="1:6">
       <c r="A23">
         <v>1120001</v>
       </c>
@@ -2605,7 +2830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="1" hidden="1" spans="1:6">
+    <row r="24" customFormat="1" spans="1:6">
       <c r="A24">
         <v>1200001</v>
       </c>
@@ -2625,7 +2850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" customFormat="1" hidden="1" spans="1:6">
+    <row r="25" customFormat="1" spans="1:6">
       <c r="A25">
         <v>1210001</v>
       </c>
@@ -2645,7 +2870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="1" hidden="1" spans="1:6">
+    <row r="26" customFormat="1" spans="1:6">
       <c r="A26">
         <v>1220001</v>
       </c>
@@ -2665,7 +2890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="1" hidden="1" spans="1:6">
+    <row r="27" customFormat="1" spans="1:6">
       <c r="A27">
         <v>1250001</v>
       </c>
@@ -2685,7 +2910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" customFormat="1" hidden="1" spans="1:6">
+    <row r="28" customFormat="1" spans="1:6">
       <c r="A28">
         <v>1260001</v>
       </c>
@@ -2705,7 +2930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" customFormat="1" hidden="1" spans="1:6">
+    <row r="29" customFormat="1" spans="1:6">
       <c r="A29">
         <v>1270001</v>
       </c>
@@ -2725,7 +2950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="1" hidden="1" spans="1:6">
+    <row r="30" customFormat="1" spans="1:6">
       <c r="A30">
         <v>1300001</v>
       </c>
@@ -2745,7 +2970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="1" hidden="1" spans="1:6">
+    <row r="31" customFormat="1" spans="1:6">
       <c r="A31">
         <v>1310001</v>
       </c>
@@ -2765,7 +2990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="1" hidden="1" spans="1:6">
+    <row r="32" customFormat="1" spans="1:6">
       <c r="A32">
         <v>1320001</v>
       </c>
@@ -2785,7 +3010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="1" hidden="1" spans="1:6">
+    <row r="33" customFormat="1" spans="1:6">
       <c r="A33">
         <v>1350001</v>
       </c>
@@ -2805,7 +3030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" customFormat="1" hidden="1" spans="1:6">
+    <row r="34" customFormat="1" spans="1:6">
       <c r="A34">
         <v>1360001</v>
       </c>
@@ -2825,7 +3050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="1" hidden="1" spans="1:6">
+    <row r="35" customFormat="1" spans="1:6">
       <c r="A35">
         <v>1370001</v>
       </c>
@@ -2845,7 +3070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" customFormat="1" hidden="1" spans="1:6">
+    <row r="36" customFormat="1" spans="1:6">
       <c r="A36">
         <v>1900001</v>
       </c>
@@ -2865,7 +3090,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:6">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>2000001</v>
       </c>
@@ -2885,7 +3110,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:6">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>2010001</v>
       </c>
@@ -2905,7 +3130,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:6">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>2010002</v>
       </c>
@@ -2925,7 +3150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:6">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>2010003</v>
       </c>
@@ -2945,7 +3170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:6">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>2010004</v>
       </c>
@@ -2965,7 +3190,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:6">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>2010005</v>
       </c>
@@ -2985,7 +3210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:6">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>2010006</v>
       </c>
@@ -3005,7 +3230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:6">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>2010007</v>
       </c>
@@ -3025,7 +3250,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:6">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>2010008</v>
       </c>
@@ -3045,7 +3270,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:6">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>2010009</v>
       </c>
@@ -3065,7 +3290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:6">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>2010010</v>
       </c>
@@ -3085,7 +3310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:6">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>2010011</v>
       </c>
@@ -3105,7 +3330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:6">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>2010012</v>
       </c>
@@ -3125,7 +3350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:6">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>2010013</v>
       </c>
@@ -3145,7 +3370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:6">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>2500001</v>
       </c>
@@ -3165,7 +3390,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:6">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>2500002</v>
       </c>
@@ -3185,7 +3410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:6">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>2500003</v>
       </c>
@@ -3205,7 +3430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:6">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>2500004</v>
       </c>
@@ -3225,7 +3450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:6">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>2500005</v>
       </c>
@@ -3245,7 +3470,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:6">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>2500006</v>
       </c>
@@ -3265,7 +3490,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:6">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>2500007</v>
       </c>
@@ -3285,7 +3510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:6">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>2510001</v>
       </c>
@@ -3305,7 +3530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:6">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>2510002</v>
       </c>
@@ -3325,7 +3550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:6">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>2510003</v>
       </c>
@@ -3345,7 +3570,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:6">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>2510004</v>
       </c>
@@ -3365,7 +3590,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:6">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>2510005</v>
       </c>
@@ -3385,7 +3610,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:6">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>2510006</v>
       </c>
@@ -3405,7 +3630,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:6">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>2510007</v>
       </c>
@@ -3425,7 +3650,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:6">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>2510008</v>
       </c>
@@ -3445,7 +3670,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:6">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>2510009</v>
       </c>
@@ -3465,7 +3690,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:6">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>2510010</v>
       </c>
@@ -3485,7 +3710,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:6">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>2510011</v>
       </c>
@@ -3505,7 +3730,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:6">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>2520001</v>
       </c>
@@ -3525,7 +3750,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:6">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>2520002</v>
       </c>
@@ -3545,7 +3770,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:6">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>2520003</v>
       </c>
@@ -3565,7 +3790,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:6">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>2520004</v>
       </c>
@@ -3585,7 +3810,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:6">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>2520005</v>
       </c>
@@ -3605,7 +3830,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:6">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>2900001</v>
       </c>
@@ -3625,7 +3850,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:6">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>2900002</v>
       </c>
@@ -3645,7 +3870,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:6">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>2900003</v>
       </c>
@@ -3665,7 +3890,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:6">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>2900004</v>
       </c>
@@ -3685,7 +3910,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:6">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>2900005</v>
       </c>
@@ -3705,7 +3930,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:6">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>2900006</v>
       </c>
@@ -3725,7 +3950,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:6">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>2900007</v>
       </c>
@@ -3745,7 +3970,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:6">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>2900008</v>
       </c>
@@ -3765,7 +3990,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:6">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>2900009</v>
       </c>
@@ -3785,7 +4010,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:6">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>2900010</v>
       </c>
@@ -3805,7 +4030,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:6">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>2910001</v>
       </c>
@@ -3825,7 +4050,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:6">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>2910002</v>
       </c>
@@ -3845,7 +4070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:6">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>2910003</v>
       </c>
@@ -3865,7 +4090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:6">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>2910004</v>
       </c>
@@ -3885,7 +4110,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:6">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>2910005</v>
       </c>
@@ -3905,7 +4130,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:6">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>2910006</v>
       </c>
@@ -3925,7 +4150,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:6">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>2910007</v>
       </c>
@@ -3945,7 +4170,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:6">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>2910008</v>
       </c>
@@ -3965,7 +4190,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:6">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>2910009</v>
       </c>
@@ -3985,7 +4210,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:6">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>2910010</v>
       </c>
@@ -4005,7 +4230,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:6">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>2910011</v>
       </c>
@@ -4025,7 +4250,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:6">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>2910012</v>
       </c>
@@ -4045,7 +4270,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:6">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>2910013</v>
       </c>
@@ -4065,7 +4290,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:6">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>2910014</v>
       </c>
@@ -4085,7 +4310,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:6">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>2910015</v>
       </c>
@@ -4105,7 +4330,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:6">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>2910016</v>
       </c>
@@ -4125,7 +4350,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:6">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>2910017</v>
       </c>
@@ -4145,7 +4370,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:6">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>2910018</v>
       </c>
@@ -4165,7 +4390,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:6">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>2910019</v>
       </c>
@@ -4185,7 +4410,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:6">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>2910020</v>
       </c>
@@ -4205,7 +4430,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:6">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>3040001</v>
       </c>
@@ -4225,7 +4450,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:6">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>3040002</v>
       </c>
@@ -4245,7 +4470,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:6">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>3040003</v>
       </c>
@@ -4265,7 +4490,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:6">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>3040004</v>
       </c>
@@ -4285,7 +4510,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:6">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>3040005</v>
       </c>
@@ -4305,7 +4530,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:6">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>3040006</v>
       </c>
@@ -4325,7 +4550,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:6">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>3040007</v>
       </c>
@@ -4345,7 +4570,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:6">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>3040008</v>
       </c>
@@ -4365,7 +4590,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:6">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>3040009</v>
       </c>
@@ -4385,7 +4610,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:6">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>3040010</v>
       </c>
@@ -4405,7 +4630,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:6">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>3050001</v>
       </c>
@@ -4425,7 +4650,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:6">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>3050002</v>
       </c>
@@ -4445,7 +4670,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:6">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>3050003</v>
       </c>
@@ -4465,7 +4690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:6">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>3050004</v>
       </c>
@@ -4485,7 +4710,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:6">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>3050005</v>
       </c>
@@ -4505,7 +4730,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:6">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>3050006</v>
       </c>
@@ -4525,7 +4750,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:6">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>3050007</v>
       </c>
@@ -4545,7 +4770,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:6">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>3050008</v>
       </c>
@@ -4565,7 +4790,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:6">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>3050009</v>
       </c>
@@ -4585,7 +4810,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:6">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>3050010</v>
       </c>
@@ -4605,7 +4830,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:6">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>3020001</v>
       </c>
@@ -4625,7 +4850,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:6">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>3020002</v>
       </c>
@@ -4645,7 +4870,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:6">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>3020003</v>
       </c>
@@ -4665,7 +4890,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:6">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>3020004</v>
       </c>
@@ -4685,7 +4910,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:6">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>3020005</v>
       </c>
@@ -4705,7 +4930,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:6">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>3020006</v>
       </c>
@@ -4725,7 +4950,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:6">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>3020007</v>
       </c>
@@ -4745,7 +4970,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:6">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>3020008</v>
       </c>
@@ -4765,7 +4990,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:6">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>3020009</v>
       </c>
@@ -4785,7 +5010,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:6">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>3020010</v>
       </c>
@@ -4805,7 +5030,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:6">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>3020011</v>
       </c>
@@ -4825,7 +5050,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:6">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>3020012</v>
       </c>
@@ -4845,7 +5070,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:6">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>3020013</v>
       </c>
@@ -4865,7 +5090,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:6">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>3020014</v>
       </c>
@@ -4885,7 +5110,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:6">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>3020015</v>
       </c>
@@ -4905,7 +5130,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:6">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>3020016</v>
       </c>
@@ -4925,7 +5150,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:6">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>3020017</v>
       </c>
@@ -4945,7 +5170,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:6">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>3020018</v>
       </c>
@@ -4965,7 +5190,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:6">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>3020019</v>
       </c>
@@ -4985,7 +5210,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:6">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>3020020</v>
       </c>
@@ -6225,958 +6450,2733 @@
         <v>341</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:5">
-      <c r="A205" s="2">
+    <row r="205" customFormat="1" spans="1:6">
+      <c r="A205">
+        <v>5000001</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>71</v>
+      </c>
+      <c r="F205" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="206" customFormat="1" spans="1:6">
+      <c r="A206">
+        <v>5050001</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>29</v>
+      </c>
+      <c r="F206" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="207" customFormat="1" spans="1:6">
+      <c r="A207">
+        <v>5050002</v>
+      </c>
+      <c r="B207">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>5</v>
+      </c>
+      <c r="E207" t="s">
+        <v>31</v>
+      </c>
+      <c r="F207" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="208" customFormat="1" spans="1:6">
+      <c r="A208">
+        <v>5050003</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>32</v>
+      </c>
+      <c r="F208" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="209" customFormat="1" spans="1:6">
+      <c r="A209">
+        <v>5050004</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="210" customFormat="1" spans="1:6">
+      <c r="A210">
+        <v>5050005</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>34</v>
+      </c>
+      <c r="F210" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="211" customFormat="1" spans="1:6">
+      <c r="A211">
+        <v>5050006</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>35</v>
+      </c>
+      <c r="F211" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="212" customFormat="1" spans="1:6">
+      <c r="A212">
+        <v>5050007</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>36</v>
+      </c>
+      <c r="F212" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="213" customFormat="1" spans="1:6">
+      <c r="A213">
+        <v>5050008</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213" t="s">
+        <v>37</v>
+      </c>
+      <c r="F213" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="214" customFormat="1" spans="1:6">
+      <c r="A214">
+        <v>5050009</v>
+      </c>
+      <c r="B214">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>216</v>
+      </c>
+      <c r="F214" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="215" customFormat="1" spans="1:6">
+      <c r="A215">
+        <v>5050010</v>
+      </c>
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+      <c r="F215" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="216" customFormat="1" spans="1:6">
+      <c r="A216">
+        <v>5050011</v>
+      </c>
+      <c r="B216">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>353</v>
+      </c>
+      <c r="F216" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="217" customFormat="1" spans="1:6">
+      <c r="A217">
+        <v>5070001</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>7</v>
+      </c>
+      <c r="E217" t="s">
+        <v>298</v>
+      </c>
+      <c r="F217" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="218" customFormat="1" spans="1:6">
+      <c r="A218">
+        <v>5070002</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>300</v>
+      </c>
+      <c r="F218" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="219" customFormat="1" spans="1:6">
+      <c r="A219">
+        <v>5070003</v>
+      </c>
+      <c r="B219">
+        <v>5</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>302</v>
+      </c>
+      <c r="F219" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="220" customFormat="1" spans="1:6">
+      <c r="A220">
+        <v>5070004</v>
+      </c>
+      <c r="B220">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>7</v>
+      </c>
+      <c r="E220" t="s">
+        <v>304</v>
+      </c>
+      <c r="F220" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" customFormat="1" spans="1:6">
+      <c r="A221">
+        <v>5070005</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>7</v>
+      </c>
+      <c r="E221" t="s">
+        <v>306</v>
+      </c>
+      <c r="F221" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="222" customFormat="1" spans="1:6">
+      <c r="A222">
+        <v>5090001</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>355</v>
+      </c>
+      <c r="F222" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223" customFormat="1" spans="1:6">
+      <c r="A223">
+        <v>5090002</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>357</v>
+      </c>
+      <c r="F223" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="224" customFormat="1" spans="1:6">
+      <c r="A224">
+        <v>5090003</v>
+      </c>
+      <c r="B224">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>359</v>
+      </c>
+      <c r="F224" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225" customFormat="1" spans="1:6">
+      <c r="A225">
+        <v>5090004</v>
+      </c>
+      <c r="B225">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>361</v>
+      </c>
+      <c r="F225" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="226" customFormat="1" spans="1:6">
+      <c r="A226">
+        <v>5090005</v>
+      </c>
+      <c r="B226">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>9</v>
+      </c>
+      <c r="E226" t="s">
+        <v>363</v>
+      </c>
+      <c r="F226" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="227" customFormat="1" spans="1:6">
+      <c r="A227">
+        <v>5500001</v>
+      </c>
+      <c r="B227">
+        <v>5</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>50</v>
+      </c>
+      <c r="E227" t="s">
+        <v>17</v>
+      </c>
+      <c r="F227" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="228" customFormat="1" spans="1:6">
+      <c r="A228">
+        <v>5500002</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>50</v>
+      </c>
+      <c r="E228" t="s">
+        <v>88</v>
+      </c>
+      <c r="F228" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="229" customFormat="1" spans="1:6">
+      <c r="A229">
+        <v>5500003</v>
+      </c>
+      <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>50</v>
+      </c>
+      <c r="E229" t="s">
+        <v>90</v>
+      </c>
+      <c r="F229" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="230" customFormat="1" spans="1:6">
+      <c r="A230">
+        <v>5510001</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>51</v>
+      </c>
+      <c r="E230" t="s">
+        <v>41</v>
+      </c>
+      <c r="F230" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="231" customFormat="1" spans="1:6">
+      <c r="A231">
+        <v>5510002</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>51</v>
+      </c>
+      <c r="E231" t="s">
+        <v>101</v>
+      </c>
+      <c r="F231" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="232" customFormat="1" spans="1:6">
+      <c r="A232">
+        <v>5510003</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>51</v>
+      </c>
+      <c r="E232" t="s">
+        <v>103</v>
+      </c>
+      <c r="F232" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="233" customFormat="1" spans="1:6">
+      <c r="A233">
+        <v>5520001</v>
+      </c>
+      <c r="B233">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>52</v>
+      </c>
+      <c r="E233" t="s">
+        <v>43</v>
+      </c>
+      <c r="F233" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="234" customFormat="1" spans="1:6">
+      <c r="A234">
+        <v>5520002</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>52</v>
+      </c>
+      <c r="E234" t="s">
+        <v>122</v>
+      </c>
+      <c r="F234" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="235" customFormat="1" spans="1:6">
+      <c r="A235">
+        <v>6000001</v>
+      </c>
+      <c r="B235">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>71</v>
+      </c>
+      <c r="F235" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="236" customFormat="1" spans="1:6">
+      <c r="A236">
+        <v>6050001</v>
+      </c>
+      <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+      <c r="E236" t="s">
+        <v>29</v>
+      </c>
+      <c r="F236" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="237" customFormat="1" spans="1:6">
+      <c r="A237">
+        <v>6050002</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237" t="s">
+        <v>31</v>
+      </c>
+      <c r="F237" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="238" customFormat="1" spans="1:6">
+      <c r="A238">
+        <v>6050003</v>
+      </c>
+      <c r="B238">
+        <v>6</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>5</v>
+      </c>
+      <c r="E238" t="s">
+        <v>32</v>
+      </c>
+      <c r="F238" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="239" customFormat="1" spans="1:6">
+      <c r="A239">
+        <v>6050004</v>
+      </c>
+      <c r="B239">
+        <v>6</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>5</v>
+      </c>
+      <c r="E239" t="s">
+        <v>33</v>
+      </c>
+      <c r="F239" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="240" customFormat="1" spans="1:6">
+      <c r="A240">
+        <v>6050005</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240" t="s">
+        <v>34</v>
+      </c>
+      <c r="F240" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="241" customFormat="1" spans="1:6">
+      <c r="A241">
+        <v>6050006</v>
+      </c>
+      <c r="B241">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241" t="s">
+        <v>35</v>
+      </c>
+      <c r="F241" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="242" customFormat="1" spans="1:6">
+      <c r="A242">
+        <v>6050007</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242" t="s">
+        <v>36</v>
+      </c>
+      <c r="F242" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="243" customFormat="1" spans="1:6">
+      <c r="A243">
+        <v>6050008</v>
+      </c>
+      <c r="B243">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243" t="s">
+        <v>37</v>
+      </c>
+      <c r="F243" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="244" customFormat="1" spans="1:6">
+      <c r="A244">
+        <v>6050009</v>
+      </c>
+      <c r="B244">
+        <v>6</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>5</v>
+      </c>
+      <c r="E244" t="s">
+        <v>216</v>
+      </c>
+      <c r="F244" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="245" customFormat="1" spans="1:6">
+      <c r="A245">
+        <v>6050010</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>5</v>
+      </c>
+      <c r="E245" t="s">
+        <v>218</v>
+      </c>
+      <c r="F245" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="246" customFormat="1" spans="1:6">
+      <c r="A246">
+        <v>6060001</v>
+      </c>
+      <c r="B246">
+        <v>6</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>6</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="247" customFormat="1" spans="1:6">
+      <c r="A247">
+        <v>6060002</v>
+      </c>
+      <c r="B247">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>6</v>
+      </c>
+      <c r="E247" t="s">
+        <v>40</v>
+      </c>
+      <c r="F247" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="248" customFormat="1" spans="1:6">
+      <c r="A248">
+        <v>6060003</v>
+      </c>
+      <c r="B248">
+        <v>6</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>6</v>
+      </c>
+      <c r="E248" t="s">
+        <v>282</v>
+      </c>
+      <c r="F248" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="249" customFormat="1" spans="1:6">
+      <c r="A249">
+        <v>6060004</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>6</v>
+      </c>
+      <c r="E249" t="s">
+        <v>284</v>
+      </c>
+      <c r="F249" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="250" customFormat="1" spans="1:6">
+      <c r="A250">
+        <v>6060005</v>
+      </c>
+      <c r="B250">
+        <v>6</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>6</v>
+      </c>
+      <c r="E250" t="s">
+        <v>286</v>
+      </c>
+      <c r="F250" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="251" customFormat="1" spans="1:6">
+      <c r="A251">
+        <v>6060006</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>6</v>
+      </c>
+      <c r="E251" t="s">
+        <v>288</v>
+      </c>
+      <c r="F251" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="252" customFormat="1" spans="1:6">
+      <c r="A252">
+        <v>6060007</v>
+      </c>
+      <c r="B252">
+        <v>6</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>6</v>
+      </c>
+      <c r="E252" t="s">
+        <v>290</v>
+      </c>
+      <c r="F252" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="253" customFormat="1" spans="1:6">
+      <c r="A253">
+        <v>6060008</v>
+      </c>
+      <c r="B253">
+        <v>6</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>6</v>
+      </c>
+      <c r="E253" t="s">
+        <v>292</v>
+      </c>
+      <c r="F253" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="254" customFormat="1" spans="1:6">
+      <c r="A254">
+        <v>6060009</v>
+      </c>
+      <c r="B254">
+        <v>6</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>6</v>
+      </c>
+      <c r="E254" t="s">
+        <v>294</v>
+      </c>
+      <c r="F254" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="255" customFormat="1" spans="1:6">
+      <c r="A255">
+        <v>6060010</v>
+      </c>
+      <c r="B255">
+        <v>6</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>6</v>
+      </c>
+      <c r="E255" t="s">
+        <v>296</v>
+      </c>
+      <c r="F255" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="256" customFormat="1" spans="1:6">
+      <c r="A256">
+        <v>6500001</v>
+      </c>
+      <c r="B256">
+        <v>6</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>50</v>
+      </c>
+      <c r="E256" t="s">
+        <v>17</v>
+      </c>
+      <c r="F256" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="257" customFormat="1" spans="1:6">
+      <c r="A257">
+        <v>6500002</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>50</v>
+      </c>
+      <c r="E257" t="s">
+        <v>88</v>
+      </c>
+      <c r="F257" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="258" customFormat="1" spans="1:6">
+      <c r="A258">
+        <v>6500003</v>
+      </c>
+      <c r="B258">
+        <v>6</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>50</v>
+      </c>
+      <c r="E258" t="s">
+        <v>90</v>
+      </c>
+      <c r="F258" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="259" customFormat="1" spans="1:6">
+      <c r="A259">
+        <v>6500004</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>50</v>
+      </c>
+      <c r="E259" t="s">
+        <v>92</v>
+      </c>
+      <c r="F259" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="260" customFormat="1" spans="1:6">
+      <c r="A260">
+        <v>6500005</v>
+      </c>
+      <c r="B260">
+        <v>6</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>50</v>
+      </c>
+      <c r="E260" t="s">
+        <v>94</v>
+      </c>
+      <c r="F260" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="261" customFormat="1" spans="1:6">
+      <c r="A261">
+        <v>6500006</v>
+      </c>
+      <c r="B261">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>50</v>
+      </c>
+      <c r="E261" t="s">
+        <v>96</v>
+      </c>
+      <c r="F261" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="262" customFormat="1" spans="1:6">
+      <c r="A262">
+        <v>6500007</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>50</v>
+      </c>
+      <c r="E262" t="s">
+        <v>98</v>
+      </c>
+      <c r="F262" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="263" customFormat="1" spans="1:6">
+      <c r="A263">
+        <v>6500008</v>
+      </c>
+      <c r="B263">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>50</v>
+      </c>
+      <c r="E263" t="s">
+        <v>227</v>
+      </c>
+      <c r="F263" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="264" customFormat="1" spans="1:6">
+      <c r="A264">
+        <v>6500009</v>
+      </c>
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>50</v>
+      </c>
+      <c r="E264" t="s">
+        <v>229</v>
+      </c>
+      <c r="F264" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="265" customFormat="1" spans="1:6">
+      <c r="A265">
+        <v>6500010</v>
+      </c>
+      <c r="B265">
+        <v>6</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>50</v>
+      </c>
+      <c r="E265" t="s">
+        <v>231</v>
+      </c>
+      <c r="F265" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="266" customFormat="1" spans="1:6">
+      <c r="A266">
+        <v>6510001</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>51</v>
+      </c>
+      <c r="E266" t="s">
+        <v>41</v>
+      </c>
+      <c r="F266" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="267" customFormat="1" spans="1:6">
+      <c r="A267">
+        <v>6510002</v>
+      </c>
+      <c r="B267">
+        <v>6</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>51</v>
+      </c>
+      <c r="E267" t="s">
+        <v>101</v>
+      </c>
+      <c r="F267" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="268" customFormat="1" spans="1:6">
+      <c r="A268">
+        <v>6520001</v>
+      </c>
+      <c r="B268">
+        <v>6</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>52</v>
+      </c>
+      <c r="E268" t="s">
+        <v>43</v>
+      </c>
+      <c r="F268" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="269" customFormat="1" spans="1:6">
+      <c r="A269">
+        <v>6520002</v>
+      </c>
+      <c r="B269">
+        <v>6</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>52</v>
+      </c>
+      <c r="E269" t="s">
+        <v>122</v>
+      </c>
+      <c r="F269" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="270" customFormat="1" spans="1:6">
+      <c r="A270">
+        <v>6520003</v>
+      </c>
+      <c r="B270">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>52</v>
+      </c>
+      <c r="E270" t="s">
+        <v>124</v>
+      </c>
+      <c r="F270" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="271" customFormat="1" spans="1:6">
+      <c r="A271">
+        <v>6520004</v>
+      </c>
+      <c r="B271">
+        <v>6</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>52</v>
+      </c>
+      <c r="E271" t="s">
+        <v>126</v>
+      </c>
+      <c r="F271" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="272" customFormat="1" spans="1:6">
+      <c r="A272">
+        <v>6520005</v>
+      </c>
+      <c r="B272">
+        <v>6</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>52</v>
+      </c>
+      <c r="E272" t="s">
+        <v>128</v>
+      </c>
+      <c r="F272" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="273" customFormat="1" spans="1:6">
+      <c r="A273">
+        <v>6800001</v>
+      </c>
+      <c r="B273">
+        <v>6</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>80</v>
+      </c>
+      <c r="E273" t="s">
+        <v>395</v>
+      </c>
+      <c r="F273" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="274" customFormat="1" ht="12" customHeight="1" spans="1:6">
+      <c r="A274">
+        <v>6910001</v>
+      </c>
+      <c r="B274">
+        <v>6</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>91</v>
+      </c>
+      <c r="E274" t="s">
+        <v>150</v>
+      </c>
+      <c r="F274" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="275" customFormat="1" spans="1:6">
+      <c r="A275">
+        <v>6910002</v>
+      </c>
+      <c r="B275">
+        <v>6</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>91</v>
+      </c>
+      <c r="E275" t="s">
+        <v>152</v>
+      </c>
+      <c r="F275" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="276" customFormat="1" spans="1:6">
+      <c r="A276">
+        <v>6910003</v>
+      </c>
+      <c r="B276">
+        <v>6</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>91</v>
+      </c>
+      <c r="E276" t="s">
+        <v>154</v>
+      </c>
+      <c r="F276" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="277" customFormat="1" spans="1:6">
+      <c r="A277">
+        <v>6910004</v>
+      </c>
+      <c r="B277">
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>91</v>
+      </c>
+      <c r="E277" t="s">
+        <v>156</v>
+      </c>
+      <c r="F277" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="278" customFormat="1" spans="1:6">
+      <c r="A278">
+        <v>6910005</v>
+      </c>
+      <c r="B278">
+        <v>6</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>91</v>
+      </c>
+      <c r="E278" t="s">
+        <v>158</v>
+      </c>
+      <c r="F278" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="279" customFormat="1" spans="1:6">
+      <c r="A279">
+        <v>6910006</v>
+      </c>
+      <c r="B279">
+        <v>6</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>91</v>
+      </c>
+      <c r="E279" t="s">
+        <v>160</v>
+      </c>
+      <c r="F279" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="280" customFormat="1" spans="1:6">
+      <c r="A280">
+        <v>6910007</v>
+      </c>
+      <c r="B280">
+        <v>6</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>91</v>
+      </c>
+      <c r="E280" t="s">
+        <v>162</v>
+      </c>
+      <c r="F280" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="281" customFormat="1" spans="1:6">
+      <c r="A281">
+        <v>6910008</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>91</v>
+      </c>
+      <c r="E281" t="s">
+        <v>164</v>
+      </c>
+      <c r="F281" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="282" customFormat="1" spans="1:6">
+      <c r="A282">
+        <v>6910009</v>
+      </c>
+      <c r="B282">
+        <v>6</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>91</v>
+      </c>
+      <c r="E282" t="s">
+        <v>166</v>
+      </c>
+      <c r="F282" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="283" customFormat="1" spans="1:6">
+      <c r="A283">
+        <v>6910010</v>
+      </c>
+      <c r="B283">
+        <v>6</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>91</v>
+      </c>
+      <c r="E283" t="s">
+        <v>168</v>
+      </c>
+      <c r="F283" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="284" customFormat="1" spans="1:6">
+      <c r="A284">
+        <v>6910011</v>
+      </c>
+      <c r="B284">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>91</v>
+      </c>
+      <c r="E284" t="s">
+        <v>170</v>
+      </c>
+      <c r="F284" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="285" customFormat="1" spans="1:6">
+      <c r="A285">
+        <v>6910012</v>
+      </c>
+      <c r="B285">
+        <v>6</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>91</v>
+      </c>
+      <c r="E285" t="s">
+        <v>172</v>
+      </c>
+      <c r="F285" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="286" customFormat="1" spans="1:6">
+      <c r="A286">
+        <v>6910013</v>
+      </c>
+      <c r="B286">
+        <v>6</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>91</v>
+      </c>
+      <c r="E286" t="s">
+        <v>174</v>
+      </c>
+      <c r="F286" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="287" customFormat="1" spans="1:6">
+      <c r="A287">
+        <v>6910014</v>
+      </c>
+      <c r="B287">
+        <v>6</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>91</v>
+      </c>
+      <c r="E287" t="s">
+        <v>176</v>
+      </c>
+      <c r="F287" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="288" customFormat="1" spans="1:6">
+      <c r="A288">
+        <v>6910015</v>
+      </c>
+      <c r="B288">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>91</v>
+      </c>
+      <c r="E288" t="s">
+        <v>178</v>
+      </c>
+      <c r="F288" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="289" customFormat="1" spans="1:6">
+      <c r="A289">
+        <v>6910016</v>
+      </c>
+      <c r="B289">
+        <v>6</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>91</v>
+      </c>
+      <c r="E289" t="s">
+        <v>180</v>
+      </c>
+      <c r="F289" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="290" customFormat="1" spans="1:6">
+      <c r="A290">
+        <v>6910017</v>
+      </c>
+      <c r="B290">
+        <v>6</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>91</v>
+      </c>
+      <c r="E290" t="s">
+        <v>182</v>
+      </c>
+      <c r="F290" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="291" customFormat="1" spans="1:6">
+      <c r="A291">
+        <v>6910018</v>
+      </c>
+      <c r="B291">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>91</v>
+      </c>
+      <c r="E291" t="s">
+        <v>184</v>
+      </c>
+      <c r="F291" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="292" customFormat="1" spans="1:6">
+      <c r="A292">
+        <v>6910019</v>
+      </c>
+      <c r="B292">
+        <v>6</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>91</v>
+      </c>
+      <c r="E292" t="s">
+        <v>186</v>
+      </c>
+      <c r="F292" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="293" customFormat="1" spans="1:6">
+      <c r="A293">
+        <v>6910020</v>
+      </c>
+      <c r="B293">
+        <v>6</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>91</v>
+      </c>
+      <c r="E293" t="s">
+        <v>188</v>
+      </c>
+      <c r="F293" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
         <v>99995005001</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B294" s="2">
         <v>999950</v>
       </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-      <c r="D205">
-        <v>5</v>
-      </c>
-      <c r="E205" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="206" hidden="1" spans="1:5">
-      <c r="A206" s="2">
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
         <v>99995005002</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B295" s="2">
         <v>999950</v>
       </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-      <c r="D206">
-        <v>5</v>
-      </c>
-      <c r="E206" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="207" hidden="1" spans="1:5">
-      <c r="A207" s="2">
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>5</v>
+      </c>
+      <c r="E295" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
         <v>99995005003</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B296" s="2">
         <v>999950</v>
       </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-      <c r="D207">
-        <v>5</v>
-      </c>
-      <c r="E207" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="208" hidden="1" spans="1:5">
-      <c r="A208" s="2">
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
         <v>99995005004</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B297" s="2">
         <v>999950</v>
       </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208">
-        <v>5</v>
-      </c>
-      <c r="E208" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="209" hidden="1" spans="1:5">
-      <c r="A209" s="2">
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>5</v>
+      </c>
+      <c r="E297" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
         <v>99995005005</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B298" s="2">
         <v>999950</v>
       </c>
-      <c r="C209">
-        <v>1</v>
-      </c>
-      <c r="D209">
-        <v>5</v>
-      </c>
-      <c r="E209" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="210" hidden="1" spans="1:5">
-      <c r="A210" s="2">
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>5</v>
+      </c>
+      <c r="E298" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
         <v>99994705001</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B299" s="2">
         <v>999947</v>
       </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-      <c r="D210">
-        <v>5</v>
-      </c>
-      <c r="E210" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="211" hidden="1" spans="1:5">
-      <c r="A211" s="2">
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>5</v>
+      </c>
+      <c r="E299" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
         <v>99994705002</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B300" s="2">
         <v>999947</v>
       </c>
-      <c r="C211">
-        <v>1</v>
-      </c>
-      <c r="D211">
-        <v>5</v>
-      </c>
-      <c r="E211" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="212" hidden="1" spans="1:5">
-      <c r="A212" s="2">
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>5</v>
+      </c>
+      <c r="E300" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
         <v>99994705003</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B301" s="2">
         <v>999947</v>
       </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>5</v>
-      </c>
-      <c r="E212" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="213" hidden="1" spans="1:5">
-      <c r="A213" s="2">
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>5</v>
+      </c>
+      <c r="E301" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
         <v>99994705004</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B302" s="2">
         <v>999947</v>
       </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213">
-        <v>5</v>
-      </c>
-      <c r="E213" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="214" hidden="1" spans="1:5">
-      <c r="A214" s="2">
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>5</v>
+      </c>
+      <c r="E302" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
         <v>99996105001</v>
       </c>
-      <c r="B214">
+      <c r="B303">
         <v>999961</v>
       </c>
-      <c r="C214">
-        <v>1</v>
-      </c>
-      <c r="D214">
-        <v>5</v>
-      </c>
-      <c r="E214" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="215" hidden="1" spans="1:5">
-      <c r="A215" s="2">
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>5</v>
+      </c>
+      <c r="E303" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
         <v>99996105002</v>
       </c>
-      <c r="B215">
+      <c r="B304">
         <v>999961</v>
       </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <v>5</v>
-      </c>
-      <c r="E215" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="216" hidden="1" spans="1:5">
-      <c r="A216" s="2">
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>5</v>
+      </c>
+      <c r="E304" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
         <v>99996105003</v>
       </c>
-      <c r="B216">
+      <c r="B305">
         <v>999961</v>
       </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>5</v>
-      </c>
-      <c r="E216" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="217" hidden="1" spans="1:5">
-      <c r="A217" s="2">
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>5</v>
+      </c>
+      <c r="E305" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
         <v>99996105004</v>
       </c>
-      <c r="B217">
+      <c r="B306">
         <v>999961</v>
       </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>5</v>
-      </c>
-      <c r="E217" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="218" hidden="1" spans="1:5">
-      <c r="A218" s="2">
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>5</v>
+      </c>
+      <c r="E306" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
         <v>99996105005</v>
       </c>
-      <c r="B218">
+      <c r="B307">
         <v>999961</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-      <c r="D218">
-        <v>5</v>
-      </c>
-      <c r="E218" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="219" hidden="1" spans="1:5">
-      <c r="A219">
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>5</v>
+      </c>
+      <c r="E307" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
         <v>99996805001</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B308" s="2">
         <v>999968</v>
       </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-      <c r="D219">
-        <v>5</v>
-      </c>
-      <c r="E219" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="220" hidden="1" spans="1:5">
-      <c r="A220">
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>5</v>
+      </c>
+      <c r="E308" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309">
         <v>99996805002</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B309" s="2">
         <v>999968</v>
       </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>5</v>
-      </c>
-      <c r="E220" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="221" hidden="1" spans="1:5">
-      <c r="A221">
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>5</v>
+      </c>
+      <c r="E309" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310">
         <v>99996805003</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B310" s="2">
         <v>999968</v>
       </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <v>5</v>
-      </c>
-      <c r="E221" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="222" hidden="1" spans="1:5">
-      <c r="A222">
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>5</v>
+      </c>
+      <c r="E310" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311">
         <v>99996805004</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B311" s="2">
         <v>999968</v>
       </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222">
-        <v>5</v>
-      </c>
-      <c r="E222" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="223" hidden="1" spans="1:5">
-      <c r="A223">
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>5</v>
+      </c>
+      <c r="E311" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312">
         <v>99997905001</v>
       </c>
-      <c r="B223">
+      <c r="B312">
         <v>999979</v>
       </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>5</v>
-      </c>
-      <c r="E223" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="224" hidden="1" spans="1:5">
-      <c r="A224">
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>5</v>
+      </c>
+      <c r="E312" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313">
         <v>99997905002</v>
       </c>
-      <c r="B224">
+      <c r="B313">
         <v>999979</v>
       </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>5</v>
-      </c>
-      <c r="E224" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="225" hidden="1" spans="1:5">
-      <c r="A225">
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>5</v>
+      </c>
+      <c r="E313" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314">
         <v>99997905003</v>
       </c>
-      <c r="B225">
+      <c r="B314">
         <v>999979</v>
       </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225">
-        <v>5</v>
-      </c>
-      <c r="E225" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="226" hidden="1" spans="1:5">
-      <c r="A226">
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
+      <c r="E314" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315">
         <v>99997905004</v>
       </c>
-      <c r="B226">
+      <c r="B315">
         <v>999979</v>
       </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>5</v>
-      </c>
-      <c r="E226" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="227" hidden="1" spans="1:5">
-      <c r="A227">
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>5</v>
+      </c>
+      <c r="E315" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316">
         <v>99997905005</v>
       </c>
-      <c r="B227">
+      <c r="B316">
         <v>999979</v>
       </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
-        <v>5</v>
-      </c>
-      <c r="E227" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="228" hidden="1" spans="1:5">
-      <c r="A228" s="2">
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>5</v>
+      </c>
+      <c r="E316" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
         <v>99997405001</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B317" s="2">
         <v>999974</v>
       </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>5</v>
-      </c>
-      <c r="E228" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="229" hidden="1" spans="1:5">
-      <c r="A229" s="2">
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>5</v>
+      </c>
+      <c r="E317" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
         <v>99997405002</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B318" s="2">
         <v>999974</v>
       </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>5</v>
-      </c>
-      <c r="E229" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="230" hidden="1" spans="1:5">
-      <c r="A230" s="2">
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>5</v>
+      </c>
+      <c r="E318" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
         <v>99997405003</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B319" s="2">
         <v>999974</v>
       </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>5</v>
-      </c>
-      <c r="E230" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="231" hidden="1" spans="1:5">
-      <c r="A231" s="2">
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>5</v>
+      </c>
+      <c r="E319" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
         <v>99997405004</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B320" s="2">
         <v>999974</v>
       </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>5</v>
-      </c>
-      <c r="E231" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="232" hidden="1" spans="1:5">
-      <c r="A232">
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>5</v>
+      </c>
+      <c r="E320" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321">
         <v>99998605001</v>
       </c>
-      <c r="B232">
+      <c r="B321">
         <v>999986</v>
       </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>5</v>
-      </c>
-      <c r="E232" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="233" hidden="1" spans="1:5">
-      <c r="A233">
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>5</v>
+      </c>
+      <c r="E321" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322">
         <v>99998605002</v>
       </c>
-      <c r="B233">
+      <c r="B322">
         <v>999986</v>
       </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <v>5</v>
-      </c>
-      <c r="E233" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="234" hidden="1" spans="1:5">
-      <c r="A234">
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>5</v>
+      </c>
+      <c r="E322" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323">
         <v>99998605003</v>
       </c>
-      <c r="B234">
+      <c r="B323">
         <v>999986</v>
       </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <v>5</v>
-      </c>
-      <c r="E234" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="235" hidden="1" spans="1:5">
-      <c r="A235">
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
+      <c r="E323" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324">
         <v>99998605004</v>
       </c>
-      <c r="B235">
+      <c r="B324">
         <v>999986</v>
       </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235">
-        <v>5</v>
-      </c>
-      <c r="E235" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="236" hidden="1" spans="1:5">
-      <c r="A236">
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>5</v>
+      </c>
+      <c r="E324" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325">
         <v>99998705001</v>
       </c>
-      <c r="B236">
+      <c r="B325">
         <v>999987</v>
       </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236">
-        <v>5</v>
-      </c>
-      <c r="E236" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="237" hidden="1" spans="1:5">
-      <c r="A237">
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>5</v>
+      </c>
+      <c r="E325" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326">
         <v>99998705002</v>
       </c>
-      <c r="B237">
+      <c r="B326">
         <v>999987</v>
       </c>
-      <c r="C237">
-        <v>1</v>
-      </c>
-      <c r="D237">
-        <v>5</v>
-      </c>
-      <c r="E237" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="238" hidden="1" spans="1:5">
-      <c r="A238">
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>5</v>
+      </c>
+      <c r="E326" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327">
         <v>99998705003</v>
       </c>
-      <c r="B238">
+      <c r="B327">
         <v>999987</v>
       </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238">
-        <v>5</v>
-      </c>
-      <c r="E238" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="239" hidden="1" spans="1:5">
-      <c r="A239">
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>5</v>
+      </c>
+      <c r="E327" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328">
         <v>99998705004</v>
       </c>
-      <c r="B239">
+      <c r="B328">
         <v>999987</v>
       </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239">
-        <v>5</v>
-      </c>
-      <c r="E239" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="240" hidden="1" spans="1:5">
-      <c r="A240">
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>5</v>
+      </c>
+      <c r="E328" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329">
         <v>99998705005</v>
       </c>
-      <c r="B240">
+      <c r="B329">
         <v>999988</v>
       </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240">
-        <v>5</v>
-      </c>
-      <c r="E240" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="241" ht="12" hidden="1" customHeight="1" spans="1:5">
-      <c r="A241" s="2">
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>5</v>
+      </c>
+      <c r="E329" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="330" ht="12" customHeight="1" spans="1:5">
+      <c r="A330" s="2">
         <v>99998905001</v>
       </c>
-      <c r="B241">
+      <c r="B330">
         <v>999989</v>
       </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>5</v>
-      </c>
-      <c r="E241" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="242" hidden="1" spans="1:5">
-      <c r="A242" s="2">
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>5</v>
+      </c>
+      <c r="E330" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
         <v>99998905002</v>
       </c>
-      <c r="B242">
+      <c r="B331">
         <v>999989</v>
       </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242">
-        <v>5</v>
-      </c>
-      <c r="E242" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="243" hidden="1" spans="1:5">
-      <c r="A243" s="2">
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>5</v>
+      </c>
+      <c r="E331" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
         <v>99998905003</v>
       </c>
-      <c r="B243">
+      <c r="B332">
         <v>999989</v>
       </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243">
-        <v>5</v>
-      </c>
-      <c r="E243" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="244" hidden="1" spans="1:5">
-      <c r="A244" s="2">
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>5</v>
+      </c>
+      <c r="E332" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
         <v>99998905004</v>
       </c>
-      <c r="B244">
+      <c r="B333">
         <v>999989</v>
       </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244">
-        <v>5</v>
-      </c>
-      <c r="E244" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="245" hidden="1" spans="1:5">
-      <c r="A245" s="2">
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>5</v>
+      </c>
+      <c r="E333" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
         <v>99999505001</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B334" s="2">
         <v>999995</v>
       </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>5</v>
-      </c>
-      <c r="E245" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="246" hidden="1" spans="1:5">
-      <c r="A246" s="2">
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>5</v>
+      </c>
+      <c r="E334" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
         <v>99999505002</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B335" s="2">
         <v>999995</v>
       </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>5</v>
-      </c>
-      <c r="E246" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="247" hidden="1" spans="1:5">
-      <c r="A247" s="2">
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>5</v>
+      </c>
+      <c r="E335" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
         <v>99999505003</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B336" s="2">
         <v>999995</v>
       </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>5</v>
-      </c>
-      <c r="E247" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="248" hidden="1" spans="1:5">
-      <c r="A248" s="2">
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>5</v>
+      </c>
+      <c r="E336" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
         <v>99999505004</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B337" s="2">
         <v>999995</v>
       </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248">
-        <v>5</v>
-      </c>
-      <c r="E248" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="249" hidden="1" spans="1:5">
-      <c r="A249" s="2">
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>5</v>
+      </c>
+      <c r="E337" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
         <v>99999505005</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B338" s="2">
         <v>999995</v>
       </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>5</v>
-      </c>
-      <c r="E249" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="250" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A250" s="2">
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>5</v>
+      </c>
+      <c r="E338" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1" spans="1:5">
+      <c r="A339" s="2">
         <v>99999605001</v>
       </c>
-      <c r="B250">
+      <c r="B339">
         <v>999996</v>
       </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250">
-        <v>5</v>
-      </c>
-      <c r="E250" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="251" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A251" s="2">
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>5</v>
+      </c>
+      <c r="E339" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1" spans="1:5">
+      <c r="A340" s="2">
         <v>99999605002</v>
       </c>
-      <c r="B251">
+      <c r="B340">
         <v>999996</v>
       </c>
-      <c r="C251">
-        <v>1</v>
-      </c>
-      <c r="D251">
-        <v>5</v>
-      </c>
-      <c r="E251" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="252" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A252" s="2">
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>5</v>
+      </c>
+      <c r="E340" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1" spans="1:5">
+      <c r="A341" s="2">
         <v>99999605003</v>
       </c>
-      <c r="B252">
+      <c r="B341">
         <v>999996</v>
       </c>
-      <c r="C252">
-        <v>1</v>
-      </c>
-      <c r="D252">
-        <v>5</v>
-      </c>
-      <c r="E252" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="253" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A253" s="2">
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>5</v>
+      </c>
+      <c r="E341" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1" spans="1:5">
+      <c r="A342" s="2">
         <v>99999605004</v>
       </c>
-      <c r="B253">
+      <c r="B342">
         <v>999996</v>
       </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>5</v>
-      </c>
-      <c r="E253" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="254" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A254" s="2">
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>5</v>
+      </c>
+      <c r="E342" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1" spans="1:5">
+      <c r="A343" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B254">
+      <c r="B343">
         <v>999996</v>
       </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>5</v>
-      </c>
-      <c r="E254" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="255" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A255" s="2">
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>5</v>
+      </c>
+      <c r="E343" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="344" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A344" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B255">
+      <c r="B344">
         <v>999999</v>
       </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>5</v>
-      </c>
-      <c r="E255" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="256" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A256" s="2">
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>5</v>
+      </c>
+      <c r="E344" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1" spans="1:5">
+      <c r="A345" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B256">
+      <c r="B345">
         <v>999999</v>
       </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256">
-        <v>5</v>
-      </c>
-      <c r="E256" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="257" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A257" s="2">
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>5</v>
+      </c>
+      <c r="E345" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1" spans="1:5">
+      <c r="A346" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B257">
+      <c r="B346">
         <v>999999</v>
       </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257">
-        <v>5</v>
-      </c>
-      <c r="E257" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="258" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A258" s="2">
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>5</v>
+      </c>
+      <c r="E346" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1" spans="1:5">
+      <c r="A347" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B258">
+      <c r="B347">
         <v>999999</v>
       </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>5</v>
-      </c>
-      <c r="E258" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="259" ht="15" hidden="1" customHeight="1" spans="1:5">
-      <c r="A259" s="2">
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>5</v>
+      </c>
+      <c r="E347" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1" spans="1:5">
+      <c r="A348" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B259">
+      <c r="B348">
         <v>999999</v>
       </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>5</v>
-      </c>
-      <c r="E259" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="260" ht="15" customHeight="1"/>
-    <row r="292" ht="12" customHeight="1"/>
-    <row r="293" ht="12" customHeight="1"/>
-    <row r="294" ht="12" customHeight="1"/>
-    <row r="295" ht="12" customHeight="1"/>
-    <row r="296" ht="12" customHeight="1"/>
-    <row r="297" ht="12" customHeight="1"/>
-    <row r="298" ht="12" customHeight="1"/>
-    <row r="299" ht="12" customHeight="1"/>
-    <row r="300" ht="12" customHeight="1"/>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>5</v>
+      </c>
+      <c r="E348" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="381" ht="12" customHeight="1"/>
+    <row r="382" ht="12" customHeight="1"/>
+    <row r="383" ht="12" customHeight="1"/>
+    <row r="384" ht="12" customHeight="1"/>
+    <row r="385" ht="12" customHeight="1"/>
+    <row r="386" ht="12" customHeight="1"/>
+    <row r="387" ht="12" customHeight="1"/>
+    <row r="388" ht="12" customHeight="1"/>
+    <row r="389" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F259" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F348" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$377</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="467">
   <si>
     <t>id</t>
   </si>
@@ -1281,6 +1281,60 @@
   </si>
   <si>
     <t>哥布林-武器-奥里给</t>
+  </si>
+  <si>
+    <t>兽人-基础</t>
+  </si>
+  <si>
+    <t>兽人-眼睛-1</t>
+  </si>
+  <si>
+    <t>兽人-眼睛-2</t>
+  </si>
+  <si>
+    <t>兽人-眼睛-3</t>
+  </si>
+  <si>
+    <t>兽人-眼睛-4</t>
+  </si>
+  <si>
+    <t>兽人-眼睛-5</t>
+  </si>
+  <si>
+    <t>兽人帽子-1</t>
+  </si>
+  <si>
+    <t>兽人-衣服-1</t>
+  </si>
+  <si>
+    <t>兽人-衣服-2</t>
+  </si>
+  <si>
+    <t>兽人-武器-左-1</t>
+  </si>
+  <si>
+    <t>兽人-武器-左-2</t>
+  </si>
+  <si>
+    <t>兽人-武器-左-3</t>
+  </si>
+  <si>
+    <t>兽人-武器-右-1</t>
+  </si>
+  <si>
+    <t>兽人-武器-右-2</t>
+  </si>
+  <si>
+    <t>兽人-武器-右-3</t>
+  </si>
+  <si>
+    <t>兽人-武器-右-4</t>
+  </si>
+  <si>
+    <t>兽人-武器-右-5</t>
+  </si>
+  <si>
+    <t>兽人-武器-右-6</t>
   </si>
   <si>
     <t>fennu</t>
@@ -2350,14 +2404,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F389"/>
+  <dimension ref="A1:F418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D259" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D280" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F274" sqref="F274:F293"/>
+      <selection pane="bottomRight" activeCell="A307" sqref="A307:A322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8230,625 +8284,712 @@
         <v>416</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="2">
+    <row r="294" customFormat="1" spans="1:6">
+      <c r="A294">
+        <v>7000001</v>
+      </c>
+      <c r="B294">
+        <v>7</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>71</v>
+      </c>
+      <c r="F294" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="295" customFormat="1" spans="1:6">
+      <c r="A295">
+        <v>7030001</v>
+      </c>
+      <c r="B295">
+        <v>7</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>3</v>
+      </c>
+      <c r="E295" t="s">
+        <v>19</v>
+      </c>
+      <c r="F295" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="296" customFormat="1" spans="1:6">
+      <c r="A296">
+        <v>7030002</v>
+      </c>
+      <c r="B296">
+        <v>7</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
+      </c>
+      <c r="E296" t="s">
+        <v>21</v>
+      </c>
+      <c r="F296" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="297" customFormat="1" spans="1:6">
+      <c r="A297">
+        <v>7050001</v>
+      </c>
+      <c r="B297">
+        <v>7</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>5</v>
+      </c>
+      <c r="E297" t="s">
+        <v>29</v>
+      </c>
+      <c r="F297" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="298" customFormat="1" spans="1:6">
+      <c r="A298">
+        <v>7050002</v>
+      </c>
+      <c r="B298">
+        <v>7</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>5</v>
+      </c>
+      <c r="E298" t="s">
+        <v>31</v>
+      </c>
+      <c r="F298" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="299" customFormat="1" spans="1:6">
+      <c r="A299">
+        <v>7050003</v>
+      </c>
+      <c r="B299">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>5</v>
+      </c>
+      <c r="E299" t="s">
+        <v>32</v>
+      </c>
+      <c r="F299" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="300" customFormat="1" spans="1:6">
+      <c r="A300">
+        <v>7050004</v>
+      </c>
+      <c r="B300">
+        <v>7</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>5</v>
+      </c>
+      <c r="E300" t="s">
+        <v>33</v>
+      </c>
+      <c r="F300" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="301" customFormat="1" spans="1:6">
+      <c r="A301">
+        <v>7050005</v>
+      </c>
+      <c r="B301">
+        <v>7</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>5</v>
+      </c>
+      <c r="E301" t="s">
+        <v>34</v>
+      </c>
+      <c r="F301" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="302" customFormat="1" spans="1:6">
+      <c r="A302">
+        <v>7060001</v>
+      </c>
+      <c r="B302">
+        <v>7</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>6</v>
+      </c>
+      <c r="E302" t="s">
+        <v>38</v>
+      </c>
+      <c r="F302" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="303" customFormat="1" spans="1:6">
+      <c r="A303">
+        <v>7060002</v>
+      </c>
+      <c r="B303">
+        <v>7</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>6</v>
+      </c>
+      <c r="E303" t="s">
+        <v>40</v>
+      </c>
+      <c r="F303" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="304" customFormat="1" spans="1:6">
+      <c r="A304">
+        <v>7060003</v>
+      </c>
+      <c r="B304">
+        <v>7</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>6</v>
+      </c>
+      <c r="E304" t="s">
+        <v>282</v>
+      </c>
+      <c r="F304" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="305" customFormat="1" spans="1:6">
+      <c r="A305">
+        <v>7060004</v>
+      </c>
+      <c r="B305">
+        <v>7</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>6</v>
+      </c>
+      <c r="E305" t="s">
+        <v>284</v>
+      </c>
+      <c r="F305" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="306" customFormat="1" spans="1:6">
+      <c r="A306">
+        <v>7060005</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>6</v>
+      </c>
+      <c r="E306" t="s">
+        <v>286</v>
+      </c>
+      <c r="F306" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="307" customFormat="1" spans="1:6">
+      <c r="A307">
+        <v>7500001</v>
+      </c>
+      <c r="B307">
+        <v>7</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>50</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="308" customFormat="1" spans="1:6">
+      <c r="A308">
+        <v>7510001</v>
+      </c>
+      <c r="B308">
+        <v>7</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>51</v>
+      </c>
+      <c r="E308" t="s">
+        <v>41</v>
+      </c>
+      <c r="F308" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="309" customFormat="1" spans="1:6">
+      <c r="A309">
+        <v>7510002</v>
+      </c>
+      <c r="B309">
+        <v>7</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>51</v>
+      </c>
+      <c r="E309" t="s">
+        <v>101</v>
+      </c>
+      <c r="F309" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="310" customFormat="1" spans="1:6">
+      <c r="A310">
+        <v>7520001</v>
+      </c>
+      <c r="B310">
+        <v>7</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>52</v>
+      </c>
+      <c r="E310" t="s">
+        <v>43</v>
+      </c>
+      <c r="F310" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="311" customFormat="1" spans="1:6">
+      <c r="A311">
+        <v>7520002</v>
+      </c>
+      <c r="B311">
+        <v>7</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>52</v>
+      </c>
+      <c r="E311" t="s">
+        <v>122</v>
+      </c>
+      <c r="F311" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="312" customFormat="1" spans="1:6">
+      <c r="A312">
+        <v>7520003</v>
+      </c>
+      <c r="B312">
+        <v>7</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>52</v>
+      </c>
+      <c r="E312" t="s">
+        <v>124</v>
+      </c>
+      <c r="F312" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="313" customFormat="1" spans="1:6">
+      <c r="A313">
+        <v>7520004</v>
+      </c>
+      <c r="B313">
+        <v>7</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>52</v>
+      </c>
+      <c r="E313" t="s">
+        <v>126</v>
+      </c>
+      <c r="F313" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="314" customFormat="1" spans="1:6">
+      <c r="A314">
+        <v>7900001</v>
+      </c>
+      <c r="B314">
+        <v>7</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>90</v>
+      </c>
+      <c r="E314" t="s">
+        <v>130</v>
+      </c>
+      <c r="F314" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="315" customFormat="1" spans="1:6">
+      <c r="A315">
+        <v>7900002</v>
+      </c>
+      <c r="B315">
+        <v>7</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>90</v>
+      </c>
+      <c r="E315" t="s">
+        <v>132</v>
+      </c>
+      <c r="F315" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="316" customFormat="1" spans="1:6">
+      <c r="A316">
+        <v>7900003</v>
+      </c>
+      <c r="B316">
+        <v>7</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>90</v>
+      </c>
+      <c r="E316" t="s">
+        <v>134</v>
+      </c>
+      <c r="F316" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="317" customFormat="1" ht="12" customHeight="1" spans="1:6">
+      <c r="A317">
+        <v>7910001</v>
+      </c>
+      <c r="B317">
+        <v>7</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>91</v>
+      </c>
+      <c r="E317" t="s">
+        <v>150</v>
+      </c>
+      <c r="F317" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="318" customFormat="1" spans="1:6">
+      <c r="A318">
+        <v>7910002</v>
+      </c>
+      <c r="B318">
+        <v>7</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>91</v>
+      </c>
+      <c r="E318" t="s">
+        <v>152</v>
+      </c>
+      <c r="F318" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="319" customFormat="1" spans="1:6">
+      <c r="A319">
+        <v>7910003</v>
+      </c>
+      <c r="B319">
+        <v>7</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>91</v>
+      </c>
+      <c r="E319" t="s">
+        <v>154</v>
+      </c>
+      <c r="F319" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="320" customFormat="1" spans="1:6">
+      <c r="A320">
+        <v>7910004</v>
+      </c>
+      <c r="B320">
+        <v>7</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>91</v>
+      </c>
+      <c r="E320" t="s">
+        <v>156</v>
+      </c>
+      <c r="F320" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="321" customFormat="1" spans="1:6">
+      <c r="A321">
+        <v>7910005</v>
+      </c>
+      <c r="B321">
+        <v>7</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>91</v>
+      </c>
+      <c r="E321" t="s">
+        <v>158</v>
+      </c>
+      <c r="F321" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="322" customFormat="1" spans="1:6">
+      <c r="A322">
+        <v>7910006</v>
+      </c>
+      <c r="B322">
+        <v>7</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>91</v>
+      </c>
+      <c r="E322" t="s">
+        <v>160</v>
+      </c>
+      <c r="F322" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
         <v>99995005001</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B323" s="2">
         <v>999950</v>
       </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-      <c r="D294">
-        <v>5</v>
-      </c>
-      <c r="E294" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="2">
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
+      <c r="E323" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
         <v>99995005002</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B324" s="2">
         <v>999950</v>
       </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-      <c r="D295">
-        <v>5</v>
-      </c>
-      <c r="E295" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="2">
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>5</v>
+      </c>
+      <c r="E324" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
         <v>99995005003</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B325" s="2">
         <v>999950</v>
       </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-      <c r="D296">
-        <v>5</v>
-      </c>
-      <c r="E296" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="2">
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>5</v>
+      </c>
+      <c r="E325" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
         <v>99995005004</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B326" s="2">
         <v>999950</v>
       </c>
-      <c r="C297">
-        <v>1</v>
-      </c>
-      <c r="D297">
-        <v>5</v>
-      </c>
-      <c r="E297" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="2">
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>5</v>
+      </c>
+      <c r="E326" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
         <v>99995005005</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B327" s="2">
         <v>999950</v>
       </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-      <c r="D298">
-        <v>5</v>
-      </c>
-      <c r="E298" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="2">
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>5</v>
+      </c>
+      <c r="E327" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
         <v>99994705001</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B328" s="2">
         <v>999947</v>
       </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299">
-        <v>5</v>
-      </c>
-      <c r="E299" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="2">
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>5</v>
+      </c>
+      <c r="E328" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
         <v>99994705002</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B329" s="2">
         <v>999947</v>
       </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>5</v>
-      </c>
-      <c r="E300" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="2">
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>5</v>
+      </c>
+      <c r="E329" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
         <v>99994705003</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B330" s="2">
         <v>999947</v>
       </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301">
-        <v>5</v>
-      </c>
-      <c r="E301" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="2">
-        <v>99994705004</v>
-      </c>
-      <c r="B302" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C302">
-        <v>1</v>
-      </c>
-      <c r="D302">
-        <v>5</v>
-      </c>
-      <c r="E302" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B303">
-        <v>999961</v>
-      </c>
-      <c r="C303">
-        <v>1</v>
-      </c>
-      <c r="D303">
-        <v>5</v>
-      </c>
-      <c r="E303" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="2">
-        <v>99996105002</v>
-      </c>
-      <c r="B304">
-        <v>999961</v>
-      </c>
-      <c r="C304">
-        <v>1</v>
-      </c>
-      <c r="D304">
-        <v>5</v>
-      </c>
-      <c r="E304" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="2">
-        <v>99996105003</v>
-      </c>
-      <c r="B305">
-        <v>999961</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>5</v>
-      </c>
-      <c r="E305" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="2">
-        <v>99996105004</v>
-      </c>
-      <c r="B306">
-        <v>999961</v>
-      </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-      <c r="D306">
-        <v>5</v>
-      </c>
-      <c r="E306" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="2">
-        <v>99996105005</v>
-      </c>
-      <c r="B307">
-        <v>999961</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307">
-        <v>5</v>
-      </c>
-      <c r="E307" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308">
-        <v>99996805001</v>
-      </c>
-      <c r="B308" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C308">
-        <v>1</v>
-      </c>
-      <c r="D308">
-        <v>5</v>
-      </c>
-      <c r="E308" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309">
-        <v>99996805002</v>
-      </c>
-      <c r="B309" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C309">
-        <v>1</v>
-      </c>
-      <c r="D309">
-        <v>5</v>
-      </c>
-      <c r="E309" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310">
-        <v>99996805003</v>
-      </c>
-      <c r="B310" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C310">
-        <v>1</v>
-      </c>
-      <c r="D310">
-        <v>5</v>
-      </c>
-      <c r="E310" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311">
-        <v>99996805004</v>
-      </c>
-      <c r="B311" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C311">
-        <v>1</v>
-      </c>
-      <c r="D311">
-        <v>5</v>
-      </c>
-      <c r="E311" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312">
-        <v>99997905001</v>
-      </c>
-      <c r="B312">
-        <v>999979</v>
-      </c>
-      <c r="C312">
-        <v>1</v>
-      </c>
-      <c r="D312">
-        <v>5</v>
-      </c>
-      <c r="E312" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313">
-        <v>99997905002</v>
-      </c>
-      <c r="B313">
-        <v>999979</v>
-      </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313">
-        <v>5</v>
-      </c>
-      <c r="E313" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314">
-        <v>99997905003</v>
-      </c>
-      <c r="B314">
-        <v>999979</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>5</v>
-      </c>
-      <c r="E314" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315">
-        <v>99997905004</v>
-      </c>
-      <c r="B315">
-        <v>999979</v>
-      </c>
-      <c r="C315">
-        <v>1</v>
-      </c>
-      <c r="D315">
-        <v>5</v>
-      </c>
-      <c r="E315" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316">
-        <v>99997905005</v>
-      </c>
-      <c r="B316">
-        <v>999979</v>
-      </c>
-      <c r="C316">
-        <v>1</v>
-      </c>
-      <c r="D316">
-        <v>5</v>
-      </c>
-      <c r="E316" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="2">
-        <v>99997405001</v>
-      </c>
-      <c r="B317" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C317">
-        <v>1</v>
-      </c>
-      <c r="D317">
-        <v>5</v>
-      </c>
-      <c r="E317" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="2">
-        <v>99997405002</v>
-      </c>
-      <c r="B318" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C318">
-        <v>1</v>
-      </c>
-      <c r="D318">
-        <v>5</v>
-      </c>
-      <c r="E318" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="2">
-        <v>99997405003</v>
-      </c>
-      <c r="B319" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C319">
-        <v>1</v>
-      </c>
-      <c r="D319">
-        <v>5</v>
-      </c>
-      <c r="E319" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="2">
-        <v>99997405004</v>
-      </c>
-      <c r="B320" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C320">
-        <v>1</v>
-      </c>
-      <c r="D320">
-        <v>5</v>
-      </c>
-      <c r="E320" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321">
-        <v>99998605001</v>
-      </c>
-      <c r="B321">
-        <v>999986</v>
-      </c>
-      <c r="C321">
-        <v>1</v>
-      </c>
-      <c r="D321">
-        <v>5</v>
-      </c>
-      <c r="E321" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322">
-        <v>99998605002</v>
-      </c>
-      <c r="B322">
-        <v>999986</v>
-      </c>
-      <c r="C322">
-        <v>1</v>
-      </c>
-      <c r="D322">
-        <v>5</v>
-      </c>
-      <c r="E322" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323">
-        <v>99998605003</v>
-      </c>
-      <c r="B323">
-        <v>999986</v>
-      </c>
-      <c r="C323">
-        <v>1</v>
-      </c>
-      <c r="D323">
-        <v>5</v>
-      </c>
-      <c r="E323" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324">
-        <v>99998605004</v>
-      </c>
-      <c r="B324">
-        <v>999986</v>
-      </c>
-      <c r="C324">
-        <v>1</v>
-      </c>
-      <c r="D324">
-        <v>5</v>
-      </c>
-      <c r="E324" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325">
-        <v>99998705001</v>
-      </c>
-      <c r="B325">
-        <v>999987</v>
-      </c>
-      <c r="C325">
-        <v>1</v>
-      </c>
-      <c r="D325">
-        <v>5</v>
-      </c>
-      <c r="E325" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326">
-        <v>99998705002</v>
-      </c>
-      <c r="B326">
-        <v>999987</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326">
-        <v>5</v>
-      </c>
-      <c r="E326" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327">
-        <v>99998705003</v>
-      </c>
-      <c r="B327">
-        <v>999987</v>
-      </c>
-      <c r="C327">
-        <v>1</v>
-      </c>
-      <c r="D327">
-        <v>5</v>
-      </c>
-      <c r="E327" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328">
-        <v>99998705004</v>
-      </c>
-      <c r="B328">
-        <v>999987</v>
-      </c>
-      <c r="C328">
-        <v>1</v>
-      </c>
-      <c r="D328">
-        <v>5</v>
-      </c>
-      <c r="E328" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329">
-        <v>99998705005</v>
-      </c>
-      <c r="B329">
-        <v>999988</v>
-      </c>
-      <c r="C329">
-        <v>1</v>
-      </c>
-      <c r="D329">
-        <v>5</v>
-      </c>
-      <c r="E329" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="330" ht="12" customHeight="1" spans="1:5">
-      <c r="A330" s="2">
-        <v>99998905001</v>
-      </c>
-      <c r="B330">
-        <v>999989</v>
-      </c>
       <c r="C330">
         <v>1</v>
       </c>
@@ -8856,15 +8997,15 @@
         <v>5</v>
       </c>
       <c r="E330" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="2">
-        <v>99998905002</v>
-      </c>
-      <c r="B331">
-        <v>999989</v>
+        <v>99994705004</v>
+      </c>
+      <c r="B331" s="2">
+        <v>999947</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -8873,15 +9014,15 @@
         <v>5</v>
       </c>
       <c r="E331" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2">
-        <v>99998905003</v>
+        <v>99996105001</v>
       </c>
       <c r="B332">
-        <v>999989</v>
+        <v>999961</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -8890,15 +9031,15 @@
         <v>5</v>
       </c>
       <c r="E332" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2">
-        <v>99998905004</v>
+        <v>99996105002</v>
       </c>
       <c r="B333">
-        <v>999989</v>
+        <v>999961</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -8912,10 +9053,10 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2">
-        <v>99999505001</v>
-      </c>
-      <c r="B334" s="2">
-        <v>999995</v>
+        <v>99996105003</v>
+      </c>
+      <c r="B334">
+        <v>999961</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -8924,15 +9065,15 @@
         <v>5</v>
       </c>
       <c r="E334" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="2">
-        <v>99999505002</v>
-      </c>
-      <c r="B335" s="2">
-        <v>999995</v>
+        <v>99996105004</v>
+      </c>
+      <c r="B335">
+        <v>999961</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -8941,15 +9082,15 @@
         <v>5</v>
       </c>
       <c r="E335" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="2">
-        <v>99999505003</v>
-      </c>
-      <c r="B336" s="2">
-        <v>999995</v>
+        <v>99996105005</v>
+      </c>
+      <c r="B336">
+        <v>999961</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -8962,221 +9103,714 @@
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="2">
+      <c r="A337">
+        <v>99996805001</v>
+      </c>
+      <c r="B337" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>5</v>
+      </c>
+      <c r="E337" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338">
+        <v>99996805002</v>
+      </c>
+      <c r="B338" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>5</v>
+      </c>
+      <c r="E338" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339">
+        <v>99996805003</v>
+      </c>
+      <c r="B339" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>5</v>
+      </c>
+      <c r="E339" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340">
+        <v>99996805004</v>
+      </c>
+      <c r="B340" s="2">
+        <v>999968</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>5</v>
+      </c>
+      <c r="E340" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341">
+        <v>99997905001</v>
+      </c>
+      <c r="B341">
+        <v>999979</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>5</v>
+      </c>
+      <c r="E341" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342">
+        <v>99997905002</v>
+      </c>
+      <c r="B342">
+        <v>999979</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>5</v>
+      </c>
+      <c r="E342" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343">
+        <v>99997905003</v>
+      </c>
+      <c r="B343">
+        <v>999979</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>5</v>
+      </c>
+      <c r="E343" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344">
+        <v>99997905004</v>
+      </c>
+      <c r="B344">
+        <v>999979</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>5</v>
+      </c>
+      <c r="E344" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345">
+        <v>99997905005</v>
+      </c>
+      <c r="B345">
+        <v>999979</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>5</v>
+      </c>
+      <c r="E345" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>99997405001</v>
+      </c>
+      <c r="B346" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>5</v>
+      </c>
+      <c r="E346" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>99997405002</v>
+      </c>
+      <c r="B347" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>5</v>
+      </c>
+      <c r="E347" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>99997405003</v>
+      </c>
+      <c r="B348" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>5</v>
+      </c>
+      <c r="E348" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B349" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>5</v>
+      </c>
+      <c r="E349" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350">
+        <v>99998605001</v>
+      </c>
+      <c r="B350">
+        <v>999986</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>5</v>
+      </c>
+      <c r="E350" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351">
+        <v>99998605002</v>
+      </c>
+      <c r="B351">
+        <v>999986</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>5</v>
+      </c>
+      <c r="E351" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352">
+        <v>99998605003</v>
+      </c>
+      <c r="B352">
+        <v>999986</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>5</v>
+      </c>
+      <c r="E352" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353">
+        <v>99998605004</v>
+      </c>
+      <c r="B353">
+        <v>999986</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>5</v>
+      </c>
+      <c r="E353" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354">
+        <v>99998705001</v>
+      </c>
+      <c r="B354">
+        <v>999987</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>5</v>
+      </c>
+      <c r="E354" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355">
+        <v>99998705002</v>
+      </c>
+      <c r="B355">
+        <v>999987</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>5</v>
+      </c>
+      <c r="E355" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356">
+        <v>99998705003</v>
+      </c>
+      <c r="B356">
+        <v>999987</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>5</v>
+      </c>
+      <c r="E356" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357">
+        <v>99998705004</v>
+      </c>
+      <c r="B357">
+        <v>999987</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>5</v>
+      </c>
+      <c r="E357" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358">
+        <v>99998705005</v>
+      </c>
+      <c r="B358">
+        <v>999988</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>5</v>
+      </c>
+      <c r="E358" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="359" ht="12" customHeight="1" spans="1:5">
+      <c r="A359" s="2">
+        <v>99998905001</v>
+      </c>
+      <c r="B359">
+        <v>999989</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>5</v>
+      </c>
+      <c r="E359" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>99998905002</v>
+      </c>
+      <c r="B360">
+        <v>999989</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="E360" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>99998905003</v>
+      </c>
+      <c r="B361">
+        <v>999989</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>5</v>
+      </c>
+      <c r="E361" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>99998905004</v>
+      </c>
+      <c r="B362">
+        <v>999989</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>5</v>
+      </c>
+      <c r="E362" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>99999505001</v>
+      </c>
+      <c r="B363" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>5</v>
+      </c>
+      <c r="E363" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>99999505002</v>
+      </c>
+      <c r="B364" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>5</v>
+      </c>
+      <c r="E364" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>99999505003</v>
+      </c>
+      <c r="B365" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>5</v>
+      </c>
+      <c r="E365" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
         <v>99999505004</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B366" s="2">
         <v>999995</v>
       </c>
-      <c r="C337">
-        <v>1</v>
-      </c>
-      <c r="D337">
-        <v>5</v>
-      </c>
-      <c r="E337" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="2">
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>5</v>
+      </c>
+      <c r="E366" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
         <v>99999505005</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B367" s="2">
         <v>999995</v>
       </c>
-      <c r="C338">
-        <v>1</v>
-      </c>
-      <c r="D338">
-        <v>5</v>
-      </c>
-      <c r="E338" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1" spans="1:5">
-      <c r="A339" s="2">
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>5</v>
+      </c>
+      <c r="E367" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1" spans="1:5">
+      <c r="A368" s="2">
         <v>99999605001</v>
       </c>
-      <c r="B339">
+      <c r="B368">
         <v>999996</v>
       </c>
-      <c r="C339">
-        <v>1</v>
-      </c>
-      <c r="D339">
-        <v>5</v>
-      </c>
-      <c r="E339" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1" spans="1:5">
-      <c r="A340" s="2">
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>5</v>
+      </c>
+      <c r="E368" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1" spans="1:5">
+      <c r="A369" s="2">
         <v>99999605002</v>
       </c>
-      <c r="B340">
+      <c r="B369">
         <v>999996</v>
       </c>
-      <c r="C340">
-        <v>1</v>
-      </c>
-      <c r="D340">
-        <v>5</v>
-      </c>
-      <c r="E340" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1" spans="1:5">
-      <c r="A341" s="2">
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>5</v>
+      </c>
+      <c r="E369" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1" spans="1:5">
+      <c r="A370" s="2">
         <v>99999605003</v>
       </c>
-      <c r="B341">
+      <c r="B370">
         <v>999996</v>
       </c>
-      <c r="C341">
-        <v>1</v>
-      </c>
-      <c r="D341">
-        <v>5</v>
-      </c>
-      <c r="E341" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1" spans="1:5">
-      <c r="A342" s="2">
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>5</v>
+      </c>
+      <c r="E370" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1" spans="1:5">
+      <c r="A371" s="2">
         <v>99999605004</v>
       </c>
-      <c r="B342">
+      <c r="B371">
         <v>999996</v>
       </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-      <c r="D342">
-        <v>5</v>
-      </c>
-      <c r="E342" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1" spans="1:5">
-      <c r="A343" s="2">
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>5</v>
+      </c>
+      <c r="E371" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1" spans="1:5">
+      <c r="A372" s="2">
         <v>99999605005</v>
       </c>
-      <c r="B343">
+      <c r="B372">
         <v>999996</v>
       </c>
-      <c r="C343">
-        <v>1</v>
-      </c>
-      <c r="D343">
-        <v>5</v>
-      </c>
-      <c r="E343" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="344" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A344" s="2">
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>5</v>
+      </c>
+      <c r="E372" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="373" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A373" s="2">
         <v>99999905001</v>
       </c>
-      <c r="B344">
+      <c r="B373">
         <v>999999</v>
       </c>
-      <c r="C344">
-        <v>1</v>
-      </c>
-      <c r="D344">
-        <v>5</v>
-      </c>
-      <c r="E344" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1" spans="1:5">
-      <c r="A345" s="2">
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>5</v>
+      </c>
+      <c r="E373" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1" spans="1:5">
+      <c r="A374" s="2">
         <v>99999905002</v>
       </c>
-      <c r="B345">
+      <c r="B374">
         <v>999999</v>
       </c>
-      <c r="C345">
-        <v>1</v>
-      </c>
-      <c r="D345">
-        <v>5</v>
-      </c>
-      <c r="E345" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1" spans="1:5">
-      <c r="A346" s="2">
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>5</v>
+      </c>
+      <c r="E374" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1" spans="1:5">
+      <c r="A375" s="2">
         <v>99999905003</v>
       </c>
-      <c r="B346">
+      <c r="B375">
         <v>999999</v>
       </c>
-      <c r="C346">
-        <v>1</v>
-      </c>
-      <c r="D346">
-        <v>5</v>
-      </c>
-      <c r="E346" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1" spans="1:5">
-      <c r="A347" s="2">
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>5</v>
+      </c>
+      <c r="E375" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1" spans="1:5">
+      <c r="A376" s="2">
         <v>99999905004</v>
       </c>
-      <c r="B347">
+      <c r="B376">
         <v>999999</v>
       </c>
-      <c r="C347">
-        <v>1</v>
-      </c>
-      <c r="D347">
-        <v>5</v>
-      </c>
-      <c r="E347" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1" spans="1:5">
-      <c r="A348" s="2">
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>5</v>
+      </c>
+      <c r="E376" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1" spans="1:5">
+      <c r="A377" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B348">
+      <c r="B377">
         <v>999999</v>
       </c>
-      <c r="C348">
-        <v>1</v>
-      </c>
-      <c r="D348">
-        <v>5</v>
-      </c>
-      <c r="E348" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="381" ht="12" customHeight="1"/>
-    <row r="382" ht="12" customHeight="1"/>
-    <row r="383" ht="12" customHeight="1"/>
-    <row r="384" ht="12" customHeight="1"/>
-    <row r="385" ht="12" customHeight="1"/>
-    <row r="386" ht="12" customHeight="1"/>
-    <row r="387" ht="12" customHeight="1"/>
-    <row r="388" ht="12" customHeight="1"/>
-    <row r="389" ht="12" customHeight="1"/>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>5</v>
+      </c>
+      <c r="E377" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="410" ht="12" customHeight="1"/>
+    <row r="411" ht="12" customHeight="1"/>
+    <row r="412" ht="12" customHeight="1"/>
+    <row r="413" ht="12" customHeight="1"/>
+    <row r="414" ht="12" customHeight="1"/>
+    <row r="415" ht="12" customHeight="1"/>
+    <row r="416" ht="12" customHeight="1"/>
+    <row r="417" ht="12" customHeight="1"/>
+    <row r="418" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F348" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F377" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -2407,7 +2407,7 @@
   <dimension ref="A1:F418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowWidth="28050" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -2398,11 +2398,11 @@
   <dimension ref="A1:F433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D306" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28050" windowHeight="17055"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$392</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$395</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="467">
   <si>
     <t>id</t>
   </si>
@@ -1140,6 +1140,15 @@
   </si>
   <si>
     <t>牛头人-衣服-皮带胸甲</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>魔晶</t>
+  </si>
+  <si>
+    <t>宝箱</t>
   </si>
   <si>
     <t>哥布林-基础</t>
@@ -2395,14 +2404,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F320" sqref="F320"/>
+      <selection pane="bottomRight" activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7397,19 +7406,19 @@
     </row>
     <row r="250" customFormat="1" spans="1:6">
       <c r="A250">
-        <v>6000001</v>
+        <v>5910001</v>
       </c>
       <c r="B250">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E250" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F250" t="s">
         <v>370</v>
@@ -7417,19 +7426,19 @@
     </row>
     <row r="251" customFormat="1" spans="1:6">
       <c r="A251">
-        <v>6050001</v>
+        <v>5910002</v>
       </c>
       <c r="B251">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251">
         <v>0</v>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E251" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F251" t="s">
         <v>371</v>
@@ -7437,19 +7446,19 @@
     </row>
     <row r="252" customFormat="1" spans="1:6">
       <c r="A252">
-        <v>6050002</v>
+        <v>5910003</v>
       </c>
       <c r="B252">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252">
         <v>0</v>
       </c>
       <c r="D252">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E252" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="F252" t="s">
         <v>372</v>
@@ -7457,7 +7466,7 @@
     </row>
     <row r="253" customFormat="1" spans="1:6">
       <c r="A253">
-        <v>6050003</v>
+        <v>6000001</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -7466,10 +7475,10 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F253" t="s">
         <v>373</v>
@@ -7477,7 +7486,7 @@
     </row>
     <row r="254" customFormat="1" spans="1:6">
       <c r="A254">
-        <v>6050004</v>
+        <v>6050001</v>
       </c>
       <c r="B254">
         <v>6</v>
@@ -7489,7 +7498,7 @@
         <v>5</v>
       </c>
       <c r="E254" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F254" t="s">
         <v>374</v>
@@ -7497,7 +7506,7 @@
     </row>
     <row r="255" customFormat="1" spans="1:6">
       <c r="A255">
-        <v>6050005</v>
+        <v>6050002</v>
       </c>
       <c r="B255">
         <v>6</v>
@@ -7509,7 +7518,7 @@
         <v>5</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F255" t="s">
         <v>375</v>
@@ -7517,7 +7526,7 @@
     </row>
     <row r="256" customFormat="1" spans="1:6">
       <c r="A256">
-        <v>6050006</v>
+        <v>6050003</v>
       </c>
       <c r="B256">
         <v>6</v>
@@ -7529,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F256" t="s">
         <v>376</v>
@@ -7537,7 +7546,7 @@
     </row>
     <row r="257" customFormat="1" spans="1:6">
       <c r="A257">
-        <v>6050007</v>
+        <v>6050004</v>
       </c>
       <c r="B257">
         <v>6</v>
@@ -7549,7 +7558,7 @@
         <v>5</v>
       </c>
       <c r="E257" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F257" t="s">
         <v>377</v>
@@ -7557,7 +7566,7 @@
     </row>
     <row r="258" customFormat="1" spans="1:6">
       <c r="A258">
-        <v>6050008</v>
+        <v>6050005</v>
       </c>
       <c r="B258">
         <v>6</v>
@@ -7569,7 +7578,7 @@
         <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F258" t="s">
         <v>378</v>
@@ -7577,7 +7586,7 @@
     </row>
     <row r="259" customFormat="1" spans="1:6">
       <c r="A259">
-        <v>6050009</v>
+        <v>6050006</v>
       </c>
       <c r="B259">
         <v>6</v>
@@ -7589,7 +7598,7 @@
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F259" t="s">
         <v>379</v>
@@ -7597,7 +7606,7 @@
     </row>
     <row r="260" customFormat="1" spans="1:6">
       <c r="A260">
-        <v>6050010</v>
+        <v>6050007</v>
       </c>
       <c r="B260">
         <v>6</v>
@@ -7609,7 +7618,7 @@
         <v>5</v>
       </c>
       <c r="E260" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F260" t="s">
         <v>380</v>
@@ -7617,7 +7626,7 @@
     </row>
     <row r="261" customFormat="1" spans="1:6">
       <c r="A261">
-        <v>6060001</v>
+        <v>6050008</v>
       </c>
       <c r="B261">
         <v>6</v>
@@ -7626,18 +7635,18 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E261" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F261" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262" customFormat="1" spans="1:6">
       <c r="A262">
-        <v>6060002</v>
+        <v>6050009</v>
       </c>
       <c r="B262">
         <v>6</v>
@@ -7646,18 +7655,18 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F262" t="s">
-        <v>284</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" customFormat="1" spans="1:6">
       <c r="A263">
-        <v>6060003</v>
+        <v>6050010</v>
       </c>
       <c r="B263">
         <v>6</v>
@@ -7666,18 +7675,18 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E263" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F263" t="s">
-        <v>285</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" customFormat="1" spans="1:6">
       <c r="A264">
-        <v>6060004</v>
+        <v>6060001</v>
       </c>
       <c r="B264">
         <v>6</v>
@@ -7689,15 +7698,15 @@
         <v>6</v>
       </c>
       <c r="E264" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F264" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" customFormat="1" spans="1:6">
       <c r="A265">
-        <v>6060005</v>
+        <v>6060002</v>
       </c>
       <c r="B265">
         <v>6</v>
@@ -7709,15 +7718,15 @@
         <v>6</v>
       </c>
       <c r="E265" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F265" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" customFormat="1" spans="1:6">
       <c r="A266">
-        <v>6060006</v>
+        <v>6060003</v>
       </c>
       <c r="B266">
         <v>6</v>
@@ -7729,15 +7738,15 @@
         <v>6</v>
       </c>
       <c r="E266" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" customFormat="1" spans="1:6">
       <c r="A267">
-        <v>6060007</v>
+        <v>6060004</v>
       </c>
       <c r="B267">
         <v>6</v>
@@ -7749,15 +7758,15 @@
         <v>6</v>
       </c>
       <c r="E267" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="F267" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" customFormat="1" spans="1:6">
       <c r="A268">
-        <v>6060008</v>
+        <v>6060005</v>
       </c>
       <c r="B268">
         <v>6</v>
@@ -7769,15 +7778,15 @@
         <v>6</v>
       </c>
       <c r="E268" t="s">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="F268" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" customFormat="1" spans="1:6">
       <c r="A269">
-        <v>6060009</v>
+        <v>6060006</v>
       </c>
       <c r="B269">
         <v>6</v>
@@ -7789,15 +7798,15 @@
         <v>6</v>
       </c>
       <c r="E269" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F269" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="270" customFormat="1" spans="1:6">
       <c r="A270">
-        <v>6060010</v>
+        <v>6060007</v>
       </c>
       <c r="B270">
         <v>6</v>
@@ -7809,15 +7818,15 @@
         <v>6</v>
       </c>
       <c r="E270" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F270" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="271" customFormat="1" spans="1:6">
       <c r="A271">
-        <v>6500001</v>
+        <v>6060008</v>
       </c>
       <c r="B271">
         <v>6</v>
@@ -7826,18 +7835,18 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E271" t="s">
-        <v>17</v>
+        <v>292</v>
       </c>
       <c r="F271" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
     </row>
     <row r="272" customFormat="1" spans="1:6">
       <c r="A272">
-        <v>6500002</v>
+        <v>6060009</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -7846,18 +7855,18 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E272" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="F272" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" customFormat="1" spans="1:6">
       <c r="A273">
-        <v>6500003</v>
+        <v>6060010</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -7866,18 +7875,18 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E273" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="F273" t="s">
-        <v>383</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" customFormat="1" spans="1:6">
       <c r="A274">
-        <v>6500004</v>
+        <v>6500001</v>
       </c>
       <c r="B274">
         <v>6</v>
@@ -7889,7 +7898,7 @@
         <v>50</v>
       </c>
       <c r="E274" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="F274" t="s">
         <v>384</v>
@@ -7897,7 +7906,7 @@
     </row>
     <row r="275" customFormat="1" spans="1:6">
       <c r="A275">
-        <v>6500005</v>
+        <v>6500002</v>
       </c>
       <c r="B275">
         <v>6</v>
@@ -7909,7 +7918,7 @@
         <v>50</v>
       </c>
       <c r="E275" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F275" t="s">
         <v>385</v>
@@ -7917,7 +7926,7 @@
     </row>
     <row r="276" customFormat="1" spans="1:6">
       <c r="A276">
-        <v>6500006</v>
+        <v>6500003</v>
       </c>
       <c r="B276">
         <v>6</v>
@@ -7929,7 +7938,7 @@
         <v>50</v>
       </c>
       <c r="E276" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F276" t="s">
         <v>386</v>
@@ -7937,7 +7946,7 @@
     </row>
     <row r="277" customFormat="1" spans="1:6">
       <c r="A277">
-        <v>6500007</v>
+        <v>6500004</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -7949,7 +7958,7 @@
         <v>50</v>
       </c>
       <c r="E277" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F277" t="s">
         <v>387</v>
@@ -7957,7 +7966,7 @@
     </row>
     <row r="278" customFormat="1" spans="1:6">
       <c r="A278">
-        <v>6500008</v>
+        <v>6500005</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -7969,7 +7978,7 @@
         <v>50</v>
       </c>
       <c r="E278" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="F278" t="s">
         <v>388</v>
@@ -7977,7 +7986,7 @@
     </row>
     <row r="279" customFormat="1" spans="1:6">
       <c r="A279">
-        <v>6500009</v>
+        <v>6500006</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -7989,7 +7998,7 @@
         <v>50</v>
       </c>
       <c r="E279" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="F279" t="s">
         <v>389</v>
@@ -7997,7 +8006,7 @@
     </row>
     <row r="280" customFormat="1" spans="1:6">
       <c r="A280">
-        <v>6500010</v>
+        <v>6500007</v>
       </c>
       <c r="B280">
         <v>6</v>
@@ -8009,7 +8018,7 @@
         <v>50</v>
       </c>
       <c r="E280" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="F280" t="s">
         <v>390</v>
@@ -8017,7 +8026,7 @@
     </row>
     <row r="281" customFormat="1" spans="1:6">
       <c r="A281">
-        <v>6510001</v>
+        <v>6500008</v>
       </c>
       <c r="B281">
         <v>6</v>
@@ -8026,10 +8035,10 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E281" t="s">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="F281" t="s">
         <v>391</v>
@@ -8037,7 +8046,7 @@
     </row>
     <row r="282" customFormat="1" spans="1:6">
       <c r="A282">
-        <v>6510002</v>
+        <v>6500009</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -8046,10 +8055,10 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E282" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="F282" t="s">
         <v>392</v>
@@ -8057,7 +8066,7 @@
     </row>
     <row r="283" customFormat="1" spans="1:6">
       <c r="A283">
-        <v>6520001</v>
+        <v>6500010</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -8066,18 +8075,18 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E283" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="F283" t="s">
-        <v>333</v>
+        <v>393</v>
       </c>
     </row>
     <row r="284" customFormat="1" spans="1:6">
       <c r="A284">
-        <v>6520002</v>
+        <v>6510001</v>
       </c>
       <c r="B284">
         <v>6</v>
@@ -8086,18 +8095,18 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E284" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="F284" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
     </row>
     <row r="285" customFormat="1" spans="1:6">
       <c r="A285">
-        <v>6520003</v>
+        <v>6510002</v>
       </c>
       <c r="B285">
         <v>6</v>
@@ -8106,18 +8115,18 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E285" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F285" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
     </row>
     <row r="286" customFormat="1" spans="1:6">
       <c r="A286">
-        <v>6520004</v>
+        <v>6520001</v>
       </c>
       <c r="B286">
         <v>6</v>
@@ -8129,15 +8138,15 @@
         <v>52</v>
       </c>
       <c r="E286" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="F286" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="287" customFormat="1" spans="1:6">
       <c r="A287">
-        <v>6520005</v>
+        <v>6520002</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -8149,15 +8158,15 @@
         <v>52</v>
       </c>
       <c r="E287" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F287" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
     </row>
     <row r="288" customFormat="1" spans="1:6">
       <c r="A288">
-        <v>6800001</v>
+        <v>6520003</v>
       </c>
       <c r="B288">
         <v>6</v>
@@ -8166,18 +8175,18 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E288" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F288" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="289" customFormat="1" ht="12" customHeight="1" spans="1:6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="289" customFormat="1" spans="1:6">
       <c r="A289">
-        <v>6910001</v>
+        <v>6520004</v>
       </c>
       <c r="B289">
         <v>6</v>
@@ -8186,18 +8195,18 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E289" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="F289" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
     </row>
     <row r="290" customFormat="1" spans="1:6">
       <c r="A290">
-        <v>6910002</v>
+        <v>6520005</v>
       </c>
       <c r="B290">
         <v>6</v>
@@ -8206,18 +8215,18 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E290" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F290" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="291" customFormat="1" spans="1:6">
       <c r="A291">
-        <v>6910003</v>
+        <v>6800001</v>
       </c>
       <c r="B291">
         <v>6</v>
@@ -8226,18 +8235,18 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E291" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="F291" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="292" customFormat="1" spans="1:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="292" customFormat="1" ht="12" customHeight="1" spans="1:6">
       <c r="A292">
-        <v>6910004</v>
+        <v>6910001</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -8249,7 +8258,7 @@
         <v>91</v>
       </c>
       <c r="E292" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="F292" t="s">
         <v>397</v>
@@ -8257,7 +8266,7 @@
     </row>
     <row r="293" customFormat="1" spans="1:6">
       <c r="A293">
-        <v>6910005</v>
+        <v>6910002</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -8269,7 +8278,7 @@
         <v>91</v>
       </c>
       <c r="E293" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F293" t="s">
         <v>398</v>
@@ -8277,7 +8286,7 @@
     </row>
     <row r="294" customFormat="1" spans="1:6">
       <c r="A294">
-        <v>6910006</v>
+        <v>6910003</v>
       </c>
       <c r="B294">
         <v>6</v>
@@ -8289,7 +8298,7 @@
         <v>91</v>
       </c>
       <c r="E294" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F294" t="s">
         <v>399</v>
@@ -8297,7 +8306,7 @@
     </row>
     <row r="295" customFormat="1" spans="1:6">
       <c r="A295">
-        <v>6910007</v>
+        <v>6910004</v>
       </c>
       <c r="B295">
         <v>6</v>
@@ -8309,7 +8318,7 @@
         <v>91</v>
       </c>
       <c r="E295" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F295" t="s">
         <v>400</v>
@@ -8317,7 +8326,7 @@
     </row>
     <row r="296" customFormat="1" spans="1:6">
       <c r="A296">
-        <v>6910008</v>
+        <v>6910005</v>
       </c>
       <c r="B296">
         <v>6</v>
@@ -8329,7 +8338,7 @@
         <v>91</v>
       </c>
       <c r="E296" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F296" t="s">
         <v>401</v>
@@ -8337,7 +8346,7 @@
     </row>
     <row r="297" customFormat="1" spans="1:6">
       <c r="A297">
-        <v>6910009</v>
+        <v>6910006</v>
       </c>
       <c r="B297">
         <v>6</v>
@@ -8349,7 +8358,7 @@
         <v>91</v>
       </c>
       <c r="E297" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F297" t="s">
         <v>402</v>
@@ -8357,7 +8366,7 @@
     </row>
     <row r="298" customFormat="1" spans="1:6">
       <c r="A298">
-        <v>6910010</v>
+        <v>6910007</v>
       </c>
       <c r="B298">
         <v>6</v>
@@ -8369,7 +8378,7 @@
         <v>91</v>
       </c>
       <c r="E298" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F298" t="s">
         <v>403</v>
@@ -8377,7 +8386,7 @@
     </row>
     <row r="299" customFormat="1" spans="1:6">
       <c r="A299">
-        <v>6910011</v>
+        <v>6910008</v>
       </c>
       <c r="B299">
         <v>6</v>
@@ -8389,7 +8398,7 @@
         <v>91</v>
       </c>
       <c r="E299" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F299" t="s">
         <v>404</v>
@@ -8397,7 +8406,7 @@
     </row>
     <row r="300" customFormat="1" spans="1:6">
       <c r="A300">
-        <v>6910012</v>
+        <v>6910009</v>
       </c>
       <c r="B300">
         <v>6</v>
@@ -8409,7 +8418,7 @@
         <v>91</v>
       </c>
       <c r="E300" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F300" t="s">
         <v>405</v>
@@ -8417,7 +8426,7 @@
     </row>
     <row r="301" customFormat="1" spans="1:6">
       <c r="A301">
-        <v>6910013</v>
+        <v>6910010</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -8429,7 +8438,7 @@
         <v>91</v>
       </c>
       <c r="E301" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F301" t="s">
         <v>406</v>
@@ -8437,7 +8446,7 @@
     </row>
     <row r="302" customFormat="1" spans="1:6">
       <c r="A302">
-        <v>6910014</v>
+        <v>6910011</v>
       </c>
       <c r="B302">
         <v>6</v>
@@ -8449,7 +8458,7 @@
         <v>91</v>
       </c>
       <c r="E302" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F302" t="s">
         <v>407</v>
@@ -8457,7 +8466,7 @@
     </row>
     <row r="303" customFormat="1" spans="1:6">
       <c r="A303">
-        <v>6910015</v>
+        <v>6910012</v>
       </c>
       <c r="B303">
         <v>6</v>
@@ -8469,7 +8478,7 @@
         <v>91</v>
       </c>
       <c r="E303" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F303" t="s">
         <v>408</v>
@@ -8477,7 +8486,7 @@
     </row>
     <row r="304" customFormat="1" spans="1:6">
       <c r="A304">
-        <v>6910016</v>
+        <v>6910013</v>
       </c>
       <c r="B304">
         <v>6</v>
@@ -8489,7 +8498,7 @@
         <v>91</v>
       </c>
       <c r="E304" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F304" t="s">
         <v>409</v>
@@ -8497,7 +8506,7 @@
     </row>
     <row r="305" customFormat="1" spans="1:6">
       <c r="A305">
-        <v>6910017</v>
+        <v>6910014</v>
       </c>
       <c r="B305">
         <v>6</v>
@@ -8509,7 +8518,7 @@
         <v>91</v>
       </c>
       <c r="E305" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F305" t="s">
         <v>410</v>
@@ -8517,7 +8526,7 @@
     </row>
     <row r="306" customFormat="1" spans="1:6">
       <c r="A306">
-        <v>6910018</v>
+        <v>6910015</v>
       </c>
       <c r="B306">
         <v>6</v>
@@ -8529,7 +8538,7 @@
         <v>91</v>
       </c>
       <c r="E306" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F306" t="s">
         <v>411</v>
@@ -8537,7 +8546,7 @@
     </row>
     <row r="307" customFormat="1" spans="1:6">
       <c r="A307">
-        <v>6910019</v>
+        <v>6910016</v>
       </c>
       <c r="B307">
         <v>6</v>
@@ -8549,7 +8558,7 @@
         <v>91</v>
       </c>
       <c r="E307" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F307" t="s">
         <v>412</v>
@@ -8557,7 +8566,7 @@
     </row>
     <row r="308" customFormat="1" spans="1:6">
       <c r="A308">
-        <v>6910020</v>
+        <v>6910017</v>
       </c>
       <c r="B308">
         <v>6</v>
@@ -8569,7 +8578,7 @@
         <v>91</v>
       </c>
       <c r="E308" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F308" t="s">
         <v>413</v>
@@ -8577,19 +8586,19 @@
     </row>
     <row r="309" customFormat="1" spans="1:6">
       <c r="A309">
-        <v>7000001</v>
+        <v>6910018</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E309" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="F309" t="s">
         <v>414</v>
@@ -8597,47 +8606,47 @@
     </row>
     <row r="310" customFormat="1" spans="1:6">
       <c r="A310">
-        <v>7030001</v>
+        <v>6910019</v>
       </c>
       <c r="B310">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C310">
         <v>0</v>
       </c>
       <c r="D310">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E310" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="F310" t="s">
-        <v>256</v>
+        <v>415</v>
       </c>
     </row>
     <row r="311" customFormat="1" spans="1:6">
       <c r="A311">
-        <v>7030002</v>
+        <v>6910020</v>
       </c>
       <c r="B311">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C311">
         <v>0</v>
       </c>
       <c r="D311">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E311" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="F311" t="s">
-        <v>257</v>
+        <v>416</v>
       </c>
     </row>
     <row r="312" customFormat="1" spans="1:6">
       <c r="A312">
-        <v>7050001</v>
+        <v>7000001</v>
       </c>
       <c r="B312">
         <v>7</v>
@@ -8646,18 +8655,18 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E312" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F312" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="313" customFormat="1" spans="1:6">
       <c r="A313">
-        <v>7050002</v>
+        <v>7030001</v>
       </c>
       <c r="B313">
         <v>7</v>
@@ -8666,18 +8675,18 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F313" t="s">
-        <v>416</v>
+        <v>256</v>
       </c>
     </row>
     <row r="314" customFormat="1" spans="1:6">
       <c r="A314">
-        <v>7050003</v>
+        <v>7030002</v>
       </c>
       <c r="B314">
         <v>7</v>
@@ -8686,18 +8695,18 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F314" t="s">
-        <v>417</v>
+        <v>257</v>
       </c>
     </row>
     <row r="315" customFormat="1" spans="1:6">
       <c r="A315">
-        <v>7050004</v>
+        <v>7050001</v>
       </c>
       <c r="B315">
         <v>7</v>
@@ -8709,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="E315" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F315" t="s">
         <v>418</v>
@@ -8717,7 +8726,7 @@
     </row>
     <row r="316" customFormat="1" spans="1:6">
       <c r="A316">
-        <v>7050005</v>
+        <v>7050002</v>
       </c>
       <c r="B316">
         <v>7</v>
@@ -8729,7 +8738,7 @@
         <v>5</v>
       </c>
       <c r="E316" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F316" t="s">
         <v>419</v>
@@ -8737,7 +8746,7 @@
     </row>
     <row r="317" customFormat="1" spans="1:6">
       <c r="A317">
-        <v>7060001</v>
+        <v>7050003</v>
       </c>
       <c r="B317">
         <v>7</v>
@@ -8746,18 +8755,18 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E317" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F317" t="s">
-        <v>283</v>
+        <v>420</v>
       </c>
     </row>
     <row r="318" customFormat="1" spans="1:6">
       <c r="A318">
-        <v>7060002</v>
+        <v>7050004</v>
       </c>
       <c r="B318">
         <v>7</v>
@@ -8766,18 +8775,18 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E318" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F318" t="s">
-        <v>284</v>
+        <v>421</v>
       </c>
     </row>
     <row r="319" customFormat="1" spans="1:6">
       <c r="A319">
-        <v>7060003</v>
+        <v>7050005</v>
       </c>
       <c r="B319">
         <v>7</v>
@@ -8786,18 +8795,18 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E319" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F319" t="s">
-        <v>285</v>
+        <v>422</v>
       </c>
     </row>
     <row r="320" customFormat="1" spans="1:6">
       <c r="A320">
-        <v>7060004</v>
+        <v>7060001</v>
       </c>
       <c r="B320">
         <v>7</v>
@@ -8809,15 +8818,15 @@
         <v>6</v>
       </c>
       <c r="E320" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F320" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="321" customFormat="1" spans="1:6">
       <c r="A321">
-        <v>7060005</v>
+        <v>7060002</v>
       </c>
       <c r="B321">
         <v>7</v>
@@ -8829,15 +8838,15 @@
         <v>6</v>
       </c>
       <c r="E321" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F321" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="322" customFormat="1" spans="1:6">
       <c r="A322">
-        <v>7500001</v>
+        <v>7060003</v>
       </c>
       <c r="B322">
         <v>7</v>
@@ -8846,18 +8855,18 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E322" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F322" t="s">
-        <v>420</v>
+        <v>285</v>
       </c>
     </row>
     <row r="323" customFormat="1" spans="1:6">
       <c r="A323">
-        <v>7510001</v>
+        <v>7060004</v>
       </c>
       <c r="B323">
         <v>7</v>
@@ -8866,18 +8875,18 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E323" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F323" t="s">
-        <v>421</v>
+        <v>286</v>
       </c>
     </row>
     <row r="324" customFormat="1" spans="1:6">
       <c r="A324">
-        <v>7510002</v>
+        <v>7060005</v>
       </c>
       <c r="B324">
         <v>7</v>
@@ -8886,18 +8895,18 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E324" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="F324" t="s">
-        <v>422</v>
+        <v>287</v>
       </c>
     </row>
     <row r="325" customFormat="1" spans="1:6">
       <c r="A325">
-        <v>7520001</v>
+        <v>7500001</v>
       </c>
       <c r="B325">
         <v>7</v>
@@ -8906,18 +8915,18 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E325" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F325" t="s">
-        <v>333</v>
+        <v>423</v>
       </c>
     </row>
     <row r="326" customFormat="1" spans="1:6">
       <c r="A326">
-        <v>7520002</v>
+        <v>7510001</v>
       </c>
       <c r="B326">
         <v>7</v>
@@ -8926,18 +8935,18 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E326" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="F326" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:6">
       <c r="A327">
-        <v>7520003</v>
+        <v>7510002</v>
       </c>
       <c r="B327">
         <v>7</v>
@@ -8946,18 +8955,18 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E327" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F327" t="s">
-        <v>335</v>
+        <v>425</v>
       </c>
     </row>
     <row r="328" customFormat="1" spans="1:6">
       <c r="A328">
-        <v>7520004</v>
+        <v>7520001</v>
       </c>
       <c r="B328">
         <v>7</v>
@@ -8969,15 +8978,15 @@
         <v>52</v>
       </c>
       <c r="E328" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="F328" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="329" customFormat="1" spans="1:6">
       <c r="A329">
-        <v>7900001</v>
+        <v>7520002</v>
       </c>
       <c r="B329">
         <v>7</v>
@@ -8986,18 +8995,18 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E329" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="F329" t="s">
-        <v>423</v>
+        <v>334</v>
       </c>
     </row>
     <row r="330" customFormat="1" spans="1:6">
       <c r="A330">
-        <v>7900002</v>
+        <v>7520003</v>
       </c>
       <c r="B330">
         <v>7</v>
@@ -9006,18 +9015,18 @@
         <v>0</v>
       </c>
       <c r="D330">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E330" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F330" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
     </row>
     <row r="331" customFormat="1" spans="1:6">
       <c r="A331">
-        <v>7900003</v>
+        <v>7520004</v>
       </c>
       <c r="B331">
         <v>7</v>
@@ -9026,18 +9035,18 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E331" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="F331" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="332" customFormat="1" ht="12" customHeight="1" spans="1:6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="332" customFormat="1" spans="1:6">
       <c r="A332">
-        <v>7910001</v>
+        <v>7900001</v>
       </c>
       <c r="B332">
         <v>7</v>
@@ -9046,10 +9055,10 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E332" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F332" t="s">
         <v>426</v>
@@ -9057,7 +9066,7 @@
     </row>
     <row r="333" customFormat="1" spans="1:6">
       <c r="A333">
-        <v>7910002</v>
+        <v>7900002</v>
       </c>
       <c r="B333">
         <v>7</v>
@@ -9066,10 +9075,10 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E333" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="F333" t="s">
         <v>427</v>
@@ -9077,7 +9086,7 @@
     </row>
     <row r="334" customFormat="1" spans="1:6">
       <c r="A334">
-        <v>7910003</v>
+        <v>7900003</v>
       </c>
       <c r="B334">
         <v>7</v>
@@ -9086,18 +9095,18 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E334" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="F334" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="335" customFormat="1" spans="1:6">
+    <row r="335" customFormat="1" ht="12" customHeight="1" spans="1:6">
       <c r="A335">
-        <v>7910004</v>
+        <v>7910001</v>
       </c>
       <c r="B335">
         <v>7</v>
@@ -9109,7 +9118,7 @@
         <v>91</v>
       </c>
       <c r="E335" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="F335" t="s">
         <v>429</v>
@@ -9117,7 +9126,7 @@
     </row>
     <row r="336" customFormat="1" spans="1:6">
       <c r="A336">
-        <v>7910005</v>
+        <v>7910002</v>
       </c>
       <c r="B336">
         <v>7</v>
@@ -9129,7 +9138,7 @@
         <v>91</v>
       </c>
       <c r="E336" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F336" t="s">
         <v>430</v>
@@ -9137,7 +9146,7 @@
     </row>
     <row r="337" customFormat="1" spans="1:6">
       <c r="A337">
-        <v>7910006</v>
+        <v>7910003</v>
       </c>
       <c r="B337">
         <v>7</v>
@@ -9149,66 +9158,75 @@
         <v>91</v>
       </c>
       <c r="E337" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F337" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="2">
-        <v>99995005001</v>
-      </c>
-      <c r="B338" s="2">
-        <v>999950</v>
+    <row r="338" customFormat="1" spans="1:6">
+      <c r="A338">
+        <v>7910004</v>
+      </c>
+      <c r="B338">
+        <v>7</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D338">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E338" t="s">
+        <v>160</v>
+      </c>
+      <c r="F338" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="2">
-        <v>99995005002</v>
-      </c>
-      <c r="B339" s="2">
-        <v>999950</v>
+    <row r="339" customFormat="1" spans="1:6">
+      <c r="A339">
+        <v>7910005</v>
+      </c>
+      <c r="B339">
+        <v>7</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D339">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E339" t="s">
+        <v>162</v>
+      </c>
+      <c r="F339" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="2">
-        <v>99995005003</v>
-      </c>
-      <c r="B340" s="2">
-        <v>999950</v>
+    <row r="340" customFormat="1" spans="1:6">
+      <c r="A340">
+        <v>7910006</v>
+      </c>
+      <c r="B340">
+        <v>7</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D340">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E340" t="s">
+        <v>164</v>
+      </c>
+      <c r="F340" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="2">
-        <v>99995005004</v>
+        <v>99995005001</v>
       </c>
       <c r="B341" s="2">
         <v>999950</v>
@@ -9225,7 +9243,7 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="2">
-        <v>99995005005</v>
+        <v>99995005002</v>
       </c>
       <c r="B342" s="2">
         <v>999950</v>
@@ -9242,10 +9260,10 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="2">
-        <v>99994705001</v>
+        <v>99995005003</v>
       </c>
       <c r="B343" s="2">
-        <v>999947</v>
+        <v>999950</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -9259,10 +9277,10 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="2">
-        <v>99994705002</v>
+        <v>99995005004</v>
       </c>
       <c r="B344" s="2">
-        <v>999947</v>
+        <v>999950</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -9276,10 +9294,10 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="2">
-        <v>99994705003</v>
+        <v>99995005005</v>
       </c>
       <c r="B345" s="2">
-        <v>999947</v>
+        <v>999950</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -9293,7 +9311,7 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="2">
-        <v>99994705004</v>
+        <v>99994705001</v>
       </c>
       <c r="B346" s="2">
         <v>999947</v>
@@ -9305,15 +9323,15 @@
         <v>5</v>
       </c>
       <c r="E346" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B347">
-        <v>999961</v>
+        <v>99994705002</v>
+      </c>
+      <c r="B347" s="2">
+        <v>999947</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -9322,15 +9340,15 @@
         <v>5</v>
       </c>
       <c r="E347" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="2">
-        <v>99996105002</v>
-      </c>
-      <c r="B348">
-        <v>999961</v>
+        <v>99994705003</v>
+      </c>
+      <c r="B348" s="2">
+        <v>999947</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -9339,15 +9357,15 @@
         <v>5</v>
       </c>
       <c r="E348" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="2">
-        <v>99996105003</v>
-      </c>
-      <c r="B349">
-        <v>999961</v>
+        <v>99994705004</v>
+      </c>
+      <c r="B349" s="2">
+        <v>999947</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -9356,12 +9374,12 @@
         <v>5</v>
       </c>
       <c r="E349" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="2">
-        <v>99996105004</v>
+        <v>99996105001</v>
       </c>
       <c r="B350">
         <v>999961</v>
@@ -9373,12 +9391,12 @@
         <v>5</v>
       </c>
       <c r="E350" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="2">
-        <v>99996105005</v>
+        <v>99996105002</v>
       </c>
       <c r="B351">
         <v>999961</v>
@@ -9390,15 +9408,15 @@
         <v>5</v>
       </c>
       <c r="E351" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="352" spans="1:5">
-      <c r="A352">
-        <v>99996805001</v>
-      </c>
-      <c r="B352" s="2">
-        <v>999968</v>
+      <c r="A352" s="2">
+        <v>99996105003</v>
+      </c>
+      <c r="B352">
+        <v>999961</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -9407,15 +9425,15 @@
         <v>5</v>
       </c>
       <c r="E352" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353">
-        <v>99996805002</v>
-      </c>
-      <c r="B353" s="2">
-        <v>999968</v>
+      <c r="A353" s="2">
+        <v>99996105004</v>
+      </c>
+      <c r="B353">
+        <v>999961</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -9424,15 +9442,15 @@
         <v>5</v>
       </c>
       <c r="E353" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354">
-        <v>99996805003</v>
-      </c>
-      <c r="B354" s="2">
-        <v>999968</v>
+      <c r="A354" s="2">
+        <v>99996105005</v>
+      </c>
+      <c r="B354">
+        <v>999961</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -9441,12 +9459,12 @@
         <v>5</v>
       </c>
       <c r="E354" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355">
-        <v>99996805004</v>
+        <v>99996805001</v>
       </c>
       <c r="B355" s="2">
         <v>999968</v>
@@ -9458,15 +9476,15 @@
         <v>5</v>
       </c>
       <c r="E355" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356">
-        <v>99997905001</v>
-      </c>
-      <c r="B356">
-        <v>999979</v>
+        <v>99996805002</v>
+      </c>
+      <c r="B356" s="2">
+        <v>999968</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -9475,15 +9493,15 @@
         <v>5</v>
       </c>
       <c r="E356" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357">
-        <v>99997905002</v>
-      </c>
-      <c r="B357">
-        <v>999979</v>
+        <v>99996805003</v>
+      </c>
+      <c r="B357" s="2">
+        <v>999968</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -9492,15 +9510,15 @@
         <v>5</v>
       </c>
       <c r="E357" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <v>99997905003</v>
-      </c>
-      <c r="B358">
-        <v>999979</v>
+        <v>99996805004</v>
+      </c>
+      <c r="B358" s="2">
+        <v>999968</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -9509,12 +9527,12 @@
         <v>5</v>
       </c>
       <c r="E358" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359">
-        <v>99997905004</v>
+        <v>99997905001</v>
       </c>
       <c r="B359">
         <v>999979</v>
@@ -9531,7 +9549,7 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360">
-        <v>99997905005</v>
+        <v>99997905002</v>
       </c>
       <c r="B360">
         <v>999979</v>
@@ -9543,15 +9561,15 @@
         <v>5</v>
       </c>
       <c r="E360" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="2">
-        <v>99997405001</v>
-      </c>
-      <c r="B361" s="2">
-        <v>999974</v>
+      <c r="A361">
+        <v>99997905003</v>
+      </c>
+      <c r="B361">
+        <v>999979</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -9560,15 +9578,15 @@
         <v>5</v>
       </c>
       <c r="E361" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="2">
-        <v>99997405002</v>
-      </c>
-      <c r="B362" s="2">
-        <v>999974</v>
+      <c r="A362">
+        <v>99997905004</v>
+      </c>
+      <c r="B362">
+        <v>999979</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -9577,15 +9595,15 @@
         <v>5</v>
       </c>
       <c r="E362" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="2">
-        <v>99997405003</v>
-      </c>
-      <c r="B363" s="2">
-        <v>999974</v>
+      <c r="A363">
+        <v>99997905005</v>
+      </c>
+      <c r="B363">
+        <v>999979</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -9594,12 +9612,12 @@
         <v>5</v>
       </c>
       <c r="E363" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2">
-        <v>99997405004</v>
+        <v>99997405001</v>
       </c>
       <c r="B364" s="2">
         <v>999974</v>
@@ -9611,15 +9629,15 @@
         <v>5</v>
       </c>
       <c r="E364" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365">
-        <v>99998605001</v>
-      </c>
-      <c r="B365">
-        <v>999986</v>
+      <c r="A365" s="2">
+        <v>99997405002</v>
+      </c>
+      <c r="B365" s="2">
+        <v>999974</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -9628,15 +9646,15 @@
         <v>5</v>
       </c>
       <c r="E365" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366">
-        <v>99998605002</v>
-      </c>
-      <c r="B366">
-        <v>999986</v>
+      <c r="A366" s="2">
+        <v>99997405003</v>
+      </c>
+      <c r="B366" s="2">
+        <v>999974</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -9645,15 +9663,15 @@
         <v>5</v>
       </c>
       <c r="E366" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367">
-        <v>99998605003</v>
-      </c>
-      <c r="B367">
-        <v>999986</v>
+      <c r="A367" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B367" s="2">
+        <v>999974</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -9667,7 +9685,7 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368">
-        <v>99998605004</v>
+        <v>99998605001</v>
       </c>
       <c r="B368">
         <v>999986</v>
@@ -9684,10 +9702,10 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369">
-        <v>99998705001</v>
+        <v>99998605002</v>
       </c>
       <c r="B369">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -9696,15 +9714,15 @@
         <v>5</v>
       </c>
       <c r="E369" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370">
-        <v>99998705002</v>
+        <v>99998605003</v>
       </c>
       <c r="B370">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -9713,15 +9731,15 @@
         <v>5</v>
       </c>
       <c r="E370" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371">
-        <v>99998705003</v>
+        <v>99998605004</v>
       </c>
       <c r="B371">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -9730,12 +9748,12 @@
         <v>5</v>
       </c>
       <c r="E371" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
-        <v>99998705004</v>
+        <v>99998705001</v>
       </c>
       <c r="B372">
         <v>999987</v>
@@ -9747,80 +9765,80 @@
         <v>5</v>
       </c>
       <c r="E372" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373">
+        <v>99998705002</v>
+      </c>
+      <c r="B373">
+        <v>999987</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>5</v>
+      </c>
+      <c r="E373" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374">
+        <v>99998705003</v>
+      </c>
+      <c r="B374">
+        <v>999987</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>5</v>
+      </c>
+      <c r="E374" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375">
+        <v>99998705004</v>
+      </c>
+      <c r="B375">
+        <v>999987</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>5</v>
+      </c>
+      <c r="E375" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376">
         <v>99998705005</v>
       </c>
-      <c r="B373">
+      <c r="B376">
         <v>999988</v>
       </c>
-      <c r="C373">
-        <v>1</v>
-      </c>
-      <c r="D373">
-        <v>5</v>
-      </c>
-      <c r="E373" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="374" ht="12" customHeight="1" spans="1:5">
-      <c r="A374" s="2">
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>5</v>
+      </c>
+      <c r="E376" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="377" ht="12" customHeight="1" spans="1:5">
+      <c r="A377" s="2">
         <v>99998905001</v>
-      </c>
-      <c r="B374">
-        <v>999989</v>
-      </c>
-      <c r="C374">
-        <v>1</v>
-      </c>
-      <c r="D374">
-        <v>5</v>
-      </c>
-      <c r="E374" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="2">
-        <v>99998905002</v>
-      </c>
-      <c r="B375">
-        <v>999989</v>
-      </c>
-      <c r="C375">
-        <v>1</v>
-      </c>
-      <c r="D375">
-        <v>5</v>
-      </c>
-      <c r="E375" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="2">
-        <v>99998905003</v>
-      </c>
-      <c r="B376">
-        <v>999989</v>
-      </c>
-      <c r="C376">
-        <v>1</v>
-      </c>
-      <c r="D376">
-        <v>5</v>
-      </c>
-      <c r="E376" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="2">
-        <v>99998905004</v>
       </c>
       <c r="B377">
         <v>999989</v>
@@ -9832,15 +9850,15 @@
         <v>5</v>
       </c>
       <c r="E377" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2">
-        <v>99999505001</v>
-      </c>
-      <c r="B378" s="2">
-        <v>999995</v>
+        <v>99998905002</v>
+      </c>
+      <c r="B378">
+        <v>999989</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -9849,15 +9867,15 @@
         <v>5</v>
       </c>
       <c r="E378" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2">
-        <v>99999505002</v>
-      </c>
-      <c r="B379" s="2">
-        <v>999995</v>
+        <v>99998905003</v>
+      </c>
+      <c r="B379">
+        <v>999989</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -9866,15 +9884,15 @@
         <v>5</v>
       </c>
       <c r="E379" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2">
-        <v>99999505003</v>
-      </c>
-      <c r="B380" s="2">
-        <v>999995</v>
+        <v>99998905004</v>
+      </c>
+      <c r="B380">
+        <v>999989</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -9883,12 +9901,12 @@
         <v>5</v>
       </c>
       <c r="E380" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2">
-        <v>99999505004</v>
+        <v>99999505001</v>
       </c>
       <c r="B381" s="2">
         <v>999995</v>
@@ -9900,12 +9918,12 @@
         <v>5</v>
       </c>
       <c r="E381" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2">
-        <v>99999505005</v>
+        <v>99999505002</v>
       </c>
       <c r="B382" s="2">
         <v>999995</v>
@@ -9917,15 +9935,15 @@
         <v>5</v>
       </c>
       <c r="E382" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1" spans="1:5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" s="2">
-        <v>99999605001</v>
-      </c>
-      <c r="B383">
-        <v>999996</v>
+        <v>99999505003</v>
+      </c>
+      <c r="B383" s="2">
+        <v>999995</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -9934,15 +9952,15 @@
         <v>5</v>
       </c>
       <c r="E383" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" s="2">
-        <v>99999605002</v>
-      </c>
-      <c r="B384">
-        <v>999996</v>
+        <v>99999505004</v>
+      </c>
+      <c r="B384" s="2">
+        <v>999995</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -9951,15 +9969,15 @@
         <v>5</v>
       </c>
       <c r="E384" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" s="2">
-        <v>99999605003</v>
-      </c>
-      <c r="B385">
-        <v>999996</v>
+        <v>99999505005</v>
+      </c>
+      <c r="B385" s="2">
+        <v>999995</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -9968,12 +9986,12 @@
         <v>5</v>
       </c>
       <c r="E385" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:5">
       <c r="A386" s="2">
-        <v>99999605004</v>
+        <v>99999605001</v>
       </c>
       <c r="B386">
         <v>999996</v>
@@ -9985,12 +10003,12 @@
         <v>5</v>
       </c>
       <c r="E386" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="387" ht="15" customHeight="1" spans="1:5">
       <c r="A387" s="2">
-        <v>99999605005</v>
+        <v>99999605002</v>
       </c>
       <c r="B387">
         <v>999996</v>
@@ -10002,15 +10020,15 @@
         <v>5</v>
       </c>
       <c r="E387" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="388" customFormat="1" ht="15" customHeight="1" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1" spans="1:5">
       <c r="A388" s="2">
-        <v>99999905001</v>
+        <v>99999605003</v>
       </c>
       <c r="B388">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -10019,15 +10037,15 @@
         <v>5</v>
       </c>
       <c r="E388" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:5">
       <c r="A389" s="2">
-        <v>99999905002</v>
+        <v>99999605004</v>
       </c>
       <c r="B389">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -10036,15 +10054,15 @@
         <v>5</v>
       </c>
       <c r="E389" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="390" ht="15" customHeight="1" spans="1:5">
       <c r="A390" s="2">
-        <v>99999905003</v>
+        <v>99999605005</v>
       </c>
       <c r="B390">
-        <v>999999</v>
+        <v>999996</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -10053,12 +10071,12 @@
         <v>5</v>
       </c>
       <c r="E390" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="391" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A391" s="2">
-        <v>99999905004</v>
+        <v>99999905001</v>
       </c>
       <c r="B391">
         <v>999999</v>
@@ -10070,12 +10088,12 @@
         <v>5</v>
       </c>
       <c r="E391" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:5">
       <c r="A392" s="2">
-        <v>99999905005</v>
+        <v>99999905002</v>
       </c>
       <c r="B392">
         <v>999999</v>
@@ -10087,21 +10105,72 @@
         <v>5</v>
       </c>
       <c r="E392" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="425" ht="12" customHeight="1"/>
-    <row r="426" ht="12" customHeight="1"/>
-    <row r="427" ht="12" customHeight="1"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1" spans="1:5">
+      <c r="A393" s="2">
+        <v>99999905003</v>
+      </c>
+      <c r="B393">
+        <v>999999</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>5</v>
+      </c>
+      <c r="E393" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1" spans="1:5">
+      <c r="A394" s="2">
+        <v>99999905004</v>
+      </c>
+      <c r="B394">
+        <v>999999</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>5</v>
+      </c>
+      <c r="E394" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1" spans="1:5">
+      <c r="A395" s="2">
+        <v>99999905005</v>
+      </c>
+      <c r="B395">
+        <v>999999</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>5</v>
+      </c>
+      <c r="E395" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1"/>
     <row r="428" ht="12" customHeight="1"/>
     <row r="429" ht="12" customHeight="1"/>
     <row r="430" ht="12" customHeight="1"/>
     <row r="431" ht="12" customHeight="1"/>
     <row r="432" ht="12" customHeight="1"/>
     <row r="433" ht="12" customHeight="1"/>
+    <row r="434" ht="12" customHeight="1"/>
+    <row r="435" ht="12" customHeight="1"/>
+    <row r="436" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F392" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F395" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
@@ -2407,11 +2407,11 @@
   <dimension ref="A1:F436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D267" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A220" sqref="A220"/>
+      <selection pane="bottomRight" activeCell="A294" sqref="A294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -2407,7 +2407,7 @@
   <dimension ref="A1:F436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D282" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -10,7 +10,7 @@
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$395</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$404</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="476">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +89,24 @@
     <t>人类-帽子-1</t>
   </si>
   <si>
+    <t>Hat/Hat_2</t>
+  </si>
+  <si>
+    <t>人类-帽子-2</t>
+  </si>
+  <si>
+    <t>Hat/Hat_3</t>
+  </si>
+  <si>
+    <t>人类-帽子-3</t>
+  </si>
+  <si>
+    <t>Hat/Hat_4</t>
+  </si>
+  <si>
+    <t>人类-帽子-4</t>
+  </si>
+  <si>
     <t>Hair/Hair_1</t>
   </si>
   <si>
@@ -173,12 +191,48 @@
     <t>人类-衣服-1</t>
   </si>
   <si>
+    <t>Clothes/Clothes_2</t>
+  </si>
+  <si>
+    <t>人类-衣服-2</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_3</t>
+  </si>
+  <si>
+    <t>人类-衣服-3</t>
+  </si>
+  <si>
+    <t>Clothes/Clothes_4</t>
+  </si>
+  <si>
+    <t>人类-衣服-4</t>
+  </si>
+  <si>
     <t>Pants/Pants_1</t>
   </si>
   <si>
     <t>人类-裤子-1</t>
   </si>
   <si>
+    <t>Pants/Pants_2</t>
+  </si>
+  <si>
+    <t>人类-裤子-2</t>
+  </si>
+  <si>
+    <t>Pants/Pants_3</t>
+  </si>
+  <si>
+    <t>人类-裤子-3</t>
+  </si>
+  <si>
+    <t>Pants/Pants_4</t>
+  </si>
+  <si>
+    <t>人类-裤子-4</t>
+  </si>
+  <si>
     <t>ArmUp_L/Armor_ArmUp_L_1</t>
   </si>
   <si>
@@ -338,21 +392,12 @@
     <t>骷髅-帽子-皇冠</t>
   </si>
   <si>
-    <t>Hat/Hat_2</t>
-  </si>
-  <si>
     <t>骷髅-帽子-铁制头盔</t>
   </si>
   <si>
-    <t>Hat/Hat_3</t>
-  </si>
-  <si>
     <t>骷髅-帽子-异域头巾</t>
   </si>
   <si>
-    <t>Hat/Hat_4</t>
-  </si>
-  <si>
     <t>骷髅-帽子-魔力帽</t>
   </si>
   <si>
@@ -377,21 +422,12 @@
     <t>骷髅-衣服-质朴肩甲</t>
   </si>
   <si>
-    <t>Clothes/Clothes_2</t>
-  </si>
-  <si>
     <t>骷髅-衣服-加长肩甲</t>
   </si>
   <si>
-    <t>Clothes/Clothes_3</t>
-  </si>
-  <si>
     <t>骷髅-衣服-破烂肩甲</t>
   </si>
   <si>
-    <t>Clothes/Clothes_4</t>
-  </si>
-  <si>
     <t>骷髅-衣服-丝绸披肩</t>
   </si>
   <si>
@@ -440,19 +476,10 @@
     <t>骷髅-裤子-破烂腰带</t>
   </si>
   <si>
-    <t>Pants/Pants_2</t>
-  </si>
-  <si>
     <t>骷髅-裤子-蔚蓝腰带</t>
   </si>
   <si>
-    <t>Pants/Pants_3</t>
-  </si>
-  <si>
     <t>骷髅-裤子-破烂法裤</t>
-  </si>
-  <si>
-    <t>Pants/Pants_4</t>
   </si>
   <si>
     <t>骷髅-裤子-琥珀腰带</t>
@@ -2404,14 +2431,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A294" sqref="A294"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2526,7 +2553,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6">
-        <v>1030001</v>
+        <v>1020002</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2535,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -2546,7 +2573,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7">
-        <v>1030002</v>
+        <v>1020003</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2555,18 +2582,18 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8">
-        <v>1030003</v>
+        <v>1020004</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2575,18 +2602,18 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9">
-        <v>1040001</v>
+        <v>1030001</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2595,18 +2622,18 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:6">
       <c r="A10">
-        <v>1040002</v>
+        <v>1030002</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2615,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -2626,7 +2653,7 @@
     </row>
     <row r="11" customFormat="1" spans="1:6">
       <c r="A11">
-        <v>1050001</v>
+        <v>1030003</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2635,18 +2662,18 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
       <c r="A12">
-        <v>1050002</v>
+        <v>1040001</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2655,18 +2682,18 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
       <c r="A13">
-        <v>1050003</v>
+        <v>1040002</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2675,18 +2702,18 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:6">
       <c r="A14">
-        <v>1050004</v>
+        <v>1050001</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2698,15 +2725,15 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:6">
       <c r="A15">
-        <v>1050005</v>
+        <v>1050002</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2718,15 +2745,15 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:6">
       <c r="A16">
-        <v>1050006</v>
+        <v>1050003</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2738,15 +2765,15 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:6">
       <c r="A17">
-        <v>1050007</v>
+        <v>1050004</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2758,15 +2785,15 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
         <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
       <c r="A18">
-        <v>1050008</v>
+        <v>1050005</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2778,15 +2805,15 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
       <c r="A19">
-        <v>1050009</v>
+        <v>1050006</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2798,15 +2825,15 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
       <c r="A20">
-        <v>1050010</v>
+        <v>1050007</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2818,15 +2845,15 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
       <c r="A21">
-        <v>1050011</v>
+        <v>1050008</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2838,15 +2865,15 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:6">
       <c r="A22">
-        <v>1060001</v>
+        <v>1050009</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2855,18 +2882,18 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
       <c r="A23">
-        <v>1060002</v>
+        <v>1050010</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2875,18 +2902,18 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
       <c r="A24">
-        <v>1060003</v>
+        <v>1050011</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2895,18 +2922,18 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:6">
       <c r="A25">
-        <v>1060004</v>
+        <v>1060001</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2918,15 +2945,15 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:6">
       <c r="A26">
-        <v>1060005</v>
+        <v>1060002</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2938,15 +2965,15 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:6">
       <c r="A27">
-        <v>1100001</v>
+        <v>1060003</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2955,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
         <v>46</v>
@@ -2966,7 +2993,7 @@
     </row>
     <row r="28" customFormat="1" spans="1:6">
       <c r="A28">
-        <v>1120001</v>
+        <v>1060004</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2975,18 +3002,18 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:6">
       <c r="A29">
-        <v>1200001</v>
+        <v>1060005</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2995,18 +3022,18 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:6">
       <c r="A30">
-        <v>1210001</v>
+        <v>1100001</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3015,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
@@ -3026,7 +3053,7 @@
     </row>
     <row r="31" customFormat="1" spans="1:6">
       <c r="A31">
-        <v>1220001</v>
+        <v>1100002</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3035,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>53</v>
@@ -3046,7 +3073,7 @@
     </row>
     <row r="32" customFormat="1" spans="1:6">
       <c r="A32">
-        <v>1250001</v>
+        <v>1100003</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3055,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>55</v>
@@ -3066,7 +3093,7 @@
     </row>
     <row r="33" customFormat="1" spans="1:6">
       <c r="A33">
-        <v>1260001</v>
+        <v>1100004</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3075,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
@@ -3086,7 +3113,7 @@
     </row>
     <row r="34" customFormat="1" spans="1:6">
       <c r="A34">
-        <v>1270001</v>
+        <v>1120001</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3095,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>59</v>
@@ -3106,7 +3133,7 @@
     </row>
     <row r="35" customFormat="1" spans="1:6">
       <c r="A35">
-        <v>1300001</v>
+        <v>1120002</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3115,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
         <v>61</v>
@@ -3126,7 +3153,7 @@
     </row>
     <row r="36" customFormat="1" spans="1:6">
       <c r="A36">
-        <v>1310001</v>
+        <v>1120003</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3135,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
@@ -3146,7 +3173,7 @@
     </row>
     <row r="37" customFormat="1" spans="1:6">
       <c r="A37">
-        <v>1320001</v>
+        <v>1120004</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3155,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>65</v>
@@ -3166,7 +3193,7 @@
     </row>
     <row r="38" customFormat="1" spans="1:6">
       <c r="A38">
-        <v>1350001</v>
+        <v>1200001</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3175,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
         <v>67</v>
@@ -3186,7 +3213,7 @@
     </row>
     <row r="39" customFormat="1" spans="1:6">
       <c r="A39">
-        <v>1360001</v>
+        <v>1210001</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3195,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
         <v>69</v>
@@ -3206,7 +3233,7 @@
     </row>
     <row r="40" customFormat="1" spans="1:6">
       <c r="A40">
-        <v>1370001</v>
+        <v>1220001</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3215,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
         <v>71</v>
@@ -3226,7 +3253,7 @@
     </row>
     <row r="41" customFormat="1" spans="1:6">
       <c r="A41">
-        <v>1800001</v>
+        <v>1250001</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3235,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
         <v>73</v>
@@ -3246,7 +3273,7 @@
     </row>
     <row r="42" customFormat="1" spans="1:6">
       <c r="A42">
-        <v>1900001</v>
+        <v>1260001</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3255,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
         <v>75</v>
@@ -3266,7 +3293,7 @@
     </row>
     <row r="43" customFormat="1" spans="1:6">
       <c r="A43">
-        <v>1900002</v>
+        <v>1270001</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3275,18 +3302,18 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
         <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:6">
       <c r="A44">
-        <v>1900003</v>
+        <v>1300001</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3295,18 +3322,18 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:6">
       <c r="A45">
-        <v>1900004</v>
+        <v>1310001</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3315,18 +3342,18 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:6">
       <c r="A46">
-        <v>1900005</v>
+        <v>1320001</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3335,18 +3362,18 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="1:6">
       <c r="A47">
-        <v>1900006</v>
+        <v>1350001</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3355,18 +3382,18 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:6">
       <c r="A48">
-        <v>1900007</v>
+        <v>1360001</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3375,18 +3402,18 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:6">
       <c r="A49">
-        <v>1900008</v>
+        <v>1370001</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3395,18 +3422,18 @@
         <v>0</v>
       </c>
       <c r="D49">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" t="s">
         <v>90</v>
-      </c>
-      <c r="E49" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:6">
       <c r="A50">
-        <v>1900009</v>
+        <v>1800001</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3415,218 +3442,218 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:6">
       <c r="A51">
+        <v>1900001</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:6">
+      <c r="A52">
+        <v>1900002</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:6">
+      <c r="A53">
+        <v>1900003</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:6">
+      <c r="A54">
+        <v>1900004</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>90</v>
+      </c>
+      <c r="E54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:6">
+      <c r="A55">
+        <v>1900005</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:6">
+      <c r="A56">
+        <v>1900006</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:6">
+      <c r="A57">
+        <v>1900007</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>90</v>
+      </c>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:6">
+      <c r="A58">
+        <v>1900008</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:6">
+      <c r="A59">
+        <v>1900009</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:6">
+      <c r="A60">
         <v>1910001</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>91</v>
       </c>
-      <c r="E51" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>2000001</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>2010001</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>2010002</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>2010003</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>2010004</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>2010005</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>2010006</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>2010007</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" t="s">
         <v>94</v>
-      </c>
-      <c r="F59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>2010008</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>2010009</v>
+        <v>2000001</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3635,18 +3662,18 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>2010010</v>
+        <v>2010001</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -3658,15 +3685,15 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>2010011</v>
+        <v>2010002</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -3678,15 +3705,15 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>2010012</v>
+        <v>2010003</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -3698,15 +3725,15 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>2010013</v>
+        <v>2010004</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3718,15 +3745,15 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>2500001</v>
+        <v>2010005</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3735,18 +3762,18 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>2500002</v>
+        <v>2010006</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3755,18 +3782,18 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>2500003</v>
+        <v>2010007</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -3775,18 +3802,18 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>2500004</v>
+        <v>2010008</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -3795,18 +3822,18 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" t="s">
         <v>106</v>
-      </c>
-      <c r="F69" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>2500005</v>
+        <v>2010009</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -3815,18 +3842,18 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>2500006</v>
+        <v>2010010</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -3835,18 +3862,18 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F71" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>2500007</v>
+        <v>2010011</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -3855,18 +3882,18 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>2510001</v>
+        <v>2010012</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -3875,18 +3902,18 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>2510002</v>
+        <v>2010013</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -3895,18 +3922,18 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F74" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>2510003</v>
+        <v>2500001</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3915,18 +3942,18 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>2510004</v>
+        <v>2500002</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -3935,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
         <v>120</v>
@@ -3946,7 +3973,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>2510005</v>
+        <v>2500003</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -3955,18 +3982,18 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
         <v>121</v>
-      </c>
-      <c r="F77" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>2510006</v>
+        <v>2500004</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -3975,18 +4002,18 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>2510007</v>
+        <v>2500005</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -3995,18 +4022,18 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>2510008</v>
+        <v>2500006</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -4015,18 +4042,18 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>2510009</v>
+        <v>2500007</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4035,18 +4062,18 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>2510010</v>
+        <v>2510001</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4058,15 +4085,15 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>2510011</v>
+        <v>2510002</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4078,15 +4105,15 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="F83" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>2520001</v>
+        <v>2510003</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -4095,18 +4122,18 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F84" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>2520002</v>
+        <v>2510004</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -4115,18 +4142,18 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F85" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>2520003</v>
+        <v>2510005</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -4135,18 +4162,18 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F86" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>2520004</v>
+        <v>2510006</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4155,18 +4182,18 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F87" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>2520005</v>
+        <v>2510007</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -4175,18 +4202,18 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F88" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>2900001</v>
+        <v>2510008</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4195,18 +4222,18 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="F89" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>2900002</v>
+        <v>2510009</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4215,18 +4242,18 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="F90" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>2900003</v>
+        <v>2510010</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4235,18 +4262,18 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>2900004</v>
+        <v>2510011</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4255,18 +4282,18 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="F92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>2900005</v>
+        <v>2520001</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4275,18 +4302,18 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>2900006</v>
+        <v>2520002</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4295,18 +4322,18 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>2900007</v>
+        <v>2520003</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -4315,18 +4342,18 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>2900008</v>
+        <v>2520004</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4335,18 +4362,18 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>2900009</v>
+        <v>2520005</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4355,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="F97" t="s">
         <v>152</v>
@@ -4366,7 +4393,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>2900010</v>
+        <v>2900001</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -4378,15 +4405,15 @@
         <v>90</v>
       </c>
       <c r="E98" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" t="s">
         <v>153</v>
-      </c>
-      <c r="F98" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>2910001</v>
+        <v>2900002</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -4395,18 +4422,18 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E99" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>2910002</v>
+        <v>2900003</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4415,18 +4442,18 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E100" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="F100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>2910003</v>
+        <v>2900004</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -4435,18 +4462,18 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="F101" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>2910004</v>
+        <v>2900005</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -4455,18 +4482,18 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E102" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F102" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>2910005</v>
+        <v>2900006</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -4475,18 +4502,18 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E103" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="F103" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>2910006</v>
+        <v>2900007</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -4495,18 +4522,18 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="F104" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>2910007</v>
+        <v>2900008</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -4515,18 +4542,18 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E105" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="F105" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>2910008</v>
+        <v>2900009</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -4535,18 +4562,18 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E106" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="F106" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>2910009</v>
+        <v>2900010</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -4555,18 +4582,18 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E107" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F107" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>2910010</v>
+        <v>2910001</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -4578,15 +4605,15 @@
         <v>91</v>
       </c>
       <c r="E108" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="F108" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>2910011</v>
+        <v>2910002</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -4598,15 +4625,15 @@
         <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F109" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>2910012</v>
+        <v>2910003</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -4618,15 +4645,15 @@
         <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F110" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>2910013</v>
+        <v>2910004</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -4638,15 +4665,15 @@
         <v>91</v>
       </c>
       <c r="E111" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>2910014</v>
+        <v>2910005</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -4658,15 +4685,15 @@
         <v>91</v>
       </c>
       <c r="E112" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F112" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>2910015</v>
+        <v>2910006</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -4678,15 +4705,15 @@
         <v>91</v>
       </c>
       <c r="E113" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F113" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>2910016</v>
+        <v>2910007</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -4698,15 +4725,15 @@
         <v>91</v>
       </c>
       <c r="E114" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F114" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>2910017</v>
+        <v>2910008</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -4718,15 +4745,15 @@
         <v>91</v>
       </c>
       <c r="E115" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F115" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>2910018</v>
+        <v>2910009</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -4738,15 +4765,15 @@
         <v>91</v>
       </c>
       <c r="E116" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F116" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>2910019</v>
+        <v>2910010</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -4758,15 +4785,15 @@
         <v>91</v>
       </c>
       <c r="E117" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F117" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>2910020</v>
+        <v>2910011</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -4778,197 +4805,197 @@
         <v>91</v>
       </c>
       <c r="E118" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F118" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>3040001</v>
+        <v>2910012</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="F119" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>3040002</v>
-      </c>
-      <c r="B120" s="1">
-        <v>3</v>
+        <v>2910013</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="F120" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>3040003</v>
+        <v>2910014</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E121" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F121" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>3040004</v>
-      </c>
-      <c r="B122" s="1">
-        <v>3</v>
+        <v>2910015</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E122" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F122" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>3040005</v>
+        <v>2910016</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E123" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F123" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>3040006</v>
-      </c>
-      <c r="B124" s="1">
-        <v>3</v>
+        <v>2910017</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E124" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F124" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>3040007</v>
+        <v>2910018</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E125" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F125" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>3040008</v>
-      </c>
-      <c r="B126" s="1">
-        <v>3</v>
+        <v>2910019</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E126" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F126" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>3040009</v>
+        <v>2910020</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E127" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F127" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>3040010</v>
-      </c>
-      <c r="B128" s="1">
+        <v>3040001</v>
+      </c>
+      <c r="B128">
         <v>3</v>
       </c>
       <c r="C128">
@@ -4978,187 +5005,187 @@
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>3050001</v>
-      </c>
-      <c r="B129">
+        <v>3040002</v>
+      </c>
+      <c r="B129" s="1">
         <v>3</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>3050002</v>
-      </c>
-      <c r="B130" s="1">
+        <v>3040003</v>
+      </c>
+      <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="F130" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>3050003</v>
-      </c>
-      <c r="B131">
+        <v>3040004</v>
+      </c>
+      <c r="B131" s="1">
         <v>3</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="F131" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>3050004</v>
-      </c>
-      <c r="B132" s="1">
+        <v>3040005</v>
+      </c>
+      <c r="B132">
         <v>3</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="F132" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>3050005</v>
-      </c>
-      <c r="B133">
+        <v>3040006</v>
+      </c>
+      <c r="B133" s="1">
         <v>3</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="F133" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>3050006</v>
-      </c>
-      <c r="B134" s="1">
+        <v>3040007</v>
+      </c>
+      <c r="B134">
         <v>3</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="F134" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>3050007</v>
-      </c>
-      <c r="B135">
+        <v>3040008</v>
+      </c>
+      <c r="B135" s="1">
         <v>3</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="F135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>3050008</v>
-      </c>
-      <c r="B136" s="1">
+        <v>3040009</v>
+      </c>
+      <c r="B136">
         <v>3</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="F136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>3050009</v>
-      </c>
-      <c r="B137">
+        <v>3040010</v>
+      </c>
+      <c r="B137" s="1">
         <v>3</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="F137" t="s">
         <v>220</v>
@@ -5166,9 +5193,9 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>3050010</v>
-      </c>
-      <c r="B138" s="1">
+        <v>3050001</v>
+      </c>
+      <c r="B138">
         <v>3</v>
       </c>
       <c r="C138">
@@ -5178,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
         <v>221</v>
@@ -5186,7 +5213,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>3020001</v>
+        <v>3050002</v>
       </c>
       <c r="B139" s="1">
         <v>3</v>
@@ -5195,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
         <v>222</v>
@@ -5206,7 +5233,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>3020002</v>
+        <v>3050003</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -5215,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
         <v>223</v>
@@ -5226,7 +5253,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>3020003</v>
+        <v>3050004</v>
       </c>
       <c r="B141" s="1">
         <v>3</v>
@@ -5235,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E141" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
         <v>224</v>
@@ -5246,7 +5273,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>3020004</v>
+        <v>3050005</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -5255,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
         <v>225</v>
@@ -5266,7 +5293,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>3020005</v>
+        <v>3050006</v>
       </c>
       <c r="B143" s="1">
         <v>3</v>
@@ -5275,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="F143" t="s">
         <v>226</v>
@@ -5286,7 +5313,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>3020006</v>
+        <v>3050007</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -5295,10 +5322,10 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
         <v>227</v>
@@ -5306,7 +5333,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>3020007</v>
+        <v>3050008</v>
       </c>
       <c r="B145" s="1">
         <v>3</v>
@@ -5315,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
         <v>228</v>
@@ -5326,7 +5353,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>3020008</v>
+        <v>3050009</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -5335,18 +5362,18 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E146" t="s">
+        <v>42</v>
+      </c>
+      <c r="F146" t="s">
         <v>229</v>
-      </c>
-      <c r="F146" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>3020009</v>
+        <v>3050010</v>
       </c>
       <c r="B147" s="1">
         <v>3</v>
@@ -5355,20 +5382,20 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>3020010</v>
-      </c>
-      <c r="B148">
+        <v>3020001</v>
+      </c>
+      <c r="B148" s="1">
         <v>3</v>
       </c>
       <c r="C148">
@@ -5378,17 +5405,17 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="F148" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>3020011</v>
-      </c>
-      <c r="B149" s="1">
+        <v>3020002</v>
+      </c>
+      <c r="B149">
         <v>3</v>
       </c>
       <c r="C149">
@@ -5398,17 +5425,17 @@
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F149" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>3020012</v>
-      </c>
-      <c r="B150">
+        <v>3020003</v>
+      </c>
+      <c r="B150" s="1">
         <v>3</v>
       </c>
       <c r="C150">
@@ -5418,17 +5445,17 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="F150" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>3020013</v>
-      </c>
-      <c r="B151" s="1">
+        <v>3020004</v>
+      </c>
+      <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
@@ -5438,17 +5465,17 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="F151" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>3020014</v>
-      </c>
-      <c r="B152">
+        <v>3020005</v>
+      </c>
+      <c r="B152" s="1">
         <v>3</v>
       </c>
       <c r="C152">
@@ -5458,17 +5485,17 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="F152" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>3020015</v>
-      </c>
-      <c r="B153" s="1">
+        <v>3020006</v>
+      </c>
+      <c r="B153">
         <v>3</v>
       </c>
       <c r="C153">
@@ -5478,17 +5505,17 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="F153" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>3020016</v>
-      </c>
-      <c r="B154">
+        <v>3020007</v>
+      </c>
+      <c r="B154" s="1">
         <v>3</v>
       </c>
       <c r="C154">
@@ -5498,17 +5525,17 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F154" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>3020017</v>
-      </c>
-      <c r="B155" s="1">
+        <v>3020008</v>
+      </c>
+      <c r="B155">
         <v>3</v>
       </c>
       <c r="C155">
@@ -5518,17 +5545,17 @@
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F155" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>3020018</v>
-      </c>
-      <c r="B156">
+        <v>3020009</v>
+      </c>
+      <c r="B156" s="1">
         <v>3</v>
       </c>
       <c r="C156">
@@ -5538,17 +5565,17 @@
         <v>2</v>
       </c>
       <c r="E156" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F156" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>3020019</v>
-      </c>
-      <c r="B157" s="1">
+        <v>3020010</v>
+      </c>
+      <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
@@ -5558,17 +5585,17 @@
         <v>2</v>
       </c>
       <c r="E157" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F157" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>3020020</v>
-      </c>
-      <c r="B158">
+        <v>3020011</v>
+      </c>
+      <c r="B158" s="1">
         <v>3</v>
       </c>
       <c r="C158">
@@ -5578,217 +5605,217 @@
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F158" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>4000001</v>
-      </c>
-      <c r="B159" s="1">
-        <v>4</v>
+        <v>3020012</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="F159" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="160" customFormat="1" spans="1:6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
-        <v>4030001</v>
-      </c>
-      <c r="B160">
-        <v>4</v>
+        <v>3020013</v>
+      </c>
+      <c r="B160" s="1">
+        <v>3</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="F160" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>4030002</v>
-      </c>
-      <c r="B161" s="1">
-        <v>4</v>
+        <v>3020014</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="F161" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>4030003</v>
-      </c>
-      <c r="B162">
-        <v>4</v>
+        <v>3020015</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="F162" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>4030004</v>
-      </c>
-      <c r="B163" s="1">
-        <v>4</v>
+        <v>3020016</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F163" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>4030005</v>
-      </c>
-      <c r="B164">
-        <v>4</v>
+        <v>3020017</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F164" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>4030006</v>
+        <v>3020018</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F165" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>4030007</v>
+        <v>3020019</v>
       </c>
       <c r="B166" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F166" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>4030008</v>
+        <v>3020020</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F167" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>4030009</v>
-      </c>
-      <c r="B168">
+        <v>4000001</v>
+      </c>
+      <c r="B168" s="1">
         <v>4</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="F168" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" customFormat="1" spans="1:6">
       <c r="A169">
-        <v>4030010</v>
-      </c>
-      <c r="B169" s="1">
+        <v>4030001</v>
+      </c>
+      <c r="B169">
         <v>4</v>
       </c>
       <c r="C169">
@@ -5798,55 +5825,55 @@
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="F169" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>4050001</v>
-      </c>
-      <c r="B170">
+        <v>4030002</v>
+      </c>
+      <c r="B170" s="1">
         <v>4</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E170" t="s">
         <v>27</v>
       </c>
       <c r="F170" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>4050002</v>
-      </c>
-      <c r="B171" s="1">
+        <v>4030003</v>
+      </c>
+      <c r="B171">
         <v>4</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F171" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>4050003</v>
+        <v>4030004</v>
       </c>
       <c r="B172" s="1">
         <v>4</v>
@@ -5855,58 +5882,58 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="F172" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>4050004</v>
-      </c>
-      <c r="B173" s="1">
+        <v>4030005</v>
+      </c>
+      <c r="B173">
         <v>4</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="F173" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>4050005</v>
-      </c>
-      <c r="B174" s="1">
+        <v>4030006</v>
+      </c>
+      <c r="B174">
         <v>4</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="F174" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>4050006</v>
+        <v>4030007</v>
       </c>
       <c r="B175" s="1">
         <v>4</v>
@@ -5915,58 +5942,58 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="F175" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>4050007</v>
-      </c>
-      <c r="B176" s="1">
+        <v>4030008</v>
+      </c>
+      <c r="B176">
         <v>4</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="F176" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>4050008</v>
-      </c>
-      <c r="B177" s="1">
+        <v>4030009</v>
+      </c>
+      <c r="B177">
         <v>4</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="F177" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>4050009</v>
+        <v>4030010</v>
       </c>
       <c r="B178" s="1">
         <v>4</v>
@@ -5975,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="F178" t="s">
         <v>281</v>
@@ -5986,9 +6013,9 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>4050010</v>
-      </c>
-      <c r="B179" s="1">
+        <v>4050001</v>
+      </c>
+      <c r="B179">
         <v>4</v>
       </c>
       <c r="C179">
@@ -5998,7 +6025,7 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F179" t="s">
         <v>282</v>
@@ -6006,7 +6033,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>4060001</v>
+        <v>4050002</v>
       </c>
       <c r="B180" s="1">
         <v>4</v>
@@ -6015,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F180" t="s">
         <v>283</v>
@@ -6026,7 +6053,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>4060002</v>
+        <v>4050003</v>
       </c>
       <c r="B181" s="1">
         <v>4</v>
@@ -6035,10 +6062,10 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
         <v>284</v>
@@ -6046,7 +6073,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>4060003</v>
+        <v>4050004</v>
       </c>
       <c r="B182" s="1">
         <v>4</v>
@@ -6055,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F182" t="s">
         <v>285</v>
@@ -6066,7 +6093,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>4060004</v>
+        <v>4050005</v>
       </c>
       <c r="B183" s="1">
         <v>4</v>
@@ -6075,10 +6102,10 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
         <v>286</v>
@@ -6086,7 +6113,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>4060005</v>
+        <v>4050006</v>
       </c>
       <c r="B184" s="1">
         <v>4</v>
@@ -6095,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
         <v>287</v>
@@ -6106,7 +6133,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>4060006</v>
+        <v>4050007</v>
       </c>
       <c r="B185" s="1">
         <v>4</v>
@@ -6115,18 +6142,18 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E185" t="s">
+        <v>40</v>
+      </c>
+      <c r="F185" t="s">
         <v>288</v>
-      </c>
-      <c r="F185" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>4060007</v>
+        <v>4050008</v>
       </c>
       <c r="B186" s="1">
         <v>4</v>
@@ -6135,18 +6162,18 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>4060008</v>
+        <v>4050009</v>
       </c>
       <c r="B187" s="1">
         <v>4</v>
@@ -6155,18 +6182,18 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>4060009</v>
+        <v>4050010</v>
       </c>
       <c r="B188" s="1">
         <v>4</v>
@@ -6175,18 +6202,18 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="F188" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>4060010</v>
+        <v>4060001</v>
       </c>
       <c r="B189" s="1">
         <v>4</v>
@@ -6198,15 +6225,15 @@
         <v>6</v>
       </c>
       <c r="E189" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="190" customFormat="1" spans="1:6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
-        <v>4070001</v>
+        <v>4060002</v>
       </c>
       <c r="B190" s="1">
         <v>4</v>
@@ -6215,18 +6242,18 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E190" t="s">
-        <v>298</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="191" customFormat="1" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
-        <v>4070002</v>
+        <v>4060003</v>
       </c>
       <c r="B191" s="1">
         <v>4</v>
@@ -6235,18 +6262,18 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E191" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="192" customFormat="1" spans="1:6">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
-        <v>4070003</v>
+        <v>4060004</v>
       </c>
       <c r="B192" s="1">
         <v>4</v>
@@ -6255,18 +6282,18 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E192" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="F192" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="193" customFormat="1" spans="1:6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
-        <v>4070004</v>
+        <v>4060005</v>
       </c>
       <c r="B193" s="1">
         <v>4</v>
@@ -6275,18 +6302,18 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E193" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="F193" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="194" customFormat="1" spans="1:6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
-        <v>4070005</v>
+        <v>4060006</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
@@ -6295,18 +6322,18 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E194" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F194" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="195" customFormat="1" spans="1:6">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
-        <v>4070006</v>
+        <v>4060007</v>
       </c>
       <c r="B195" s="1">
         <v>4</v>
@@ -6315,18 +6342,18 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E195" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F195" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="196" customFormat="1" spans="1:6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
-        <v>4070007</v>
+        <v>4060008</v>
       </c>
       <c r="B196" s="1">
         <v>4</v>
@@ -6335,18 +6362,18 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E196" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F196" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="197" customFormat="1" spans="1:6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
-        <v>4070008</v>
+        <v>4060009</v>
       </c>
       <c r="B197" s="1">
         <v>4</v>
@@ -6355,18 +6382,18 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E197" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F197" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="198" customFormat="1" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
-        <v>4070009</v>
+        <v>4060010</v>
       </c>
       <c r="B198" s="1">
         <v>4</v>
@@ -6375,18 +6402,18 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E198" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F198" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="199" customFormat="1" spans="1:6">
       <c r="A199">
-        <v>4070010</v>
+        <v>4070001</v>
       </c>
       <c r="B199" s="1">
         <v>4</v>
@@ -6398,15 +6425,15 @@
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F199" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" customFormat="1" spans="1:6">
       <c r="A200">
-        <v>4080001</v>
+        <v>4070002</v>
       </c>
       <c r="B200" s="1">
         <v>4</v>
@@ -6415,18 +6442,18 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F200" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" customFormat="1" spans="1:6">
       <c r="A201">
-        <v>4080002</v>
+        <v>4070003</v>
       </c>
       <c r="B201" s="1">
         <v>4</v>
@@ -6435,18 +6462,18 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F201" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="202" customFormat="1" spans="1:6">
       <c r="A202">
-        <v>4080003</v>
+        <v>4070004</v>
       </c>
       <c r="B202" s="1">
         <v>4</v>
@@ -6455,18 +6482,18 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F202" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" customFormat="1" spans="1:6">
       <c r="A203">
-        <v>4080004</v>
+        <v>4070005</v>
       </c>
       <c r="B203" s="1">
         <v>4</v>
@@ -6475,18 +6502,18 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F203" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" customFormat="1" spans="1:6">
       <c r="A204">
-        <v>4500003</v>
+        <v>4070006</v>
       </c>
       <c r="B204" s="1">
         <v>4</v>
@@ -6495,18 +6522,18 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E204" t="s">
-        <v>104</v>
+        <v>317</v>
       </c>
       <c r="F204" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" customFormat="1" spans="1:6">
       <c r="A205">
-        <v>4510001</v>
+        <v>4070007</v>
       </c>
       <c r="B205" s="1">
         <v>4</v>
@@ -6515,18 +6542,18 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="F205" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="206" customFormat="1" spans="1:6">
       <c r="A206">
-        <v>4510002</v>
+        <v>4070008</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -6535,18 +6562,18 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="F206" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="207" customFormat="1" spans="1:6">
       <c r="A207">
-        <v>4510003</v>
+        <v>4070009</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
@@ -6555,18 +6582,18 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>117</v>
+        <v>323</v>
       </c>
       <c r="F207" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="208" customFormat="1" spans="1:6">
       <c r="A208">
-        <v>4510004</v>
+        <v>4070010</v>
       </c>
       <c r="B208" s="1">
         <v>4</v>
@@ -6575,18 +6602,18 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="F208" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="209" customFormat="1" spans="1:6">
       <c r="A209">
-        <v>4510005</v>
+        <v>4080001</v>
       </c>
       <c r="B209" s="1">
         <v>4</v>
@@ -6595,18 +6622,18 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E209" t="s">
-        <v>121</v>
+        <v>327</v>
       </c>
       <c r="F209" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="210" customFormat="1" spans="1:6">
       <c r="A210">
-        <v>4510006</v>
+        <v>4080002</v>
       </c>
       <c r="B210" s="1">
         <v>4</v>
@@ -6615,18 +6642,18 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E210" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="F210" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="211" customFormat="1" spans="1:6">
       <c r="A211">
-        <v>4520001</v>
+        <v>4080003</v>
       </c>
       <c r="B211" s="1">
         <v>4</v>
@@ -6635,18 +6662,18 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E211" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="F211" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="212" customFormat="1" spans="1:6">
       <c r="A212">
-        <v>4520002</v>
+        <v>4080004</v>
       </c>
       <c r="B212" s="1">
         <v>4</v>
@@ -6655,18 +6682,18 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E212" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="F212" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" customFormat="1" spans="1:6">
       <c r="A213">
-        <v>4520003</v>
+        <v>4500003</v>
       </c>
       <c r="B213" s="1">
         <v>4</v>
@@ -6675,18 +6702,18 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E213" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="F213" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" customFormat="1" spans="1:6">
       <c r="A214">
-        <v>4520004</v>
+        <v>4510001</v>
       </c>
       <c r="B214" s="1">
         <v>4</v>
@@ -6695,10 +6722,10 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E214" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="F214" t="s">
         <v>336</v>
@@ -6706,7 +6733,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>4900001</v>
+        <v>4510002</v>
       </c>
       <c r="B215" s="1">
         <v>4</v>
@@ -6715,10 +6742,10 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E215" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F215" t="s">
         <v>337</v>
@@ -6726,7 +6753,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>4900002</v>
+        <v>4510003</v>
       </c>
       <c r="B216" s="1">
         <v>4</v>
@@ -6735,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E216" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F216" t="s">
         <v>338</v>
@@ -6746,7 +6773,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>4900003</v>
+        <v>4510004</v>
       </c>
       <c r="B217" s="1">
         <v>4</v>
@@ -6755,10 +6782,10 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E217" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F217" t="s">
         <v>339</v>
@@ -6766,7 +6793,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>4900004</v>
+        <v>4510005</v>
       </c>
       <c r="B218" s="1">
         <v>4</v>
@@ -6775,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E218" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F218" t="s">
         <v>340</v>
@@ -6786,7 +6813,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>4900005</v>
+        <v>4510006</v>
       </c>
       <c r="B219" s="1">
         <v>4</v>
@@ -6795,190 +6822,190 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E219" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="F219" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="220" customFormat="1" spans="1:6">
+    <row r="220" spans="1:6">
       <c r="A220">
-        <v>5000001</v>
-      </c>
-      <c r="B220">
-        <v>5</v>
+        <v>4520001</v>
+      </c>
+      <c r="B220" s="1">
+        <v>4</v>
       </c>
       <c r="C220">
         <v>0</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E220" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F220" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="221" customFormat="1" spans="1:6">
+    <row r="221" spans="1:6">
       <c r="A221">
-        <v>5050001</v>
-      </c>
-      <c r="B221">
-        <v>5</v>
+        <v>4520002</v>
+      </c>
+      <c r="B221" s="1">
+        <v>4</v>
       </c>
       <c r="C221">
         <v>0</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E221" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F221" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="222" customFormat="1" spans="1:6">
+    <row r="222" spans="1:6">
       <c r="A222">
-        <v>5050002</v>
-      </c>
-      <c r="B222">
-        <v>5</v>
+        <v>4520003</v>
+      </c>
+      <c r="B222" s="1">
+        <v>4</v>
       </c>
       <c r="C222">
         <v>0</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E222" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F222" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="223" customFormat="1" spans="1:6">
+    <row r="223" spans="1:6">
       <c r="A223">
-        <v>5050003</v>
-      </c>
-      <c r="B223">
-        <v>5</v>
+        <v>4520004</v>
+      </c>
+      <c r="B223" s="1">
+        <v>4</v>
       </c>
       <c r="C223">
         <v>0</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F223" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="224" customFormat="1" spans="1:6">
+    <row r="224" spans="1:6">
       <c r="A224">
-        <v>5050004</v>
-      </c>
-      <c r="B224">
-        <v>5</v>
+        <v>4900001</v>
+      </c>
+      <c r="B224" s="1">
+        <v>4</v>
       </c>
       <c r="C224">
         <v>0</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E224" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F224" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="225" customFormat="1" spans="1:6">
+    <row r="225" spans="1:6">
       <c r="A225">
-        <v>5050005</v>
-      </c>
-      <c r="B225">
-        <v>5</v>
+        <v>4900002</v>
+      </c>
+      <c r="B225" s="1">
+        <v>4</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E225" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="F225" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="226" customFormat="1" spans="1:6">
+    <row r="226" spans="1:6">
       <c r="A226">
-        <v>5050006</v>
-      </c>
-      <c r="B226">
-        <v>5</v>
+        <v>4900003</v>
+      </c>
+      <c r="B226" s="1">
+        <v>4</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E226" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F226" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="227" customFormat="1" spans="1:6">
+    <row r="227" spans="1:6">
       <c r="A227">
-        <v>5050007</v>
-      </c>
-      <c r="B227">
-        <v>5</v>
+        <v>4900004</v>
+      </c>
+      <c r="B227" s="1">
+        <v>4</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E227" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F227" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="228" customFormat="1" spans="1:6">
+    <row r="228" spans="1:6">
       <c r="A228">
-        <v>5050008</v>
-      </c>
-      <c r="B228">
-        <v>5</v>
+        <v>4900005</v>
+      </c>
+      <c r="B228" s="1">
+        <v>4</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
       <c r="D228">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F228" t="s">
         <v>350</v>
@@ -6986,7 +7013,7 @@
     </row>
     <row r="229" customFormat="1" spans="1:6">
       <c r="A229">
-        <v>5050009</v>
+        <v>5000001</v>
       </c>
       <c r="B229">
         <v>5</v>
@@ -6995,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F229" t="s">
         <v>351</v>
@@ -7006,7 +7033,7 @@
     </row>
     <row r="230" customFormat="1" spans="1:6">
       <c r="A230">
-        <v>5050010</v>
+        <v>5050001</v>
       </c>
       <c r="B230">
         <v>5</v>
@@ -7018,7 +7045,7 @@
         <v>5</v>
       </c>
       <c r="E230" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F230" t="s">
         <v>352</v>
@@ -7026,7 +7053,7 @@
     </row>
     <row r="231" customFormat="1" spans="1:6">
       <c r="A231">
-        <v>5050011</v>
+        <v>5050002</v>
       </c>
       <c r="B231">
         <v>5</v>
@@ -7038,7 +7065,7 @@
         <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F231" t="s">
         <v>353</v>
@@ -7046,7 +7073,7 @@
     </row>
     <row r="232" customFormat="1" spans="1:6">
       <c r="A232">
-        <v>5070001</v>
+        <v>5050003</v>
       </c>
       <c r="B232">
         <v>5</v>
@@ -7055,18 +7082,18 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="F232" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
     </row>
     <row r="233" customFormat="1" spans="1:6">
       <c r="A233">
-        <v>5070002</v>
+        <v>5050004</v>
       </c>
       <c r="B233">
         <v>5</v>
@@ -7075,18 +7102,18 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="F233" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
     </row>
     <row r="234" customFormat="1" spans="1:6">
       <c r="A234">
-        <v>5070003</v>
+        <v>5050005</v>
       </c>
       <c r="B234">
         <v>5</v>
@@ -7095,18 +7122,18 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E234" t="s">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="F234" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
     </row>
     <row r="235" customFormat="1" spans="1:6">
       <c r="A235">
-        <v>5070004</v>
+        <v>5050006</v>
       </c>
       <c r="B235">
         <v>5</v>
@@ -7115,18 +7142,18 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E235" t="s">
-        <v>304</v>
+        <v>39</v>
       </c>
       <c r="F235" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236" customFormat="1" spans="1:6">
       <c r="A236">
-        <v>5070005</v>
+        <v>5050007</v>
       </c>
       <c r="B236">
         <v>5</v>
@@ -7135,18 +7162,18 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="F236" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
     </row>
     <row r="237" customFormat="1" spans="1:6">
       <c r="A237">
-        <v>5090001</v>
+        <v>5050008</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -7155,18 +7182,18 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="F237" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="238" customFormat="1" spans="1:6">
       <c r="A238">
-        <v>5090002</v>
+        <v>5050009</v>
       </c>
       <c r="B238">
         <v>5</v>
@@ -7175,18 +7202,18 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E238" t="s">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="F238" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="239" customFormat="1" spans="1:6">
       <c r="A239">
-        <v>5090003</v>
+        <v>5050010</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -7195,18 +7222,18 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>358</v>
+        <v>43</v>
       </c>
       <c r="F239" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="240" customFormat="1" spans="1:6">
       <c r="A240">
-        <v>5090004</v>
+        <v>5050011</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -7215,18 +7242,18 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>360</v>
+        <v>44</v>
       </c>
       <c r="F240" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="241" customFormat="1" spans="1:6">
       <c r="A241">
-        <v>5090005</v>
+        <v>5070001</v>
       </c>
       <c r="B241">
         <v>5</v>
@@ -7235,18 +7262,18 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E241" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="F241" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
     </row>
     <row r="242" customFormat="1" spans="1:6">
       <c r="A242">
-        <v>5500001</v>
+        <v>5070002</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -7255,18 +7282,18 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E242" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="F242" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
     </row>
     <row r="243" customFormat="1" spans="1:6">
       <c r="A243">
-        <v>5500002</v>
+        <v>5070003</v>
       </c>
       <c r="B243">
         <v>5</v>
@@ -7275,18 +7302,18 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="F243" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
     </row>
     <row r="244" customFormat="1" spans="1:6">
       <c r="A244">
-        <v>5500003</v>
+        <v>5070004</v>
       </c>
       <c r="B244">
         <v>5</v>
@@ -7295,18 +7322,18 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E244" t="s">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c r="F244" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" customFormat="1" spans="1:6">
       <c r="A245">
-        <v>5510001</v>
+        <v>5070005</v>
       </c>
       <c r="B245">
         <v>5</v>
@@ -7315,18 +7342,18 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E245" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="F245" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" customFormat="1" spans="1:6">
       <c r="A246">
-        <v>5510002</v>
+        <v>5090001</v>
       </c>
       <c r="B246">
         <v>5</v>
@@ -7335,18 +7362,18 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="F246" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="247" customFormat="1" spans="1:6">
       <c r="A247">
-        <v>5510003</v>
+        <v>5090002</v>
       </c>
       <c r="B247">
         <v>5</v>
@@ -7355,18 +7382,18 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E247" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="F247" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="248" customFormat="1" spans="1:6">
       <c r="A248">
-        <v>5520001</v>
+        <v>5090003</v>
       </c>
       <c r="B248">
         <v>5</v>
@@ -7375,18 +7402,18 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="F248" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249" customFormat="1" spans="1:6">
       <c r="A249">
-        <v>5520002</v>
+        <v>5090004</v>
       </c>
       <c r="B249">
         <v>5</v>
@@ -7395,18 +7422,18 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E249" t="s">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="F249" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="250" customFormat="1" spans="1:6">
       <c r="A250">
-        <v>5910001</v>
+        <v>5090005</v>
       </c>
       <c r="B250">
         <v>5</v>
@@ -7415,18 +7442,18 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="E250" t="s">
-        <v>85</v>
+        <v>371</v>
       </c>
       <c r="F250" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="251" customFormat="1" spans="1:6">
       <c r="A251">
-        <v>5910002</v>
+        <v>5500001</v>
       </c>
       <c r="B251">
         <v>5</v>
@@ -7435,18 +7462,18 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E251" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="F251" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="252" customFormat="1" spans="1:6">
       <c r="A252">
-        <v>5910003</v>
+        <v>5500002</v>
       </c>
       <c r="B252">
         <v>5</v>
@@ -7455,150 +7482,150 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E252" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="F252" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="253" customFormat="1" spans="1:6">
       <c r="A253">
-        <v>6000001</v>
+        <v>5500003</v>
       </c>
       <c r="B253">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E253" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F253" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="254" customFormat="1" spans="1:6">
       <c r="A254">
-        <v>6050001</v>
+        <v>5510001</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254">
         <v>0</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E254" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F254" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="255" customFormat="1" spans="1:6">
       <c r="A255">
-        <v>6050002</v>
+        <v>5510002</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255">
         <v>0</v>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E255" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F255" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="256" customFormat="1" spans="1:6">
       <c r="A256">
-        <v>6050003</v>
+        <v>5510003</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256">
         <v>0</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="E256" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F256" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="257" customFormat="1" spans="1:6">
       <c r="A257">
-        <v>6050004</v>
+        <v>5520001</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257">
         <v>0</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E257" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F257" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
     </row>
     <row r="258" customFormat="1" spans="1:6">
       <c r="A258">
-        <v>6050005</v>
+        <v>5520002</v>
       </c>
       <c r="B258">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C258">
         <v>0</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E258" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F258" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
     </row>
     <row r="259" customFormat="1" spans="1:6">
       <c r="A259">
-        <v>6050006</v>
+        <v>5910001</v>
       </c>
       <c r="B259">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C259">
         <v>0</v>
       </c>
       <c r="D259">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E259" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="F259" t="s">
         <v>379</v>
@@ -7606,19 +7633,19 @@
     </row>
     <row r="260" customFormat="1" spans="1:6">
       <c r="A260">
-        <v>6050007</v>
+        <v>5910002</v>
       </c>
       <c r="B260">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C260">
         <v>0</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E260" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="F260" t="s">
         <v>380</v>
@@ -7626,19 +7653,19 @@
     </row>
     <row r="261" customFormat="1" spans="1:6">
       <c r="A261">
-        <v>6050008</v>
+        <v>5910003</v>
       </c>
       <c r="B261">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E261" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="F261" t="s">
         <v>381</v>
@@ -7646,7 +7673,7 @@
     </row>
     <row r="262" customFormat="1" spans="1:6">
       <c r="A262">
-        <v>6050009</v>
+        <v>6000001</v>
       </c>
       <c r="B262">
         <v>6</v>
@@ -7655,10 +7682,10 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F262" t="s">
         <v>382</v>
@@ -7666,7 +7693,7 @@
     </row>
     <row r="263" customFormat="1" spans="1:6">
       <c r="A263">
-        <v>6050010</v>
+        <v>6050001</v>
       </c>
       <c r="B263">
         <v>6</v>
@@ -7678,7 +7705,7 @@
         <v>5</v>
       </c>
       <c r="E263" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F263" t="s">
         <v>383</v>
@@ -7686,7 +7713,7 @@
     </row>
     <row r="264" customFormat="1" spans="1:6">
       <c r="A264">
-        <v>6060001</v>
+        <v>6050002</v>
       </c>
       <c r="B264">
         <v>6</v>
@@ -7695,18 +7722,18 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E264" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F264" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" customFormat="1" spans="1:6">
       <c r="A265">
-        <v>6060002</v>
+        <v>6050003</v>
       </c>
       <c r="B265">
         <v>6</v>
@@ -7715,18 +7742,18 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E265" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F265" t="s">
-        <v>284</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266" customFormat="1" spans="1:6">
       <c r="A266">
-        <v>6060003</v>
+        <v>6050004</v>
       </c>
       <c r="B266">
         <v>6</v>
@@ -7735,18 +7762,18 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E266" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F266" t="s">
-        <v>285</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" customFormat="1" spans="1:6">
       <c r="A267">
-        <v>6060004</v>
+        <v>6050005</v>
       </c>
       <c r="B267">
         <v>6</v>
@@ -7755,18 +7782,18 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E267" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F267" t="s">
-        <v>286</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" customFormat="1" spans="1:6">
       <c r="A268">
-        <v>6060005</v>
+        <v>6050006</v>
       </c>
       <c r="B268">
         <v>6</v>
@@ -7775,18 +7802,18 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E268" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F268" t="s">
-        <v>287</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" customFormat="1" spans="1:6">
       <c r="A269">
-        <v>6060006</v>
+        <v>6050007</v>
       </c>
       <c r="B269">
         <v>6</v>
@@ -7795,18 +7822,18 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E269" t="s">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="F269" t="s">
-        <v>289</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270" customFormat="1" spans="1:6">
       <c r="A270">
-        <v>6060007</v>
+        <v>6050008</v>
       </c>
       <c r="B270">
         <v>6</v>
@@ -7815,18 +7842,18 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="F270" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
     </row>
     <row r="271" customFormat="1" spans="1:6">
       <c r="A271">
-        <v>6060008</v>
+        <v>6050009</v>
       </c>
       <c r="B271">
         <v>6</v>
@@ -7835,18 +7862,18 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E271" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="F271" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" customFormat="1" spans="1:6">
       <c r="A272">
-        <v>6060009</v>
+        <v>6050010</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -7855,18 +7882,18 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E272" t="s">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="F272" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" customFormat="1" spans="1:6">
       <c r="A273">
-        <v>6060010</v>
+        <v>6060001</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -7878,15 +7905,15 @@
         <v>6</v>
       </c>
       <c r="E273" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="F273" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" customFormat="1" spans="1:6">
       <c r="A274">
-        <v>6500001</v>
+        <v>6060002</v>
       </c>
       <c r="B274">
         <v>6</v>
@@ -7895,18 +7922,18 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E274" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F274" t="s">
-        <v>384</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" customFormat="1" spans="1:6">
       <c r="A275">
-        <v>6500002</v>
+        <v>6060003</v>
       </c>
       <c r="B275">
         <v>6</v>
@@ -7915,18 +7942,18 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E275" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F275" t="s">
-        <v>385</v>
+        <v>294</v>
       </c>
     </row>
     <row r="276" customFormat="1" spans="1:6">
       <c r="A276">
-        <v>6500003</v>
+        <v>6060004</v>
       </c>
       <c r="B276">
         <v>6</v>
@@ -7935,18 +7962,18 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E276" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="F276" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" customFormat="1" spans="1:6">
       <c r="A277">
-        <v>6500004</v>
+        <v>6060005</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -7955,18 +7982,18 @@
         <v>0</v>
       </c>
       <c r="D277">
+        <v>6</v>
+      </c>
+      <c r="E277" t="s">
         <v>50</v>
       </c>
-      <c r="E277" t="s">
-        <v>106</v>
-      </c>
       <c r="F277" t="s">
-        <v>387</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" customFormat="1" spans="1:6">
       <c r="A278">
-        <v>6500005</v>
+        <v>6060006</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -7975,18 +8002,18 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E278" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="F278" t="s">
-        <v>388</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" customFormat="1" spans="1:6">
       <c r="A279">
-        <v>6500006</v>
+        <v>6060007</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -7995,18 +8022,18 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E279" t="s">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="F279" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280" customFormat="1" spans="1:6">
       <c r="A280">
-        <v>6500007</v>
+        <v>6060008</v>
       </c>
       <c r="B280">
         <v>6</v>
@@ -8015,18 +8042,18 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E280" t="s">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="F280" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
     </row>
     <row r="281" customFormat="1" spans="1:6">
       <c r="A281">
-        <v>6500008</v>
+        <v>6060009</v>
       </c>
       <c r="B281">
         <v>6</v>
@@ -8035,18 +8062,18 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E281" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="F281" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" customFormat="1" spans="1:6">
       <c r="A282">
-        <v>6500009</v>
+        <v>6060010</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -8055,18 +8082,18 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E282" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="F282" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
     </row>
     <row r="283" customFormat="1" spans="1:6">
       <c r="A283">
-        <v>6500010</v>
+        <v>6500001</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -8078,7 +8105,7 @@
         <v>50</v>
       </c>
       <c r="E283" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="F283" t="s">
         <v>393</v>
@@ -8086,7 +8113,7 @@
     </row>
     <row r="284" customFormat="1" spans="1:6">
       <c r="A284">
-        <v>6510001</v>
+        <v>6500002</v>
       </c>
       <c r="B284">
         <v>6</v>
@@ -8095,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E284" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F284" t="s">
         <v>394</v>
@@ -8106,7 +8133,7 @@
     </row>
     <row r="285" customFormat="1" spans="1:6">
       <c r="A285">
-        <v>6510002</v>
+        <v>6500003</v>
       </c>
       <c r="B285">
         <v>6</v>
@@ -8115,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E285" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="F285" t="s">
         <v>395</v>
@@ -8126,7 +8153,7 @@
     </row>
     <row r="286" customFormat="1" spans="1:6">
       <c r="A286">
-        <v>6520001</v>
+        <v>6500004</v>
       </c>
       <c r="B286">
         <v>6</v>
@@ -8135,18 +8162,18 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E286" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F286" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
     </row>
     <row r="287" customFormat="1" spans="1:6">
       <c r="A287">
-        <v>6520002</v>
+        <v>6500005</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -8155,18 +8182,18 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E287" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F287" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
     </row>
     <row r="288" customFormat="1" spans="1:6">
       <c r="A288">
-        <v>6520003</v>
+        <v>6500006</v>
       </c>
       <c r="B288">
         <v>6</v>
@@ -8175,18 +8202,18 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E288" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F288" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
     </row>
     <row r="289" customFormat="1" spans="1:6">
       <c r="A289">
-        <v>6520004</v>
+        <v>6500007</v>
       </c>
       <c r="B289">
         <v>6</v>
@@ -8195,18 +8222,18 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E289" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F289" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
     </row>
     <row r="290" customFormat="1" spans="1:6">
       <c r="A290">
-        <v>6520005</v>
+        <v>6500008</v>
       </c>
       <c r="B290">
         <v>6</v>
@@ -8215,18 +8242,18 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E290" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="F290" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="291" customFormat="1" spans="1:6">
       <c r="A291">
-        <v>6800001</v>
+        <v>6500009</v>
       </c>
       <c r="B291">
         <v>6</v>
@@ -8235,18 +8262,18 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E291" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="F291" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="292" customFormat="1" ht="12" customHeight="1" spans="1:6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="292" customFormat="1" spans="1:6">
       <c r="A292">
-        <v>6910001</v>
+        <v>6500010</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -8255,18 +8282,18 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E292" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="F292" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="293" customFormat="1" spans="1:6">
       <c r="A293">
-        <v>6910002</v>
+        <v>6510001</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -8275,18 +8302,18 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E293" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="F293" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="294" customFormat="1" spans="1:6">
       <c r="A294">
-        <v>6910003</v>
+        <v>6510002</v>
       </c>
       <c r="B294">
         <v>6</v>
@@ -8295,18 +8322,18 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E294" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="F294" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="295" customFormat="1" spans="1:6">
       <c r="A295">
-        <v>6910004</v>
+        <v>6520001</v>
       </c>
       <c r="B295">
         <v>6</v>
@@ -8315,18 +8342,18 @@
         <v>0</v>
       </c>
       <c r="D295">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E295" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="F295" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
     </row>
     <row r="296" customFormat="1" spans="1:6">
       <c r="A296">
-        <v>6910005</v>
+        <v>6520002</v>
       </c>
       <c r="B296">
         <v>6</v>
@@ -8335,18 +8362,18 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E296" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="F296" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
     </row>
     <row r="297" customFormat="1" spans="1:6">
       <c r="A297">
-        <v>6910006</v>
+        <v>6520003</v>
       </c>
       <c r="B297">
         <v>6</v>
@@ -8355,18 +8382,18 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E297" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="F297" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
     </row>
     <row r="298" customFormat="1" spans="1:6">
       <c r="A298">
-        <v>6910007</v>
+        <v>6520004</v>
       </c>
       <c r="B298">
         <v>6</v>
@@ -8375,18 +8402,18 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E298" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="F298" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
     </row>
     <row r="299" customFormat="1" spans="1:6">
       <c r="A299">
-        <v>6910008</v>
+        <v>6520005</v>
       </c>
       <c r="B299">
         <v>6</v>
@@ -8395,18 +8422,18 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E299" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F299" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="300" customFormat="1" spans="1:6">
       <c r="A300">
-        <v>6910009</v>
+        <v>6800001</v>
       </c>
       <c r="B300">
         <v>6</v>
@@ -8415,18 +8442,18 @@
         <v>0</v>
       </c>
       <c r="D300">
+        <v>80</v>
+      </c>
+      <c r="E300" t="s">
         <v>91</v>
       </c>
-      <c r="E300" t="s">
-        <v>170</v>
-      </c>
       <c r="F300" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="301" customFormat="1" spans="1:6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="301" customFormat="1" ht="12" customHeight="1" spans="1:6">
       <c r="A301">
-        <v>6910010</v>
+        <v>6910001</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -8438,7 +8465,7 @@
         <v>91</v>
       </c>
       <c r="E301" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="F301" t="s">
         <v>406</v>
@@ -8446,7 +8473,7 @@
     </row>
     <row r="302" customFormat="1" spans="1:6">
       <c r="A302">
-        <v>6910011</v>
+        <v>6910002</v>
       </c>
       <c r="B302">
         <v>6</v>
@@ -8458,7 +8485,7 @@
         <v>91</v>
       </c>
       <c r="E302" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F302" t="s">
         <v>407</v>
@@ -8466,7 +8493,7 @@
     </row>
     <row r="303" customFormat="1" spans="1:6">
       <c r="A303">
-        <v>6910012</v>
+        <v>6910003</v>
       </c>
       <c r="B303">
         <v>6</v>
@@ -8478,7 +8505,7 @@
         <v>91</v>
       </c>
       <c r="E303" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F303" t="s">
         <v>408</v>
@@ -8486,7 +8513,7 @@
     </row>
     <row r="304" customFormat="1" spans="1:6">
       <c r="A304">
-        <v>6910013</v>
+        <v>6910004</v>
       </c>
       <c r="B304">
         <v>6</v>
@@ -8498,7 +8525,7 @@
         <v>91</v>
       </c>
       <c r="E304" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F304" t="s">
         <v>409</v>
@@ -8506,7 +8533,7 @@
     </row>
     <row r="305" customFormat="1" spans="1:6">
       <c r="A305">
-        <v>6910014</v>
+        <v>6910005</v>
       </c>
       <c r="B305">
         <v>6</v>
@@ -8518,7 +8545,7 @@
         <v>91</v>
       </c>
       <c r="E305" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F305" t="s">
         <v>410</v>
@@ -8526,7 +8553,7 @@
     </row>
     <row r="306" customFormat="1" spans="1:6">
       <c r="A306">
-        <v>6910015</v>
+        <v>6910006</v>
       </c>
       <c r="B306">
         <v>6</v>
@@ -8538,7 +8565,7 @@
         <v>91</v>
       </c>
       <c r="E306" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F306" t="s">
         <v>411</v>
@@ -8546,7 +8573,7 @@
     </row>
     <row r="307" customFormat="1" spans="1:6">
       <c r="A307">
-        <v>6910016</v>
+        <v>6910007</v>
       </c>
       <c r="B307">
         <v>6</v>
@@ -8558,7 +8585,7 @@
         <v>91</v>
       </c>
       <c r="E307" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F307" t="s">
         <v>412</v>
@@ -8566,7 +8593,7 @@
     </row>
     <row r="308" customFormat="1" spans="1:6">
       <c r="A308">
-        <v>6910017</v>
+        <v>6910008</v>
       </c>
       <c r="B308">
         <v>6</v>
@@ -8578,7 +8605,7 @@
         <v>91</v>
       </c>
       <c r="E308" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F308" t="s">
         <v>413</v>
@@ -8586,7 +8613,7 @@
     </row>
     <row r="309" customFormat="1" spans="1:6">
       <c r="A309">
-        <v>6910018</v>
+        <v>6910009</v>
       </c>
       <c r="B309">
         <v>6</v>
@@ -8598,7 +8625,7 @@
         <v>91</v>
       </c>
       <c r="E309" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F309" t="s">
         <v>414</v>
@@ -8606,7 +8633,7 @@
     </row>
     <row r="310" customFormat="1" spans="1:6">
       <c r="A310">
-        <v>6910019</v>
+        <v>6910010</v>
       </c>
       <c r="B310">
         <v>6</v>
@@ -8618,7 +8645,7 @@
         <v>91</v>
       </c>
       <c r="E310" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F310" t="s">
         <v>415</v>
@@ -8626,7 +8653,7 @@
     </row>
     <row r="311" customFormat="1" spans="1:6">
       <c r="A311">
-        <v>6910020</v>
+        <v>6910011</v>
       </c>
       <c r="B311">
         <v>6</v>
@@ -8638,7 +8665,7 @@
         <v>91</v>
       </c>
       <c r="E311" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F311" t="s">
         <v>416</v>
@@ -8646,19 +8673,19 @@
     </row>
     <row r="312" customFormat="1" spans="1:6">
       <c r="A312">
-        <v>7000001</v>
+        <v>6910012</v>
       </c>
       <c r="B312">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C312">
         <v>0</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E312" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="F312" t="s">
         <v>417</v>
@@ -8666,167 +8693,167 @@
     </row>
     <row r="313" customFormat="1" spans="1:6">
       <c r="A313">
-        <v>7030001</v>
+        <v>6910013</v>
       </c>
       <c r="B313">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C313">
         <v>0</v>
       </c>
       <c r="D313">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E313" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="F313" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
     </row>
     <row r="314" customFormat="1" spans="1:6">
       <c r="A314">
-        <v>7030002</v>
+        <v>6910014</v>
       </c>
       <c r="B314">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C314">
         <v>0</v>
       </c>
       <c r="D314">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E314" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="F314" t="s">
-        <v>257</v>
+        <v>419</v>
       </c>
     </row>
     <row r="315" customFormat="1" spans="1:6">
       <c r="A315">
-        <v>7050001</v>
+        <v>6910015</v>
       </c>
       <c r="B315">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C315">
         <v>0</v>
       </c>
       <c r="D315">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E315" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="F315" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="316" customFormat="1" spans="1:6">
       <c r="A316">
-        <v>7050002</v>
+        <v>6910016</v>
       </c>
       <c r="B316">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C316">
         <v>0</v>
       </c>
       <c r="D316">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E316" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="F316" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="317" customFormat="1" spans="1:6">
       <c r="A317">
-        <v>7050003</v>
+        <v>6910017</v>
       </c>
       <c r="B317">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C317">
         <v>0</v>
       </c>
       <c r="D317">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E317" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="F317" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="318" customFormat="1" spans="1:6">
       <c r="A318">
-        <v>7050004</v>
+        <v>6910018</v>
       </c>
       <c r="B318">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C318">
         <v>0</v>
       </c>
       <c r="D318">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E318" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="F318" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="319" customFormat="1" spans="1:6">
       <c r="A319">
-        <v>7050005</v>
+        <v>6910019</v>
       </c>
       <c r="B319">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C319">
         <v>0</v>
       </c>
       <c r="D319">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E319" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="F319" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="320" customFormat="1" spans="1:6">
       <c r="A320">
-        <v>7060001</v>
+        <v>6910020</v>
       </c>
       <c r="B320">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C320">
         <v>0</v>
       </c>
       <c r="D320">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E320" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="F320" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
     </row>
     <row r="321" customFormat="1" spans="1:6">
       <c r="A321">
-        <v>7060002</v>
+        <v>7000001</v>
       </c>
       <c r="B321">
         <v>7</v>
@@ -8835,18 +8862,18 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F321" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
     </row>
     <row r="322" customFormat="1" spans="1:6">
       <c r="A322">
-        <v>7060003</v>
+        <v>7030001</v>
       </c>
       <c r="B322">
         <v>7</v>
@@ -8855,18 +8882,18 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E322" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F322" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="323" customFormat="1" spans="1:6">
       <c r="A323">
-        <v>7060004</v>
+        <v>7030002</v>
       </c>
       <c r="B323">
         <v>7</v>
@@ -8875,18 +8902,18 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F323" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="324" customFormat="1" spans="1:6">
       <c r="A324">
-        <v>7060005</v>
+        <v>7050001</v>
       </c>
       <c r="B324">
         <v>7</v>
@@ -8895,18 +8922,18 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E324" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F324" t="s">
-        <v>287</v>
+        <v>427</v>
       </c>
     </row>
     <row r="325" customFormat="1" spans="1:6">
       <c r="A325">
-        <v>7500001</v>
+        <v>7050002</v>
       </c>
       <c r="B325">
         <v>7</v>
@@ -8915,18 +8942,18 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E325" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F325" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="326" customFormat="1" spans="1:6">
       <c r="A326">
-        <v>7510001</v>
+        <v>7050003</v>
       </c>
       <c r="B326">
         <v>7</v>
@@ -8935,18 +8962,18 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E326" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F326" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:6">
       <c r="A327">
-        <v>7510002</v>
+        <v>7050004</v>
       </c>
       <c r="B327">
         <v>7</v>
@@ -8955,18 +8982,18 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E327" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="F327" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="328" customFormat="1" spans="1:6">
       <c r="A328">
-        <v>7520001</v>
+        <v>7050005</v>
       </c>
       <c r="B328">
         <v>7</v>
@@ -8975,18 +9002,18 @@
         <v>0</v>
       </c>
       <c r="D328">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="E328" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F328" t="s">
-        <v>333</v>
+        <v>431</v>
       </c>
     </row>
     <row r="329" customFormat="1" spans="1:6">
       <c r="A329">
-        <v>7520002</v>
+        <v>7060001</v>
       </c>
       <c r="B329">
         <v>7</v>
@@ -8995,18 +9022,18 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E329" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="F329" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="330" customFormat="1" spans="1:6">
       <c r="A330">
-        <v>7520003</v>
+        <v>7060002</v>
       </c>
       <c r="B330">
         <v>7</v>
@@ -9015,18 +9042,18 @@
         <v>0</v>
       </c>
       <c r="D330">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E330" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F330" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="331" customFormat="1" spans="1:6">
       <c r="A331">
-        <v>7520004</v>
+        <v>7060003</v>
       </c>
       <c r="B331">
         <v>7</v>
@@ -9035,18 +9062,18 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E331" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="F331" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="332" customFormat="1" spans="1:6">
       <c r="A332">
-        <v>7900001</v>
+        <v>7060004</v>
       </c>
       <c r="B332">
         <v>7</v>
@@ -9055,18 +9082,18 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E332" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F332" t="s">
-        <v>426</v>
+        <v>295</v>
       </c>
     </row>
     <row r="333" customFormat="1" spans="1:6">
       <c r="A333">
-        <v>7900002</v>
+        <v>7060005</v>
       </c>
       <c r="B333">
         <v>7</v>
@@ -9075,18 +9102,18 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E333" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F333" t="s">
-        <v>427</v>
+        <v>296</v>
       </c>
     </row>
     <row r="334" customFormat="1" spans="1:6">
       <c r="A334">
-        <v>7900003</v>
+        <v>7500001</v>
       </c>
       <c r="B334">
         <v>7</v>
@@ -9095,18 +9122,18 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E334" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F334" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="335" customFormat="1" ht="12" customHeight="1" spans="1:6">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="335" customFormat="1" spans="1:6">
       <c r="A335">
-        <v>7910001</v>
+        <v>7510001</v>
       </c>
       <c r="B335">
         <v>7</v>
@@ -9115,18 +9142,18 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E335" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="F335" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="336" customFormat="1" spans="1:6">
       <c r="A336">
-        <v>7910002</v>
+        <v>7510002</v>
       </c>
       <c r="B336">
         <v>7</v>
@@ -9135,18 +9162,18 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E336" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="F336" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="337" customFormat="1" spans="1:6">
       <c r="A337">
-        <v>7910003</v>
+        <v>7520001</v>
       </c>
       <c r="B337">
         <v>7</v>
@@ -9155,18 +9182,18 @@
         <v>0</v>
       </c>
       <c r="D337">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E337" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="F337" t="s">
-        <v>431</v>
+        <v>342</v>
       </c>
     </row>
     <row r="338" customFormat="1" spans="1:6">
       <c r="A338">
-        <v>7910004</v>
+        <v>7520002</v>
       </c>
       <c r="B338">
         <v>7</v>
@@ -9175,18 +9202,18 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E338" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="F338" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
     </row>
     <row r="339" customFormat="1" spans="1:6">
       <c r="A339">
-        <v>7910005</v>
+        <v>7520003</v>
       </c>
       <c r="B339">
         <v>7</v>
@@ -9195,18 +9222,18 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E339" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="F339" t="s">
-        <v>433</v>
+        <v>344</v>
       </c>
     </row>
     <row r="340" customFormat="1" spans="1:6">
       <c r="A340">
-        <v>7910006</v>
+        <v>7520004</v>
       </c>
       <c r="B340">
         <v>7</v>
@@ -9215,174 +9242,201 @@
         <v>0</v>
       </c>
       <c r="D340">
+        <v>52</v>
+      </c>
+      <c r="E340" t="s">
+        <v>65</v>
+      </c>
+      <c r="F340" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="341" customFormat="1" spans="1:6">
+      <c r="A341">
+        <v>7900001</v>
+      </c>
+      <c r="B341">
+        <v>7</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>90</v>
+      </c>
+      <c r="E341" t="s">
+        <v>93</v>
+      </c>
+      <c r="F341" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="342" customFormat="1" spans="1:6">
+      <c r="A342">
+        <v>7900002</v>
+      </c>
+      <c r="B342">
+        <v>7</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>90</v>
+      </c>
+      <c r="E342" t="s">
+        <v>95</v>
+      </c>
+      <c r="F342" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="343" customFormat="1" spans="1:6">
+      <c r="A343">
+        <v>7900003</v>
+      </c>
+      <c r="B343">
+        <v>7</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>90</v>
+      </c>
+      <c r="E343" t="s">
+        <v>96</v>
+      </c>
+      <c r="F343" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="344" customFormat="1" ht="12" customHeight="1" spans="1:6">
+      <c r="A344">
+        <v>7910001</v>
+      </c>
+      <c r="B344">
+        <v>7</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
         <v>91</v>
       </c>
-      <c r="E340" t="s">
-        <v>164</v>
-      </c>
-      <c r="F340" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="2">
-        <v>99995005001</v>
-      </c>
-      <c r="B341" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C341">
-        <v>1</v>
-      </c>
-      <c r="D341">
-        <v>5</v>
-      </c>
-      <c r="E341" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="2">
-        <v>99995005002</v>
-      </c>
-      <c r="B342" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-      <c r="D342">
-        <v>5</v>
-      </c>
-      <c r="E342" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="2">
-        <v>99995005003</v>
-      </c>
-      <c r="B343" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C343">
-        <v>1</v>
-      </c>
-      <c r="D343">
-        <v>5</v>
-      </c>
-      <c r="E343" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="2">
-        <v>99995005004</v>
-      </c>
-      <c r="B344" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C344">
-        <v>1</v>
-      </c>
-      <c r="D344">
-        <v>5</v>
-      </c>
       <c r="E344" t="s">
+        <v>103</v>
+      </c>
+      <c r="F344" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="2">
-        <v>99995005005</v>
-      </c>
-      <c r="B345" s="2">
-        <v>999950</v>
+    <row r="345" customFormat="1" spans="1:6">
+      <c r="A345">
+        <v>7910002</v>
+      </c>
+      <c r="B345">
+        <v>7</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D345">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E345" t="s">
+        <v>165</v>
+      </c>
+      <c r="F345" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="2">
-        <v>99994705001</v>
-      </c>
-      <c r="B346" s="2">
-        <v>999947</v>
+    <row r="346" customFormat="1" spans="1:6">
+      <c r="A346">
+        <v>7910003</v>
+      </c>
+      <c r="B346">
+        <v>7</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D346">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E346" t="s">
+        <v>167</v>
+      </c>
+      <c r="F346" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="2">
-        <v>99994705002</v>
-      </c>
-      <c r="B347" s="2">
-        <v>999947</v>
+    <row r="347" customFormat="1" spans="1:6">
+      <c r="A347">
+        <v>7910004</v>
+      </c>
+      <c r="B347">
+        <v>7</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D347">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E347" t="s">
+        <v>169</v>
+      </c>
+      <c r="F347" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="2">
-        <v>99994705003</v>
-      </c>
-      <c r="B348" s="2">
-        <v>999947</v>
+    <row r="348" customFormat="1" spans="1:6">
+      <c r="A348">
+        <v>7910005</v>
+      </c>
+      <c r="B348">
+        <v>7</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D348">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E348" t="s">
+        <v>171</v>
+      </c>
+      <c r="F348" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="2">
-        <v>99994705004</v>
-      </c>
-      <c r="B349" s="2">
-        <v>999947</v>
+    <row r="349" customFormat="1" spans="1:6">
+      <c r="A349">
+        <v>7910006</v>
+      </c>
+      <c r="B349">
+        <v>7</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E349" t="s">
-        <v>439</v>
+        <v>173</v>
+      </c>
+      <c r="F349" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B350">
-        <v>999961</v>
+        <v>99995005001</v>
+      </c>
+      <c r="B350" s="2">
+        <v>999950</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -9391,15 +9445,15 @@
         <v>5</v>
       </c>
       <c r="E350" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="2">
-        <v>99996105002</v>
-      </c>
-      <c r="B351">
-        <v>999961</v>
+        <v>99995005002</v>
+      </c>
+      <c r="B351" s="2">
+        <v>999950</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -9408,15 +9462,15 @@
         <v>5</v>
       </c>
       <c r="E351" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="2">
-        <v>99996105003</v>
-      </c>
-      <c r="B352">
-        <v>999961</v>
+        <v>99995005003</v>
+      </c>
+      <c r="B352" s="2">
+        <v>999950</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -9425,15 +9479,15 @@
         <v>5</v>
       </c>
       <c r="E352" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="2">
-        <v>99996105004</v>
-      </c>
-      <c r="B353">
-        <v>999961</v>
+        <v>99995005004</v>
+      </c>
+      <c r="B353" s="2">
+        <v>999950</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -9442,253 +9496,253 @@
         <v>5</v>
       </c>
       <c r="E353" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2">
+        <v>99995005005</v>
+      </c>
+      <c r="B354" s="2">
+        <v>999950</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>5</v>
+      </c>
+      <c r="E354" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>99994705001</v>
+      </c>
+      <c r="B355" s="2">
+        <v>999947</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>5</v>
+      </c>
+      <c r="E355" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>99994705002</v>
+      </c>
+      <c r="B356" s="2">
+        <v>999947</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>5</v>
+      </c>
+      <c r="E356" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>99994705003</v>
+      </c>
+      <c r="B357" s="2">
+        <v>999947</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>5</v>
+      </c>
+      <c r="E357" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>99994705004</v>
+      </c>
+      <c r="B358" s="2">
+        <v>999947</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>5</v>
+      </c>
+      <c r="E358" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>99996105001</v>
+      </c>
+      <c r="B359">
+        <v>999961</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>5</v>
+      </c>
+      <c r="E359" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>99996105002</v>
+      </c>
+      <c r="B360">
+        <v>999961</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="E360" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>99996105003</v>
+      </c>
+      <c r="B361">
+        <v>999961</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>5</v>
+      </c>
+      <c r="E361" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>99996105004</v>
+      </c>
+      <c r="B362">
+        <v>999961</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>5</v>
+      </c>
+      <c r="E362" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
         <v>99996105005</v>
       </c>
-      <c r="B354">
+      <c r="B363">
         <v>999961</v>
       </c>
-      <c r="C354">
-        <v>1</v>
-      </c>
-      <c r="D354">
-        <v>5</v>
-      </c>
-      <c r="E354" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="A355">
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>5</v>
+      </c>
+      <c r="E363" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364">
         <v>99996805001</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B364" s="2">
         <v>999968</v>
       </c>
-      <c r="C355">
-        <v>1</v>
-      </c>
-      <c r="D355">
-        <v>5</v>
-      </c>
-      <c r="E355" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="A356">
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>5</v>
+      </c>
+      <c r="E364" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365">
         <v>99996805002</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B365" s="2">
         <v>999968</v>
       </c>
-      <c r="C356">
-        <v>1</v>
-      </c>
-      <c r="D356">
-        <v>5</v>
-      </c>
-      <c r="E356" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="A357">
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>5</v>
+      </c>
+      <c r="E365" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366">
         <v>99996805003</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B366" s="2">
         <v>999968</v>
       </c>
-      <c r="C357">
-        <v>1</v>
-      </c>
-      <c r="D357">
-        <v>5</v>
-      </c>
-      <c r="E357" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="A358">
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>5</v>
+      </c>
+      <c r="E366" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367">
         <v>99996805004</v>
       </c>
-      <c r="B358" s="2">
+      <c r="B367" s="2">
         <v>999968</v>
       </c>
-      <c r="C358">
-        <v>1</v>
-      </c>
-      <c r="D358">
-        <v>5</v>
-      </c>
-      <c r="E358" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="A359">
-        <v>99997905001</v>
-      </c>
-      <c r="B359">
-        <v>999979</v>
-      </c>
-      <c r="C359">
-        <v>1</v>
-      </c>
-      <c r="D359">
-        <v>5</v>
-      </c>
-      <c r="E359" t="s">
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>5</v>
+      </c>
+      <c r="E367" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="A360">
-        <v>99997905002</v>
-      </c>
-      <c r="B360">
-        <v>999979</v>
-      </c>
-      <c r="C360">
-        <v>1</v>
-      </c>
-      <c r="D360">
-        <v>5</v>
-      </c>
-      <c r="E360" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
-      <c r="A361">
-        <v>99997905003</v>
-      </c>
-      <c r="B361">
-        <v>999979</v>
-      </c>
-      <c r="C361">
-        <v>1</v>
-      </c>
-      <c r="D361">
-        <v>5</v>
-      </c>
-      <c r="E361" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362">
-        <v>99997905004</v>
-      </c>
-      <c r="B362">
-        <v>999979</v>
-      </c>
-      <c r="C362">
-        <v>1</v>
-      </c>
-      <c r="D362">
-        <v>5</v>
-      </c>
-      <c r="E362" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363">
-        <v>99997905005</v>
-      </c>
-      <c r="B363">
-        <v>999979</v>
-      </c>
-      <c r="C363">
-        <v>1</v>
-      </c>
-      <c r="D363">
-        <v>5</v>
-      </c>
-      <c r="E363" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="2">
-        <v>99997405001</v>
-      </c>
-      <c r="B364" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C364">
-        <v>1</v>
-      </c>
-      <c r="D364">
-        <v>5</v>
-      </c>
-      <c r="E364" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="2">
-        <v>99997405002</v>
-      </c>
-      <c r="B365" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C365">
-        <v>1</v>
-      </c>
-      <c r="D365">
-        <v>5</v>
-      </c>
-      <c r="E365" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="A366" s="2">
-        <v>99997405003</v>
-      </c>
-      <c r="B366" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C366">
-        <v>1</v>
-      </c>
-      <c r="D366">
-        <v>5</v>
-      </c>
-      <c r="E366" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
-      <c r="A367" s="2">
-        <v>99997405004</v>
-      </c>
-      <c r="B367" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C367">
-        <v>1</v>
-      </c>
-      <c r="D367">
-        <v>5</v>
-      </c>
-      <c r="E367" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368">
-        <v>99998605001</v>
+        <v>99997905001</v>
       </c>
       <c r="B368">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -9697,15 +9751,15 @@
         <v>5</v>
       </c>
       <c r="E368" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369">
-        <v>99998605002</v>
+        <v>99997905002</v>
       </c>
       <c r="B369">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -9714,15 +9768,15 @@
         <v>5</v>
       </c>
       <c r="E369" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370">
-        <v>99998605003</v>
+        <v>99997905003</v>
       </c>
       <c r="B370">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -9731,15 +9785,15 @@
         <v>5</v>
       </c>
       <c r="E370" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371">
-        <v>99998605004</v>
+        <v>99997905004</v>
       </c>
       <c r="B371">
-        <v>999986</v>
+        <v>999979</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -9748,429 +9802,582 @@
         <v>5</v>
       </c>
       <c r="E371" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
+        <v>99997905005</v>
+      </c>
+      <c r="B372">
+        <v>999979</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>5</v>
+      </c>
+      <c r="E372" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>99997405001</v>
+      </c>
+      <c r="B373" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>5</v>
+      </c>
+      <c r="E373" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>99997405002</v>
+      </c>
+      <c r="B374" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>5</v>
+      </c>
+      <c r="E374" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>99997405003</v>
+      </c>
+      <c r="B375" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>5</v>
+      </c>
+      <c r="E375" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B376" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>5</v>
+      </c>
+      <c r="E376" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377">
+        <v>99998605001</v>
+      </c>
+      <c r="B377">
+        <v>999986</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>5</v>
+      </c>
+      <c r="E377" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378">
+        <v>99998605002</v>
+      </c>
+      <c r="B378">
+        <v>999986</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>5</v>
+      </c>
+      <c r="E378" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379">
+        <v>99998605003</v>
+      </c>
+      <c r="B379">
+        <v>999986</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>5</v>
+      </c>
+      <c r="E379" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380">
+        <v>99998605004</v>
+      </c>
+      <c r="B380">
+        <v>999986</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>5</v>
+      </c>
+      <c r="E380" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381">
         <v>99998705001</v>
       </c>
-      <c r="B372">
+      <c r="B381">
         <v>999987</v>
       </c>
-      <c r="C372">
-        <v>1</v>
-      </c>
-      <c r="D372">
-        <v>5</v>
-      </c>
-      <c r="E372" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="A373">
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>5</v>
+      </c>
+      <c r="E381" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382">
         <v>99998705002</v>
       </c>
-      <c r="B373">
+      <c r="B382">
         <v>999987</v>
       </c>
-      <c r="C373">
-        <v>1</v>
-      </c>
-      <c r="D373">
-        <v>5</v>
-      </c>
-      <c r="E373" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374">
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>5</v>
+      </c>
+      <c r="E382" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383">
         <v>99998705003</v>
       </c>
-      <c r="B374">
+      <c r="B383">
         <v>999987</v>
       </c>
-      <c r="C374">
-        <v>1</v>
-      </c>
-      <c r="D374">
-        <v>5</v>
-      </c>
-      <c r="E374" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375">
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>5</v>
+      </c>
+      <c r="E383" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384">
         <v>99998705004</v>
       </c>
-      <c r="B375">
+      <c r="B384">
         <v>999987</v>
       </c>
-      <c r="C375">
-        <v>1</v>
-      </c>
-      <c r="D375">
-        <v>5</v>
-      </c>
-      <c r="E375" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376">
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>5</v>
+      </c>
+      <c r="E384" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385">
         <v>99998705005</v>
       </c>
-      <c r="B376">
+      <c r="B385">
         <v>999988</v>
       </c>
-      <c r="C376">
-        <v>1</v>
-      </c>
-      <c r="D376">
-        <v>5</v>
-      </c>
-      <c r="E376" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="377" ht="12" customHeight="1" spans="1:5">
-      <c r="A377" s="2">
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>5</v>
+      </c>
+      <c r="E385" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="386" ht="12" customHeight="1" spans="1:5">
+      <c r="A386" s="2">
         <v>99998905001</v>
       </c>
-      <c r="B377">
+      <c r="B386">
         <v>999989</v>
       </c>
-      <c r="C377">
-        <v>1</v>
-      </c>
-      <c r="D377">
-        <v>5</v>
-      </c>
-      <c r="E377" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="A378" s="2">
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>5</v>
+      </c>
+      <c r="E386" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
         <v>99998905002</v>
       </c>
-      <c r="B378">
+      <c r="B387">
         <v>999989</v>
       </c>
-      <c r="C378">
-        <v>1</v>
-      </c>
-      <c r="D378">
-        <v>5</v>
-      </c>
-      <c r="E378" t="s">
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>5</v>
+      </c>
+      <c r="E387" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>99998905003</v>
+      </c>
+      <c r="B388">
+        <v>999989</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>5</v>
+      </c>
+      <c r="E388" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>99998905004</v>
+      </c>
+      <c r="B389">
+        <v>999989</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>5</v>
+      </c>
+      <c r="E389" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
+        <v>99999505001</v>
+      </c>
+      <c r="B390" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>5</v>
+      </c>
+      <c r="E390" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
-      <c r="A379" s="2">
-        <v>99998905003</v>
-      </c>
-      <c r="B379">
-        <v>999989</v>
-      </c>
-      <c r="C379">
-        <v>1</v>
-      </c>
-      <c r="D379">
-        <v>5</v>
-      </c>
-      <c r="E379" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="A380" s="2">
-        <v>99998905004</v>
-      </c>
-      <c r="B380">
-        <v>999989</v>
-      </c>
-      <c r="C380">
-        <v>1</v>
-      </c>
-      <c r="D380">
-        <v>5</v>
-      </c>
-      <c r="E380" t="s">
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>99999505002</v>
+      </c>
+      <c r="B391" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>5</v>
+      </c>
+      <c r="E391" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>99999505003</v>
+      </c>
+      <c r="B392" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>5</v>
+      </c>
+      <c r="E392" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>99999505004</v>
+      </c>
+      <c r="B393" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>5</v>
+      </c>
+      <c r="E393" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>99999505005</v>
+      </c>
+      <c r="B394" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>5</v>
+      </c>
+      <c r="E394" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="2">
-        <v>99999505001</v>
-      </c>
-      <c r="B381" s="2">
-        <v>999995</v>
-      </c>
-      <c r="C381">
-        <v>1</v>
-      </c>
-      <c r="D381">
-        <v>5</v>
-      </c>
-      <c r="E381" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="A382" s="2">
-        <v>99999505002</v>
-      </c>
-      <c r="B382" s="2">
-        <v>999995</v>
-      </c>
-      <c r="C382">
-        <v>1</v>
-      </c>
-      <c r="D382">
-        <v>5</v>
-      </c>
-      <c r="E382" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="A383" s="2">
-        <v>99999505003</v>
-      </c>
-      <c r="B383" s="2">
-        <v>999995</v>
-      </c>
-      <c r="C383">
-        <v>1</v>
-      </c>
-      <c r="D383">
-        <v>5</v>
-      </c>
-      <c r="E383" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="A384" s="2">
-        <v>99999505004</v>
-      </c>
-      <c r="B384" s="2">
-        <v>999995</v>
-      </c>
-      <c r="C384">
-        <v>1</v>
-      </c>
-      <c r="D384">
-        <v>5</v>
-      </c>
-      <c r="E384" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="A385" s="2">
-        <v>99999505005</v>
-      </c>
-      <c r="B385" s="2">
-        <v>999995</v>
-      </c>
-      <c r="C385">
-        <v>1</v>
-      </c>
-      <c r="D385">
-        <v>5</v>
-      </c>
-      <c r="E385" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1" spans="1:5">
-      <c r="A386" s="2">
-        <v>99999605001</v>
-      </c>
-      <c r="B386">
-        <v>999996</v>
-      </c>
-      <c r="C386">
-        <v>1</v>
-      </c>
-      <c r="D386">
-        <v>5</v>
-      </c>
-      <c r="E386" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1" spans="1:5">
-      <c r="A387" s="2">
-        <v>99999605002</v>
-      </c>
-      <c r="B387">
-        <v>999996</v>
-      </c>
-      <c r="C387">
-        <v>1</v>
-      </c>
-      <c r="D387">
-        <v>5</v>
-      </c>
-      <c r="E387" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1" spans="1:5">
-      <c r="A388" s="2">
-        <v>99999605003</v>
-      </c>
-      <c r="B388">
-        <v>999996</v>
-      </c>
-      <c r="C388">
-        <v>1</v>
-      </c>
-      <c r="D388">
-        <v>5</v>
-      </c>
-      <c r="E388" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1" spans="1:5">
-      <c r="A389" s="2">
-        <v>99999605004</v>
-      </c>
-      <c r="B389">
-        <v>999996</v>
-      </c>
-      <c r="C389">
-        <v>1</v>
-      </c>
-      <c r="D389">
-        <v>5</v>
-      </c>
-      <c r="E389" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1" spans="1:5">
-      <c r="A390" s="2">
-        <v>99999605005</v>
-      </c>
-      <c r="B390">
-        <v>999996</v>
-      </c>
-      <c r="C390">
-        <v>1</v>
-      </c>
-      <c r="D390">
-        <v>5</v>
-      </c>
-      <c r="E390" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="391" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A391" s="2">
-        <v>99999905001</v>
-      </c>
-      <c r="B391">
-        <v>999999</v>
-      </c>
-      <c r="C391">
-        <v>1</v>
-      </c>
-      <c r="D391">
-        <v>5</v>
-      </c>
-      <c r="E391" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1" spans="1:5">
-      <c r="A392" s="2">
-        <v>99999905002</v>
-      </c>
-      <c r="B392">
-        <v>999999</v>
-      </c>
-      <c r="C392">
-        <v>1</v>
-      </c>
-      <c r="D392">
-        <v>5</v>
-      </c>
-      <c r="E392" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1" spans="1:5">
-      <c r="A393" s="2">
-        <v>99999905003</v>
-      </c>
-      <c r="B393">
-        <v>999999</v>
-      </c>
-      <c r="C393">
-        <v>1</v>
-      </c>
-      <c r="D393">
-        <v>5</v>
-      </c>
-      <c r="E393" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1" spans="1:5">
-      <c r="A394" s="2">
-        <v>99999905004</v>
-      </c>
-      <c r="B394">
-        <v>999999</v>
-      </c>
-      <c r="C394">
-        <v>1</v>
-      </c>
-      <c r="D394">
-        <v>5</v>
-      </c>
-      <c r="E394" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="395" ht="15" customHeight="1" spans="1:5">
       <c r="A395" s="2">
+        <v>99999605001</v>
+      </c>
+      <c r="B395">
+        <v>999996</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>5</v>
+      </c>
+      <c r="E395" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1" spans="1:5">
+      <c r="A396" s="2">
+        <v>99999605002</v>
+      </c>
+      <c r="B396">
+        <v>999996</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>5</v>
+      </c>
+      <c r="E396" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1" spans="1:5">
+      <c r="A397" s="2">
+        <v>99999605003</v>
+      </c>
+      <c r="B397">
+        <v>999996</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>5</v>
+      </c>
+      <c r="E397" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1" spans="1:5">
+      <c r="A398" s="2">
+        <v>99999605004</v>
+      </c>
+      <c r="B398">
+        <v>999996</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>5</v>
+      </c>
+      <c r="E398" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1" spans="1:5">
+      <c r="A399" s="2">
+        <v>99999605005</v>
+      </c>
+      <c r="B399">
+        <v>999996</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>5</v>
+      </c>
+      <c r="E399" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="400" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A400" s="2">
+        <v>99999905001</v>
+      </c>
+      <c r="B400">
+        <v>999999</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>5</v>
+      </c>
+      <c r="E400" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1" spans="1:5">
+      <c r="A401" s="2">
+        <v>99999905002</v>
+      </c>
+      <c r="B401">
+        <v>999999</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>5</v>
+      </c>
+      <c r="E401" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1" spans="1:5">
+      <c r="A402" s="2">
+        <v>99999905003</v>
+      </c>
+      <c r="B402">
+        <v>999999</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>5</v>
+      </c>
+      <c r="E402" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1" spans="1:5">
+      <c r="A403" s="2">
+        <v>99999905004</v>
+      </c>
+      <c r="B403">
+        <v>999999</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>5</v>
+      </c>
+      <c r="E403" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1" spans="1:5">
+      <c r="A404" s="2">
         <v>99999905005</v>
       </c>
-      <c r="B395">
+      <c r="B404">
         <v>999999</v>
       </c>
-      <c r="C395">
-        <v>1</v>
-      </c>
-      <c r="D395">
-        <v>5</v>
-      </c>
-      <c r="E395" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="428" ht="12" customHeight="1"/>
-    <row r="429" ht="12" customHeight="1"/>
-    <row r="430" ht="12" customHeight="1"/>
-    <row r="431" ht="12" customHeight="1"/>
-    <row r="432" ht="12" customHeight="1"/>
-    <row r="433" ht="12" customHeight="1"/>
-    <row r="434" ht="12" customHeight="1"/>
-    <row r="435" ht="12" customHeight="1"/>
-    <row r="436" ht="12" customHeight="1"/>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>5</v>
+      </c>
+      <c r="E404" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="437" ht="12" customHeight="1"/>
+    <row r="438" ht="12" customHeight="1"/>
+    <row r="439" ht="12" customHeight="1"/>
+    <row r="440" ht="12" customHeight="1"/>
+    <row r="441" ht="12" customHeight="1"/>
+    <row r="442" ht="12" customHeight="1"/>
+    <row r="443" ht="12" customHeight="1"/>
+    <row r="444" ht="12" customHeight="1"/>
+    <row r="445" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F395" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F404" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:F36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -2438,14 +2438,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="163.875" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -2362,19 +2362,20 @@
   <dimension ref="A1:F432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="3" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="33.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$F$391</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$G$391</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
     <t>res_name</t>
   </si>
   <si>
+    <t>color_state</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>资源名字</t>
+  </si>
+  <si>
+    <t>颜色状态：0不可设置 1可设置不透明颜色 2可设置透明颜色</t>
   </si>
   <si>
     <t>备注</t>
@@ -2359,28 +2365,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F432"/>
+  <dimension ref="A1:G432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="53.25" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2399,48 +2406,57 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4">
         <v>1000001</v>
       </c>
@@ -2454,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
       <c r="A5">
         <v>1030001</v>
       </c>
@@ -2474,13 +2490,16 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6">
         <v>1030002</v>
       </c>
@@ -2494,13 +2513,16 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
       <c r="A7">
         <v>1030003</v>
       </c>
@@ -2514,13 +2536,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:6">
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
       <c r="A8">
         <v>1040001</v>
       </c>
@@ -2534,13 +2559,13 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
       <c r="A9">
         <v>1040002</v>
       </c>
@@ -2554,13 +2579,13 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
       <c r="A10">
         <v>1050001</v>
       </c>
@@ -2574,13 +2599,13 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
       <c r="A11">
         <v>1050002</v>
       </c>
@@ -2594,13 +2619,13 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
       <c r="A12">
         <v>1050003</v>
       </c>
@@ -2614,13 +2639,13 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:6">
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
       <c r="A13">
         <v>1050004</v>
       </c>
@@ -2634,13 +2659,13 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
       <c r="A14">
         <v>1050005</v>
       </c>
@@ -2654,13 +2679,13 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
       <c r="A15">
         <v>1050006</v>
       </c>
@@ -2674,13 +2699,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16">
         <v>1050007</v>
       </c>
@@ -2694,13 +2719,13 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:7">
       <c r="A17">
         <v>1050008</v>
       </c>
@@ -2714,13 +2739,13 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
       <c r="A18">
         <v>1050009</v>
       </c>
@@ -2734,13 +2759,13 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:7">
       <c r="A19">
         <v>1050010</v>
       </c>
@@ -2754,13 +2779,13 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:7">
       <c r="A20">
         <v>1050011</v>
       </c>
@@ -2774,13 +2799,13 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:7">
       <c r="A21">
         <v>1060001</v>
       </c>
@@ -2794,13 +2819,13 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:7">
       <c r="A22">
         <v>1060002</v>
       </c>
@@ -2814,13 +2839,13 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
       <c r="A23">
         <v>1060003</v>
       </c>
@@ -2834,13 +2859,13 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
         <v>40</v>
       </c>
-      <c r="F23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:6">
+    </row>
+    <row r="24" customFormat="1" spans="1:7">
       <c r="A24">
         <v>1060004</v>
       </c>
@@ -2854,13 +2879,13 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:7">
       <c r="A25">
         <v>1060005</v>
       </c>
@@ -2874,13 +2899,13 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:7">
       <c r="A26">
         <v>1500001</v>
       </c>
@@ -2894,13 +2919,13 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:7">
       <c r="A27">
         <v>1500002</v>
       </c>
@@ -2914,13 +2939,13 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:7">
       <c r="A28">
         <v>1500003</v>
       </c>
@@ -2934,13 +2959,13 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:7">
       <c r="A29">
         <v>1500004</v>
       </c>
@@ -2954,13 +2979,13 @@
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:7">
       <c r="A30">
         <v>1510001</v>
       </c>
@@ -2974,13 +2999,13 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:7">
       <c r="A31">
         <v>1510002</v>
       </c>
@@ -2994,13 +3019,13 @@
         <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:7">
       <c r="A32">
         <v>1510003</v>
       </c>
@@ -3014,13 +3039,13 @@
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:7">
       <c r="A33">
         <v>1510004</v>
       </c>
@@ -3034,13 +3059,13 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:7">
       <c r="A34">
         <v>1520001</v>
       </c>
@@ -3054,13 +3079,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:7">
       <c r="A35">
         <v>1520002</v>
       </c>
@@ -3074,13 +3099,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:7">
       <c r="A36">
         <v>1520003</v>
       </c>
@@ -3094,13 +3119,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:7">
       <c r="A37">
         <v>1520004</v>
       </c>
@@ -3114,13 +3139,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:7">
       <c r="A38">
         <v>1900001</v>
       </c>
@@ -3134,13 +3159,13 @@
         <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:7">
       <c r="A39">
         <v>1900002</v>
       </c>
@@ -3154,13 +3179,13 @@
         <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:7">
       <c r="A40">
         <v>1900003</v>
       </c>
@@ -3174,13 +3199,13 @@
         <v>90</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="F40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:6">
+    </row>
+    <row r="41" customFormat="1" spans="1:7">
       <c r="A41">
         <v>1900004</v>
       </c>
@@ -3194,13 +3219,13 @@
         <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:7">
       <c r="A42">
         <v>1900005</v>
       </c>
@@ -3214,13 +3239,13 @@
         <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:7">
       <c r="A43">
         <v>1900006</v>
       </c>
@@ -3234,13 +3259,13 @@
         <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:7">
       <c r="A44">
         <v>1900007</v>
       </c>
@@ -3254,13 +3279,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:7">
       <c r="A45">
         <v>1900008</v>
       </c>
@@ -3274,13 +3299,13 @@
         <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:7">
       <c r="A46">
         <v>1900009</v>
       </c>
@@ -3294,13 +3319,13 @@
         <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:7">
       <c r="A47">
         <v>1910001</v>
       </c>
@@ -3314,13 +3339,13 @@
         <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>2000001</v>
       </c>
@@ -3334,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>2010001</v>
       </c>
@@ -3354,13 +3379,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>2010002</v>
       </c>
@@ -3374,13 +3399,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>2010003</v>
       </c>
@@ -3394,13 +3419,13 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s">
         <v>82</v>
       </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>2010004</v>
       </c>
@@ -3414,13 +3439,13 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>2010005</v>
       </c>
@@ -3434,13 +3459,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>2010006</v>
       </c>
@@ -3454,13 +3479,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>2010007</v>
       </c>
@@ -3474,13 +3499,13 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>2010008</v>
       </c>
@@ -3494,13 +3519,13 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>2010009</v>
       </c>
@@ -3514,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>2010010</v>
       </c>
@@ -3534,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>2010011</v>
       </c>
@@ -3554,13 +3579,13 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>2010012</v>
       </c>
@@ -3574,13 +3599,13 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>2010013</v>
       </c>
@@ -3594,13 +3619,13 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>2500001</v>
       </c>
@@ -3614,13 +3639,13 @@
         <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>2500002</v>
       </c>
@@ -3634,13 +3659,13 @@
         <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>2500003</v>
       </c>
@@ -3654,13 +3679,13 @@
         <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>2500004</v>
       </c>
@@ -3674,13 +3699,13 @@
         <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>2500005</v>
       </c>
@@ -3694,13 +3719,13 @@
         <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>2500006</v>
       </c>
@@ -3714,13 +3739,13 @@
         <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>2500007</v>
       </c>
@@ -3734,13 +3759,13 @@
         <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>2510001</v>
       </c>
@@ -3754,13 +3779,13 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>2510002</v>
       </c>
@@ -3774,13 +3799,13 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>2510003</v>
       </c>
@@ -3794,13 +3819,13 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>2510004</v>
       </c>
@@ -3814,13 +3839,13 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>2510005</v>
       </c>
@@ -3834,13 +3859,13 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>109</v>
+      </c>
+      <c r="G73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>2510006</v>
       </c>
@@ -3854,13 +3879,13 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>111</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>2510007</v>
       </c>
@@ -3874,13 +3899,13 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
-      </c>
-      <c r="F75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>113</v>
+      </c>
+      <c r="G75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>2510008</v>
       </c>
@@ -3894,13 +3919,13 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>113</v>
-      </c>
-      <c r="F76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>2510009</v>
       </c>
@@ -3914,13 +3939,13 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>117</v>
+      </c>
+      <c r="G77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>2510010</v>
       </c>
@@ -3934,13 +3959,13 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>117</v>
-      </c>
-      <c r="F78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="G78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>2510011</v>
       </c>
@@ -3954,13 +3979,13 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>119</v>
-      </c>
-      <c r="F79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>121</v>
+      </c>
+      <c r="G79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>2520001</v>
       </c>
@@ -3974,13 +3999,13 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>2520002</v>
       </c>
@@ -3994,13 +4019,13 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>2520003</v>
       </c>
@@ -4014,13 +4039,13 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>63</v>
-      </c>
-      <c r="F82" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>2520004</v>
       </c>
@@ -4034,13 +4059,13 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>2520005</v>
       </c>
@@ -4054,13 +4079,13 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="G84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>2900001</v>
       </c>
@@ -4074,13 +4099,13 @@
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
-      </c>
-      <c r="F85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>2900002</v>
       </c>
@@ -4094,13 +4119,13 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>69</v>
-      </c>
-      <c r="F86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="G86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>2900003</v>
       </c>
@@ -4114,13 +4139,13 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>2900004</v>
       </c>
@@ -4134,13 +4159,13 @@
         <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>71</v>
-      </c>
-      <c r="F88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>2900005</v>
       </c>
@@ -4154,13 +4179,13 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>72</v>
-      </c>
-      <c r="F89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>2900006</v>
       </c>
@@ -4174,13 +4199,13 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>73</v>
-      </c>
-      <c r="F90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="G90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>2900007</v>
       </c>
@@ -4194,13 +4219,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>2900008</v>
       </c>
@@ -4214,13 +4239,13 @@
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>75</v>
-      </c>
-      <c r="F92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>2900009</v>
       </c>
@@ -4234,13 +4259,13 @@
         <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>76</v>
-      </c>
-      <c r="F93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>2900010</v>
       </c>
@@ -4254,13 +4279,13 @@
         <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>136</v>
-      </c>
-      <c r="F94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="G94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>2910001</v>
       </c>
@@ -4274,13 +4299,13 @@
         <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>77</v>
-      </c>
-      <c r="F95" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>2910002</v>
       </c>
@@ -4294,13 +4319,13 @@
         <v>91</v>
       </c>
       <c r="E96" t="s">
-        <v>139</v>
-      </c>
-      <c r="F96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="G96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>2910003</v>
       </c>
@@ -4314,13 +4339,13 @@
         <v>91</v>
       </c>
       <c r="E97" t="s">
-        <v>141</v>
-      </c>
-      <c r="F97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>2910004</v>
       </c>
@@ -4334,13 +4359,13 @@
         <v>91</v>
       </c>
       <c r="E98" t="s">
-        <v>143</v>
-      </c>
-      <c r="F98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="G98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>2910005</v>
       </c>
@@ -4354,13 +4379,13 @@
         <v>91</v>
       </c>
       <c r="E99" t="s">
-        <v>145</v>
-      </c>
-      <c r="F99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>147</v>
+      </c>
+      <c r="G99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>2910006</v>
       </c>
@@ -4374,13 +4399,13 @@
         <v>91</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
-      </c>
-      <c r="F100" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>149</v>
+      </c>
+      <c r="G100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>2910007</v>
       </c>
@@ -4394,13 +4419,13 @@
         <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
-      </c>
-      <c r="F101" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="G101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>2910008</v>
       </c>
@@ -4414,13 +4439,13 @@
         <v>91</v>
       </c>
       <c r="E102" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>153</v>
+      </c>
+      <c r="G102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>2910009</v>
       </c>
@@ -4434,13 +4459,13 @@
         <v>91</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
-      </c>
-      <c r="F103" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>155</v>
+      </c>
+      <c r="G103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>2910010</v>
       </c>
@@ -4454,13 +4479,13 @@
         <v>91</v>
       </c>
       <c r="E104" t="s">
-        <v>155</v>
-      </c>
-      <c r="F104" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="G104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>2910011</v>
       </c>
@@ -4474,13 +4499,13 @@
         <v>91</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
-      </c>
-      <c r="F105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>159</v>
+      </c>
+      <c r="G105" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>2910012</v>
       </c>
@@ -4494,13 +4519,13 @@
         <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>159</v>
-      </c>
-      <c r="F106" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>161</v>
+      </c>
+      <c r="G106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>2910013</v>
       </c>
@@ -4514,13 +4539,13 @@
         <v>91</v>
       </c>
       <c r="E107" t="s">
-        <v>161</v>
-      </c>
-      <c r="F107" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>163</v>
+      </c>
+      <c r="G107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>2910014</v>
       </c>
@@ -4534,13 +4559,13 @@
         <v>91</v>
       </c>
       <c r="E108" t="s">
-        <v>163</v>
-      </c>
-      <c r="F108" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>165</v>
+      </c>
+      <c r="G108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>2910015</v>
       </c>
@@ -4554,13 +4579,13 @@
         <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>165</v>
-      </c>
-      <c r="F109" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="G109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>2910016</v>
       </c>
@@ -4574,13 +4599,13 @@
         <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>167</v>
-      </c>
-      <c r="F110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>169</v>
+      </c>
+      <c r="G110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>2910017</v>
       </c>
@@ -4594,13 +4619,13 @@
         <v>91</v>
       </c>
       <c r="E111" t="s">
-        <v>169</v>
-      </c>
-      <c r="F111" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>171</v>
+      </c>
+      <c r="G111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>2910018</v>
       </c>
@@ -4614,13 +4639,13 @@
         <v>91</v>
       </c>
       <c r="E112" t="s">
-        <v>171</v>
-      </c>
-      <c r="F112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>173</v>
+      </c>
+      <c r="G112" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>2910019</v>
       </c>
@@ -4634,13 +4659,13 @@
         <v>91</v>
       </c>
       <c r="E113" t="s">
-        <v>173</v>
-      </c>
-      <c r="F113" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>175</v>
+      </c>
+      <c r="G113" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>2910020</v>
       </c>
@@ -4654,13 +4679,13 @@
         <v>91</v>
       </c>
       <c r="E114" t="s">
-        <v>175</v>
-      </c>
-      <c r="F114" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>177</v>
+      </c>
+      <c r="G114" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>3040001</v>
       </c>
@@ -4674,13 +4699,13 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>3040002</v>
       </c>
@@ -4694,13 +4719,13 @@
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>3040003</v>
       </c>
@@ -4714,13 +4739,13 @@
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>179</v>
-      </c>
-      <c r="F117" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>181</v>
+      </c>
+      <c r="G117" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>3040004</v>
       </c>
@@ -4734,13 +4759,13 @@
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>181</v>
-      </c>
-      <c r="F118" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>183</v>
+      </c>
+      <c r="G118" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>3040005</v>
       </c>
@@ -4754,13 +4779,13 @@
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>183</v>
-      </c>
-      <c r="F119" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="G119" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>3040006</v>
       </c>
@@ -4774,13 +4799,13 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>185</v>
-      </c>
-      <c r="F120" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G120" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>3040007</v>
       </c>
@@ -4794,13 +4819,13 @@
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>187</v>
-      </c>
-      <c r="F121" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G121" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>3040008</v>
       </c>
@@ -4814,13 +4839,13 @@
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>189</v>
-      </c>
-      <c r="F122" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G122" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>3040009</v>
       </c>
@@ -4834,13 +4859,13 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>191</v>
-      </c>
-      <c r="F123" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>193</v>
+      </c>
+      <c r="G123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>3040010</v>
       </c>
@@ -4854,13 +4879,13 @@
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>193</v>
-      </c>
-      <c r="F124" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>195</v>
+      </c>
+      <c r="G124" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>3050001</v>
       </c>
@@ -4874,13 +4899,13 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>3050002</v>
       </c>
@@ -4894,13 +4919,13 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>3050003</v>
       </c>
@@ -4914,13 +4939,13 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>28</v>
-      </c>
-      <c r="F127" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>3050004</v>
       </c>
@@ -4934,13 +4959,13 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
-      </c>
-      <c r="F128" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>3050005</v>
       </c>
@@ -4954,13 +4979,13 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
-      </c>
-      <c r="F129" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G129" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>3050006</v>
       </c>
@@ -4974,13 +4999,13 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
-      </c>
-      <c r="F130" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>3050007</v>
       </c>
@@ -4994,13 +5019,13 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
-      </c>
-      <c r="F131" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>3050008</v>
       </c>
@@ -5014,13 +5039,13 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
-      </c>
-      <c r="F132" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>3050009</v>
       </c>
@@ -5034,13 +5059,13 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
-      </c>
-      <c r="F133" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G133" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>3050010</v>
       </c>
@@ -5054,13 +5079,13 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
-      </c>
-      <c r="F134" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>3020001</v>
       </c>
@@ -5074,13 +5099,13 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G135" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>3020002</v>
       </c>
@@ -5094,13 +5119,13 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
-      </c>
-      <c r="F136" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G136" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>3020003</v>
       </c>
@@ -5114,13 +5139,13 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
-      </c>
-      <c r="F137" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G137" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>3020004</v>
       </c>
@@ -5134,13 +5159,13 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>49</v>
-      </c>
-      <c r="F138" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G138" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>3020005</v>
       </c>
@@ -5154,13 +5179,13 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
-      </c>
-      <c r="F139" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="G139" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>3020006</v>
       </c>
@@ -5174,13 +5199,13 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
-      </c>
-      <c r="F140" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>101</v>
+      </c>
+      <c r="G140" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>3020007</v>
       </c>
@@ -5194,13 +5219,13 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>101</v>
-      </c>
-      <c r="F141" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>3020008</v>
       </c>
@@ -5214,13 +5239,13 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>212</v>
-      </c>
-      <c r="F142" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>214</v>
+      </c>
+      <c r="G142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>3020009</v>
       </c>
@@ -5234,13 +5259,13 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>214</v>
-      </c>
-      <c r="F143" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G143" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>3020010</v>
       </c>
@@ -5254,13 +5279,13 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>216</v>
-      </c>
-      <c r="F144" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>218</v>
+      </c>
+      <c r="G144" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>3020011</v>
       </c>
@@ -5274,13 +5299,13 @@
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>218</v>
-      </c>
-      <c r="F145" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>220</v>
+      </c>
+      <c r="G145" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>3020012</v>
       </c>
@@ -5294,13 +5319,13 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>220</v>
-      </c>
-      <c r="F146" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>222</v>
+      </c>
+      <c r="G146" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>3020013</v>
       </c>
@@ -5314,13 +5339,13 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>222</v>
-      </c>
-      <c r="F147" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G147" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>3020014</v>
       </c>
@@ -5334,13 +5359,13 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>224</v>
-      </c>
-      <c r="F148" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>226</v>
+      </c>
+      <c r="G148" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>3020015</v>
       </c>
@@ -5354,13 +5379,13 @@
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>226</v>
-      </c>
-      <c r="F149" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>228</v>
+      </c>
+      <c r="G149" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>3020016</v>
       </c>
@@ -5374,13 +5399,13 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>228</v>
-      </c>
-      <c r="F150" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>230</v>
+      </c>
+      <c r="G150" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>3020017</v>
       </c>
@@ -5394,13 +5419,13 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>230</v>
-      </c>
-      <c r="F151" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>232</v>
+      </c>
+      <c r="G151" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>3020018</v>
       </c>
@@ -5414,13 +5439,13 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>232</v>
-      </c>
-      <c r="F152" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>234</v>
+      </c>
+      <c r="G152" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>3020019</v>
       </c>
@@ -5434,13 +5459,13 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>234</v>
-      </c>
-      <c r="F153" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>236</v>
+      </c>
+      <c r="G153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>3020020</v>
       </c>
@@ -5454,13 +5479,13 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>236</v>
-      </c>
-      <c r="F154" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>238</v>
+      </c>
+      <c r="G154" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>4000001</v>
       </c>
@@ -5474,13 +5499,13 @@
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>15</v>
-      </c>
-      <c r="F155" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="156" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="156" customFormat="1" spans="1:7">
       <c r="A156">
         <v>4030001</v>
       </c>
@@ -5494,13 +5519,13 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
-      </c>
-      <c r="F156" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G156" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>4030002</v>
       </c>
@@ -5514,13 +5539,13 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>4030003</v>
       </c>
@@ -5534,13 +5559,13 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>20</v>
-      </c>
-      <c r="F158" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G158" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>4030004</v>
       </c>
@@ -5554,13 +5579,13 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>242</v>
-      </c>
-      <c r="F159" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>244</v>
+      </c>
+      <c r="G159" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>4030005</v>
       </c>
@@ -5574,13 +5599,13 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>244</v>
-      </c>
-      <c r="F160" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>246</v>
+      </c>
+      <c r="G160" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>4030006</v>
       </c>
@@ -5594,13 +5619,13 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>246</v>
-      </c>
-      <c r="F161" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>248</v>
+      </c>
+      <c r="G161" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>4030007</v>
       </c>
@@ -5614,13 +5639,13 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>248</v>
-      </c>
-      <c r="F162" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>250</v>
+      </c>
+      <c r="G162" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>4030008</v>
       </c>
@@ -5634,13 +5659,13 @@
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>250</v>
-      </c>
-      <c r="F163" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>252</v>
+      </c>
+      <c r="G163" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>4030009</v>
       </c>
@@ -5654,13 +5679,13 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>252</v>
-      </c>
-      <c r="F164" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>254</v>
+      </c>
+      <c r="G164" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>4030010</v>
       </c>
@@ -5674,13 +5699,13 @@
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>254</v>
-      </c>
-      <c r="F165" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G165" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>4050001</v>
       </c>
@@ -5694,13 +5719,13 @@
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>25</v>
-      </c>
-      <c r="F166" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G166" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>4050002</v>
       </c>
@@ -5714,13 +5739,13 @@
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>27</v>
-      </c>
-      <c r="F167" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G167" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>4050003</v>
       </c>
@@ -5734,13 +5759,13 @@
         <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>28</v>
-      </c>
-      <c r="F168" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>4050004</v>
       </c>
@@ -5754,13 +5779,13 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>29</v>
-      </c>
-      <c r="F169" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G169" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>4050005</v>
       </c>
@@ -5774,13 +5799,13 @@
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
-      </c>
-      <c r="F170" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G170" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>4050006</v>
       </c>
@@ -5794,13 +5819,13 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>31</v>
-      </c>
-      <c r="F171" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G171" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>4050007</v>
       </c>
@@ -5814,13 +5839,13 @@
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
-      </c>
-      <c r="F172" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G172" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>4050008</v>
       </c>
@@ -5834,13 +5859,13 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
-      </c>
-      <c r="F173" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>4050009</v>
       </c>
@@ -5854,13 +5879,13 @@
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
-      </c>
-      <c r="F174" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G174" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>4050010</v>
       </c>
@@ -5874,13 +5899,13 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
-      </c>
-      <c r="F175" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G175" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>4060001</v>
       </c>
@@ -5894,13 +5919,13 @@
         <v>6</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
-      </c>
-      <c r="F176" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G176" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>4060002</v>
       </c>
@@ -5914,13 +5939,13 @@
         <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>39</v>
-      </c>
-      <c r="F177" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="G177" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>4060003</v>
       </c>
@@ -5934,13 +5959,13 @@
         <v>6</v>
       </c>
       <c r="E178" t="s">
-        <v>40</v>
-      </c>
-      <c r="F178" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G178" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>4060004</v>
       </c>
@@ -5954,13 +5979,13 @@
         <v>6</v>
       </c>
       <c r="E179" t="s">
-        <v>41</v>
-      </c>
-      <c r="F179" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G179" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>4060005</v>
       </c>
@@ -5974,13 +5999,13 @@
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>42</v>
-      </c>
-      <c r="F180" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G180" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>4060006</v>
       </c>
@@ -5994,13 +6019,13 @@
         <v>6</v>
       </c>
       <c r="E181" t="s">
-        <v>271</v>
-      </c>
-      <c r="F181" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>273</v>
+      </c>
+      <c r="G181" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>4060007</v>
       </c>
@@ -6014,13 +6039,13 @@
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>273</v>
-      </c>
-      <c r="F182" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>275</v>
+      </c>
+      <c r="G182" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>4060008</v>
       </c>
@@ -6034,13 +6059,13 @@
         <v>6</v>
       </c>
       <c r="E183" t="s">
-        <v>275</v>
-      </c>
-      <c r="F183" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>277</v>
+      </c>
+      <c r="G183" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>4060009</v>
       </c>
@@ -6054,13 +6079,13 @@
         <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>277</v>
-      </c>
-      <c r="F184" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>279</v>
+      </c>
+      <c r="G184" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>4060010</v>
       </c>
@@ -6074,13 +6099,13 @@
         <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>279</v>
-      </c>
-      <c r="F185" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="186" customFormat="1" spans="1:6">
+        <v>281</v>
+      </c>
+      <c r="G185" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="186" customFormat="1" spans="1:7">
       <c r="A186">
         <v>4070001</v>
       </c>
@@ -6094,13 +6119,13 @@
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>281</v>
-      </c>
-      <c r="F186" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="187" customFormat="1" spans="1:6">
+        <v>283</v>
+      </c>
+      <c r="G186" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="187" customFormat="1" spans="1:7">
       <c r="A187">
         <v>4070002</v>
       </c>
@@ -6114,13 +6139,13 @@
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>283</v>
-      </c>
-      <c r="F187" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="188" customFormat="1" spans="1:6">
+        <v>285</v>
+      </c>
+      <c r="G187" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="188" customFormat="1" spans="1:7">
       <c r="A188">
         <v>4070003</v>
       </c>
@@ -6134,13 +6159,13 @@
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>285</v>
-      </c>
-      <c r="F188" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="189" customFormat="1" spans="1:6">
+        <v>287</v>
+      </c>
+      <c r="G188" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="189" customFormat="1" spans="1:7">
       <c r="A189">
         <v>4070004</v>
       </c>
@@ -6154,13 +6179,13 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>287</v>
-      </c>
-      <c r="F189" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="190" customFormat="1" spans="1:6">
+        <v>289</v>
+      </c>
+      <c r="G189" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="190" customFormat="1" spans="1:7">
       <c r="A190">
         <v>4070005</v>
       </c>
@@ -6174,13 +6199,13 @@
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>289</v>
-      </c>
-      <c r="F190" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="191" customFormat="1" spans="1:6">
+        <v>291</v>
+      </c>
+      <c r="G190" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="191" customFormat="1" spans="1:7">
       <c r="A191">
         <v>4070006</v>
       </c>
@@ -6194,13 +6219,13 @@
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>291</v>
-      </c>
-      <c r="F191" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="192" customFormat="1" spans="1:6">
+        <v>293</v>
+      </c>
+      <c r="G191" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="192" customFormat="1" spans="1:7">
       <c r="A192">
         <v>4070007</v>
       </c>
@@ -6214,13 +6239,13 @@
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>293</v>
-      </c>
-      <c r="F192" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="193" customFormat="1" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G192" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="193" customFormat="1" spans="1:7">
       <c r="A193">
         <v>4070008</v>
       </c>
@@ -6234,13 +6259,13 @@
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>295</v>
-      </c>
-      <c r="F193" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="194" customFormat="1" spans="1:6">
+        <v>297</v>
+      </c>
+      <c r="G193" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="194" customFormat="1" spans="1:7">
       <c r="A194">
         <v>4070009</v>
       </c>
@@ -6254,13 +6279,13 @@
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>297</v>
-      </c>
-      <c r="F194" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="195" customFormat="1" spans="1:6">
+        <v>299</v>
+      </c>
+      <c r="G194" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" customFormat="1" spans="1:7">
       <c r="A195">
         <v>4070010</v>
       </c>
@@ -6274,13 +6299,13 @@
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>299</v>
-      </c>
-      <c r="F195" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="196" customFormat="1" spans="1:6">
+        <v>301</v>
+      </c>
+      <c r="G195" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="196" customFormat="1" spans="1:7">
       <c r="A196">
         <v>4080001</v>
       </c>
@@ -6294,13 +6319,13 @@
         <v>8</v>
       </c>
       <c r="E196" t="s">
-        <v>301</v>
-      </c>
-      <c r="F196" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="197" customFormat="1" spans="1:6">
+        <v>303</v>
+      </c>
+      <c r="G196" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="197" customFormat="1" spans="1:7">
       <c r="A197">
         <v>4080002</v>
       </c>
@@ -6314,13 +6339,13 @@
         <v>8</v>
       </c>
       <c r="E197" t="s">
-        <v>303</v>
-      </c>
-      <c r="F197" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="198" customFormat="1" spans="1:6">
+        <v>305</v>
+      </c>
+      <c r="G197" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="198" customFormat="1" spans="1:7">
       <c r="A198">
         <v>4080003</v>
       </c>
@@ -6334,13 +6359,13 @@
         <v>8</v>
       </c>
       <c r="E198" t="s">
-        <v>305</v>
-      </c>
-      <c r="F198" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="199" customFormat="1" spans="1:6">
+        <v>307</v>
+      </c>
+      <c r="G198" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="199" customFormat="1" spans="1:7">
       <c r="A199">
         <v>4080004</v>
       </c>
@@ -6354,13 +6379,13 @@
         <v>8</v>
       </c>
       <c r="E199" t="s">
-        <v>307</v>
-      </c>
-      <c r="F199" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="200" customFormat="1" spans="1:6">
+        <v>309</v>
+      </c>
+      <c r="G199" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="200" customFormat="1" spans="1:7">
       <c r="A200">
         <v>4500003</v>
       </c>
@@ -6374,13 +6399,13 @@
         <v>50</v>
       </c>
       <c r="E200" t="s">
-        <v>47</v>
-      </c>
-      <c r="F200" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="201" customFormat="1" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G200" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="201" customFormat="1" spans="1:7">
       <c r="A201">
         <v>4510001</v>
       </c>
@@ -6394,13 +6419,13 @@
         <v>51</v>
       </c>
       <c r="E201" t="s">
-        <v>51</v>
-      </c>
-      <c r="F201" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G201" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>4510002</v>
       </c>
@@ -6414,13 +6439,13 @@
         <v>51</v>
       </c>
       <c r="E202" t="s">
-        <v>53</v>
-      </c>
-      <c r="F202" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G202" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>4510003</v>
       </c>
@@ -6434,13 +6459,13 @@
         <v>51</v>
       </c>
       <c r="E203" t="s">
-        <v>55</v>
-      </c>
-      <c r="F203" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G203" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>4510004</v>
       </c>
@@ -6454,13 +6479,13 @@
         <v>51</v>
       </c>
       <c r="E204" t="s">
-        <v>57</v>
-      </c>
-      <c r="F204" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G204" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>4510005</v>
       </c>
@@ -6474,13 +6499,13 @@
         <v>51</v>
       </c>
       <c r="E205" t="s">
-        <v>107</v>
-      </c>
-      <c r="F205" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>109</v>
+      </c>
+      <c r="G205" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>4510006</v>
       </c>
@@ -6494,13 +6519,13 @@
         <v>51</v>
       </c>
       <c r="E206" t="s">
-        <v>109</v>
-      </c>
-      <c r="F206" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>111</v>
+      </c>
+      <c r="G206" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>4520001</v>
       </c>
@@ -6514,13 +6539,13 @@
         <v>52</v>
       </c>
       <c r="E207" t="s">
-        <v>59</v>
-      </c>
-      <c r="F207" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G207" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>4520002</v>
       </c>
@@ -6534,13 +6559,13 @@
         <v>52</v>
       </c>
       <c r="E208" t="s">
-        <v>61</v>
-      </c>
-      <c r="F208" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G208" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>4520003</v>
       </c>
@@ -6554,13 +6579,13 @@
         <v>52</v>
       </c>
       <c r="E209" t="s">
-        <v>63</v>
-      </c>
-      <c r="F209" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G209" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>4520004</v>
       </c>
@@ -6574,13 +6599,13 @@
         <v>52</v>
       </c>
       <c r="E210" t="s">
-        <v>65</v>
-      </c>
-      <c r="F210" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G210" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>4900001</v>
       </c>
@@ -6594,13 +6619,13 @@
         <v>90</v>
       </c>
       <c r="E211" t="s">
-        <v>67</v>
-      </c>
-      <c r="F211" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G211" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>4900002</v>
       </c>
@@ -6614,13 +6639,13 @@
         <v>90</v>
       </c>
       <c r="E212" t="s">
-        <v>69</v>
-      </c>
-      <c r="F212" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="G212" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>4900003</v>
       </c>
@@ -6634,13 +6659,13 @@
         <v>90</v>
       </c>
       <c r="E213" t="s">
-        <v>70</v>
-      </c>
-      <c r="F213" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G213" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>4900004</v>
       </c>
@@ -6654,13 +6679,13 @@
         <v>90</v>
       </c>
       <c r="E214" t="s">
-        <v>71</v>
-      </c>
-      <c r="F214" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G214" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>4900005</v>
       </c>
@@ -6674,13 +6699,13 @@
         <v>90</v>
       </c>
       <c r="E215" t="s">
-        <v>72</v>
-      </c>
-      <c r="F215" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="216" customFormat="1" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G215" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" customFormat="1" spans="1:7">
       <c r="A216">
         <v>5000001</v>
       </c>
@@ -6694,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>15</v>
-      </c>
-      <c r="F216" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="217" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G216" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="217" customFormat="1" spans="1:7">
       <c r="A217">
         <v>5050001</v>
       </c>
@@ -6714,13 +6739,13 @@
         <v>5</v>
       </c>
       <c r="E217" t="s">
-        <v>25</v>
-      </c>
-      <c r="F217" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="218" customFormat="1" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G217" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="218" customFormat="1" spans="1:7">
       <c r="A218">
         <v>5050002</v>
       </c>
@@ -6734,13 +6759,13 @@
         <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>27</v>
-      </c>
-      <c r="F218" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="219" customFormat="1" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G218" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="219" customFormat="1" spans="1:7">
       <c r="A219">
         <v>5050003</v>
       </c>
@@ -6754,13 +6779,13 @@
         <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>28</v>
-      </c>
-      <c r="F219" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="220" customFormat="1" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G219" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="220" customFormat="1" spans="1:7">
       <c r="A220">
         <v>5050004</v>
       </c>
@@ -6774,13 +6799,13 @@
         <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>29</v>
-      </c>
-      <c r="F220" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="221" customFormat="1" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G220" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="221" customFormat="1" spans="1:7">
       <c r="A221">
         <v>5050005</v>
       </c>
@@ -6794,13 +6819,13 @@
         <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>30</v>
-      </c>
-      <c r="F221" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="222" customFormat="1" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G221" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" customFormat="1" spans="1:7">
       <c r="A222">
         <v>5050006</v>
       </c>
@@ -6814,13 +6839,13 @@
         <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>31</v>
-      </c>
-      <c r="F222" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="223" customFormat="1" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G222" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="223" customFormat="1" spans="1:7">
       <c r="A223">
         <v>5050007</v>
       </c>
@@ -6834,13 +6859,13 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
-      </c>
-      <c r="F223" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="224" customFormat="1" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G223" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="224" customFormat="1" spans="1:7">
       <c r="A224">
         <v>5050008</v>
       </c>
@@ -6854,13 +6879,13 @@
         <v>5</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
-      </c>
-      <c r="F224" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="225" customFormat="1" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G224" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="225" customFormat="1" spans="1:7">
       <c r="A225">
         <v>5050009</v>
       </c>
@@ -6874,13 +6899,13 @@
         <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>34</v>
-      </c>
-      <c r="F225" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="226" customFormat="1" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G225" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="226" customFormat="1" spans="1:7">
       <c r="A226">
         <v>5050010</v>
       </c>
@@ -6894,13 +6919,13 @@
         <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>35</v>
-      </c>
-      <c r="F226" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="227" customFormat="1" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G226" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="227" customFormat="1" spans="1:7">
       <c r="A227">
         <v>5050011</v>
       </c>
@@ -6914,13 +6939,13 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>36</v>
-      </c>
-      <c r="F227" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="228" customFormat="1" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="G227" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="228" customFormat="1" spans="1:7">
       <c r="A228">
         <v>5070001</v>
       </c>
@@ -6934,13 +6959,13 @@
         <v>7</v>
       </c>
       <c r="E228" t="s">
-        <v>281</v>
-      </c>
-      <c r="F228" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="229" customFormat="1" spans="1:6">
+        <v>283</v>
+      </c>
+      <c r="G228" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="229" customFormat="1" spans="1:7">
       <c r="A229">
         <v>5070002</v>
       </c>
@@ -6954,13 +6979,13 @@
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>283</v>
-      </c>
-      <c r="F229" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="230" customFormat="1" spans="1:6">
+        <v>285</v>
+      </c>
+      <c r="G229" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="230" customFormat="1" spans="1:7">
       <c r="A230">
         <v>5070003</v>
       </c>
@@ -6974,13 +6999,13 @@
         <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>285</v>
-      </c>
-      <c r="F230" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="231" customFormat="1" spans="1:6">
+        <v>287</v>
+      </c>
+      <c r="G230" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="231" customFormat="1" spans="1:7">
       <c r="A231">
         <v>5070004</v>
       </c>
@@ -6994,13 +7019,13 @@
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>287</v>
-      </c>
-      <c r="F231" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="232" customFormat="1" spans="1:6">
+        <v>289</v>
+      </c>
+      <c r="G231" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="232" customFormat="1" spans="1:7">
       <c r="A232">
         <v>5070005</v>
       </c>
@@ -7014,13 +7039,13 @@
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>289</v>
-      </c>
-      <c r="F232" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="233" customFormat="1" spans="1:6">
+        <v>291</v>
+      </c>
+      <c r="G232" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="233" customFormat="1" spans="1:7">
       <c r="A233">
         <v>5090001</v>
       </c>
@@ -7034,13 +7059,13 @@
         <v>9</v>
       </c>
       <c r="E233" t="s">
-        <v>337</v>
-      </c>
-      <c r="F233" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="234" customFormat="1" spans="1:6">
+        <v>339</v>
+      </c>
+      <c r="G233" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="234" customFormat="1" spans="1:7">
       <c r="A234">
         <v>5090002</v>
       </c>
@@ -7054,13 +7079,13 @@
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>339</v>
-      </c>
-      <c r="F234" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="235" customFormat="1" spans="1:6">
+        <v>341</v>
+      </c>
+      <c r="G234" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="235" customFormat="1" spans="1:7">
       <c r="A235">
         <v>5090003</v>
       </c>
@@ -7074,13 +7099,13 @@
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>341</v>
-      </c>
-      <c r="F235" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="236" customFormat="1" spans="1:6">
+        <v>343</v>
+      </c>
+      <c r="G235" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="236" customFormat="1" spans="1:7">
       <c r="A236">
         <v>5090004</v>
       </c>
@@ -7094,13 +7119,13 @@
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>343</v>
-      </c>
-      <c r="F236" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="237" customFormat="1" spans="1:6">
+        <v>345</v>
+      </c>
+      <c r="G236" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="237" customFormat="1" spans="1:7">
       <c r="A237">
         <v>5090005</v>
       </c>
@@ -7114,13 +7139,13 @@
         <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>345</v>
-      </c>
-      <c r="F237" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="238" customFormat="1" spans="1:6">
+        <v>347</v>
+      </c>
+      <c r="G237" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" customFormat="1" spans="1:7">
       <c r="A238">
         <v>5500001</v>
       </c>
@@ -7134,13 +7159,13 @@
         <v>50</v>
       </c>
       <c r="E238" t="s">
-        <v>43</v>
-      </c>
-      <c r="F238" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="239" customFormat="1" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G238" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" customFormat="1" spans="1:7">
       <c r="A239">
         <v>5500002</v>
       </c>
@@ -7154,13 +7179,13 @@
         <v>50</v>
       </c>
       <c r="E239" t="s">
-        <v>45</v>
-      </c>
-      <c r="F239" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="240" customFormat="1" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G239" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="240" customFormat="1" spans="1:7">
       <c r="A240">
         <v>5500003</v>
       </c>
@@ -7174,13 +7199,13 @@
         <v>50</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
-      </c>
-      <c r="F240" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="241" customFormat="1" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G240" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" customFormat="1" spans="1:7">
       <c r="A241">
         <v>5510001</v>
       </c>
@@ -7194,13 +7219,13 @@
         <v>51</v>
       </c>
       <c r="E241" t="s">
-        <v>51</v>
-      </c>
-      <c r="F241" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="242" customFormat="1" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G241" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="242" customFormat="1" spans="1:7">
       <c r="A242">
         <v>5510002</v>
       </c>
@@ -7214,13 +7239,13 @@
         <v>51</v>
       </c>
       <c r="E242" t="s">
-        <v>53</v>
-      </c>
-      <c r="F242" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="243" customFormat="1" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G242" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="243" customFormat="1" spans="1:7">
       <c r="A243">
         <v>5510003</v>
       </c>
@@ -7234,13 +7259,13 @@
         <v>51</v>
       </c>
       <c r="E243" t="s">
-        <v>55</v>
-      </c>
-      <c r="F243" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="244" customFormat="1" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G243" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="244" customFormat="1" spans="1:7">
       <c r="A244">
         <v>5520001</v>
       </c>
@@ -7254,13 +7279,13 @@
         <v>52</v>
       </c>
       <c r="E244" t="s">
-        <v>59</v>
-      </c>
-      <c r="F244" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="245" customFormat="1" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G244" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" customFormat="1" spans="1:7">
       <c r="A245">
         <v>5520002</v>
       </c>
@@ -7274,13 +7299,13 @@
         <v>52</v>
       </c>
       <c r="E245" t="s">
-        <v>61</v>
-      </c>
-      <c r="F245" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="246" customFormat="1" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G245" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="246" customFormat="1" spans="1:7">
       <c r="A246">
         <v>5910001</v>
       </c>
@@ -7294,13 +7319,13 @@
         <v>91</v>
       </c>
       <c r="E246" t="s">
-        <v>77</v>
-      </c>
-      <c r="F246" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="247" customFormat="1" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="G246" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="247" customFormat="1" spans="1:7">
       <c r="A247">
         <v>5910002</v>
       </c>
@@ -7314,13 +7339,13 @@
         <v>91</v>
       </c>
       <c r="E247" t="s">
-        <v>139</v>
-      </c>
-      <c r="F247" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="248" customFormat="1" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="G247" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="248" customFormat="1" spans="1:7">
       <c r="A248">
         <v>5910003</v>
       </c>
@@ -7334,13 +7359,13 @@
         <v>91</v>
       </c>
       <c r="E248" t="s">
-        <v>141</v>
-      </c>
-      <c r="F248" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="249" customFormat="1" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G248" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="249" customFormat="1" spans="1:7">
       <c r="A249">
         <v>6000001</v>
       </c>
@@ -7354,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>15</v>
-      </c>
-      <c r="F249" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="250" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G249" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="250" customFormat="1" spans="1:7">
       <c r="A250">
         <v>6050001</v>
       </c>
@@ -7374,13 +7399,13 @@
         <v>5</v>
       </c>
       <c r="E250" t="s">
-        <v>25</v>
-      </c>
-      <c r="F250" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="251" customFormat="1" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G250" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="251" customFormat="1" spans="1:7">
       <c r="A251">
         <v>6050002</v>
       </c>
@@ -7394,13 +7419,13 @@
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>27</v>
-      </c>
-      <c r="F251" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="252" customFormat="1" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G251" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="252" customFormat="1" spans="1:7">
       <c r="A252">
         <v>6050003</v>
       </c>
@@ -7414,13 +7439,13 @@
         <v>5</v>
       </c>
       <c r="E252" t="s">
-        <v>28</v>
-      </c>
-      <c r="F252" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="253" customFormat="1" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G252" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="253" customFormat="1" spans="1:7">
       <c r="A253">
         <v>6050004</v>
       </c>
@@ -7434,13 +7459,13 @@
         <v>5</v>
       </c>
       <c r="E253" t="s">
-        <v>29</v>
-      </c>
-      <c r="F253" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="254" customFormat="1" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G253" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="254" customFormat="1" spans="1:7">
       <c r="A254">
         <v>6050005</v>
       </c>
@@ -7454,13 +7479,13 @@
         <v>5</v>
       </c>
       <c r="E254" t="s">
-        <v>30</v>
-      </c>
-      <c r="F254" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="255" customFormat="1" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G254" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="255" customFormat="1" spans="1:7">
       <c r="A255">
         <v>6050006</v>
       </c>
@@ -7474,13 +7499,13 @@
         <v>5</v>
       </c>
       <c r="E255" t="s">
-        <v>31</v>
-      </c>
-      <c r="F255" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="256" customFormat="1" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G255" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="256" customFormat="1" spans="1:7">
       <c r="A256">
         <v>6050007</v>
       </c>
@@ -7494,13 +7519,13 @@
         <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>32</v>
-      </c>
-      <c r="F256" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="257" customFormat="1" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G256" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="257" customFormat="1" spans="1:7">
       <c r="A257">
         <v>6050008</v>
       </c>
@@ -7514,13 +7539,13 @@
         <v>5</v>
       </c>
       <c r="E257" t="s">
-        <v>33</v>
-      </c>
-      <c r="F257" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="258" customFormat="1" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G257" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="258" customFormat="1" spans="1:7">
       <c r="A258">
         <v>6050009</v>
       </c>
@@ -7534,13 +7559,13 @@
         <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>34</v>
-      </c>
-      <c r="F258" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="259" customFormat="1" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G258" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="259" customFormat="1" spans="1:7">
       <c r="A259">
         <v>6050010</v>
       </c>
@@ -7554,13 +7579,13 @@
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>35</v>
-      </c>
-      <c r="F259" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="260" customFormat="1" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G259" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="260" customFormat="1" spans="1:7">
       <c r="A260">
         <v>6060001</v>
       </c>
@@ -7574,13 +7599,13 @@
         <v>6</v>
       </c>
       <c r="E260" t="s">
-        <v>37</v>
-      </c>
-      <c r="F260" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="261" customFormat="1" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G260" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="261" customFormat="1" spans="1:7">
       <c r="A261">
         <v>6060002</v>
       </c>
@@ -7594,13 +7619,13 @@
         <v>6</v>
       </c>
       <c r="E261" t="s">
-        <v>39</v>
-      </c>
-      <c r="F261" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="262" customFormat="1" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="G261" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="262" customFormat="1" spans="1:7">
       <c r="A262">
         <v>6060003</v>
       </c>
@@ -7614,13 +7639,13 @@
         <v>6</v>
       </c>
       <c r="E262" t="s">
-        <v>40</v>
-      </c>
-      <c r="F262" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="263" customFormat="1" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G262" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="263" customFormat="1" spans="1:7">
       <c r="A263">
         <v>6060004</v>
       </c>
@@ -7634,13 +7659,13 @@
         <v>6</v>
       </c>
       <c r="E263" t="s">
-        <v>41</v>
-      </c>
-      <c r="F263" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="264" customFormat="1" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G263" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" customFormat="1" spans="1:7">
       <c r="A264">
         <v>6060005</v>
       </c>
@@ -7654,13 +7679,13 @@
         <v>6</v>
       </c>
       <c r="E264" t="s">
-        <v>42</v>
-      </c>
-      <c r="F264" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="265" customFormat="1" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G264" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="265" customFormat="1" spans="1:7">
       <c r="A265">
         <v>6060006</v>
       </c>
@@ -7674,13 +7699,13 @@
         <v>6</v>
       </c>
       <c r="E265" t="s">
-        <v>271</v>
-      </c>
-      <c r="F265" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="266" customFormat="1" spans="1:6">
+        <v>273</v>
+      </c>
+      <c r="G265" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="266" customFormat="1" spans="1:7">
       <c r="A266">
         <v>6060007</v>
       </c>
@@ -7694,13 +7719,13 @@
         <v>6</v>
       </c>
       <c r="E266" t="s">
-        <v>273</v>
-      </c>
-      <c r="F266" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="267" customFormat="1" spans="1:6">
+        <v>275</v>
+      </c>
+      <c r="G266" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="267" customFormat="1" spans="1:7">
       <c r="A267">
         <v>6060008</v>
       </c>
@@ -7714,13 +7739,13 @@
         <v>6</v>
       </c>
       <c r="E267" t="s">
-        <v>275</v>
-      </c>
-      <c r="F267" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="268" customFormat="1" spans="1:6">
+        <v>277</v>
+      </c>
+      <c r="G267" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="268" customFormat="1" spans="1:7">
       <c r="A268">
         <v>6060009</v>
       </c>
@@ -7734,13 +7759,13 @@
         <v>6</v>
       </c>
       <c r="E268" t="s">
-        <v>277</v>
-      </c>
-      <c r="F268" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="269" customFormat="1" spans="1:6">
+        <v>279</v>
+      </c>
+      <c r="G268" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" customFormat="1" spans="1:7">
       <c r="A269">
         <v>6060010</v>
       </c>
@@ -7754,13 +7779,13 @@
         <v>6</v>
       </c>
       <c r="E269" t="s">
-        <v>279</v>
-      </c>
-      <c r="F269" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="270" customFormat="1" spans="1:6">
+        <v>281</v>
+      </c>
+      <c r="G269" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="270" customFormat="1" spans="1:7">
       <c r="A270">
         <v>6500001</v>
       </c>
@@ -7774,13 +7799,13 @@
         <v>50</v>
       </c>
       <c r="E270" t="s">
-        <v>43</v>
-      </c>
-      <c r="F270" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="271" customFormat="1" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G270" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="271" customFormat="1" spans="1:7">
       <c r="A271">
         <v>6500002</v>
       </c>
@@ -7794,13 +7819,13 @@
         <v>50</v>
       </c>
       <c r="E271" t="s">
-        <v>45</v>
-      </c>
-      <c r="F271" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="272" customFormat="1" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G271" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="272" customFormat="1" spans="1:7">
       <c r="A272">
         <v>6500003</v>
       </c>
@@ -7814,13 +7839,13 @@
         <v>50</v>
       </c>
       <c r="E272" t="s">
-        <v>47</v>
-      </c>
-      <c r="F272" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="273" customFormat="1" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G272" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="273" customFormat="1" spans="1:7">
       <c r="A273">
         <v>6500004</v>
       </c>
@@ -7834,13 +7859,13 @@
         <v>50</v>
       </c>
       <c r="E273" t="s">
-        <v>49</v>
-      </c>
-      <c r="F273" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="274" customFormat="1" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G273" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="274" customFormat="1" spans="1:7">
       <c r="A274">
         <v>6500005</v>
       </c>
@@ -7854,13 +7879,13 @@
         <v>50</v>
       </c>
       <c r="E274" t="s">
-        <v>97</v>
-      </c>
-      <c r="F274" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="275" customFormat="1" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="G274" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="275" customFormat="1" spans="1:7">
       <c r="A275">
         <v>6500006</v>
       </c>
@@ -7874,13 +7899,13 @@
         <v>50</v>
       </c>
       <c r="E275" t="s">
-        <v>99</v>
-      </c>
-      <c r="F275" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="276" customFormat="1" spans="1:6">
+        <v>101</v>
+      </c>
+      <c r="G275" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="276" customFormat="1" spans="1:7">
       <c r="A276">
         <v>6500007</v>
       </c>
@@ -7894,13 +7919,13 @@
         <v>50</v>
       </c>
       <c r="E276" t="s">
-        <v>101</v>
-      </c>
-      <c r="F276" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="277" customFormat="1" spans="1:6">
+        <v>103</v>
+      </c>
+      <c r="G276" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="277" customFormat="1" spans="1:7">
       <c r="A277">
         <v>6500008</v>
       </c>
@@ -7914,13 +7939,13 @@
         <v>50</v>
       </c>
       <c r="E277" t="s">
-        <v>212</v>
-      </c>
-      <c r="F277" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="278" customFormat="1" spans="1:6">
+        <v>214</v>
+      </c>
+      <c r="G277" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="278" customFormat="1" spans="1:7">
       <c r="A278">
         <v>6500009</v>
       </c>
@@ -7934,13 +7959,13 @@
         <v>50</v>
       </c>
       <c r="E278" t="s">
-        <v>214</v>
-      </c>
-      <c r="F278" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="279" customFormat="1" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="G278" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="279" customFormat="1" spans="1:7">
       <c r="A279">
         <v>6500010</v>
       </c>
@@ -7954,13 +7979,13 @@
         <v>50</v>
       </c>
       <c r="E279" t="s">
-        <v>216</v>
-      </c>
-      <c r="F279" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="280" customFormat="1" spans="1:6">
+        <v>218</v>
+      </c>
+      <c r="G279" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="280" customFormat="1" spans="1:7">
       <c r="A280">
         <v>6510001</v>
       </c>
@@ -7974,13 +7999,13 @@
         <v>51</v>
       </c>
       <c r="E280" t="s">
-        <v>51</v>
-      </c>
-      <c r="F280" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="281" customFormat="1" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G280" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="281" customFormat="1" spans="1:7">
       <c r="A281">
         <v>6510002</v>
       </c>
@@ -7994,13 +8019,13 @@
         <v>51</v>
       </c>
       <c r="E281" t="s">
-        <v>53</v>
-      </c>
-      <c r="F281" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="282" customFormat="1" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G281" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="282" customFormat="1" spans="1:7">
       <c r="A282">
         <v>6520001</v>
       </c>
@@ -8014,13 +8039,13 @@
         <v>52</v>
       </c>
       <c r="E282" t="s">
-        <v>59</v>
-      </c>
-      <c r="F282" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="283" customFormat="1" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G282" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="283" customFormat="1" spans="1:7">
       <c r="A283">
         <v>6520002</v>
       </c>
@@ -8034,13 +8059,13 @@
         <v>52</v>
       </c>
       <c r="E283" t="s">
-        <v>61</v>
-      </c>
-      <c r="F283" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="284" customFormat="1" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G283" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="284" customFormat="1" spans="1:7">
       <c r="A284">
         <v>6520003</v>
       </c>
@@ -8054,13 +8079,13 @@
         <v>52</v>
       </c>
       <c r="E284" t="s">
-        <v>63</v>
-      </c>
-      <c r="F284" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="285" customFormat="1" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G284" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="285" customFormat="1" spans="1:7">
       <c r="A285">
         <v>6520004</v>
       </c>
@@ -8074,13 +8099,13 @@
         <v>52</v>
       </c>
       <c r="E285" t="s">
-        <v>65</v>
-      </c>
-      <c r="F285" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="286" customFormat="1" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G285" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="286" customFormat="1" spans="1:7">
       <c r="A286">
         <v>6520005</v>
       </c>
@@ -8094,13 +8119,13 @@
         <v>52</v>
       </c>
       <c r="E286" t="s">
-        <v>125</v>
-      </c>
-      <c r="F286" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="287" customFormat="1" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="G286" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="287" customFormat="1" spans="1:7">
       <c r="A287">
         <v>6800001</v>
       </c>
@@ -8114,13 +8139,13 @@
         <v>80</v>
       </c>
       <c r="E287" t="s">
-        <v>380</v>
-      </c>
-      <c r="F287" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="288" customFormat="1" ht="12" customHeight="1" spans="1:6">
+        <v>382</v>
+      </c>
+      <c r="G287" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="288" customFormat="1" ht="12" customHeight="1" spans="1:7">
       <c r="A288">
         <v>6910001</v>
       </c>
@@ -8134,13 +8159,13 @@
         <v>91</v>
       </c>
       <c r="E288" t="s">
-        <v>77</v>
-      </c>
-      <c r="F288" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="289" customFormat="1" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="G288" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="289" customFormat="1" spans="1:7">
       <c r="A289">
         <v>6910002</v>
       </c>
@@ -8154,13 +8179,13 @@
         <v>91</v>
       </c>
       <c r="E289" t="s">
-        <v>139</v>
-      </c>
-      <c r="F289" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="290" customFormat="1" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="G289" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="290" customFormat="1" spans="1:7">
       <c r="A290">
         <v>6910003</v>
       </c>
@@ -8174,13 +8199,13 @@
         <v>91</v>
       </c>
       <c r="E290" t="s">
-        <v>141</v>
-      </c>
-      <c r="F290" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="291" customFormat="1" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G290" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="291" customFormat="1" spans="1:7">
       <c r="A291">
         <v>6910004</v>
       </c>
@@ -8194,13 +8219,13 @@
         <v>91</v>
       </c>
       <c r="E291" t="s">
-        <v>143</v>
-      </c>
-      <c r="F291" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="292" customFormat="1" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="G291" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="292" customFormat="1" spans="1:7">
       <c r="A292">
         <v>6910005</v>
       </c>
@@ -8214,13 +8239,13 @@
         <v>91</v>
       </c>
       <c r="E292" t="s">
-        <v>145</v>
-      </c>
-      <c r="F292" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="293" customFormat="1" spans="1:6">
+        <v>147</v>
+      </c>
+      <c r="G292" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="293" customFormat="1" spans="1:7">
       <c r="A293">
         <v>6910006</v>
       </c>
@@ -8234,13 +8259,13 @@
         <v>91</v>
       </c>
       <c r="E293" t="s">
-        <v>147</v>
-      </c>
-      <c r="F293" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="294" customFormat="1" spans="1:6">
+        <v>149</v>
+      </c>
+      <c r="G293" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="294" customFormat="1" spans="1:7">
       <c r="A294">
         <v>6910007</v>
       </c>
@@ -8254,13 +8279,13 @@
         <v>91</v>
       </c>
       <c r="E294" t="s">
-        <v>149</v>
-      </c>
-      <c r="F294" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="295" customFormat="1" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="G294" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="295" customFormat="1" spans="1:7">
       <c r="A295">
         <v>6910008</v>
       </c>
@@ -8274,13 +8299,13 @@
         <v>91</v>
       </c>
       <c r="E295" t="s">
-        <v>151</v>
-      </c>
-      <c r="F295" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="296" customFormat="1" spans="1:6">
+        <v>153</v>
+      </c>
+      <c r="G295" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="296" customFormat="1" spans="1:7">
       <c r="A296">
         <v>6910009</v>
       </c>
@@ -8294,13 +8319,13 @@
         <v>91</v>
       </c>
       <c r="E296" t="s">
-        <v>153</v>
-      </c>
-      <c r="F296" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="297" customFormat="1" spans="1:6">
+        <v>155</v>
+      </c>
+      <c r="G296" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="297" customFormat="1" spans="1:7">
       <c r="A297">
         <v>6910010</v>
       </c>
@@ -8314,13 +8339,13 @@
         <v>91</v>
       </c>
       <c r="E297" t="s">
-        <v>155</v>
-      </c>
-      <c r="F297" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="298" customFormat="1" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="G297" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="298" customFormat="1" spans="1:7">
       <c r="A298">
         <v>6910011</v>
       </c>
@@ -8334,13 +8359,13 @@
         <v>91</v>
       </c>
       <c r="E298" t="s">
-        <v>157</v>
-      </c>
-      <c r="F298" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="299" customFormat="1" spans="1:6">
+        <v>159</v>
+      </c>
+      <c r="G298" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="299" customFormat="1" spans="1:7">
       <c r="A299">
         <v>6910012</v>
       </c>
@@ -8354,13 +8379,13 @@
         <v>91</v>
       </c>
       <c r="E299" t="s">
-        <v>159</v>
-      </c>
-      <c r="F299" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="300" customFormat="1" spans="1:6">
+        <v>161</v>
+      </c>
+      <c r="G299" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="300" customFormat="1" spans="1:7">
       <c r="A300">
         <v>6910013</v>
       </c>
@@ -8374,13 +8399,13 @@
         <v>91</v>
       </c>
       <c r="E300" t="s">
-        <v>161</v>
-      </c>
-      <c r="F300" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="301" customFormat="1" spans="1:6">
+        <v>163</v>
+      </c>
+      <c r="G300" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="301" customFormat="1" spans="1:7">
       <c r="A301">
         <v>6910014</v>
       </c>
@@ -8394,13 +8419,13 @@
         <v>91</v>
       </c>
       <c r="E301" t="s">
-        <v>163</v>
-      </c>
-      <c r="F301" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="302" customFormat="1" spans="1:6">
+        <v>165</v>
+      </c>
+      <c r="G301" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="302" customFormat="1" spans="1:7">
       <c r="A302">
         <v>6910015</v>
       </c>
@@ -8414,13 +8439,13 @@
         <v>91</v>
       </c>
       <c r="E302" t="s">
-        <v>165</v>
-      </c>
-      <c r="F302" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="303" customFormat="1" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="G302" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="303" customFormat="1" spans="1:7">
       <c r="A303">
         <v>6910016</v>
       </c>
@@ -8434,13 +8459,13 @@
         <v>91</v>
       </c>
       <c r="E303" t="s">
-        <v>167</v>
-      </c>
-      <c r="F303" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="304" customFormat="1" spans="1:6">
+        <v>169</v>
+      </c>
+      <c r="G303" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="304" customFormat="1" spans="1:7">
       <c r="A304">
         <v>6910017</v>
       </c>
@@ -8454,13 +8479,13 @@
         <v>91</v>
       </c>
       <c r="E304" t="s">
-        <v>169</v>
-      </c>
-      <c r="F304" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="305" customFormat="1" spans="1:6">
+        <v>171</v>
+      </c>
+      <c r="G304" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="305" customFormat="1" spans="1:7">
       <c r="A305">
         <v>6910018</v>
       </c>
@@ -8474,13 +8499,13 @@
         <v>91</v>
       </c>
       <c r="E305" t="s">
-        <v>171</v>
-      </c>
-      <c r="F305" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="306" customFormat="1" spans="1:6">
+        <v>173</v>
+      </c>
+      <c r="G305" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="306" customFormat="1" spans="1:7">
       <c r="A306">
         <v>6910019</v>
       </c>
@@ -8494,13 +8519,13 @@
         <v>91</v>
       </c>
       <c r="E306" t="s">
-        <v>173</v>
-      </c>
-      <c r="F306" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="307" customFormat="1" spans="1:6">
+        <v>175</v>
+      </c>
+      <c r="G306" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="307" customFormat="1" spans="1:7">
       <c r="A307">
         <v>6910020</v>
       </c>
@@ -8514,13 +8539,13 @@
         <v>91</v>
       </c>
       <c r="E307" t="s">
-        <v>175</v>
-      </c>
-      <c r="F307" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="308" customFormat="1" spans="1:6">
+        <v>177</v>
+      </c>
+      <c r="G307" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="308" customFormat="1" spans="1:7">
       <c r="A308">
         <v>7000001</v>
       </c>
@@ -8534,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="E308" t="s">
-        <v>15</v>
-      </c>
-      <c r="F308" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="309" customFormat="1" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G308" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="309" customFormat="1" spans="1:7">
       <c r="A309">
         <v>7030001</v>
       </c>
@@ -8554,13 +8579,13 @@
         <v>3</v>
       </c>
       <c r="E309" t="s">
-        <v>17</v>
-      </c>
-      <c r="F309" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="310" customFormat="1" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G309" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="310" customFormat="1" spans="1:7">
       <c r="A310">
         <v>7030002</v>
       </c>
@@ -8574,13 +8599,13 @@
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>19</v>
-      </c>
-      <c r="F310" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="311" customFormat="1" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G310" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="311" customFormat="1" spans="1:7">
       <c r="A311">
         <v>7050001</v>
       </c>
@@ -8594,13 +8619,13 @@
         <v>5</v>
       </c>
       <c r="E311" t="s">
-        <v>25</v>
-      </c>
-      <c r="F311" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="312" customFormat="1" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G311" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="312" customFormat="1" spans="1:7">
       <c r="A312">
         <v>7050002</v>
       </c>
@@ -8614,13 +8639,13 @@
         <v>5</v>
       </c>
       <c r="E312" t="s">
-        <v>27</v>
-      </c>
-      <c r="F312" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="313" customFormat="1" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G312" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="313" customFormat="1" spans="1:7">
       <c r="A313">
         <v>7050003</v>
       </c>
@@ -8634,13 +8659,13 @@
         <v>5</v>
       </c>
       <c r="E313" t="s">
-        <v>28</v>
-      </c>
-      <c r="F313" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="314" customFormat="1" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G313" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="314" customFormat="1" spans="1:7">
       <c r="A314">
         <v>7050004</v>
       </c>
@@ -8654,13 +8679,13 @@
         <v>5</v>
       </c>
       <c r="E314" t="s">
-        <v>29</v>
-      </c>
-      <c r="F314" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="315" customFormat="1" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G314" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="315" customFormat="1" spans="1:7">
       <c r="A315">
         <v>7050005</v>
       </c>
@@ -8674,13 +8699,13 @@
         <v>5</v>
       </c>
       <c r="E315" t="s">
-        <v>30</v>
-      </c>
-      <c r="F315" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="316" customFormat="1" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G315" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="316" customFormat="1" spans="1:7">
       <c r="A316">
         <v>7060001</v>
       </c>
@@ -8694,13 +8719,13 @@
         <v>6</v>
       </c>
       <c r="E316" t="s">
-        <v>37</v>
-      </c>
-      <c r="F316" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="317" customFormat="1" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G316" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="317" customFormat="1" spans="1:7">
       <c r="A317">
         <v>7060002</v>
       </c>
@@ -8714,13 +8739,13 @@
         <v>6</v>
       </c>
       <c r="E317" t="s">
-        <v>39</v>
-      </c>
-      <c r="F317" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="318" customFormat="1" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="G317" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="318" customFormat="1" spans="1:7">
       <c r="A318">
         <v>7060003</v>
       </c>
@@ -8734,13 +8759,13 @@
         <v>6</v>
       </c>
       <c r="E318" t="s">
-        <v>40</v>
-      </c>
-      <c r="F318" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="319" customFormat="1" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G318" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="319" customFormat="1" spans="1:7">
       <c r="A319">
         <v>7060004</v>
       </c>
@@ -8754,13 +8779,13 @@
         <v>6</v>
       </c>
       <c r="E319" t="s">
-        <v>41</v>
-      </c>
-      <c r="F319" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="320" customFormat="1" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G319" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="320" customFormat="1" spans="1:7">
       <c r="A320">
         <v>7060005</v>
       </c>
@@ -8774,13 +8799,13 @@
         <v>6</v>
       </c>
       <c r="E320" t="s">
-        <v>42</v>
-      </c>
-      <c r="F320" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="321" customFormat="1" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G320" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="321" customFormat="1" spans="1:7">
       <c r="A321">
         <v>7500001</v>
       </c>
@@ -8794,13 +8819,13 @@
         <v>50</v>
       </c>
       <c r="E321" t="s">
-        <v>43</v>
-      </c>
-      <c r="F321" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="322" customFormat="1" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G321" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="322" customFormat="1" spans="1:7">
       <c r="A322">
         <v>7510001</v>
       </c>
@@ -8814,13 +8839,13 @@
         <v>51</v>
       </c>
       <c r="E322" t="s">
-        <v>51</v>
-      </c>
-      <c r="F322" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="323" customFormat="1" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G322" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="323" customFormat="1" spans="1:7">
       <c r="A323">
         <v>7510002</v>
       </c>
@@ -8834,13 +8859,13 @@
         <v>51</v>
       </c>
       <c r="E323" t="s">
-        <v>53</v>
-      </c>
-      <c r="F323" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="324" customFormat="1" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G323" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="324" customFormat="1" spans="1:7">
       <c r="A324">
         <v>7520001</v>
       </c>
@@ -8854,13 +8879,13 @@
         <v>52</v>
       </c>
       <c r="E324" t="s">
-        <v>59</v>
-      </c>
-      <c r="F324" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="325" customFormat="1" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G324" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="325" customFormat="1" spans="1:7">
       <c r="A325">
         <v>7520002</v>
       </c>
@@ -8874,13 +8899,13 @@
         <v>52</v>
       </c>
       <c r="E325" t="s">
-        <v>61</v>
-      </c>
-      <c r="F325" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="326" customFormat="1" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G325" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="326" customFormat="1" spans="1:7">
       <c r="A326">
         <v>7520003</v>
       </c>
@@ -8894,13 +8919,13 @@
         <v>52</v>
       </c>
       <c r="E326" t="s">
-        <v>63</v>
-      </c>
-      <c r="F326" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="327" customFormat="1" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G326" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="327" customFormat="1" spans="1:7">
       <c r="A327">
         <v>7520004</v>
       </c>
@@ -8914,13 +8939,13 @@
         <v>52</v>
       </c>
       <c r="E327" t="s">
-        <v>65</v>
-      </c>
-      <c r="F327" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="328" customFormat="1" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G327" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="328" customFormat="1" spans="1:7">
       <c r="A328">
         <v>7900001</v>
       </c>
@@ -8934,13 +8959,13 @@
         <v>90</v>
       </c>
       <c r="E328" t="s">
-        <v>67</v>
-      </c>
-      <c r="F328" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="329" customFormat="1" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G328" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="329" customFormat="1" spans="1:7">
       <c r="A329">
         <v>7900002</v>
       </c>
@@ -8954,13 +8979,13 @@
         <v>90</v>
       </c>
       <c r="E329" t="s">
-        <v>69</v>
-      </c>
-      <c r="F329" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="330" customFormat="1" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="G329" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="330" customFormat="1" spans="1:7">
       <c r="A330">
         <v>7900003</v>
       </c>
@@ -8974,13 +8999,13 @@
         <v>90</v>
       </c>
       <c r="E330" t="s">
-        <v>70</v>
-      </c>
-      <c r="F330" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="331" customFormat="1" ht="12" customHeight="1" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G330" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="331" customFormat="1" ht="12" customHeight="1" spans="1:7">
       <c r="A331">
         <v>7910001</v>
       </c>
@@ -8994,13 +9019,13 @@
         <v>91</v>
       </c>
       <c r="E331" t="s">
-        <v>77</v>
-      </c>
-      <c r="F331" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="332" customFormat="1" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="G331" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="332" customFormat="1" spans="1:7">
       <c r="A332">
         <v>7910002</v>
       </c>
@@ -9014,13 +9039,13 @@
         <v>91</v>
       </c>
       <c r="E332" t="s">
-        <v>139</v>
-      </c>
-      <c r="F332" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="333" customFormat="1" spans="1:6">
+        <v>141</v>
+      </c>
+      <c r="G332" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="333" customFormat="1" spans="1:7">
       <c r="A333">
         <v>7910003</v>
       </c>
@@ -9034,13 +9059,13 @@
         <v>91</v>
       </c>
       <c r="E333" t="s">
-        <v>141</v>
-      </c>
-      <c r="F333" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="334" customFormat="1" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G333" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="334" customFormat="1" spans="1:7">
       <c r="A334">
         <v>7910004</v>
       </c>
@@ -9054,13 +9079,13 @@
         <v>91</v>
       </c>
       <c r="E334" t="s">
-        <v>143</v>
-      </c>
-      <c r="F334" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="335" customFormat="1" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="G334" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="335" customFormat="1" spans="1:7">
       <c r="A335">
         <v>7910005</v>
       </c>
@@ -9074,13 +9099,13 @@
         <v>91</v>
       </c>
       <c r="E335" t="s">
-        <v>145</v>
-      </c>
-      <c r="F335" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="336" customFormat="1" spans="1:6">
+        <v>147</v>
+      </c>
+      <c r="G335" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="336" customFormat="1" spans="1:7">
       <c r="A336">
         <v>7910006</v>
       </c>
@@ -9094,10 +9119,10 @@
         <v>91</v>
       </c>
       <c r="E336" t="s">
-        <v>147</v>
-      </c>
-      <c r="F336" t="s">
-        <v>419</v>
+        <v>149</v>
+      </c>
+      <c r="G336" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9114,7 +9139,7 @@
         <v>5</v>
       </c>
       <c r="E337" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9131,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="E338" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9148,7 +9173,7 @@
         <v>5</v>
       </c>
       <c r="E339" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9165,7 +9190,7 @@
         <v>5</v>
       </c>
       <c r="E340" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9182,7 +9207,7 @@
         <v>5</v>
       </c>
       <c r="E341" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9199,7 +9224,7 @@
         <v>5</v>
       </c>
       <c r="E342" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9216,7 +9241,7 @@
         <v>5</v>
       </c>
       <c r="E343" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9233,7 +9258,7 @@
         <v>5</v>
       </c>
       <c r="E344" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9250,7 +9275,7 @@
         <v>5</v>
       </c>
       <c r="E345" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9267,7 +9292,7 @@
         <v>5</v>
       </c>
       <c r="E346" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9284,7 +9309,7 @@
         <v>5</v>
       </c>
       <c r="E347" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9301,7 +9326,7 @@
         <v>5</v>
       </c>
       <c r="E348" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9318,7 +9343,7 @@
         <v>5</v>
       </c>
       <c r="E349" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9335,7 +9360,7 @@
         <v>5</v>
       </c>
       <c r="E350" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9352,7 +9377,7 @@
         <v>5</v>
       </c>
       <c r="E351" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9369,7 +9394,7 @@
         <v>5</v>
       </c>
       <c r="E352" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9386,7 +9411,7 @@
         <v>5</v>
       </c>
       <c r="E353" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9403,7 +9428,7 @@
         <v>5</v>
       </c>
       <c r="E354" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9420,7 +9445,7 @@
         <v>5</v>
       </c>
       <c r="E355" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9437,7 +9462,7 @@
         <v>5</v>
       </c>
       <c r="E356" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9454,7 +9479,7 @@
         <v>5</v>
       </c>
       <c r="E357" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9471,7 +9496,7 @@
         <v>5</v>
       </c>
       <c r="E358" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9488,7 +9513,7 @@
         <v>5</v>
       </c>
       <c r="E359" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9505,7 +9530,7 @@
         <v>5</v>
       </c>
       <c r="E360" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9522,7 +9547,7 @@
         <v>5</v>
       </c>
       <c r="E361" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9539,7 +9564,7 @@
         <v>5</v>
       </c>
       <c r="E362" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9556,7 +9581,7 @@
         <v>5</v>
       </c>
       <c r="E363" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9573,7 +9598,7 @@
         <v>5</v>
       </c>
       <c r="E364" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9590,7 +9615,7 @@
         <v>5</v>
       </c>
       <c r="E365" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9607,7 +9632,7 @@
         <v>5</v>
       </c>
       <c r="E366" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9624,7 +9649,7 @@
         <v>5</v>
       </c>
       <c r="E367" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9641,7 +9666,7 @@
         <v>5</v>
       </c>
       <c r="E368" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9658,7 +9683,7 @@
         <v>5</v>
       </c>
       <c r="E369" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9675,7 +9700,7 @@
         <v>5</v>
       </c>
       <c r="E370" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9692,7 +9717,7 @@
         <v>5</v>
       </c>
       <c r="E371" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9709,7 +9734,7 @@
         <v>5</v>
       </c>
       <c r="E372" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="373" ht="12" customHeight="1" spans="1:5">
@@ -9726,7 +9751,7 @@
         <v>5</v>
       </c>
       <c r="E373" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9743,7 +9768,7 @@
         <v>5</v>
       </c>
       <c r="E374" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9760,7 +9785,7 @@
         <v>5</v>
       </c>
       <c r="E375" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9777,7 +9802,7 @@
         <v>5</v>
       </c>
       <c r="E376" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9794,7 +9819,7 @@
         <v>5</v>
       </c>
       <c r="E377" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9811,7 +9836,7 @@
         <v>5</v>
       </c>
       <c r="E378" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9828,7 +9853,7 @@
         <v>5</v>
       </c>
       <c r="E379" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9845,7 +9870,7 @@
         <v>5</v>
       </c>
       <c r="E380" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9862,7 +9887,7 @@
         <v>5</v>
       </c>
       <c r="E381" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="382" ht="15" customHeight="1" spans="1:5">
@@ -9879,7 +9904,7 @@
         <v>5</v>
       </c>
       <c r="E382" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:5">
@@ -9896,7 +9921,7 @@
         <v>5</v>
       </c>
       <c r="E383" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="384" ht="15" customHeight="1" spans="1:5">
@@ -9913,7 +9938,7 @@
         <v>5</v>
       </c>
       <c r="E384" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:5">
@@ -9930,7 +9955,7 @@
         <v>5</v>
       </c>
       <c r="E385" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:5">
@@ -9947,7 +9972,7 @@
         <v>5</v>
       </c>
       <c r="E386" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="387" customFormat="1" ht="15" customHeight="1" spans="1:5">
@@ -9964,7 +9989,7 @@
         <v>5</v>
       </c>
       <c r="E387" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="388" ht="15" customHeight="1" spans="1:5">
@@ -9981,7 +10006,7 @@
         <v>5</v>
       </c>
       <c r="E388" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:5">
@@ -9998,7 +10023,7 @@
         <v>5</v>
       </c>
       <c r="E389" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="390" ht="15" customHeight="1" spans="1:5">
@@ -10015,7 +10040,7 @@
         <v>5</v>
       </c>
       <c r="E390" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:5">
@@ -10032,7 +10057,7 @@
         <v>5</v>
       </c>
       <c r="E391" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1"/>
@@ -10046,10 +10071,10 @@
     <row r="431" ht="12" customHeight="1"/>
     <row r="432" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F391" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G391" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A4:F36">
+  <sortState ref="A4:G36">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -10,7 +10,7 @@
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$G$391</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$G$392</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -275,10 +275,10 @@
     <t>骷髅-基础</t>
   </si>
   <si>
+    <t>骷髅-头</t>
+  </si>
+  <si>
     <t>Head/Head_1</t>
-  </si>
-  <si>
-    <t>骷髅-头</t>
   </si>
   <si>
     <t>Head/Head_2</t>
@@ -2365,14 +2365,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G432"/>
+  <dimension ref="A1:G433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2382,7 +2382,7 @@
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="53.25" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>2010001</v>
+        <v>2010000</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3378,16 +3378,13 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>81</v>
-      </c>
-      <c r="G49" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>2010002</v>
+        <v>2010001</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -3399,15 +3396,15 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>2010003</v>
+        <v>2010002</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3419,15 +3416,15 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>2010004</v>
+        <v>2010003</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3439,15 +3436,15 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>2010005</v>
+        <v>2010004</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3459,15 +3456,15 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>2010006</v>
+        <v>2010005</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3479,15 +3476,15 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>2010007</v>
+        <v>2010006</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3499,15 +3496,15 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>2010008</v>
+        <v>2010007</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -3519,15 +3516,15 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>2010009</v>
+        <v>2010008</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -3539,15 +3536,15 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>2010010</v>
+        <v>2010009</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -3559,15 +3556,15 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>2010011</v>
+        <v>2010010</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3579,15 +3576,15 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>2010012</v>
+        <v>2010011</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -3599,15 +3596,15 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>2010013</v>
+        <v>2010012</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3619,15 +3616,15 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>2500001</v>
+        <v>2010013</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -3636,18 +3633,18 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>2500002</v>
+        <v>2500001</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -3659,15 +3656,15 @@
         <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>2500003</v>
+        <v>2500002</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -3679,15 +3676,15 @@
         <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>2500004</v>
+        <v>2500003</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3699,15 +3696,15 @@
         <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>2500005</v>
+        <v>2500004</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3719,15 +3716,15 @@
         <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>2500006</v>
+        <v>2500005</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3739,15 +3736,15 @@
         <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>2500007</v>
+        <v>2500006</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -3759,15 +3756,15 @@
         <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>2510001</v>
+        <v>2500007</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -3776,18 +3773,18 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>2510002</v>
+        <v>2510001</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -3799,15 +3796,15 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>2510003</v>
+        <v>2510002</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -3819,15 +3816,15 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>2510004</v>
+        <v>2510003</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -3839,15 +3836,15 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>2510005</v>
+        <v>2510004</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -3859,15 +3856,15 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="G73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>2510006</v>
+        <v>2510005</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -3879,15 +3876,15 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>2510007</v>
+        <v>2510006</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3899,15 +3896,15 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>2510008</v>
+        <v>2510007</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -3919,15 +3916,15 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>2510009</v>
+        <v>2510008</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -3939,15 +3936,15 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>2510010</v>
+        <v>2510009</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -3959,15 +3956,15 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>2510011</v>
+        <v>2510010</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -3979,15 +3976,15 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>2520001</v>
+        <v>2510011</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -3996,18 +3993,18 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="G80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>2520002</v>
+        <v>2520001</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -4019,15 +4016,15 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>2520003</v>
+        <v>2520002</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -4039,15 +4036,15 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>2520004</v>
+        <v>2520003</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -4059,15 +4056,15 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>2520005</v>
+        <v>2520004</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -4079,15 +4076,15 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="G84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>2900001</v>
+        <v>2520005</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -4096,18 +4093,18 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="G85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>2900002</v>
+        <v>2900001</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -4119,15 +4116,15 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>2900003</v>
+        <v>2900002</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4139,15 +4136,15 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>2900004</v>
+        <v>2900003</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -4159,15 +4156,15 @@
         <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>2900005</v>
+        <v>2900004</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -4179,15 +4176,15 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>2900006</v>
+        <v>2900005</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -4199,15 +4196,15 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>2900007</v>
+        <v>2900006</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -4219,15 +4216,15 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>2900008</v>
+        <v>2900007</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4239,15 +4236,15 @@
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>2900009</v>
+        <v>2900008</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -4259,15 +4256,15 @@
         <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>2900010</v>
+        <v>2900009</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -4279,15 +4276,15 @@
         <v>90</v>
       </c>
       <c r="E94" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>2910001</v>
+        <v>2900010</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -4296,18 +4293,18 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E95" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>2910002</v>
+        <v>2910001</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -4319,15 +4316,15 @@
         <v>91</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="G96" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>2910003</v>
+        <v>2910002</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4339,15 +4336,15 @@
         <v>91</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>2910004</v>
+        <v>2910003</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -4359,15 +4356,15 @@
         <v>91</v>
       </c>
       <c r="E98" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>2910005</v>
+        <v>2910004</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -4379,15 +4376,15 @@
         <v>91</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>2910006</v>
+        <v>2910005</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -4399,15 +4396,15 @@
         <v>91</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>2910007</v>
+        <v>2910006</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -4419,15 +4416,15 @@
         <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G101" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>2910008</v>
+        <v>2910007</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -4439,15 +4436,15 @@
         <v>91</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>2910009</v>
+        <v>2910008</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -4459,15 +4456,15 @@
         <v>91</v>
       </c>
       <c r="E103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>2910010</v>
+        <v>2910009</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -4479,15 +4476,15 @@
         <v>91</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>2910011</v>
+        <v>2910010</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -4499,15 +4496,15 @@
         <v>91</v>
       </c>
       <c r="E105" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G105" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>2910012</v>
+        <v>2910011</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -4519,15 +4516,15 @@
         <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>2910013</v>
+        <v>2910012</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -4539,15 +4536,15 @@
         <v>91</v>
       </c>
       <c r="E107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>2910014</v>
+        <v>2910013</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -4559,15 +4556,15 @@
         <v>91</v>
       </c>
       <c r="E108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>2910015</v>
+        <v>2910014</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -4579,15 +4576,15 @@
         <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>2910016</v>
+        <v>2910015</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -4599,15 +4596,15 @@
         <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>2910017</v>
+        <v>2910016</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -4619,15 +4616,15 @@
         <v>91</v>
       </c>
       <c r="E111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>2910018</v>
+        <v>2910017</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -4639,15 +4636,15 @@
         <v>91</v>
       </c>
       <c r="E112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>2910019</v>
+        <v>2910018</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -4659,15 +4656,15 @@
         <v>91</v>
       </c>
       <c r="E113" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>2910020</v>
+        <v>2910019</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -4679,37 +4676,37 @@
         <v>91</v>
       </c>
       <c r="E114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G114" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>3040001</v>
+        <v>2910020</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="G115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>3040002</v>
-      </c>
-      <c r="B116" s="1">
+        <v>3040001</v>
+      </c>
+      <c r="B116">
         <v>3</v>
       </c>
       <c r="C116">
@@ -4719,17 +4716,17 @@
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>3040003</v>
-      </c>
-      <c r="B117">
+        <v>3040002</v>
+      </c>
+      <c r="B117" s="1">
         <v>3</v>
       </c>
       <c r="C117">
@@ -4739,17 +4736,17 @@
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="G117" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>3040004</v>
-      </c>
-      <c r="B118" s="1">
+        <v>3040003</v>
+      </c>
+      <c r="B118">
         <v>3</v>
       </c>
       <c r="C118">
@@ -4759,17 +4756,17 @@
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G118" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>3040005</v>
-      </c>
-      <c r="B119">
+        <v>3040004</v>
+      </c>
+      <c r="B119" s="1">
         <v>3</v>
       </c>
       <c r="C119">
@@ -4779,17 +4776,17 @@
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G119" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>3040006</v>
-      </c>
-      <c r="B120" s="1">
+        <v>3040005</v>
+      </c>
+      <c r="B120">
         <v>3</v>
       </c>
       <c r="C120">
@@ -4799,17 +4796,17 @@
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G120" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>3040007</v>
-      </c>
-      <c r="B121">
+        <v>3040006</v>
+      </c>
+      <c r="B121" s="1">
         <v>3</v>
       </c>
       <c r="C121">
@@ -4819,17 +4816,17 @@
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>3040008</v>
-      </c>
-      <c r="B122" s="1">
+        <v>3040007</v>
+      </c>
+      <c r="B122">
         <v>3</v>
       </c>
       <c r="C122">
@@ -4839,17 +4836,17 @@
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>3040009</v>
-      </c>
-      <c r="B123">
+        <v>3040008</v>
+      </c>
+      <c r="B123" s="1">
         <v>3</v>
       </c>
       <c r="C123">
@@ -4859,17 +4856,17 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>3040010</v>
-      </c>
-      <c r="B124" s="1">
+        <v>3040009</v>
+      </c>
+      <c r="B124">
         <v>3</v>
       </c>
       <c r="C124">
@@ -4879,37 +4876,37 @@
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G124" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>3050001</v>
-      </c>
-      <c r="B125">
+        <v>3040010</v>
+      </c>
+      <c r="B125" s="1">
         <v>3</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="G125" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>3050002</v>
-      </c>
-      <c r="B126" s="1">
+        <v>3050001</v>
+      </c>
+      <c r="B126">
         <v>3</v>
       </c>
       <c r="C126">
@@ -4919,17 +4916,17 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G126" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>3050003</v>
-      </c>
-      <c r="B127">
+        <v>3050002</v>
+      </c>
+      <c r="B127" s="1">
         <v>3</v>
       </c>
       <c r="C127">
@@ -4939,17 +4936,17 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>3050004</v>
-      </c>
-      <c r="B128" s="1">
+        <v>3050003</v>
+      </c>
+      <c r="B128">
         <v>3</v>
       </c>
       <c r="C128">
@@ -4959,17 +4956,17 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>3050005</v>
-      </c>
-      <c r="B129">
+        <v>3050004</v>
+      </c>
+      <c r="B129" s="1">
         <v>3</v>
       </c>
       <c r="C129">
@@ -4979,17 +4976,17 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>3050006</v>
-      </c>
-      <c r="B130" s="1">
+        <v>3050005</v>
+      </c>
+      <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
@@ -4999,17 +4996,17 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>3050007</v>
-      </c>
-      <c r="B131">
+        <v>3050006</v>
+      </c>
+      <c r="B131" s="1">
         <v>3</v>
       </c>
       <c r="C131">
@@ -5019,17 +5016,17 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>3050008</v>
-      </c>
-      <c r="B132" s="1">
+        <v>3050007</v>
+      </c>
+      <c r="B132">
         <v>3</v>
       </c>
       <c r="C132">
@@ -5039,17 +5036,17 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>3050009</v>
-      </c>
-      <c r="B133">
+        <v>3050008</v>
+      </c>
+      <c r="B133" s="1">
         <v>3</v>
       </c>
       <c r="C133">
@@ -5059,17 +5056,17 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>3050010</v>
-      </c>
-      <c r="B134" s="1">
+        <v>3050009</v>
+      </c>
+      <c r="B134">
         <v>3</v>
       </c>
       <c r="C134">
@@ -5079,15 +5076,15 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>3020001</v>
+        <v>3050010</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -5096,20 +5093,20 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>3020002</v>
-      </c>
-      <c r="B136">
+        <v>3020001</v>
+      </c>
+      <c r="B136" s="1">
         <v>3</v>
       </c>
       <c r="C136">
@@ -5119,17 +5116,17 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>3020003</v>
-      </c>
-      <c r="B137" s="1">
+        <v>3020002</v>
+      </c>
+      <c r="B137">
         <v>3</v>
       </c>
       <c r="C137">
@@ -5139,17 +5136,17 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G137" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>3020004</v>
-      </c>
-      <c r="B138">
+        <v>3020003</v>
+      </c>
+      <c r="B138" s="1">
         <v>3</v>
       </c>
       <c r="C138">
@@ -5159,17 +5156,17 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G138" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>3020005</v>
-      </c>
-      <c r="B139" s="1">
+        <v>3020004</v>
+      </c>
+      <c r="B139">
         <v>3</v>
       </c>
       <c r="C139">
@@ -5179,17 +5176,17 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G139" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>3020006</v>
-      </c>
-      <c r="B140">
+        <v>3020005</v>
+      </c>
+      <c r="B140" s="1">
         <v>3</v>
       </c>
       <c r="C140">
@@ -5199,17 +5196,17 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G140" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>3020007</v>
-      </c>
-      <c r="B141" s="1">
+        <v>3020006</v>
+      </c>
+      <c r="B141">
         <v>3</v>
       </c>
       <c r="C141">
@@ -5219,17 +5216,17 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>3020008</v>
-      </c>
-      <c r="B142">
+        <v>3020007</v>
+      </c>
+      <c r="B142" s="1">
         <v>3</v>
       </c>
       <c r="C142">
@@ -5239,17 +5236,17 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="G142" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>3020009</v>
-      </c>
-      <c r="B143" s="1">
+        <v>3020008</v>
+      </c>
+      <c r="B143">
         <v>3</v>
       </c>
       <c r="C143">
@@ -5259,17 +5256,17 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G143" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>3020010</v>
-      </c>
-      <c r="B144">
+        <v>3020009</v>
+      </c>
+      <c r="B144" s="1">
         <v>3</v>
       </c>
       <c r="C144">
@@ -5279,17 +5276,17 @@
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G144" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>3020011</v>
-      </c>
-      <c r="B145" s="1">
+        <v>3020010</v>
+      </c>
+      <c r="B145">
         <v>3</v>
       </c>
       <c r="C145">
@@ -5299,17 +5296,17 @@
         <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>3020012</v>
-      </c>
-      <c r="B146">
+        <v>3020011</v>
+      </c>
+      <c r="B146" s="1">
         <v>3</v>
       </c>
       <c r="C146">
@@ -5319,17 +5316,17 @@
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G146" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>3020013</v>
-      </c>
-      <c r="B147" s="1">
+        <v>3020012</v>
+      </c>
+      <c r="B147">
         <v>3</v>
       </c>
       <c r="C147">
@@ -5339,17 +5336,17 @@
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G147" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>3020014</v>
-      </c>
-      <c r="B148">
+        <v>3020013</v>
+      </c>
+      <c r="B148" s="1">
         <v>3</v>
       </c>
       <c r="C148">
@@ -5359,17 +5356,17 @@
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G148" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>3020015</v>
-      </c>
-      <c r="B149" s="1">
+        <v>3020014</v>
+      </c>
+      <c r="B149">
         <v>3</v>
       </c>
       <c r="C149">
@@ -5379,17 +5376,17 @@
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G149" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>3020016</v>
-      </c>
-      <c r="B150">
+        <v>3020015</v>
+      </c>
+      <c r="B150" s="1">
         <v>3</v>
       </c>
       <c r="C150">
@@ -5399,17 +5396,17 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G150" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>3020017</v>
-      </c>
-      <c r="B151" s="1">
+        <v>3020016</v>
+      </c>
+      <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
@@ -5419,17 +5416,17 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G151" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>3020018</v>
-      </c>
-      <c r="B152">
+        <v>3020017</v>
+      </c>
+      <c r="B152" s="1">
         <v>3</v>
       </c>
       <c r="C152">
@@ -5439,17 +5436,17 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G152" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>3020019</v>
-      </c>
-      <c r="B153" s="1">
+        <v>3020018</v>
+      </c>
+      <c r="B153">
         <v>3</v>
       </c>
       <c r="C153">
@@ -5459,17 +5456,17 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G153" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>3020020</v>
-      </c>
-      <c r="B154">
+        <v>3020019</v>
+      </c>
+      <c r="B154" s="1">
         <v>3</v>
       </c>
       <c r="C154">
@@ -5479,57 +5476,57 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G154" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
+        <v>3020020</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>238</v>
+      </c>
+      <c r="G155" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
         <v>4000001</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B156" s="1">
         <v>4</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
         <v>17</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G156" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="156" customFormat="1" spans="1:7">
-      <c r="A156">
+    <row r="157" customFormat="1" spans="1:7">
+      <c r="A157">
         <v>4030001</v>
       </c>
-      <c r="B156">
-        <v>4</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>3</v>
-      </c>
-      <c r="E156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157">
-        <v>4030002</v>
-      </c>
-      <c r="B157" s="1">
+      <c r="B157">
         <v>4</v>
       </c>
       <c r="C157">
@@ -5539,17 +5536,17 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>4030003</v>
-      </c>
-      <c r="B158">
+        <v>4030002</v>
+      </c>
+      <c r="B158" s="1">
         <v>4</v>
       </c>
       <c r="C158">
@@ -5559,17 +5556,17 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G158" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>4030004</v>
-      </c>
-      <c r="B159" s="1">
+        <v>4030003</v>
+      </c>
+      <c r="B159">
         <v>4</v>
       </c>
       <c r="C159">
@@ -5579,17 +5576,17 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>4030005</v>
-      </c>
-      <c r="B160">
+        <v>4030004</v>
+      </c>
+      <c r="B160" s="1">
         <v>4</v>
       </c>
       <c r="C160">
@@ -5599,15 +5596,15 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G160" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>4030006</v>
+        <v>4030005</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -5619,17 +5616,17 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G161" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>4030007</v>
-      </c>
-      <c r="B162" s="1">
+        <v>4030006</v>
+      </c>
+      <c r="B162">
         <v>4</v>
       </c>
       <c r="C162">
@@ -5639,17 +5636,17 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G162" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>4030008</v>
-      </c>
-      <c r="B163">
+        <v>4030007</v>
+      </c>
+      <c r="B163" s="1">
         <v>4</v>
       </c>
       <c r="C163">
@@ -5659,15 +5656,15 @@
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G163" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>4030009</v>
+        <v>4030008</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -5679,17 +5676,17 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G164" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>4030010</v>
-      </c>
-      <c r="B165" s="1">
+        <v>4030009</v>
+      </c>
+      <c r="B165">
         <v>4</v>
       </c>
       <c r="C165">
@@ -5699,37 +5696,37 @@
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G165" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>4050001</v>
-      </c>
-      <c r="B166">
+        <v>4030010</v>
+      </c>
+      <c r="B166" s="1">
         <v>4</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="G166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>4050002</v>
-      </c>
-      <c r="B167" s="1">
+        <v>4050001</v>
+      </c>
+      <c r="B167">
         <v>4</v>
       </c>
       <c r="C167">
@@ -5739,15 +5736,15 @@
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G167" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>4050003</v>
+        <v>4050002</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
@@ -5759,15 +5756,15 @@
         <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>4050004</v>
+        <v>4050003</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -5779,15 +5776,15 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>4050005</v>
+        <v>4050004</v>
       </c>
       <c r="B170" s="1">
         <v>4</v>
@@ -5799,15 +5796,15 @@
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>4050006</v>
+        <v>4050005</v>
       </c>
       <c r="B171" s="1">
         <v>4</v>
@@ -5819,15 +5816,15 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>4050007</v>
+        <v>4050006</v>
       </c>
       <c r="B172" s="1">
         <v>4</v>
@@ -5839,15 +5836,15 @@
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>4050008</v>
+        <v>4050007</v>
       </c>
       <c r="B173" s="1">
         <v>4</v>
@@ -5859,15 +5856,15 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>4050009</v>
+        <v>4050008</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -5879,15 +5876,15 @@
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>4050010</v>
+        <v>4050009</v>
       </c>
       <c r="B175" s="1">
         <v>4</v>
@@ -5899,15 +5896,15 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>4060001</v>
+        <v>4050010</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -5916,18 +5913,18 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>4060002</v>
+        <v>4060001</v>
       </c>
       <c r="B177" s="1">
         <v>4</v>
@@ -5939,15 +5936,15 @@
         <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>4060003</v>
+        <v>4060002</v>
       </c>
       <c r="B178" s="1">
         <v>4</v>
@@ -5959,15 +5956,15 @@
         <v>6</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>4060004</v>
+        <v>4060003</v>
       </c>
       <c r="B179" s="1">
         <v>4</v>
@@ -5979,15 +5976,15 @@
         <v>6</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>4060005</v>
+        <v>4060004</v>
       </c>
       <c r="B180" s="1">
         <v>4</v>
@@ -5999,15 +5996,15 @@
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>4060006</v>
+        <v>4060005</v>
       </c>
       <c r="B181" s="1">
         <v>4</v>
@@ -6019,15 +6016,15 @@
         <v>6</v>
       </c>
       <c r="E181" t="s">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>4060007</v>
+        <v>4060006</v>
       </c>
       <c r="B182" s="1">
         <v>4</v>
@@ -6039,15 +6036,15 @@
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G182" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>4060008</v>
+        <v>4060007</v>
       </c>
       <c r="B183" s="1">
         <v>4</v>
@@ -6059,15 +6056,15 @@
         <v>6</v>
       </c>
       <c r="E183" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G183" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>4060009</v>
+        <v>4060008</v>
       </c>
       <c r="B184" s="1">
         <v>4</v>
@@ -6079,15 +6076,15 @@
         <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G184" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>4060010</v>
+        <v>4060009</v>
       </c>
       <c r="B185" s="1">
         <v>4</v>
@@ -6099,15 +6096,15 @@
         <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G185" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="186" customFormat="1" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
-        <v>4070001</v>
+        <v>4060010</v>
       </c>
       <c r="B186" s="1">
         <v>4</v>
@@ -6116,18 +6113,18 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E186" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G186" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="187" customFormat="1" spans="1:7">
       <c r="A187">
-        <v>4070002</v>
+        <v>4070001</v>
       </c>
       <c r="B187" s="1">
         <v>4</v>
@@ -6139,15 +6136,15 @@
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G187" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" customFormat="1" spans="1:7">
       <c r="A188">
-        <v>4070003</v>
+        <v>4070002</v>
       </c>
       <c r="B188" s="1">
         <v>4</v>
@@ -6159,15 +6156,15 @@
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G188" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="1:7">
       <c r="A189">
-        <v>4070004</v>
+        <v>4070003</v>
       </c>
       <c r="B189" s="1">
         <v>4</v>
@@ -6179,15 +6176,15 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G189" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:7">
       <c r="A190">
-        <v>4070005</v>
+        <v>4070004</v>
       </c>
       <c r="B190" s="1">
         <v>4</v>
@@ -6199,15 +6196,15 @@
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G190" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" customFormat="1" spans="1:7">
       <c r="A191">
-        <v>4070006</v>
+        <v>4070005</v>
       </c>
       <c r="B191" s="1">
         <v>4</v>
@@ -6219,15 +6216,15 @@
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G191" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="192" customFormat="1" spans="1:7">
       <c r="A192">
-        <v>4070007</v>
+        <v>4070006</v>
       </c>
       <c r="B192" s="1">
         <v>4</v>
@@ -6239,15 +6236,15 @@
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G192" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="193" customFormat="1" spans="1:7">
       <c r="A193">
-        <v>4070008</v>
+        <v>4070007</v>
       </c>
       <c r="B193" s="1">
         <v>4</v>
@@ -6259,15 +6256,15 @@
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G193" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="194" customFormat="1" spans="1:7">
       <c r="A194">
-        <v>4070009</v>
+        <v>4070008</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
@@ -6279,15 +6276,15 @@
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G194" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195" customFormat="1" spans="1:7">
       <c r="A195">
-        <v>4070010</v>
+        <v>4070009</v>
       </c>
       <c r="B195" s="1">
         <v>4</v>
@@ -6299,15 +6296,15 @@
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G195" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" customFormat="1" spans="1:7">
       <c r="A196">
-        <v>4080001</v>
+        <v>4070010</v>
       </c>
       <c r="B196" s="1">
         <v>4</v>
@@ -6316,18 +6313,18 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G196" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197" customFormat="1" spans="1:7">
       <c r="A197">
-        <v>4080002</v>
+        <v>4080001</v>
       </c>
       <c r="B197" s="1">
         <v>4</v>
@@ -6339,15 +6336,15 @@
         <v>8</v>
       </c>
       <c r="E197" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G197" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" customFormat="1" spans="1:7">
       <c r="A198">
-        <v>4080003</v>
+        <v>4080002</v>
       </c>
       <c r="B198" s="1">
         <v>4</v>
@@ -6359,15 +6356,15 @@
         <v>8</v>
       </c>
       <c r="E198" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G198" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="199" customFormat="1" spans="1:7">
       <c r="A199">
-        <v>4080004</v>
+        <v>4080003</v>
       </c>
       <c r="B199" s="1">
         <v>4</v>
@@ -6379,15 +6376,15 @@
         <v>8</v>
       </c>
       <c r="E199" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G199" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" customFormat="1" spans="1:7">
       <c r="A200">
-        <v>4500003</v>
+        <v>4080004</v>
       </c>
       <c r="B200" s="1">
         <v>4</v>
@@ -6396,18 +6393,18 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E200" t="s">
-        <v>49</v>
+        <v>309</v>
       </c>
       <c r="G200" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" customFormat="1" spans="1:7">
       <c r="A201">
-        <v>4510001</v>
+        <v>4500003</v>
       </c>
       <c r="B201" s="1">
         <v>4</v>
@@ -6416,18 +6413,18 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E201" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G201" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" customFormat="1" spans="1:7">
       <c r="A202">
-        <v>4510002</v>
+        <v>4510001</v>
       </c>
       <c r="B202" s="1">
         <v>4</v>
@@ -6439,15 +6436,15 @@
         <v>51</v>
       </c>
       <c r="E202" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G202" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>4510003</v>
+        <v>4510002</v>
       </c>
       <c r="B203" s="1">
         <v>4</v>
@@ -6459,15 +6456,15 @@
         <v>51</v>
       </c>
       <c r="E203" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G203" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>4510004</v>
+        <v>4510003</v>
       </c>
       <c r="B204" s="1">
         <v>4</v>
@@ -6479,15 +6476,15 @@
         <v>51</v>
       </c>
       <c r="E204" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>4510005</v>
+        <v>4510004</v>
       </c>
       <c r="B205" s="1">
         <v>4</v>
@@ -6499,15 +6496,15 @@
         <v>51</v>
       </c>
       <c r="E205" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="G205" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>4510006</v>
+        <v>4510005</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -6519,15 +6516,15 @@
         <v>51</v>
       </c>
       <c r="E206" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>4520001</v>
+        <v>4510006</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
@@ -6536,18 +6533,18 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E207" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="G207" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>4520002</v>
+        <v>4520001</v>
       </c>
       <c r="B208" s="1">
         <v>4</v>
@@ -6559,15 +6556,15 @@
         <v>52</v>
       </c>
       <c r="E208" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G208" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>4520003</v>
+        <v>4520002</v>
       </c>
       <c r="B209" s="1">
         <v>4</v>
@@ -6579,15 +6576,15 @@
         <v>52</v>
       </c>
       <c r="E209" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G209" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>4520004</v>
+        <v>4520003</v>
       </c>
       <c r="B210" s="1">
         <v>4</v>
@@ -6599,15 +6596,15 @@
         <v>52</v>
       </c>
       <c r="E210" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G210" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>4900001</v>
+        <v>4520004</v>
       </c>
       <c r="B211" s="1">
         <v>4</v>
@@ -6616,18 +6613,18 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E211" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G211" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>4900002</v>
+        <v>4900001</v>
       </c>
       <c r="B212" s="1">
         <v>4</v>
@@ -6639,15 +6636,15 @@
         <v>90</v>
       </c>
       <c r="E212" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G212" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>4900003</v>
+        <v>4900002</v>
       </c>
       <c r="B213" s="1">
         <v>4</v>
@@ -6659,15 +6656,15 @@
         <v>90</v>
       </c>
       <c r="E213" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G213" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>4900004</v>
+        <v>4900003</v>
       </c>
       <c r="B214" s="1">
         <v>4</v>
@@ -6679,15 +6676,15 @@
         <v>90</v>
       </c>
       <c r="E214" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>4900005</v>
+        <v>4900004</v>
       </c>
       <c r="B215" s="1">
         <v>4</v>
@@ -6699,35 +6696,35 @@
         <v>90</v>
       </c>
       <c r="E215" t="s">
+        <v>73</v>
+      </c>
+      <c r="G215" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>4900005</v>
+      </c>
+      <c r="B216" s="1">
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>90</v>
+      </c>
+      <c r="E216" t="s">
         <v>74</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G216" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="216" customFormat="1" spans="1:7">
-      <c r="A216">
-        <v>5000001</v>
-      </c>
-      <c r="B216">
-        <v>5</v>
-      </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216" t="s">
-        <v>17</v>
-      </c>
-      <c r="G216" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="217" customFormat="1" spans="1:7">
       <c r="A217">
-        <v>5050001</v>
+        <v>5000001</v>
       </c>
       <c r="B217">
         <v>5</v>
@@ -6736,18 +6733,18 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G217" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="218" customFormat="1" spans="1:7">
       <c r="A218">
-        <v>5050002</v>
+        <v>5050001</v>
       </c>
       <c r="B218">
         <v>5</v>
@@ -6759,15 +6756,15 @@
         <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G218" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" customFormat="1" spans="1:7">
       <c r="A219">
-        <v>5050003</v>
+        <v>5050002</v>
       </c>
       <c r="B219">
         <v>5</v>
@@ -6779,15 +6776,15 @@
         <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G219" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220" customFormat="1" spans="1:7">
       <c r="A220">
-        <v>5050004</v>
+        <v>5050003</v>
       </c>
       <c r="B220">
         <v>5</v>
@@ -6799,15 +6796,15 @@
         <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="221" customFormat="1" spans="1:7">
       <c r="A221">
-        <v>5050005</v>
+        <v>5050004</v>
       </c>
       <c r="B221">
         <v>5</v>
@@ -6819,15 +6816,15 @@
         <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="222" customFormat="1" spans="1:7">
       <c r="A222">
-        <v>5050006</v>
+        <v>5050005</v>
       </c>
       <c r="B222">
         <v>5</v>
@@ -6839,15 +6836,15 @@
         <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="223" customFormat="1" spans="1:7">
       <c r="A223">
-        <v>5050007</v>
+        <v>5050006</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -6859,15 +6856,15 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="224" customFormat="1" spans="1:7">
       <c r="A224">
-        <v>5050008</v>
+        <v>5050007</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -6879,15 +6876,15 @@
         <v>5</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="225" customFormat="1" spans="1:7">
       <c r="A225">
-        <v>5050009</v>
+        <v>5050008</v>
       </c>
       <c r="B225">
         <v>5</v>
@@ -6899,15 +6896,15 @@
         <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" customFormat="1" spans="1:7">
       <c r="A226">
-        <v>5050010</v>
+        <v>5050009</v>
       </c>
       <c r="B226">
         <v>5</v>
@@ -6919,15 +6916,15 @@
         <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227" customFormat="1" spans="1:7">
       <c r="A227">
-        <v>5050011</v>
+        <v>5050010</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -6939,15 +6936,15 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="228" customFormat="1" spans="1:7">
       <c r="A228">
-        <v>5070001</v>
+        <v>5050011</v>
       </c>
       <c r="B228">
         <v>5</v>
@@ -6956,18 +6953,18 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
     </row>
     <row r="229" customFormat="1" spans="1:7">
       <c r="A229">
-        <v>5070002</v>
+        <v>5070001</v>
       </c>
       <c r="B229">
         <v>5</v>
@@ -6979,15 +6976,15 @@
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G229" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="230" customFormat="1" spans="1:7">
       <c r="A230">
-        <v>5070003</v>
+        <v>5070002</v>
       </c>
       <c r="B230">
         <v>5</v>
@@ -6999,15 +6996,15 @@
         <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G230" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" customFormat="1" spans="1:7">
       <c r="A231">
-        <v>5070004</v>
+        <v>5070003</v>
       </c>
       <c r="B231">
         <v>5</v>
@@ -7019,15 +7016,15 @@
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G231" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="232" customFormat="1" spans="1:7">
       <c r="A232">
-        <v>5070005</v>
+        <v>5070004</v>
       </c>
       <c r="B232">
         <v>5</v>
@@ -7039,15 +7036,15 @@
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G232" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="233" customFormat="1" spans="1:7">
       <c r="A233">
-        <v>5090001</v>
+        <v>5070005</v>
       </c>
       <c r="B233">
         <v>5</v>
@@ -7056,18 +7053,18 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="G233" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
     </row>
     <row r="234" customFormat="1" spans="1:7">
       <c r="A234">
-        <v>5090002</v>
+        <v>5090001</v>
       </c>
       <c r="B234">
         <v>5</v>
@@ -7079,15 +7076,15 @@
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G234" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="235" customFormat="1" spans="1:7">
       <c r="A235">
-        <v>5090003</v>
+        <v>5090002</v>
       </c>
       <c r="B235">
         <v>5</v>
@@ -7099,15 +7096,15 @@
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G235" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="236" customFormat="1" spans="1:7">
       <c r="A236">
-        <v>5090004</v>
+        <v>5090003</v>
       </c>
       <c r="B236">
         <v>5</v>
@@ -7119,15 +7116,15 @@
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G236" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="237" customFormat="1" spans="1:7">
       <c r="A237">
-        <v>5090005</v>
+        <v>5090004</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -7139,15 +7136,15 @@
         <v>9</v>
       </c>
       <c r="E237" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G237" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" customFormat="1" spans="1:7">
       <c r="A238">
-        <v>5500001</v>
+        <v>5090005</v>
       </c>
       <c r="B238">
         <v>5</v>
@@ -7156,18 +7153,18 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E238" t="s">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="G238" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="239" customFormat="1" spans="1:7">
       <c r="A239">
-        <v>5500002</v>
+        <v>5500001</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -7179,15 +7176,15 @@
         <v>50</v>
       </c>
       <c r="E239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G239" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="240" customFormat="1" spans="1:7">
       <c r="A240">
-        <v>5500003</v>
+        <v>5500002</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -7199,15 +7196,15 @@
         <v>50</v>
       </c>
       <c r="E240" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G240" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="241" customFormat="1" spans="1:7">
       <c r="A241">
-        <v>5510001</v>
+        <v>5500003</v>
       </c>
       <c r="B241">
         <v>5</v>
@@ -7216,18 +7213,18 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E241" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G241" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="242" customFormat="1" spans="1:7">
       <c r="A242">
-        <v>5510002</v>
+        <v>5510001</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -7239,15 +7236,15 @@
         <v>51</v>
       </c>
       <c r="E242" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G242" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="243" customFormat="1" spans="1:7">
       <c r="A243">
-        <v>5510003</v>
+        <v>5510002</v>
       </c>
       <c r="B243">
         <v>5</v>
@@ -7259,15 +7256,15 @@
         <v>51</v>
       </c>
       <c r="E243" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G243" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="244" customFormat="1" spans="1:7">
       <c r="A244">
-        <v>5520001</v>
+        <v>5510003</v>
       </c>
       <c r="B244">
         <v>5</v>
@@ -7276,18 +7273,18 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E244" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G244" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="245" customFormat="1" spans="1:7">
       <c r="A245">
-        <v>5520002</v>
+        <v>5520001</v>
       </c>
       <c r="B245">
         <v>5</v>
@@ -7299,15 +7296,15 @@
         <v>52</v>
       </c>
       <c r="E245" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G245" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="246" customFormat="1" spans="1:7">
       <c r="A246">
-        <v>5910001</v>
+        <v>5520002</v>
       </c>
       <c r="B246">
         <v>5</v>
@@ -7316,18 +7313,18 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E246" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G246" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="247" customFormat="1" spans="1:7">
       <c r="A247">
-        <v>5910002</v>
+        <v>5910001</v>
       </c>
       <c r="B247">
         <v>5</v>
@@ -7339,15 +7336,15 @@
         <v>91</v>
       </c>
       <c r="E247" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="G247" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="248" customFormat="1" spans="1:7">
       <c r="A248">
-        <v>5910003</v>
+        <v>5910002</v>
       </c>
       <c r="B248">
         <v>5</v>
@@ -7359,35 +7356,35 @@
         <v>91</v>
       </c>
       <c r="E248" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G248" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="249" customFormat="1" spans="1:7">
       <c r="A249">
-        <v>6000001</v>
+        <v>5910003</v>
       </c>
       <c r="B249">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249">
         <v>0</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E249" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="G249" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="250" customFormat="1" spans="1:7">
       <c r="A250">
-        <v>6050001</v>
+        <v>6000001</v>
       </c>
       <c r="B250">
         <v>6</v>
@@ -7396,18 +7393,18 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G250" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="251" customFormat="1" spans="1:7">
       <c r="A251">
-        <v>6050002</v>
+        <v>6050001</v>
       </c>
       <c r="B251">
         <v>6</v>
@@ -7419,15 +7416,15 @@
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G251" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="252" customFormat="1" spans="1:7">
       <c r="A252">
-        <v>6050003</v>
+        <v>6050002</v>
       </c>
       <c r="B252">
         <v>6</v>
@@ -7439,15 +7436,15 @@
         <v>5</v>
       </c>
       <c r="E252" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G252" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="253" customFormat="1" spans="1:7">
       <c r="A253">
-        <v>6050004</v>
+        <v>6050003</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -7459,15 +7456,15 @@
         <v>5</v>
       </c>
       <c r="E253" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" customFormat="1" spans="1:7">
       <c r="A254">
-        <v>6050005</v>
+        <v>6050004</v>
       </c>
       <c r="B254">
         <v>6</v>
@@ -7479,15 +7476,15 @@
         <v>5</v>
       </c>
       <c r="E254" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="255" customFormat="1" spans="1:7">
       <c r="A255">
-        <v>6050006</v>
+        <v>6050005</v>
       </c>
       <c r="B255">
         <v>6</v>
@@ -7499,15 +7496,15 @@
         <v>5</v>
       </c>
       <c r="E255" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256" customFormat="1" spans="1:7">
       <c r="A256">
-        <v>6050007</v>
+        <v>6050006</v>
       </c>
       <c r="B256">
         <v>6</v>
@@ -7519,15 +7516,15 @@
         <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G256" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="257" customFormat="1" spans="1:7">
       <c r="A257">
-        <v>6050008</v>
+        <v>6050007</v>
       </c>
       <c r="B257">
         <v>6</v>
@@ -7539,15 +7536,15 @@
         <v>5</v>
       </c>
       <c r="E257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="258" customFormat="1" spans="1:7">
       <c r="A258">
-        <v>6050009</v>
+        <v>6050008</v>
       </c>
       <c r="B258">
         <v>6</v>
@@ -7559,15 +7556,15 @@
         <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G258" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="259" customFormat="1" spans="1:7">
       <c r="A259">
-        <v>6050010</v>
+        <v>6050009</v>
       </c>
       <c r="B259">
         <v>6</v>
@@ -7579,15 +7576,15 @@
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G259" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="260" customFormat="1" spans="1:7">
       <c r="A260">
-        <v>6060001</v>
+        <v>6050010</v>
       </c>
       <c r="B260">
         <v>6</v>
@@ -7596,18 +7593,18 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E260" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G260" t="s">
-        <v>268</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261" customFormat="1" spans="1:7">
       <c r="A261">
-        <v>6060002</v>
+        <v>6060001</v>
       </c>
       <c r="B261">
         <v>6</v>
@@ -7619,15 +7616,15 @@
         <v>6</v>
       </c>
       <c r="E261" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G261" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" customFormat="1" spans="1:7">
       <c r="A262">
-        <v>6060003</v>
+        <v>6060002</v>
       </c>
       <c r="B262">
         <v>6</v>
@@ -7639,15 +7636,15 @@
         <v>6</v>
       </c>
       <c r="E262" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G262" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" customFormat="1" spans="1:7">
       <c r="A263">
-        <v>6060004</v>
+        <v>6060003</v>
       </c>
       <c r="B263">
         <v>6</v>
@@ -7659,15 +7656,15 @@
         <v>6</v>
       </c>
       <c r="E263" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" customFormat="1" spans="1:7">
       <c r="A264">
-        <v>6060005</v>
+        <v>6060004</v>
       </c>
       <c r="B264">
         <v>6</v>
@@ -7679,15 +7676,15 @@
         <v>6</v>
       </c>
       <c r="E264" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G264" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="265" customFormat="1" spans="1:7">
       <c r="A265">
-        <v>6060006</v>
+        <v>6060005</v>
       </c>
       <c r="B265">
         <v>6</v>
@@ -7699,15 +7696,15 @@
         <v>6</v>
       </c>
       <c r="E265" t="s">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="G265" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="266" customFormat="1" spans="1:7">
       <c r="A266">
-        <v>6060007</v>
+        <v>6060006</v>
       </c>
       <c r="B266">
         <v>6</v>
@@ -7719,15 +7716,15 @@
         <v>6</v>
       </c>
       <c r="E266" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G266" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" customFormat="1" spans="1:7">
       <c r="A267">
-        <v>6060008</v>
+        <v>6060007</v>
       </c>
       <c r="B267">
         <v>6</v>
@@ -7739,15 +7736,15 @@
         <v>6</v>
       </c>
       <c r="E267" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G267" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="268" customFormat="1" spans="1:7">
       <c r="A268">
-        <v>6060009</v>
+        <v>6060008</v>
       </c>
       <c r="B268">
         <v>6</v>
@@ -7759,15 +7756,15 @@
         <v>6</v>
       </c>
       <c r="E268" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G268" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="269" customFormat="1" spans="1:7">
       <c r="A269">
-        <v>6060010</v>
+        <v>6060009</v>
       </c>
       <c r="B269">
         <v>6</v>
@@ -7779,15 +7776,15 @@
         <v>6</v>
       </c>
       <c r="E269" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G269" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="270" customFormat="1" spans="1:7">
       <c r="A270">
-        <v>6500001</v>
+        <v>6060010</v>
       </c>
       <c r="B270">
         <v>6</v>
@@ -7796,18 +7793,18 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E270" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="G270" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" customFormat="1" spans="1:7">
       <c r="A271">
-        <v>6500002</v>
+        <v>6500001</v>
       </c>
       <c r="B271">
         <v>6</v>
@@ -7819,15 +7816,15 @@
         <v>50</v>
       </c>
       <c r="E271" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G271" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="272" customFormat="1" spans="1:7">
       <c r="A272">
-        <v>6500003</v>
+        <v>6500002</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -7839,15 +7836,15 @@
         <v>50</v>
       </c>
       <c r="E272" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G272" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="273" customFormat="1" spans="1:7">
       <c r="A273">
-        <v>6500004</v>
+        <v>6500003</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -7859,15 +7856,15 @@
         <v>50</v>
       </c>
       <c r="E273" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G273" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="274" customFormat="1" spans="1:7">
       <c r="A274">
-        <v>6500005</v>
+        <v>6500004</v>
       </c>
       <c r="B274">
         <v>6</v>
@@ -7879,15 +7876,15 @@
         <v>50</v>
       </c>
       <c r="E274" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G274" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="275" customFormat="1" spans="1:7">
       <c r="A275">
-        <v>6500006</v>
+        <v>6500005</v>
       </c>
       <c r="B275">
         <v>6</v>
@@ -7899,15 +7896,15 @@
         <v>50</v>
       </c>
       <c r="E275" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G275" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="276" customFormat="1" spans="1:7">
       <c r="A276">
-        <v>6500007</v>
+        <v>6500006</v>
       </c>
       <c r="B276">
         <v>6</v>
@@ -7919,15 +7916,15 @@
         <v>50</v>
       </c>
       <c r="E276" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G276" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="277" customFormat="1" spans="1:7">
       <c r="A277">
-        <v>6500008</v>
+        <v>6500007</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -7939,15 +7936,15 @@
         <v>50</v>
       </c>
       <c r="E277" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="G277" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="278" customFormat="1" spans="1:7">
       <c r="A278">
-        <v>6500009</v>
+        <v>6500008</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -7959,15 +7956,15 @@
         <v>50</v>
       </c>
       <c r="E278" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G278" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="279" customFormat="1" spans="1:7">
       <c r="A279">
-        <v>6500010</v>
+        <v>6500009</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -7979,15 +7976,15 @@
         <v>50</v>
       </c>
       <c r="E279" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G279" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="280" customFormat="1" spans="1:7">
       <c r="A280">
-        <v>6510001</v>
+        <v>6500010</v>
       </c>
       <c r="B280">
         <v>6</v>
@@ -7996,18 +7993,18 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E280" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="G280" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="281" customFormat="1" spans="1:7">
       <c r="A281">
-        <v>6510002</v>
+        <v>6510001</v>
       </c>
       <c r="B281">
         <v>6</v>
@@ -8019,15 +8016,15 @@
         <v>51</v>
       </c>
       <c r="E281" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G281" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="282" customFormat="1" spans="1:7">
       <c r="A282">
-        <v>6520001</v>
+        <v>6510002</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -8036,18 +8033,18 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E282" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G282" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
     </row>
     <row r="283" customFormat="1" spans="1:7">
       <c r="A283">
-        <v>6520002</v>
+        <v>6520001</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -8059,15 +8056,15 @@
         <v>52</v>
       </c>
       <c r="E283" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G283" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="284" customFormat="1" spans="1:7">
       <c r="A284">
-        <v>6520003</v>
+        <v>6520002</v>
       </c>
       <c r="B284">
         <v>6</v>
@@ -8079,15 +8076,15 @@
         <v>52</v>
       </c>
       <c r="E284" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G284" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="285" customFormat="1" spans="1:7">
       <c r="A285">
-        <v>6520004</v>
+        <v>6520003</v>
       </c>
       <c r="B285">
         <v>6</v>
@@ -8099,15 +8096,15 @@
         <v>52</v>
       </c>
       <c r="E285" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G285" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="286" customFormat="1" spans="1:7">
       <c r="A286">
-        <v>6520005</v>
+        <v>6520004</v>
       </c>
       <c r="B286">
         <v>6</v>
@@ -8119,15 +8116,15 @@
         <v>52</v>
       </c>
       <c r="E286" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="G286" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
     </row>
     <row r="287" customFormat="1" spans="1:7">
       <c r="A287">
-        <v>6800001</v>
+        <v>6520005</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -8136,18 +8133,18 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E287" t="s">
-        <v>382</v>
+        <v>127</v>
       </c>
       <c r="G287" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="288" customFormat="1" ht="12" customHeight="1" spans="1:7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="288" customFormat="1" spans="1:7">
       <c r="A288">
-        <v>6910001</v>
+        <v>6800001</v>
       </c>
       <c r="B288">
         <v>6</v>
@@ -8156,18 +8153,18 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E288" t="s">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="G288" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="289" customFormat="1" spans="1:7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="289" customFormat="1" ht="12" customHeight="1" spans="1:7">
       <c r="A289">
-        <v>6910002</v>
+        <v>6910001</v>
       </c>
       <c r="B289">
         <v>6</v>
@@ -8179,15 +8176,15 @@
         <v>91</v>
       </c>
       <c r="E289" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="G289" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="290" customFormat="1" spans="1:7">
       <c r="A290">
-        <v>6910003</v>
+        <v>6910002</v>
       </c>
       <c r="B290">
         <v>6</v>
@@ -8199,15 +8196,15 @@
         <v>91</v>
       </c>
       <c r="E290" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G290" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="291" customFormat="1" spans="1:7">
       <c r="A291">
-        <v>6910004</v>
+        <v>6910003</v>
       </c>
       <c r="B291">
         <v>6</v>
@@ -8219,15 +8216,15 @@
         <v>91</v>
       </c>
       <c r="E291" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G291" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="292" customFormat="1" spans="1:7">
       <c r="A292">
-        <v>6910005</v>
+        <v>6910004</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -8239,15 +8236,15 @@
         <v>91</v>
       </c>
       <c r="E292" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G292" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="293" customFormat="1" spans="1:7">
       <c r="A293">
-        <v>6910006</v>
+        <v>6910005</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -8259,15 +8256,15 @@
         <v>91</v>
       </c>
       <c r="E293" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G293" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="294" customFormat="1" spans="1:7">
       <c r="A294">
-        <v>6910007</v>
+        <v>6910006</v>
       </c>
       <c r="B294">
         <v>6</v>
@@ -8279,15 +8276,15 @@
         <v>91</v>
       </c>
       <c r="E294" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G294" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="295" customFormat="1" spans="1:7">
       <c r="A295">
-        <v>6910008</v>
+        <v>6910007</v>
       </c>
       <c r="B295">
         <v>6</v>
@@ -8299,15 +8296,15 @@
         <v>91</v>
       </c>
       <c r="E295" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G295" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="296" customFormat="1" spans="1:7">
       <c r="A296">
-        <v>6910009</v>
+        <v>6910008</v>
       </c>
       <c r="B296">
         <v>6</v>
@@ -8319,15 +8316,15 @@
         <v>91</v>
       </c>
       <c r="E296" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G296" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="297" customFormat="1" spans="1:7">
       <c r="A297">
-        <v>6910010</v>
+        <v>6910009</v>
       </c>
       <c r="B297">
         <v>6</v>
@@ -8339,15 +8336,15 @@
         <v>91</v>
       </c>
       <c r="E297" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G297" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="298" customFormat="1" spans="1:7">
       <c r="A298">
-        <v>6910011</v>
+        <v>6910010</v>
       </c>
       <c r="B298">
         <v>6</v>
@@ -8359,15 +8356,15 @@
         <v>91</v>
       </c>
       <c r="E298" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G298" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="299" customFormat="1" spans="1:7">
       <c r="A299">
-        <v>6910012</v>
+        <v>6910011</v>
       </c>
       <c r="B299">
         <v>6</v>
@@ -8379,15 +8376,15 @@
         <v>91</v>
       </c>
       <c r="E299" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G299" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="300" customFormat="1" spans="1:7">
       <c r="A300">
-        <v>6910013</v>
+        <v>6910012</v>
       </c>
       <c r="B300">
         <v>6</v>
@@ -8399,15 +8396,15 @@
         <v>91</v>
       </c>
       <c r="E300" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G300" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="301" customFormat="1" spans="1:7">
       <c r="A301">
-        <v>6910014</v>
+        <v>6910013</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -8419,15 +8416,15 @@
         <v>91</v>
       </c>
       <c r="E301" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G301" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="302" customFormat="1" spans="1:7">
       <c r="A302">
-        <v>6910015</v>
+        <v>6910014</v>
       </c>
       <c r="B302">
         <v>6</v>
@@ -8439,15 +8436,15 @@
         <v>91</v>
       </c>
       <c r="E302" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G302" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="303" customFormat="1" spans="1:7">
       <c r="A303">
-        <v>6910016</v>
+        <v>6910015</v>
       </c>
       <c r="B303">
         <v>6</v>
@@ -8459,15 +8456,15 @@
         <v>91</v>
       </c>
       <c r="E303" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G303" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="304" customFormat="1" spans="1:7">
       <c r="A304">
-        <v>6910017</v>
+        <v>6910016</v>
       </c>
       <c r="B304">
         <v>6</v>
@@ -8479,15 +8476,15 @@
         <v>91</v>
       </c>
       <c r="E304" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G304" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="305" customFormat="1" spans="1:7">
       <c r="A305">
-        <v>6910018</v>
+        <v>6910017</v>
       </c>
       <c r="B305">
         <v>6</v>
@@ -8499,15 +8496,15 @@
         <v>91</v>
       </c>
       <c r="E305" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G305" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="306" customFormat="1" spans="1:7">
       <c r="A306">
-        <v>6910019</v>
+        <v>6910018</v>
       </c>
       <c r="B306">
         <v>6</v>
@@ -8519,15 +8516,15 @@
         <v>91</v>
       </c>
       <c r="E306" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G306" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="307" customFormat="1" spans="1:7">
       <c r="A307">
-        <v>6910020</v>
+        <v>6910019</v>
       </c>
       <c r="B307">
         <v>6</v>
@@ -8539,35 +8536,35 @@
         <v>91</v>
       </c>
       <c r="E307" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G307" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="308" customFormat="1" spans="1:7">
       <c r="A308">
-        <v>7000001</v>
+        <v>6910020</v>
       </c>
       <c r="B308">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E308" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="G308" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="309" customFormat="1" spans="1:7">
       <c r="A309">
-        <v>7030001</v>
+        <v>7000001</v>
       </c>
       <c r="B309">
         <v>7</v>
@@ -8576,18 +8573,18 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E309" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G309" t="s">
-        <v>241</v>
+        <v>404</v>
       </c>
     </row>
     <row r="310" customFormat="1" spans="1:7">
       <c r="A310">
-        <v>7030002</v>
+        <v>7030001</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -8599,15 +8596,15 @@
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G310" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="311" customFormat="1" spans="1:7">
       <c r="A311">
-        <v>7050001</v>
+        <v>7030002</v>
       </c>
       <c r="B311">
         <v>7</v>
@@ -8616,18 +8613,18 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E311" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G311" t="s">
-        <v>405</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" customFormat="1" spans="1:7">
       <c r="A312">
-        <v>7050002</v>
+        <v>7050001</v>
       </c>
       <c r="B312">
         <v>7</v>
@@ -8639,15 +8636,15 @@
         <v>5</v>
       </c>
       <c r="E312" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G312" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="313" customFormat="1" spans="1:7">
       <c r="A313">
-        <v>7050003</v>
+        <v>7050002</v>
       </c>
       <c r="B313">
         <v>7</v>
@@ -8659,15 +8656,15 @@
         <v>5</v>
       </c>
       <c r="E313" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G313" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="314" customFormat="1" spans="1:7">
       <c r="A314">
-        <v>7050004</v>
+        <v>7050003</v>
       </c>
       <c r="B314">
         <v>7</v>
@@ -8679,15 +8676,15 @@
         <v>5</v>
       </c>
       <c r="E314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G314" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="315" customFormat="1" spans="1:7">
       <c r="A315">
-        <v>7050005</v>
+        <v>7050004</v>
       </c>
       <c r="B315">
         <v>7</v>
@@ -8699,15 +8696,15 @@
         <v>5</v>
       </c>
       <c r="E315" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G315" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="316" customFormat="1" spans="1:7">
       <c r="A316">
-        <v>7060001</v>
+        <v>7050005</v>
       </c>
       <c r="B316">
         <v>7</v>
@@ -8716,18 +8713,18 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E316" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G316" t="s">
-        <v>268</v>
+        <v>409</v>
       </c>
     </row>
     <row r="317" customFormat="1" spans="1:7">
       <c r="A317">
-        <v>7060002</v>
+        <v>7060001</v>
       </c>
       <c r="B317">
         <v>7</v>
@@ -8739,15 +8736,15 @@
         <v>6</v>
       </c>
       <c r="E317" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G317" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="318" customFormat="1" spans="1:7">
       <c r="A318">
-        <v>7060003</v>
+        <v>7060002</v>
       </c>
       <c r="B318">
         <v>7</v>
@@ -8759,15 +8756,15 @@
         <v>6</v>
       </c>
       <c r="E318" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G318" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="319" customFormat="1" spans="1:7">
       <c r="A319">
-        <v>7060004</v>
+        <v>7060003</v>
       </c>
       <c r="B319">
         <v>7</v>
@@ -8779,15 +8776,15 @@
         <v>6</v>
       </c>
       <c r="E319" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G319" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="320" customFormat="1" spans="1:7">
       <c r="A320">
-        <v>7060005</v>
+        <v>7060004</v>
       </c>
       <c r="B320">
         <v>7</v>
@@ -8799,15 +8796,15 @@
         <v>6</v>
       </c>
       <c r="E320" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G320" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="321" customFormat="1" spans="1:7">
       <c r="A321">
-        <v>7500001</v>
+        <v>7060005</v>
       </c>
       <c r="B321">
         <v>7</v>
@@ -8816,18 +8813,18 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E321" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G321" t="s">
-        <v>410</v>
+        <v>272</v>
       </c>
     </row>
     <row r="322" customFormat="1" spans="1:7">
       <c r="A322">
-        <v>7510001</v>
+        <v>7500001</v>
       </c>
       <c r="B322">
         <v>7</v>
@@ -8836,18 +8833,18 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E322" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="323" customFormat="1" spans="1:7">
       <c r="A323">
-        <v>7510002</v>
+        <v>7510001</v>
       </c>
       <c r="B323">
         <v>7</v>
@@ -8859,15 +8856,15 @@
         <v>51</v>
       </c>
       <c r="E323" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G323" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="324" customFormat="1" spans="1:7">
       <c r="A324">
-        <v>7520001</v>
+        <v>7510002</v>
       </c>
       <c r="B324">
         <v>7</v>
@@ -8876,18 +8873,18 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E324" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G324" t="s">
-        <v>318</v>
+        <v>412</v>
       </c>
     </row>
     <row r="325" customFormat="1" spans="1:7">
       <c r="A325">
-        <v>7520002</v>
+        <v>7520001</v>
       </c>
       <c r="B325">
         <v>7</v>
@@ -8899,15 +8896,15 @@
         <v>52</v>
       </c>
       <c r="E325" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G325" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="326" customFormat="1" spans="1:7">
       <c r="A326">
-        <v>7520003</v>
+        <v>7520002</v>
       </c>
       <c r="B326">
         <v>7</v>
@@ -8919,15 +8916,15 @@
         <v>52</v>
       </c>
       <c r="E326" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G326" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:7">
       <c r="A327">
-        <v>7520004</v>
+        <v>7520003</v>
       </c>
       <c r="B327">
         <v>7</v>
@@ -8939,15 +8936,15 @@
         <v>52</v>
       </c>
       <c r="E327" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G327" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="328" customFormat="1" spans="1:7">
       <c r="A328">
-        <v>7900001</v>
+        <v>7520004</v>
       </c>
       <c r="B328">
         <v>7</v>
@@ -8956,18 +8953,18 @@
         <v>0</v>
       </c>
       <c r="D328">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E328" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G328" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
     </row>
     <row r="329" customFormat="1" spans="1:7">
       <c r="A329">
-        <v>7900002</v>
+        <v>7900001</v>
       </c>
       <c r="B329">
         <v>7</v>
@@ -8979,15 +8976,15 @@
         <v>90</v>
       </c>
       <c r="E329" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G329" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="330" customFormat="1" spans="1:7">
       <c r="A330">
-        <v>7900003</v>
+        <v>7900002</v>
       </c>
       <c r="B330">
         <v>7</v>
@@ -8999,15 +8996,15 @@
         <v>90</v>
       </c>
       <c r="E330" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G330" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="331" customFormat="1" ht="12" customHeight="1" spans="1:7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="331" customFormat="1" spans="1:7">
       <c r="A331">
-        <v>7910001</v>
+        <v>7900003</v>
       </c>
       <c r="B331">
         <v>7</v>
@@ -9016,18 +9013,18 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E331" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G331" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="332" customFormat="1" spans="1:7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="332" customFormat="1" ht="12" customHeight="1" spans="1:7">
       <c r="A332">
-        <v>7910002</v>
+        <v>7910001</v>
       </c>
       <c r="B332">
         <v>7</v>
@@ -9039,15 +9036,15 @@
         <v>91</v>
       </c>
       <c r="E332" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="G332" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="333" customFormat="1" spans="1:7">
       <c r="A333">
-        <v>7910003</v>
+        <v>7910002</v>
       </c>
       <c r="B333">
         <v>7</v>
@@ -9059,15 +9056,15 @@
         <v>91</v>
       </c>
       <c r="E333" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G333" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="334" customFormat="1" spans="1:7">
       <c r="A334">
-        <v>7910004</v>
+        <v>7910003</v>
       </c>
       <c r="B334">
         <v>7</v>
@@ -9079,15 +9076,15 @@
         <v>91</v>
       </c>
       <c r="E334" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G334" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="335" customFormat="1" spans="1:7">
       <c r="A335">
-        <v>7910005</v>
+        <v>7910004</v>
       </c>
       <c r="B335">
         <v>7</v>
@@ -9099,15 +9096,15 @@
         <v>91</v>
       </c>
       <c r="E335" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G335" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="336" customFormat="1" spans="1:7">
       <c r="A336">
-        <v>7910006</v>
+        <v>7910005</v>
       </c>
       <c r="B336">
         <v>7</v>
@@ -9119,32 +9116,35 @@
         <v>91</v>
       </c>
       <c r="E336" t="s">
+        <v>147</v>
+      </c>
+      <c r="G336" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="337" customFormat="1" spans="1:7">
+      <c r="A337">
+        <v>7910006</v>
+      </c>
+      <c r="B337">
+        <v>7</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>91</v>
+      </c>
+      <c r="E337" t="s">
         <v>149</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G337" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="2">
+    <row r="338" spans="1:7">
+      <c r="A338" s="2">
         <v>99995005001</v>
-      </c>
-      <c r="B337" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C337">
-        <v>1</v>
-      </c>
-      <c r="D337">
-        <v>5</v>
-      </c>
-      <c r="E337" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="2">
-        <v>99995005002</v>
       </c>
       <c r="B338" s="2">
         <v>999950</v>
@@ -9156,12 +9156,12 @@
         <v>5</v>
       </c>
       <c r="E338" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="2">
-        <v>99995005003</v>
+        <v>99995005002</v>
       </c>
       <c r="B339" s="2">
         <v>999950</v>
@@ -9173,12 +9173,12 @@
         <v>5</v>
       </c>
       <c r="E339" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" s="2">
-        <v>99995005004</v>
+        <v>99995005003</v>
       </c>
       <c r="B340" s="2">
         <v>999950</v>
@@ -9190,12 +9190,12 @@
         <v>5</v>
       </c>
       <c r="E340" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="2">
-        <v>99995005005</v>
+        <v>99995005004</v>
       </c>
       <c r="B341" s="2">
         <v>999950</v>
@@ -9207,29 +9207,29 @@
         <v>5</v>
       </c>
       <c r="E341" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="2">
+        <v>99995005005</v>
+      </c>
+      <c r="B342" s="2">
+        <v>999950</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>5</v>
+      </c>
+      <c r="E342" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="2">
+    <row r="343" spans="1:7">
+      <c r="A343" s="2">
         <v>99994705001</v>
-      </c>
-      <c r="B342" s="2">
-        <v>999947</v>
-      </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-      <c r="D342">
-        <v>5</v>
-      </c>
-      <c r="E342" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="2">
-        <v>99994705002</v>
       </c>
       <c r="B343" s="2">
         <v>999947</v>
@@ -9241,12 +9241,12 @@
         <v>5</v>
       </c>
       <c r="E343" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="2">
-        <v>99994705003</v>
+        <v>99994705002</v>
       </c>
       <c r="B344" s="2">
         <v>999947</v>
@@ -9258,12 +9258,12 @@
         <v>5</v>
       </c>
       <c r="E344" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" s="2">
-        <v>99994705004</v>
+        <v>99994705003</v>
       </c>
       <c r="B345" s="2">
         <v>999947</v>
@@ -9275,29 +9275,29 @@
         <v>5</v>
       </c>
       <c r="E345" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="2">
+        <v>99994705004</v>
+      </c>
+      <c r="B346" s="2">
+        <v>999947</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>5</v>
+      </c>
+      <c r="E346" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="2">
+    <row r="347" spans="1:7">
+      <c r="A347" s="2">
         <v>99996105001</v>
-      </c>
-      <c r="B346">
-        <v>999961</v>
-      </c>
-      <c r="C346">
-        <v>1</v>
-      </c>
-      <c r="D346">
-        <v>5</v>
-      </c>
-      <c r="E346" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="2">
-        <v>99996105002</v>
       </c>
       <c r="B347">
         <v>999961</v>
@@ -9309,12 +9309,12 @@
         <v>5</v>
       </c>
       <c r="E347" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="2">
-        <v>99996105003</v>
+        <v>99996105002</v>
       </c>
       <c r="B348">
         <v>999961</v>
@@ -9326,12 +9326,12 @@
         <v>5</v>
       </c>
       <c r="E348" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" s="2">
-        <v>99996105004</v>
+        <v>99996105003</v>
       </c>
       <c r="B349">
         <v>999961</v>
@@ -9343,12 +9343,12 @@
         <v>5</v>
       </c>
       <c r="E349" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="2">
-        <v>99996105005</v>
+        <v>99996105004</v>
       </c>
       <c r="B350">
         <v>999961</v>
@@ -9360,29 +9360,29 @@
         <v>5</v>
       </c>
       <c r="E350" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="2">
+        <v>99996105005</v>
+      </c>
+      <c r="B351">
+        <v>999961</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>5</v>
+      </c>
+      <c r="E351" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
-      <c r="A351">
+    <row r="352" spans="1:7">
+      <c r="A352">
         <v>99996805001</v>
-      </c>
-      <c r="B351" s="2">
-        <v>999968</v>
-      </c>
-      <c r="C351">
-        <v>1</v>
-      </c>
-      <c r="D351">
-        <v>5</v>
-      </c>
-      <c r="E351" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="A352">
-        <v>99996805002</v>
       </c>
       <c r="B352" s="2">
         <v>999968</v>
@@ -9394,12 +9394,12 @@
         <v>5</v>
       </c>
       <c r="E352" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353">
-        <v>99996805003</v>
+        <v>99996805002</v>
       </c>
       <c r="B353" s="2">
         <v>999968</v>
@@ -9411,12 +9411,12 @@
         <v>5</v>
       </c>
       <c r="E353" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354">
-        <v>99996805004</v>
+        <v>99996805003</v>
       </c>
       <c r="B354" s="2">
         <v>999968</v>
@@ -9428,15 +9428,15 @@
         <v>5</v>
       </c>
       <c r="E354" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355">
-        <v>99997905001</v>
-      </c>
-      <c r="B355">
-        <v>999979</v>
+        <v>99996805004</v>
+      </c>
+      <c r="B355" s="2">
+        <v>999968</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -9445,12 +9445,12 @@
         <v>5</v>
       </c>
       <c r="E355" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356">
-        <v>99997905002</v>
+        <v>99997905001</v>
       </c>
       <c r="B356">
         <v>999979</v>
@@ -9462,12 +9462,12 @@
         <v>5</v>
       </c>
       <c r="E356" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357">
-        <v>99997905003</v>
+        <v>99997905002</v>
       </c>
       <c r="B357">
         <v>999979</v>
@@ -9479,12 +9479,12 @@
         <v>5</v>
       </c>
       <c r="E357" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <v>99997905004</v>
+        <v>99997905003</v>
       </c>
       <c r="B358">
         <v>999979</v>
@@ -9496,12 +9496,12 @@
         <v>5</v>
       </c>
       <c r="E358" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359">
-        <v>99997905005</v>
+        <v>99997905004</v>
       </c>
       <c r="B359">
         <v>999979</v>
@@ -9513,29 +9513,29 @@
         <v>5</v>
       </c>
       <c r="E359" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360">
+        <v>99997905005</v>
+      </c>
+      <c r="B360">
+        <v>999979</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="E360" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="2">
-        <v>99997405001</v>
-      </c>
-      <c r="B360" s="2">
-        <v>999974</v>
-      </c>
-      <c r="C360">
-        <v>1</v>
-      </c>
-      <c r="D360">
-        <v>5</v>
-      </c>
-      <c r="E360" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2">
-        <v>99997405002</v>
+        <v>99997405001</v>
       </c>
       <c r="B361" s="2">
         <v>999974</v>
@@ -9547,12 +9547,12 @@
         <v>5</v>
       </c>
       <c r="E361" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2">
-        <v>99997405003</v>
+        <v>99997405002</v>
       </c>
       <c r="B362" s="2">
         <v>999974</v>
@@ -9564,12 +9564,12 @@
         <v>5</v>
       </c>
       <c r="E362" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="2">
-        <v>99997405004</v>
+        <v>99997405003</v>
       </c>
       <c r="B363" s="2">
         <v>999974</v>
@@ -9581,29 +9581,29 @@
         <v>5</v>
       </c>
       <c r="E363" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B364" s="2">
+        <v>999974</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>5</v>
+      </c>
+      <c r="E364" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="A364">
-        <v>99998605001</v>
-      </c>
-      <c r="B364">
-        <v>999986</v>
-      </c>
-      <c r="C364">
-        <v>1</v>
-      </c>
-      <c r="D364">
-        <v>5</v>
-      </c>
-      <c r="E364" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365">
-        <v>99998605002</v>
+        <v>99998605001</v>
       </c>
       <c r="B365">
         <v>999986</v>
@@ -9615,12 +9615,12 @@
         <v>5</v>
       </c>
       <c r="E365" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366">
-        <v>99998605003</v>
+        <v>99998605002</v>
       </c>
       <c r="B366">
         <v>999986</v>
@@ -9632,12 +9632,12 @@
         <v>5</v>
       </c>
       <c r="E366" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367">
-        <v>99998605004</v>
+        <v>99998605003</v>
       </c>
       <c r="B367">
         <v>999986</v>
@@ -9649,15 +9649,15 @@
         <v>5</v>
       </c>
       <c r="E367" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368">
-        <v>99998705001</v>
+        <v>99998605004</v>
       </c>
       <c r="B368">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -9666,12 +9666,12 @@
         <v>5</v>
       </c>
       <c r="E368" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369">
-        <v>99998705002</v>
+        <v>99998705001</v>
       </c>
       <c r="B369">
         <v>999987</v>
@@ -9683,12 +9683,12 @@
         <v>5</v>
       </c>
       <c r="E369" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370">
-        <v>99998705003</v>
+        <v>99998705002</v>
       </c>
       <c r="B370">
         <v>999987</v>
@@ -9700,12 +9700,12 @@
         <v>5</v>
       </c>
       <c r="E370" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371">
-        <v>99998705004</v>
+        <v>99998705003</v>
       </c>
       <c r="B371">
         <v>999987</v>
@@ -9717,46 +9717,46 @@
         <v>5</v>
       </c>
       <c r="E371" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
+        <v>99998705004</v>
+      </c>
+      <c r="B372">
+        <v>999987</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>5</v>
+      </c>
+      <c r="E372" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373">
         <v>99998705005</v>
       </c>
-      <c r="B372">
+      <c r="B373">
         <v>999988</v>
       </c>
-      <c r="C372">
-        <v>1</v>
-      </c>
-      <c r="D372">
-        <v>5</v>
-      </c>
-      <c r="E372" t="s">
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>5</v>
+      </c>
+      <c r="E373" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="373" ht="12" customHeight="1" spans="1:5">
-      <c r="A373" s="2">
+    <row r="374" ht="12" customHeight="1" spans="1:5">
+      <c r="A374" s="2">
         <v>99998905001</v>
-      </c>
-      <c r="B373">
-        <v>999989</v>
-      </c>
-      <c r="C373">
-        <v>1</v>
-      </c>
-      <c r="D373">
-        <v>5</v>
-      </c>
-      <c r="E373" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="A374" s="2">
-        <v>99998905002</v>
       </c>
       <c r="B374">
         <v>999989</v>
@@ -9768,12 +9768,12 @@
         <v>5</v>
       </c>
       <c r="E374" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2">
-        <v>99998905003</v>
+        <v>99998905002</v>
       </c>
       <c r="B375">
         <v>999989</v>
@@ -9785,12 +9785,12 @@
         <v>5</v>
       </c>
       <c r="E375" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2">
-        <v>99998905004</v>
+        <v>99998905003</v>
       </c>
       <c r="B376">
         <v>999989</v>
@@ -9802,15 +9802,15 @@
         <v>5</v>
       </c>
       <c r="E376" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2">
-        <v>99999505001</v>
-      </c>
-      <c r="B377" s="2">
-        <v>999995</v>
+        <v>99998905004</v>
+      </c>
+      <c r="B377">
+        <v>999989</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -9819,12 +9819,12 @@
         <v>5</v>
       </c>
       <c r="E377" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2">
-        <v>99999505002</v>
+        <v>99999505001</v>
       </c>
       <c r="B378" s="2">
         <v>999995</v>
@@ -9836,12 +9836,12 @@
         <v>5</v>
       </c>
       <c r="E378" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2">
-        <v>99999505003</v>
+        <v>99999505002</v>
       </c>
       <c r="B379" s="2">
         <v>999995</v>
@@ -9853,12 +9853,12 @@
         <v>5</v>
       </c>
       <c r="E379" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2">
-        <v>99999505004</v>
+        <v>99999505003</v>
       </c>
       <c r="B380" s="2">
         <v>999995</v>
@@ -9870,12 +9870,12 @@
         <v>5</v>
       </c>
       <c r="E380" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2">
-        <v>99999505005</v>
+        <v>99999505004</v>
       </c>
       <c r="B381" s="2">
         <v>999995</v>
@@ -9887,29 +9887,29 @@
         <v>5</v>
       </c>
       <c r="E381" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>99999505005</v>
+      </c>
+      <c r="B382" s="2">
+        <v>999995</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>5</v>
+      </c>
+      <c r="E382" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1" spans="1:5">
-      <c r="A382" s="2">
-        <v>99999605001</v>
-      </c>
-      <c r="B382">
-        <v>999996</v>
-      </c>
-      <c r="C382">
-        <v>1</v>
-      </c>
-      <c r="D382">
-        <v>5</v>
-      </c>
-      <c r="E382" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="383" ht="15" customHeight="1" spans="1:5">
       <c r="A383" s="2">
-        <v>99999605002</v>
+        <v>99999605001</v>
       </c>
       <c r="B383">
         <v>999996</v>
@@ -9921,12 +9921,12 @@
         <v>5</v>
       </c>
       <c r="E383" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="384" ht="15" customHeight="1" spans="1:5">
       <c r="A384" s="2">
-        <v>99999605003</v>
+        <v>99999605002</v>
       </c>
       <c r="B384">
         <v>999996</v>
@@ -9938,12 +9938,12 @@
         <v>5</v>
       </c>
       <c r="E384" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:5">
       <c r="A385" s="2">
-        <v>99999605004</v>
+        <v>99999605003</v>
       </c>
       <c r="B385">
         <v>999996</v>
@@ -9955,12 +9955,12 @@
         <v>5</v>
       </c>
       <c r="E385" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:5">
       <c r="A386" s="2">
-        <v>99999605005</v>
+        <v>99999605004</v>
       </c>
       <c r="B386">
         <v>999996</v>
@@ -9972,29 +9972,29 @@
         <v>5</v>
       </c>
       <c r="E386" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1" spans="1:5">
+      <c r="A387" s="2">
+        <v>99999605005</v>
+      </c>
+      <c r="B387">
+        <v>999996</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>5</v>
+      </c>
+      <c r="E387" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="387" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A387" s="2">
+    <row r="388" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A388" s="2">
         <v>99999905001</v>
-      </c>
-      <c r="B387">
-        <v>999999</v>
-      </c>
-      <c r="C387">
-        <v>1</v>
-      </c>
-      <c r="D387">
-        <v>5</v>
-      </c>
-      <c r="E387" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1" spans="1:5">
-      <c r="A388" s="2">
-        <v>99999905002</v>
       </c>
       <c r="B388">
         <v>999999</v>
@@ -10006,12 +10006,12 @@
         <v>5</v>
       </c>
       <c r="E388" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="389" ht="15" customHeight="1" spans="1:5">
       <c r="A389" s="2">
-        <v>99999905003</v>
+        <v>99999905002</v>
       </c>
       <c r="B389">
         <v>999999</v>
@@ -10023,12 +10023,12 @@
         <v>5</v>
       </c>
       <c r="E389" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="390" ht="15" customHeight="1" spans="1:5">
       <c r="A390" s="2">
-        <v>99999905004</v>
+        <v>99999905003</v>
       </c>
       <c r="B390">
         <v>999999</v>
@@ -10040,12 +10040,12 @@
         <v>5</v>
       </c>
       <c r="E390" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:5">
       <c r="A391" s="2">
-        <v>99999905005</v>
+        <v>99999905004</v>
       </c>
       <c r="B391">
         <v>999999</v>
@@ -10057,11 +10057,27 @@
         <v>5</v>
       </c>
       <c r="E391" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1" spans="1:5">
+      <c r="A392" s="2">
+        <v>99999905005</v>
+      </c>
+      <c r="B392">
+        <v>999999</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>5</v>
+      </c>
+      <c r="E392" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="424" ht="12" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
     <row r="425" ht="12" customHeight="1"/>
     <row r="426" ht="12" customHeight="1"/>
     <row r="427" ht="12" customHeight="1"/>
@@ -10070,8 +10086,9 @@
     <row r="430" ht="12" customHeight="1"/>
     <row r="431" ht="12" customHeight="1"/>
     <row r="432" ht="12" customHeight="1"/>
+    <row r="433" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G391" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G392" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:G36">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_creature_model_info[生物模型详情信息] .xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureModelInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$G$392</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CreatureModelInfo!$A$3:$G$393</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="456">
   <si>
     <t>id</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>骷髅-武器-黑暗法杖</t>
+  </si>
+  <si>
+    <t>Body/Body_0</t>
+  </si>
+  <si>
+    <t>史莱姆-身体-0</t>
   </si>
   <si>
     <t>史莱姆-身体-1</t>
@@ -2365,14 +2371,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G433"/>
+  <dimension ref="A1:G434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2382,7 +2388,7 @@
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
@@ -4704,7 +4710,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>3040001</v>
+        <v>3040000</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -4716,17 +4722,20 @@
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
+        <v>179</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>3040002</v>
-      </c>
-      <c r="B117" s="1">
+        <v>3040001</v>
+      </c>
+      <c r="B117">
         <v>3</v>
       </c>
       <c r="C117">
@@ -4736,17 +4745,17 @@
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G117" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>3040003</v>
-      </c>
-      <c r="B118">
+        <v>3040002</v>
+      </c>
+      <c r="B118" s="1">
         <v>3</v>
       </c>
       <c r="C118">
@@ -4756,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
         <v>182</v>
@@ -4764,9 +4773,9 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>3040004</v>
-      </c>
-      <c r="B119" s="1">
+        <v>3040003</v>
+      </c>
+      <c r="B119">
         <v>3</v>
       </c>
       <c r="C119">
@@ -4784,9 +4793,9 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>3040005</v>
-      </c>
-      <c r="B120">
+        <v>3040004</v>
+      </c>
+      <c r="B120" s="1">
         <v>3</v>
       </c>
       <c r="C120">
@@ -4804,9 +4813,9 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>3040006</v>
-      </c>
-      <c r="B121" s="1">
+        <v>3040005</v>
+      </c>
+      <c r="B121">
         <v>3</v>
       </c>
       <c r="C121">
@@ -4824,9 +4833,9 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>3040007</v>
-      </c>
-      <c r="B122">
+        <v>3040006</v>
+      </c>
+      <c r="B122" s="1">
         <v>3</v>
       </c>
       <c r="C122">
@@ -4844,9 +4853,9 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>3040008</v>
-      </c>
-      <c r="B123" s="1">
+        <v>3040007</v>
+      </c>
+      <c r="B123">
         <v>3</v>
       </c>
       <c r="C123">
@@ -4864,9 +4873,9 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>3040009</v>
-      </c>
-      <c r="B124">
+        <v>3040008</v>
+      </c>
+      <c r="B124" s="1">
         <v>3</v>
       </c>
       <c r="C124">
@@ -4884,9 +4893,9 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>3040010</v>
-      </c>
-      <c r="B125" s="1">
+        <v>3040009</v>
+      </c>
+      <c r="B125">
         <v>3</v>
       </c>
       <c r="C125">
@@ -4904,29 +4913,29 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>3050001</v>
-      </c>
-      <c r="B126">
+        <v>3040010</v>
+      </c>
+      <c r="B126" s="1">
         <v>3</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="G126" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>3050002</v>
-      </c>
-      <c r="B127" s="1">
+        <v>3050001</v>
+      </c>
+      <c r="B127">
         <v>3</v>
       </c>
       <c r="C127">
@@ -4936,17 +4945,17 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G127" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>3050003</v>
-      </c>
-      <c r="B128">
+        <v>3050002</v>
+      </c>
+      <c r="B128" s="1">
         <v>3</v>
       </c>
       <c r="C128">
@@ -4956,17 +4965,17 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>3050004</v>
-      </c>
-      <c r="B129" s="1">
+        <v>3050003</v>
+      </c>
+      <c r="B129">
         <v>3</v>
       </c>
       <c r="C129">
@@ -4976,17 +4985,17 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>3050005</v>
-      </c>
-      <c r="B130">
+        <v>3050004</v>
+      </c>
+      <c r="B130" s="1">
         <v>3</v>
       </c>
       <c r="C130">
@@ -4996,17 +5005,17 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>3050006</v>
-      </c>
-      <c r="B131" s="1">
+        <v>3050005</v>
+      </c>
+      <c r="B131">
         <v>3</v>
       </c>
       <c r="C131">
@@ -5016,17 +5025,17 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>3050007</v>
-      </c>
-      <c r="B132">
+        <v>3050006</v>
+      </c>
+      <c r="B132" s="1">
         <v>3</v>
       </c>
       <c r="C132">
@@ -5036,17 +5045,17 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>3050008</v>
-      </c>
-      <c r="B133" s="1">
+        <v>3050007</v>
+      </c>
+      <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
@@ -5056,17 +5065,17 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>3050009</v>
-      </c>
-      <c r="B134">
+        <v>3050008</v>
+      </c>
+      <c r="B134" s="1">
         <v>3</v>
       </c>
       <c r="C134">
@@ -5076,17 +5085,17 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>3050010</v>
-      </c>
-      <c r="B135" s="1">
+        <v>3050009</v>
+      </c>
+      <c r="B135">
         <v>3</v>
       </c>
       <c r="C135">
@@ -5096,15 +5105,15 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>3020001</v>
+        <v>3050010</v>
       </c>
       <c r="B136" s="1">
         <v>3</v>
@@ -5113,20 +5122,20 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>3020002</v>
-      </c>
-      <c r="B137">
+        <v>3020001</v>
+      </c>
+      <c r="B137" s="1">
         <v>3</v>
       </c>
       <c r="C137">
@@ -5136,17 +5145,17 @@
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>3020003</v>
-      </c>
-      <c r="B138" s="1">
+        <v>3020002</v>
+      </c>
+      <c r="B138">
         <v>3</v>
       </c>
       <c r="C138">
@@ -5156,17 +5165,17 @@
         <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G138" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>3020004</v>
-      </c>
-      <c r="B139">
+        <v>3020003</v>
+      </c>
+      <c r="B139" s="1">
         <v>3</v>
       </c>
       <c r="C139">
@@ -5176,17 +5185,17 @@
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G139" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>3020005</v>
-      </c>
-      <c r="B140" s="1">
+        <v>3020004</v>
+      </c>
+      <c r="B140">
         <v>3</v>
       </c>
       <c r="C140">
@@ -5196,17 +5205,17 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G140" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>3020006</v>
-      </c>
-      <c r="B141">
+        <v>3020005</v>
+      </c>
+      <c r="B141" s="1">
         <v>3</v>
       </c>
       <c r="C141">
@@ -5216,17 +5225,17 @@
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G141" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>3020007</v>
-      </c>
-      <c r="B142" s="1">
+        <v>3020006</v>
+      </c>
+      <c r="B142">
         <v>3</v>
       </c>
       <c r="C142">
@@ -5236,17 +5245,17 @@
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G142" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>3020008</v>
-      </c>
-      <c r="B143">
+        <v>3020007</v>
+      </c>
+      <c r="B143" s="1">
         <v>3</v>
       </c>
       <c r="C143">
@@ -5256,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="G143" t="s">
         <v>215</v>
@@ -5264,9 +5273,9 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>3020009</v>
-      </c>
-      <c r="B144" s="1">
+        <v>3020008</v>
+      </c>
+      <c r="B144">
         <v>3</v>
       </c>
       <c r="C144">
@@ -5284,9 +5293,9 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>3020010</v>
-      </c>
-      <c r="B145">
+        <v>3020009</v>
+      </c>
+      <c r="B145" s="1">
         <v>3</v>
       </c>
       <c r="C145">
@@ -5304,9 +5313,9 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>3020011</v>
-      </c>
-      <c r="B146" s="1">
+        <v>3020010</v>
+      </c>
+      <c r="B146">
         <v>3</v>
       </c>
       <c r="C146">
@@ -5324,9 +5333,9 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>3020012</v>
-      </c>
-      <c r="B147">
+        <v>3020011</v>
+      </c>
+      <c r="B147" s="1">
         <v>3</v>
       </c>
       <c r="C147">
@@ -5344,9 +5353,9 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>3020013</v>
-      </c>
-      <c r="B148" s="1">
+        <v>3020012</v>
+      </c>
+      <c r="B148">
         <v>3</v>
       </c>
       <c r="C148">
@@ -5364,9 +5373,9 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>3020014</v>
-      </c>
-      <c r="B149">
+        <v>3020013</v>
+      </c>
+      <c r="B149" s="1">
         <v>3</v>
       </c>
       <c r="C149">
@@ -5384,9 +5393,9 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>3020015</v>
-      </c>
-      <c r="B150" s="1">
+        <v>3020014</v>
+      </c>
+      <c r="B150">
         <v>3</v>
       </c>
       <c r="C150">
@@ -5404,9 +5413,9 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>3020016</v>
-      </c>
-      <c r="B151">
+        <v>3020015</v>
+      </c>
+      <c r="B151" s="1">
         <v>3</v>
       </c>
       <c r="C151">
@@ -5424,9 +5433,9 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>3020017</v>
-      </c>
-      <c r="B152" s="1">
+        <v>3020016</v>
+      </c>
+      <c r="B152">
         <v>3</v>
       </c>
       <c r="C152">
@@ -5444,9 +5453,9 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>3020018</v>
-      </c>
-      <c r="B153">
+        <v>3020017</v>
+      </c>
+      <c r="B153" s="1">
         <v>3</v>
       </c>
       <c r="C153">
@@ -5464,9 +5473,9 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>3020019</v>
-      </c>
-      <c r="B154" s="1">
+        <v>3020018</v>
+      </c>
+      <c r="B154">
         <v>3</v>
       </c>
       <c r="C154">
@@ -5484,9 +5493,9 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>3020020</v>
-      </c>
-      <c r="B155">
+        <v>3020019</v>
+      </c>
+      <c r="B155" s="1">
         <v>3</v>
       </c>
       <c r="C155">
@@ -5504,49 +5513,49 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
+        <v>3020020</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>240</v>
+      </c>
+      <c r="G156" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
         <v>4000001</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B157" s="1">
         <v>4</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
         <v>17</v>
       </c>
-      <c r="G156" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="157" customFormat="1" spans="1:7">
-      <c r="A157">
+      <c r="G157" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" customFormat="1" spans="1:7">
+      <c r="A158">
         <v>4030001</v>
       </c>
-      <c r="B157">
-        <v>4</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>3</v>
-      </c>
-      <c r="E157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158">
-        <v>4030002</v>
-      </c>
-      <c r="B158" s="1">
+      <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
@@ -5556,17 +5565,17 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>4030003</v>
-      </c>
-      <c r="B159">
+        <v>4030002</v>
+      </c>
+      <c r="B159" s="1">
         <v>4</v>
       </c>
       <c r="C159">
@@ -5576,17 +5585,17 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G159" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>4030004</v>
-      </c>
-      <c r="B160" s="1">
+        <v>4030003</v>
+      </c>
+      <c r="B160">
         <v>4</v>
       </c>
       <c r="C160">
@@ -5596,7 +5605,7 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="G160" t="s">
         <v>245</v>
@@ -5604,9 +5613,9 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>4030005</v>
-      </c>
-      <c r="B161">
+        <v>4030004</v>
+      </c>
+      <c r="B161" s="1">
         <v>4</v>
       </c>
       <c r="C161">
@@ -5624,7 +5633,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>4030006</v>
+        <v>4030005</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -5644,9 +5653,9 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>4030007</v>
-      </c>
-      <c r="B163" s="1">
+        <v>4030006</v>
+      </c>
+      <c r="B163">
         <v>4</v>
       </c>
       <c r="C163">
@@ -5664,9 +5673,9 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>4030008</v>
-      </c>
-      <c r="B164">
+        <v>4030007</v>
+      </c>
+      <c r="B164" s="1">
         <v>4</v>
       </c>
       <c r="C164">
@@ -5684,7 +5693,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>4030009</v>
+        <v>4030008</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -5704,9 +5713,9 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>4030010</v>
-      </c>
-      <c r="B166" s="1">
+        <v>4030009</v>
+      </c>
+      <c r="B166">
         <v>4</v>
       </c>
       <c r="C166">
@@ -5724,29 +5733,29 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>4050001</v>
-      </c>
-      <c r="B167">
+        <v>4030010</v>
+      </c>
+      <c r="B167" s="1">
         <v>4</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>4050002</v>
-      </c>
-      <c r="B168" s="1">
+        <v>4050001</v>
+      </c>
+      <c r="B168">
         <v>4</v>
       </c>
       <c r="C168">
@@ -5756,15 +5765,15 @@
         <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G168" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>4050003</v>
+        <v>4050002</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -5776,15 +5785,15 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>4050004</v>
+        <v>4050003</v>
       </c>
       <c r="B170" s="1">
         <v>4</v>
@@ -5796,15 +5805,15 @@
         <v>5</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>4050005</v>
+        <v>4050004</v>
       </c>
       <c r="B171" s="1">
         <v>4</v>
@@ -5816,15 +5825,15 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>4050006</v>
+        <v>4050005</v>
       </c>
       <c r="B172" s="1">
         <v>4</v>
@@ -5836,15 +5845,15 @@
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>4050007</v>
+        <v>4050006</v>
       </c>
       <c r="B173" s="1">
         <v>4</v>
@@ -5856,15 +5865,15 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>4050008</v>
+        <v>4050007</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -5876,15 +5885,15 @@
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>4050009</v>
+        <v>4050008</v>
       </c>
       <c r="B175" s="1">
         <v>4</v>
@@ -5896,15 +5905,15 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>4050010</v>
+        <v>4050009</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -5916,15 +5925,15 @@
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>4060001</v>
+        <v>4050010</v>
       </c>
       <c r="B177" s="1">
         <v>4</v>
@@ -5933,18 +5942,18 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>4060002</v>
+        <v>4060001</v>
       </c>
       <c r="B178" s="1">
         <v>4</v>
@@ -5956,15 +5965,15 @@
         <v>6</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>4060003</v>
+        <v>4060002</v>
       </c>
       <c r="B179" s="1">
         <v>4</v>
@@ -5976,15 +5985,15 @@
         <v>6</v>
       </c>
       <c r="E179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>4060004</v>
+        <v>4060003</v>
       </c>
       <c r="B180" s="1">
         <v>4</v>
@@ -5996,15 +6005,15 @@
         <v>6</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>4060005</v>
+        <v>4060004</v>
       </c>
       <c r="B181" s="1">
         <v>4</v>
@@ -6016,15 +6025,15 @@
         <v>6</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>4060006</v>
+        <v>4060005</v>
       </c>
       <c r="B182" s="1">
         <v>4</v>
@@ -6036,7 +6045,7 @@
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
         <v>274</v>
@@ -6044,7 +6053,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>4060007</v>
+        <v>4060006</v>
       </c>
       <c r="B183" s="1">
         <v>4</v>
@@ -6064,7 +6073,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>4060008</v>
+        <v>4060007</v>
       </c>
       <c r="B184" s="1">
         <v>4</v>
@@ -6084,7 +6093,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>4060009</v>
+        <v>4060008</v>
       </c>
       <c r="B185" s="1">
         <v>4</v>
@@ -6104,7 +6113,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>4060010</v>
+        <v>4060009</v>
       </c>
       <c r="B186" s="1">
         <v>4</v>
@@ -6122,9 +6131,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="187" customFormat="1" spans="1:7">
+    <row r="187" spans="1:7">
       <c r="A187">
-        <v>4070001</v>
+        <v>4060010</v>
       </c>
       <c r="B187" s="1">
         <v>4</v>
@@ -6133,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E187" t="s">
         <v>283</v>
@@ -6144,7 +6153,7 @@
     </row>
     <row r="188" customFormat="1" spans="1:7">
       <c r="A188">
-        <v>4070002</v>
+        <v>4070001</v>
       </c>
       <c r="B188" s="1">
         <v>4</v>
@@ -6164,7 +6173,7 @@
     </row>
     <row r="189" customFormat="1" spans="1:7">
       <c r="A189">
-        <v>4070003</v>
+        <v>4070002</v>
       </c>
       <c r="B189" s="1">
         <v>4</v>
@@ -6184,7 +6193,7 @@
     </row>
     <row r="190" customFormat="1" spans="1:7">
       <c r="A190">
-        <v>4070004</v>
+        <v>4070003</v>
       </c>
       <c r="B190" s="1">
         <v>4</v>
@@ -6204,7 +6213,7 @@
     </row>
     <row r="191" customFormat="1" spans="1:7">
       <c r="A191">
-        <v>4070005</v>
+        <v>4070004</v>
       </c>
       <c r="B191" s="1">
         <v>4</v>
@@ -6224,7 +6233,7 @@
     </row>
     <row r="192" customFormat="1" spans="1:7">
       <c r="A192">
-        <v>4070006</v>
+        <v>4070005</v>
       </c>
       <c r="B192" s="1">
         <v>4</v>
@@ -6244,7 +6253,7 @@
     </row>
     <row r="193" customFormat="1" spans="1:7">
       <c r="A193">
-        <v>4070007</v>
+        <v>4070006</v>
       </c>
       <c r="B193" s="1">
         <v>4</v>
@@ -6264,7 +6273,7 @@
     </row>
     <row r="194" customFormat="1" spans="1:7">
       <c r="A194">
-        <v>4070008</v>
+        <v>4070007</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
@@ -6284,7 +6293,7 @@
     </row>
     <row r="195" customFormat="1" spans="1:7">
       <c r="A195">
-        <v>4070009</v>
+        <v>4070008</v>
       </c>
       <c r="B195" s="1">
         <v>4</v>
@@ -6304,7 +6313,7 @@
     </row>
     <row r="196" customFormat="1" spans="1:7">
       <c r="A196">
-        <v>4070010</v>
+        <v>4070009</v>
       </c>
       <c r="B196" s="1">
         <v>4</v>
@@ -6324,7 +6333,7 @@
     </row>
     <row r="197" customFormat="1" spans="1:7">
       <c r="A197">
-        <v>4080001</v>
+        <v>4070010</v>
       </c>
       <c r="B197" s="1">
         <v>4</v>
@@ -6333,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E197" t="s">
         <v>303</v>
@@ -6344,7 +6353,7 @@
     </row>
     <row r="198" customFormat="1" spans="1:7">
       <c r="A198">
-        <v>4080002</v>
+        <v>4080001</v>
       </c>
       <c r="B198" s="1">
         <v>4</v>
@@ -6364,7 +6373,7 @@
     </row>
     <row r="199" customFormat="1" spans="1:7">
       <c r="A199">
-        <v>4080003</v>
+        <v>4080002</v>
       </c>
       <c r="B199" s="1">
         <v>4</v>
@@ -6384,7 +6393,7 @@
     </row>
     <row r="200" customFormat="1" spans="1:7">
       <c r="A200">
-        <v>4080004</v>
+        <v>4080003</v>
       </c>
       <c r="B200" s="1">
         <v>4</v>
@@ -6404,7 +6413,7 @@
     </row>
     <row r="201" customFormat="1" spans="1:7">
       <c r="A201">
-        <v>4500003</v>
+        <v>4080004</v>
       </c>
       <c r="B201" s="1">
         <v>4</v>
@@ -6413,18 +6422,18 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E201" t="s">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="G201" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="202" customFormat="1" spans="1:7">
       <c r="A202">
-        <v>4510001</v>
+        <v>4500003</v>
       </c>
       <c r="B202" s="1">
         <v>4</v>
@@ -6433,18 +6442,18 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E202" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G202" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="203" customFormat="1" spans="1:7">
       <c r="A203">
-        <v>4510002</v>
+        <v>4510001</v>
       </c>
       <c r="B203" s="1">
         <v>4</v>
@@ -6456,15 +6465,15 @@
         <v>51</v>
       </c>
       <c r="E203" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G203" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>4510003</v>
+        <v>4510002</v>
       </c>
       <c r="B204" s="1">
         <v>4</v>
@@ -6476,15 +6485,15 @@
         <v>51</v>
       </c>
       <c r="E204" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G204" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>4510004</v>
+        <v>4510003</v>
       </c>
       <c r="B205" s="1">
         <v>4</v>
@@ -6496,15 +6505,15 @@
         <v>51</v>
       </c>
       <c r="E205" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G205" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>4510005</v>
+        <v>4510004</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -6516,15 +6525,15 @@
         <v>51</v>
       </c>
       <c r="E206" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="G206" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>4510006</v>
+        <v>4510005</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
@@ -6536,15 +6545,15 @@
         <v>51</v>
       </c>
       <c r="E207" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G207" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>4520001</v>
+        <v>4510006</v>
       </c>
       <c r="B208" s="1">
         <v>4</v>
@@ -6553,18 +6562,18 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E208" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="G208" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>4520002</v>
+        <v>4520001</v>
       </c>
       <c r="B209" s="1">
         <v>4</v>
@@ -6576,15 +6585,15 @@
         <v>52</v>
       </c>
       <c r="E209" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G209" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>4520003</v>
+        <v>4520002</v>
       </c>
       <c r="B210" s="1">
         <v>4</v>
@@ -6596,15 +6605,15 @@
         <v>52</v>
       </c>
       <c r="E210" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G210" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>4520004</v>
+        <v>4520003</v>
       </c>
       <c r="B211" s="1">
         <v>4</v>
@@ -6616,15 +6625,15 @@
         <v>52</v>
       </c>
       <c r="E211" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G211" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>4900001</v>
+        <v>4520004</v>
       </c>
       <c r="B212" s="1">
         <v>4</v>
@@ -6633,18 +6642,18 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E212" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G212" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>4900002</v>
+        <v>4900001</v>
       </c>
       <c r="B213" s="1">
         <v>4</v>
@@ -6656,15 +6665,15 @@
         <v>90</v>
       </c>
       <c r="E213" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G213" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>4900003</v>
+        <v>4900002</v>
       </c>
       <c r="B214" s="1">
         <v>4</v>
@@ -6676,15 +6685,15 @@
         <v>90</v>
       </c>
       <c r="E214" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G214" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>4900004</v>
+        <v>4900003</v>
       </c>
       <c r="B215" s="1">
         <v>4</v>
@@ -6696,15 +6705,15 @@
         <v>90</v>
       </c>
       <c r="E215" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G215" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>4900005</v>
+        <v>4900004</v>
       </c>
       <c r="B216" s="1">
         <v>4</v>
@@ -6716,35 +6725,35 @@
         <v>90</v>
       </c>
       <c r="E216" t="s">
+        <v>73</v>
+      </c>
+      <c r="G216" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>4900005</v>
+      </c>
+      <c r="B217" s="1">
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>90</v>
+      </c>
+      <c r="E217" t="s">
         <v>74</v>
       </c>
-      <c r="G216" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="217" customFormat="1" spans="1:7">
-      <c r="A217">
-        <v>5000001</v>
-      </c>
-      <c r="B217">
-        <v>5</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="D217">
-        <v>0</v>
-      </c>
-      <c r="E217" t="s">
-        <v>17</v>
-      </c>
       <c r="G217" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" customFormat="1" spans="1:7">
       <c r="A218">
-        <v>5050001</v>
+        <v>5000001</v>
       </c>
       <c r="B218">
         <v>5</v>
@@ -6753,18 +6762,18 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G218" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="219" customFormat="1" spans="1:7">
       <c r="A219">
-        <v>5050002</v>
+        <v>5050001</v>
       </c>
       <c r="B219">
         <v>5</v>
@@ -6776,15 +6785,15 @@
         <v>5</v>
       </c>
       <c r="E219" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G219" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="220" customFormat="1" spans="1:7">
       <c r="A220">
-        <v>5050003</v>
+        <v>5050002</v>
       </c>
       <c r="B220">
         <v>5</v>
@@ -6796,15 +6805,15 @@
         <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="221" customFormat="1" spans="1:7">
       <c r="A221">
-        <v>5050004</v>
+        <v>5050003</v>
       </c>
       <c r="B221">
         <v>5</v>
@@ -6816,15 +6825,15 @@
         <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="222" customFormat="1" spans="1:7">
       <c r="A222">
-        <v>5050005</v>
+        <v>5050004</v>
       </c>
       <c r="B222">
         <v>5</v>
@@ -6836,15 +6845,15 @@
         <v>5</v>
       </c>
       <c r="E222" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="223" customFormat="1" spans="1:7">
       <c r="A223">
-        <v>5050006</v>
+        <v>5050005</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -6856,15 +6865,15 @@
         <v>5</v>
       </c>
       <c r="E223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="224" customFormat="1" spans="1:7">
       <c r="A224">
-        <v>5050007</v>
+        <v>5050006</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -6876,15 +6885,15 @@
         <v>5</v>
       </c>
       <c r="E224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="225" customFormat="1" spans="1:7">
       <c r="A225">
-        <v>5050008</v>
+        <v>5050007</v>
       </c>
       <c r="B225">
         <v>5</v>
@@ -6896,15 +6905,15 @@
         <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="226" customFormat="1" spans="1:7">
       <c r="A226">
-        <v>5050009</v>
+        <v>5050008</v>
       </c>
       <c r="B226">
         <v>5</v>
@@ -6916,15 +6925,15 @@
         <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="227" customFormat="1" spans="1:7">
       <c r="A227">
-        <v>5050010</v>
+        <v>5050009</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -6936,15 +6945,15 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G227" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="228" customFormat="1" spans="1:7">
       <c r="A228">
-        <v>5050011</v>
+        <v>5050010</v>
       </c>
       <c r="B228">
         <v>5</v>
@@ -6956,15 +6965,15 @@
         <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="229" customFormat="1" spans="1:7">
       <c r="A229">
-        <v>5070001</v>
+        <v>5050011</v>
       </c>
       <c r="B229">
         <v>5</v>
@@ -6973,18 +6982,18 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="G229" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
     </row>
     <row r="230" customFormat="1" spans="1:7">
       <c r="A230">
-        <v>5070002</v>
+        <v>5070001</v>
       </c>
       <c r="B230">
         <v>5</v>
@@ -7004,7 +7013,7 @@
     </row>
     <row r="231" customFormat="1" spans="1:7">
       <c r="A231">
-        <v>5070003</v>
+        <v>5070002</v>
       </c>
       <c r="B231">
         <v>5</v>
@@ -7024,7 +7033,7 @@
     </row>
     <row r="232" customFormat="1" spans="1:7">
       <c r="A232">
-        <v>5070004</v>
+        <v>5070003</v>
       </c>
       <c r="B232">
         <v>5</v>
@@ -7044,7 +7053,7 @@
     </row>
     <row r="233" customFormat="1" spans="1:7">
       <c r="A233">
-        <v>5070005</v>
+        <v>5070004</v>
       </c>
       <c r="B233">
         <v>5</v>
@@ -7064,7 +7073,7 @@
     </row>
     <row r="234" customFormat="1" spans="1:7">
       <c r="A234">
-        <v>5090001</v>
+        <v>5070005</v>
       </c>
       <c r="B234">
         <v>5</v>
@@ -7073,18 +7082,18 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="G234" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="235" customFormat="1" spans="1:7">
       <c r="A235">
-        <v>5090002</v>
+        <v>5090001</v>
       </c>
       <c r="B235">
         <v>5</v>
@@ -7104,7 +7113,7 @@
     </row>
     <row r="236" customFormat="1" spans="1:7">
       <c r="A236">
-        <v>5090003</v>
+        <v>5090002</v>
       </c>
       <c r="B236">
         <v>5</v>
@@ -7124,7 +7133,7 @@
     </row>
     <row r="237" customFormat="1" spans="1:7">
       <c r="A237">
-        <v>5090004</v>
+        <v>5090003</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -7144,7 +7153,7 @@
     </row>
     <row r="238" customFormat="1" spans="1:7">
       <c r="A238">
-        <v>5090005</v>
+        <v>5090004</v>
       </c>
       <c r="B238">
         <v>5</v>
@@ -7164,7 +7173,7 @@
     </row>
     <row r="239" customFormat="1" spans="1:7">
       <c r="A239">
-        <v>5500001</v>
+        <v>5090005</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -7173,18 +7182,18 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E239" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="G239" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="240" customFormat="1" spans="1:7">
       <c r="A240">
-        <v>5500002</v>
+        <v>5500001</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -7196,15 +7205,15 @@
         <v>50</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G240" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="241" customFormat="1" spans="1:7">
       <c r="A241">
-        <v>5500003</v>
+        <v>5500002</v>
       </c>
       <c r="B241">
         <v>5</v>
@@ -7216,15 +7225,15 @@
         <v>50</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G241" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="242" customFormat="1" spans="1:7">
       <c r="A242">
-        <v>5510001</v>
+        <v>5500003</v>
       </c>
       <c r="B242">
         <v>5</v>
@@ -7233,18 +7242,18 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E242" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G242" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="243" customFormat="1" spans="1:7">
       <c r="A243">
-        <v>5510002</v>
+        <v>5510001</v>
       </c>
       <c r="B243">
         <v>5</v>
@@ -7256,15 +7265,15 @@
         <v>51</v>
       </c>
       <c r="E243" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G243" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="244" customFormat="1" spans="1:7">
       <c r="A244">
-        <v>5510003</v>
+        <v>5510002</v>
       </c>
       <c r="B244">
         <v>5</v>
@@ -7276,15 +7285,15 @@
         <v>51</v>
       </c>
       <c r="E244" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G244" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="245" customFormat="1" spans="1:7">
       <c r="A245">
-        <v>5520001</v>
+        <v>5510003</v>
       </c>
       <c r="B245">
         <v>5</v>
@@ -7293,18 +7302,18 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E245" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G245" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="246" customFormat="1" spans="1:7">
       <c r="A246">
-        <v>5520002</v>
+        <v>5520001</v>
       </c>
       <c r="B246">
         <v>5</v>
@@ -7316,15 +7325,15 @@
         <v>52</v>
       </c>
       <c r="E246" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G246" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="247" customFormat="1" spans="1:7">
       <c r="A247">
-        <v>5910001</v>
+        <v>5520002</v>
       </c>
       <c r="B247">
         <v>5</v>
@@ -7333,18 +7342,18 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E247" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G247" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="248" customFormat="1" spans="1:7">
       <c r="A248">
-        <v>5910002</v>
+        <v>5910001</v>
       </c>
       <c r="B248">
         <v>5</v>
@@ -7356,15 +7365,15 @@
         <v>91</v>
       </c>
       <c r="E248" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="G248" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="249" customFormat="1" spans="1:7">
       <c r="A249">
-        <v>5910003</v>
+        <v>5910002</v>
       </c>
       <c r="B249">
         <v>5</v>
@@ -7376,35 +7385,35 @@
         <v>91</v>
       </c>
       <c r="E249" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G249" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="250" customFormat="1" spans="1:7">
       <c r="A250">
-        <v>6000001</v>
+        <v>5910003</v>
       </c>
       <c r="B250">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250">
         <v>0</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E250" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="G250" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="251" customFormat="1" spans="1:7">
       <c r="A251">
-        <v>6050001</v>
+        <v>6000001</v>
       </c>
       <c r="B251">
         <v>6</v>
@@ -7413,18 +7422,18 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G251" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="252" customFormat="1" spans="1:7">
       <c r="A252">
-        <v>6050002</v>
+        <v>6050001</v>
       </c>
       <c r="B252">
         <v>6</v>
@@ -7436,15 +7445,15 @@
         <v>5</v>
       </c>
       <c r="E252" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G252" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" customFormat="1" spans="1:7">
       <c r="A253">
-        <v>6050003</v>
+        <v>6050002</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -7456,15 +7465,15 @@
         <v>5</v>
       </c>
       <c r="E253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G253" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="254" customFormat="1" spans="1:7">
       <c r="A254">
-        <v>6050004</v>
+        <v>6050003</v>
       </c>
       <c r="B254">
         <v>6</v>
@@ -7476,15 +7485,15 @@
         <v>5</v>
       </c>
       <c r="E254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G254" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="255" customFormat="1" spans="1:7">
       <c r="A255">
-        <v>6050005</v>
+        <v>6050004</v>
       </c>
       <c r="B255">
         <v>6</v>
@@ -7496,15 +7505,15 @@
         <v>5</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="256" customFormat="1" spans="1:7">
       <c r="A256">
-        <v>6050006</v>
+        <v>6050005</v>
       </c>
       <c r="B256">
         <v>6</v>
@@ -7516,15 +7525,15 @@
         <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G256" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="257" customFormat="1" spans="1:7">
       <c r="A257">
-        <v>6050007</v>
+        <v>6050006</v>
       </c>
       <c r="B257">
         <v>6</v>
@@ -7536,15 +7545,15 @@
         <v>5</v>
       </c>
       <c r="E257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G257" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="258" customFormat="1" spans="1:7">
       <c r="A258">
-        <v>6050008</v>
+        <v>6050007</v>
       </c>
       <c r="B258">
         <v>6</v>
@@ -7556,15 +7565,15 @@
         <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G258" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="259" customFormat="1" spans="1:7">
       <c r="A259">
-        <v>6050009</v>
+        <v>6050008</v>
       </c>
       <c r="B259">
         <v>6</v>
@@ -7576,15 +7585,15 @@
         <v>5</v>
       </c>
       <c r="E259" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="260" customFormat="1" spans="1:7">
       <c r="A260">
-        <v>6050010</v>
+        <v>6050009</v>
       </c>
       <c r="B260">
         <v>6</v>
@@ -7596,15 +7605,15 @@
         <v>5</v>
       </c>
       <c r="E260" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G260" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="261" customFormat="1" spans="1:7">
       <c r="A261">
-        <v>6060001</v>
+        <v>6050010</v>
       </c>
       <c r="B261">
         <v>6</v>
@@ -7613,18 +7622,18 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E261" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
     </row>
     <row r="262" customFormat="1" spans="1:7">
       <c r="A262">
-        <v>6060002</v>
+        <v>6060001</v>
       </c>
       <c r="B262">
         <v>6</v>
@@ -7636,15 +7645,15 @@
         <v>6</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G262" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="263" customFormat="1" spans="1:7">
       <c r="A263">
-        <v>6060003</v>
+        <v>6060002</v>
       </c>
       <c r="B263">
         <v>6</v>
@@ -7656,15 +7665,15 @@
         <v>6</v>
       </c>
       <c r="E263" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G263" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264" customFormat="1" spans="1:7">
       <c r="A264">
-        <v>6060004</v>
+        <v>6060003</v>
       </c>
       <c r="B264">
         <v>6</v>
@@ -7676,15 +7685,15 @@
         <v>6</v>
       </c>
       <c r="E264" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="265" customFormat="1" spans="1:7">
       <c r="A265">
-        <v>6060005</v>
+        <v>6060004</v>
       </c>
       <c r="B265">
         <v>6</v>
@@ -7696,15 +7705,15 @@
         <v>6</v>
       </c>
       <c r="E265" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G265" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="266" customFormat="1" spans="1:7">
       <c r="A266">
-        <v>6060006</v>
+        <v>6060005</v>
       </c>
       <c r="B266">
         <v>6</v>
@@ -7716,7 +7725,7 @@
         <v>6</v>
       </c>
       <c r="E266" t="s">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="G266" t="s">
         <v>274</v>
@@ -7724,7 +7733,7 @@
     </row>
     <row r="267" customFormat="1" spans="1:7">
       <c r="A267">
-        <v>6060007</v>
+        <v>6060006</v>
       </c>
       <c r="B267">
         <v>6</v>
@@ -7744,7 +7753,7 @@
     </row>
     <row r="268" customFormat="1" spans="1:7">
       <c r="A268">
-        <v>6060008</v>
+        <v>6060007</v>
       </c>
       <c r="B268">
         <v>6</v>
@@ -7764,7 +7773,7 @@
     </row>
     <row r="269" customFormat="1" spans="1:7">
       <c r="A269">
-        <v>6060009</v>
+        <v>6060008</v>
       </c>
       <c r="B269">
         <v>6</v>
@@ -7784,7 +7793,7 @@
     </row>
     <row r="270" customFormat="1" spans="1:7">
       <c r="A270">
-        <v>6060010</v>
+        <v>6060009</v>
       </c>
       <c r="B270">
         <v>6</v>
@@ -7804,7 +7813,7 @@
     </row>
     <row r="271" customFormat="1" spans="1:7">
       <c r="A271">
-        <v>6500001</v>
+        <v>6060010</v>
       </c>
       <c r="B271">
         <v>6</v>
@@ -7813,18 +7822,18 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E271" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="G271" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
     </row>
     <row r="272" customFormat="1" spans="1:7">
       <c r="A272">
-        <v>6500002</v>
+        <v>6500001</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -7836,15 +7845,15 @@
         <v>50</v>
       </c>
       <c r="E272" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G272" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="273" customFormat="1" spans="1:7">
       <c r="A273">
-        <v>6500003</v>
+        <v>6500002</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -7856,15 +7865,15 @@
         <v>50</v>
       </c>
       <c r="E273" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G273" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="274" customFormat="1" spans="1:7">
       <c r="A274">
-        <v>6500004</v>
+        <v>6500003</v>
       </c>
       <c r="B274">
         <v>6</v>
@@ -7876,15 +7885,15 @@
         <v>50</v>
       </c>
       <c r="E274" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G274" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="275" customFormat="1" spans="1:7">
       <c r="A275">
-        <v>6500005</v>
+        <v>6500004</v>
       </c>
       <c r="B275">
         <v>6</v>
@@ -7896,15 +7905,15 @@
         <v>50</v>
       </c>
       <c r="E275" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G275" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="276" customFormat="1" spans="1:7">
       <c r="A276">
-        <v>6500006</v>
+        <v>6500005</v>
       </c>
       <c r="B276">
         <v>6</v>
@@ -7916,15 +7925,15 @@
         <v>50</v>
       </c>
       <c r="E276" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G276" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="277" customFormat="1" spans="1:7">
       <c r="A277">
-        <v>6500007</v>
+        <v>6500006</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -7936,15 +7945,15 @@
         <v>50</v>
       </c>
       <c r="E277" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G277" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="278" customFormat="1" spans="1:7">
       <c r="A278">
-        <v>6500008</v>
+        <v>6500007</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -7956,15 +7965,15 @@
         <v>50</v>
       </c>
       <c r="E278" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="G278" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" customFormat="1" spans="1:7">
       <c r="A279">
-        <v>6500009</v>
+        <v>6500008</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -7979,12 +7988,12 @@
         <v>216</v>
       </c>
       <c r="G279" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="280" customFormat="1" spans="1:7">
       <c r="A280">
-        <v>6500010</v>
+        <v>6500009</v>
       </c>
       <c r="B280">
         <v>6</v>
@@ -7999,12 +8008,12 @@
         <v>218</v>
       </c>
       <c r="G280" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="281" customFormat="1" spans="1:7">
       <c r="A281">
-        <v>6510001</v>
+        <v>6500010</v>
       </c>
       <c r="B281">
         <v>6</v>
@@ -8013,18 +8022,18 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E281" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="G281" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="282" customFormat="1" spans="1:7">
       <c r="A282">
-        <v>6510002</v>
+        <v>6510001</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -8036,15 +8045,15 @@
         <v>51</v>
       </c>
       <c r="E282" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G282" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" customFormat="1" spans="1:7">
       <c r="A283">
-        <v>6520001</v>
+        <v>6510002</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -8053,18 +8062,18 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E283" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G283" t="s">
-        <v>318</v>
+        <v>382</v>
       </c>
     </row>
     <row r="284" customFormat="1" spans="1:7">
       <c r="A284">
-        <v>6520002</v>
+        <v>6520001</v>
       </c>
       <c r="B284">
         <v>6</v>
@@ -8076,15 +8085,15 @@
         <v>52</v>
       </c>
       <c r="E284" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G284" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="285" customFormat="1" spans="1:7">
       <c r="A285">
-        <v>6520003</v>
+        <v>6520002</v>
       </c>
       <c r="B285">
         <v>6</v>
@@ -8096,15 +8105,15 @@
         <v>52</v>
       </c>
       <c r="E285" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G285" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="286" customFormat="1" spans="1:7">
       <c r="A286">
-        <v>6520004</v>
+        <v>6520003</v>
       </c>
       <c r="B286">
         <v>6</v>
@@ -8116,15 +8125,15 @@
         <v>52</v>
       </c>
       <c r="E286" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G286" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="287" customFormat="1" spans="1:7">
       <c r="A287">
-        <v>6520005</v>
+        <v>6520004</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -8136,15 +8145,15 @@
         <v>52</v>
       </c>
       <c r="E287" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="G287" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" customFormat="1" spans="1:7">
       <c r="A288">
-        <v>6800001</v>
+        <v>6520005</v>
       </c>
       <c r="B288">
         <v>6</v>
@@ -8153,18 +8162,18 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E288" t="s">
-        <v>382</v>
+        <v>127</v>
       </c>
       <c r="G288" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="289" customFormat="1" ht="12" customHeight="1" spans="1:7">
+    <row r="289" customFormat="1" spans="1:7">
       <c r="A289">
-        <v>6910001</v>
+        <v>6800001</v>
       </c>
       <c r="B289">
         <v>6</v>
@@ -8173,18 +8182,18 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E289" t="s">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="G289" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="290" customFormat="1" spans="1:7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="290" customFormat="1" ht="12" customHeight="1" spans="1:7">
       <c r="A290">
-        <v>6910002</v>
+        <v>6910001</v>
       </c>
       <c r="B290">
         <v>6</v>
@@ -8196,15 +8205,15 @@
         <v>91</v>
       </c>
       <c r="E290" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="G290" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="291" customFormat="1" spans="1:7">
       <c r="A291">
-        <v>6910003</v>
+        <v>6910002</v>
       </c>
       <c r="B291">
         <v>6</v>
@@ -8216,15 +8225,15 @@
         <v>91</v>
       </c>
       <c r="E291" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G291" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" customFormat="1" spans="1:7">
       <c r="A292">
-        <v>6910004</v>
+        <v>6910003</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -8236,15 +8245,15 @@
         <v>91</v>
       </c>
       <c r="E292" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G292" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="293" customFormat="1" spans="1:7">
       <c r="A293">
-        <v>6910005</v>
+        <v>6910004</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -8256,15 +8265,15 @@
         <v>91</v>
       </c>
       <c r="E293" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G293" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" customFormat="1" spans="1:7">
       <c r="A294">
-        <v>6910006</v>
+        <v>6910005</v>
       </c>
       <c r="B294">
         <v>6</v>
@@ -8276,15 +8285,15 @@
         <v>91</v>
       </c>
       <c r="E294" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G294" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="295" customFormat="1" spans="1:7">
       <c r="A295">
-        <v>6910007</v>
+        <v>6910006</v>
       </c>
       <c r="B295">
         <v>6</v>
@@ -8296,15 +8305,15 @@
         <v>91</v>
       </c>
       <c r="E295" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G295" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="296" customFormat="1" spans="1:7">
       <c r="A296">
-        <v>6910008</v>
+        <v>6910007</v>
       </c>
       <c r="B296">
         <v>6</v>
@@ -8316,15 +8325,15 @@
         <v>91</v>
       </c>
       <c r="E296" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G296" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297" customFormat="1" spans="1:7">
       <c r="A297">
-        <v>6910009</v>
+        <v>6910008</v>
       </c>
       <c r="B297">
         <v>6</v>
@@ -8336,15 +8345,15 @@
         <v>91</v>
       </c>
       <c r="E297" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G297" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="298" customFormat="1" spans="1:7">
       <c r="A298">
-        <v>6910010</v>
+        <v>6910009</v>
       </c>
       <c r="B298">
         <v>6</v>
@@ -8356,15 +8365,15 @@
         <v>91</v>
       </c>
       <c r="E298" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G298" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" customFormat="1" spans="1:7">
       <c r="A299">
-        <v>6910011</v>
+        <v>6910010</v>
       </c>
       <c r="B299">
         <v>6</v>
@@ -8376,15 +8385,15 @@
         <v>91</v>
       </c>
       <c r="E299" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G299" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="300" customFormat="1" spans="1:7">
       <c r="A300">
-        <v>6910012</v>
+        <v>6910011</v>
       </c>
       <c r="B300">
         <v>6</v>
@@ -8396,15 +8405,15 @@
         <v>91</v>
       </c>
       <c r="E300" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G300" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="301" customFormat="1" spans="1:7">
       <c r="A301">
-        <v>6910013</v>
+        <v>6910012</v>
       </c>
       <c r="B301">
         <v>6</v>
@@ -8416,15 +8425,15 @@
         <v>91</v>
       </c>
       <c r="E301" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G301" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="302" customFormat="1" spans="1:7">
       <c r="A302">
-        <v>6910014</v>
+        <v>6910013</v>
       </c>
       <c r="B302">
         <v>6</v>
@@ -8436,15 +8445,15 @@
         <v>91</v>
       </c>
       <c r="E302" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G302" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" customFormat="1" spans="1:7">
       <c r="A303">
-        <v>6910015</v>
+        <v>6910014</v>
       </c>
       <c r="B303">
         <v>6</v>
@@ -8456,15 +8465,15 @@
         <v>91</v>
       </c>
       <c r="E303" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G303" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="304" customFormat="1" spans="1:7">
       <c r="A304">
-        <v>6910016</v>
+        <v>6910015</v>
       </c>
       <c r="B304">
         <v>6</v>
@@ -8476,15 +8485,15 @@
         <v>91</v>
       </c>
       <c r="E304" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G304" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" customFormat="1" spans="1:7">
       <c r="A305">
-        <v>6910017</v>
+        <v>6910016</v>
       </c>
       <c r="B305">
         <v>6</v>
@@ -8496,15 +8505,15 @@
         <v>91</v>
       </c>
       <c r="E305" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G305" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" customFormat="1" spans="1:7">
       <c r="A306">
-        <v>6910018</v>
+        <v>6910017</v>
       </c>
       <c r="B306">
         <v>6</v>
@@ -8516,15 +8525,15 @@
         <v>91</v>
       </c>
       <c r="E306" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G306" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="307" customFormat="1" spans="1:7">
       <c r="A307">
-        <v>6910019</v>
+        <v>6910018</v>
       </c>
       <c r="B307">
         <v>6</v>
@@ -8536,15 +8545,15 @@
         <v>91</v>
       </c>
       <c r="E307" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G307" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="308" customFormat="1" spans="1:7">
       <c r="A308">
-        <v>6910020</v>
+        <v>6910019</v>
       </c>
       <c r="B308">
         <v>6</v>
@@ -8556,35 +8565,35 @@
         <v>91</v>
       </c>
       <c r="E308" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G308" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" customFormat="1" spans="1:7">
       <c r="A309">
-        <v>7000001</v>
+        <v>6910020</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E309" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="G309" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="310" customFormat="1" spans="1:7">
       <c r="A310">
-        <v>7030001</v>
+        <v>7000001</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -8593,18 +8602,18 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E310" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G310" t="s">
-        <v>241</v>
+        <v>406</v>
       </c>
     </row>
     <row r="311" customFormat="1" spans="1:7">
       <c r="A311">
-        <v>7030002</v>
+        <v>7030001</v>
       </c>
       <c r="B311">
         <v>7</v>
@@ -8616,15 +8625,15 @@
         <v>3</v>
       </c>
       <c r="E311" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G311" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="312" customFormat="1" spans="1:7">
       <c r="A312">
-        <v>7050001</v>
+        <v>7030002</v>
       </c>
       <c r="B312">
         <v>7</v>
@@ -8633,18 +8642,18 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E312" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G312" t="s">
-        <v>405</v>
+        <v>244</v>
       </c>
     </row>
     <row r="313" customFormat="1" spans="1:7">
       <c r="A313">
-        <v>7050002</v>
+        <v>7050001</v>
       </c>
       <c r="B313">
         <v>7</v>
@@ -8656,15 +8665,15 @@
         <v>5</v>
       </c>
       <c r="E313" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G313" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" customFormat="1" spans="1:7">
       <c r="A314">
-        <v>7050003</v>
+        <v>7050002</v>
       </c>
       <c r="B314">
         <v>7</v>
@@ -8676,15 +8685,15 @@
         <v>5</v>
       </c>
       <c r="E314" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G314" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="315" customFormat="1" spans="1:7">
       <c r="A315">
-        <v>7050004</v>
+        <v>7050003</v>
       </c>
       <c r="B315">
         <v>7</v>
@@ -8696,15 +8705,15 @@
         <v>5</v>
       </c>
       <c r="E315" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G315" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="316" customFormat="1" spans="1:7">
       <c r="A316">
-        <v>7050005</v>
+        <v>7050004</v>
       </c>
       <c r="B316">
         <v>7</v>
@@ -8716,15 +8725,15 @@
         <v>5</v>
       </c>
       <c r="E316" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G316" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="317" customFormat="1" spans="1:7">
       <c r="A317">
-        <v>7060001</v>
+        <v>7050005</v>
       </c>
       <c r="B317">
         <v>7</v>
@@ -8733,18 +8742,18 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E317" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G317" t="s">
-        <v>268</v>
+        <v>411</v>
       </c>
     </row>
     <row r="318" customFormat="1" spans="1:7">
       <c r="A318">
-        <v>7060002</v>
+        <v>7060001</v>
       </c>
       <c r="B318">
         <v>7</v>
@@ -8756,15 +8765,15 @@
         <v>6</v>
       </c>
       <c r="E318" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G318" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="319" customFormat="1" spans="1:7">
       <c r="A319">
-        <v>7060003</v>
+        <v>7060002</v>
       </c>
       <c r="B319">
         <v>7</v>
@@ -8776,15 +8785,15 @@
         <v>6</v>
       </c>
       <c r="E319" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G319" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="320" customFormat="1" spans="1:7">
       <c r="A320">
-        <v>7060004</v>
+        <v>7060003</v>
       </c>
       <c r="B320">
         <v>7</v>
@@ -8796,15 +8805,15 @@
         <v>6</v>
       </c>
       <c r="E320" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G320" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="321" customFormat="1" spans="1:7">
       <c r="A321">
-        <v>7060005</v>
+        <v>7060004</v>
       </c>
       <c r="B321">
         <v>7</v>
@@ -8816,15 +8825,15 @@
         <v>6</v>
       </c>
       <c r="E321" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G321" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="322" customFormat="1" spans="1:7">
       <c r="A322">
-        <v>7500001</v>
+        <v>7060005</v>
       </c>
       <c r="B322">
         <v>7</v>
@@ -8833,18 +8842,18 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E322" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G322" t="s">
-        <v>410</v>
+        <v>274</v>
       </c>
     </row>
     <row r="323" customFormat="1" spans="1:7">
       <c r="A323">
-        <v>7510001</v>
+        <v>7500001</v>
       </c>
       <c r="B323">
         <v>7</v>
@@ -8853,18 +8862,18 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E323" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="324" customFormat="1" spans="1:7">
       <c r="A324">
-        <v>7510002</v>
+        <v>7510001</v>
       </c>
       <c r="B324">
         <v>7</v>
@@ -8876,15 +8885,15 @@
         <v>51</v>
       </c>
       <c r="E324" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G324" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="325" customFormat="1" spans="1:7">
       <c r="A325">
-        <v>7520001</v>
+        <v>7510002</v>
       </c>
       <c r="B325">
         <v>7</v>
@@ -8893,18 +8902,18 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E325" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G325" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
     </row>
     <row r="326" customFormat="1" spans="1:7">
       <c r="A326">
-        <v>7520002</v>
+        <v>7520001</v>
       </c>
       <c r="B326">
         <v>7</v>
@@ -8916,15 +8925,15 @@
         <v>52</v>
       </c>
       <c r="E326" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G326" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:7">
       <c r="A327">
-        <v>7520003</v>
+        <v>7520002</v>
       </c>
       <c r="B327">
         <v>7</v>
@@ -8936,15 +8945,15 @@
         <v>52</v>
       </c>
       <c r="E327" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G327" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="328" customFormat="1" spans="1:7">
       <c r="A328">
-        <v>7520004</v>
+        <v>7520003</v>
       </c>
       <c r="B328">
         <v>7</v>
@@ -8956,15 +8965,15 @@
         <v>52</v>
       </c>
       <c r="E328" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G328" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="329" customFormat="1" spans="1:7">
       <c r="A329">
-        <v>7900001</v>
+        <v>7520004</v>
       </c>
       <c r="B329">
         <v>7</v>
@@ -8973,18 +8982,18 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E329" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G329" t="s">
-        <v>413</v>
+        <v>323</v>
       </c>
     </row>
     <row r="330" customFormat="1" spans="1:7">
       <c r="A330">
-        <v>7900002</v>
+        <v>7900001</v>
       </c>
       <c r="B330">
         <v>7</v>
@@ -8996,15 +9005,15 @@
         <v>90</v>
       </c>
       <c r="E330" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G330" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="331" customFormat="1" spans="1:7">
       <c r="A331">
-        <v>7900003</v>
+        <v>7900002</v>
       </c>
       <c r="B331">
         <v>7</v>
@@ -9016,15 +9025,15 @@
         <v>90</v>
       </c>
       <c r="E331" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G331" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="332" customFormat="1" ht="12" customHeight="1" spans="1:7">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="332" customFormat="1" spans="1:7">
       <c r="A332">
-        <v>7910001</v>
+        <v>7900003</v>
       </c>
       <c r="B332">
         <v>7</v>
@@ -9033,18 +9042,18 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E332" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G332" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="333" customFormat="1" spans="1:7">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="333" customFormat="1" ht="12" customHeight="1" spans="1:7">
       <c r="A333">
-        <v>7910002</v>
+        <v>7910001</v>
       </c>
       <c r="B333">
         <v>7</v>
@@ -9056,15 +9065,15 @@
         <v>91</v>
       </c>
       <c r="E333" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="G333" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="334" customFormat="1" spans="1:7">
       <c r="A334">
-        <v>7910003</v>
+        <v>7910002</v>
       </c>
       <c r="B334">
         <v>7</v>
@@ -9076,15 +9085,15 @@
         <v>91</v>
       </c>
       <c r="E334" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G334" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="335" customFormat="1" spans="1:7">
       <c r="A335">
-        <v>7910004</v>
+        <v>7910003</v>
       </c>
       <c r="B335">
         <v>7</v>
@@ -9096,15 +9105,15 @@
         <v>91</v>
       </c>
       <c r="E335" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G335" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="336" customFormat="1" spans="1:7">
       <c r="A336">
-        <v>7910005</v>
+        <v>7910004</v>
       </c>
       <c r="B336">
         <v>7</v>
@@ -9116,15 +9125,15 @@
         <v>91</v>
       </c>
       <c r="E336" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G336" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="337" customFormat="1" spans="1:7">
       <c r="A337">
-        <v>7910006</v>
+        <v>7910005</v>
       </c>
       <c r="B337">
         <v>7</v>
@@ -9136,32 +9145,35 @@
         <v>91</v>
       </c>
       <c r="E337" t="s">
+        <v>147</v>
+      </c>
+      <c r="G337" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="338" customFormat="1" spans="1:7">
+      <c r="A338">
+        <v>7910006</v>
+      </c>
+      <c r="B338">
+        <v>7</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>91</v>
+      </c>
+      <c r="E338" t="s">
         <v>149</v>
       </c>
-      <c r="G337" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
-      <c r="A338" s="2">
-        <v>99995005001</v>
-      </c>
-      <c r="B338" s="2">
-        <v>999950</v>
-      </c>
-      <c r="C338">
-        <v>1</v>
-      </c>
-      <c r="D338">
-        <v>5</v>
-      </c>
-      <c r="E338" t="s">
-        <v>422</v>
+      <c r="G338" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="2">
-        <v>99995005002</v>
+        <v>99995005001</v>
       </c>
       <c r="B339" s="2">
         <v>999950</v>
@@ -9173,12 +9185,12 @@
         <v>5</v>
       </c>
       <c r="E339" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="2">
-        <v>99995005003</v>
+        <v>99995005002</v>
       </c>
       <c r="B340" s="2">
         <v>999950</v>
@@ -9190,12 +9202,12 @@
         <v>5</v>
       </c>
       <c r="E340" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="2">
-        <v>99995005004</v>
+        <v>99995005003</v>
       </c>
       <c r="B341" s="2">
         <v>999950</v>
@@ -9207,12 +9219,12 @@
         <v>5</v>
       </c>
       <c r="E341" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="2">
-        <v>99995005005</v>
+        <v>99995005004</v>
       </c>
       <c r="B342" s="2">
         <v>999950</v>
@@ -9224,15 +9236,15 @@
         <v>5</v>
       </c>
       <c r="E342" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="2">
-        <v>99994705001</v>
+        <v>99995005005</v>
       </c>
       <c r="B343" s="2">
-        <v>999947</v>
+        <v>999950</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -9241,12 +9253,12 @@
         <v>5</v>
       </c>
       <c r="E343" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="2">
-        <v>99994705002</v>
+        <v>99994705001</v>
       </c>
       <c r="B344" s="2">
         <v>999947</v>
@@ -9258,12 +9270,12 @@
         <v>5</v>
       </c>
       <c r="E344" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="2">
-        <v>99994705003</v>
+        <v>99994705002</v>
       </c>
       <c r="B345" s="2">
         <v>999947</v>
@@ -9275,12 +9287,12 @@
         <v>5</v>
       </c>
       <c r="E345" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="2">
-        <v>99994705004</v>
+        <v>99994705003</v>
       </c>
       <c r="B346" s="2">
         <v>999947</v>
@@ -9292,15 +9304,15 @@
         <v>5</v>
       </c>
       <c r="E346" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="2">
-        <v>99996105001</v>
-      </c>
-      <c r="B347">
-        <v>999961</v>
+        <v>99994705004</v>
+      </c>
+      <c r="B347" s="2">
+        <v>999947</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -9309,12 +9321,12 @@
         <v>5</v>
       </c>
       <c r="E347" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="2">
-        <v>99996105002</v>
+        <v>99996105001</v>
       </c>
       <c r="B348">
         <v>999961</v>
@@ -9326,12 +9338,12 @@
         <v>5</v>
       </c>
       <c r="E348" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="2">
-        <v>99996105003</v>
+        <v>99996105002</v>
       </c>
       <c r="B349">
         <v>999961</v>
@@ -9343,12 +9355,12 @@
         <v>5</v>
       </c>
       <c r="E349" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="2">
-        <v>99996105004</v>
+        <v>99996105003</v>
       </c>
       <c r="B350">
         <v>999961</v>
@@ -9360,12 +9372,12 @@
         <v>5</v>
       </c>
       <c r="E350" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="2">
-        <v>99996105005</v>
+        <v>99996105004</v>
       </c>
       <c r="B351">
         <v>999961</v>
@@ -9377,15 +9389,15 @@
         <v>5</v>
       </c>
       <c r="E351" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352">
-        <v>99996805001</v>
-      </c>
-      <c r="B352" s="2">
-        <v>999968</v>
+      <c r="A352" s="2">
+        <v>99996105005</v>
+      </c>
+      <c r="B352">
+        <v>999961</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -9394,12 +9406,12 @@
         <v>5</v>
       </c>
       <c r="E352" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353">
-        <v>99996805002</v>
+        <v>99996805001</v>
       </c>
       <c r="B353" s="2">
         <v>999968</v>
@@ -9411,12 +9423,12 @@
         <v>5</v>
       </c>
       <c r="E353" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354">
-        <v>99996805003</v>
+        <v>99996805002</v>
       </c>
       <c r="B354" s="2">
         <v>999968</v>
@@ -9428,12 +9440,12 @@
         <v>5</v>
       </c>
       <c r="E354" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355">
-        <v>99996805004</v>
+        <v>99996805003</v>
       </c>
       <c r="B355" s="2">
         <v>999968</v>
@@ -9445,15 +9457,15 @@
         <v>5</v>
       </c>
       <c r="E355" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356">
-        <v>99997905001</v>
-      </c>
-      <c r="B356">
-        <v>999979</v>
+        <v>99996805004</v>
+      </c>
+      <c r="B356" s="2">
+        <v>999968</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -9462,12 +9474,12 @@
         <v>5</v>
       </c>
       <c r="E356" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357">
-        <v>99997905002</v>
+        <v>99997905001</v>
       </c>
       <c r="B357">
         <v>999979</v>
@@ -9479,12 +9491,12 @@
         <v>5</v>
       </c>
       <c r="E357" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358">
-        <v>99997905003</v>
+        <v>99997905002</v>
       </c>
       <c r="B358">
         <v>999979</v>
@@ -9496,12 +9508,12 @@
         <v>5</v>
       </c>
       <c r="E358" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359">
-        <v>99997905004</v>
+        <v>99997905003</v>
       </c>
       <c r="B359">
         <v>999979</v>
@@ -9513,12 +9525,12 @@
         <v>5</v>
       </c>
       <c r="E359" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360">
-        <v>99997905005</v>
+        <v>99997905004</v>
       </c>
       <c r="B360">
         <v>999979</v>
@@ -9530,15 +9542,15 @@
         <v>5</v>
       </c>
       <c r="E360" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="2">
-        <v>99997405001</v>
-      </c>
-      <c r="B361" s="2">
-        <v>999974</v>
+      <c r="A361">
+        <v>99997905005</v>
+      </c>
+      <c r="B361">
+        <v>999979</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -9547,12 +9559,12 @@
         <v>5</v>
       </c>
       <c r="E361" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2">
-        <v>99997405002</v>
+        <v>99997405001</v>
       </c>
       <c r="B362" s="2">
         <v>999974</v>
@@ -9564,12 +9576,12 @@
         <v>5</v>
       </c>
       <c r="E362" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="2">
-        <v>99997405003</v>
+        <v>99997405002</v>
       </c>
       <c r="B363" s="2">
         <v>999974</v>
@@ -9581,12 +9593,12 @@
         <v>5</v>
       </c>
       <c r="E363" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2">
-        <v>99997405004</v>
+        <v>99997405003</v>
       </c>
       <c r="B364" s="2">
         <v>999974</v>
@@ -9598,15 +9610,15 @@
         <v>5</v>
       </c>
       <c r="E364" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365">
-        <v>99998605001</v>
-      </c>
-      <c r="B365">
-        <v>999986</v>
+      <c r="A365" s="2">
+        <v>99997405004</v>
+      </c>
+      <c r="B365" s="2">
+        <v>999974</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -9615,12 +9627,12 @@
         <v>5</v>
       </c>
       <c r="E365" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366">
-        <v>99998605002</v>
+        <v>99998605001</v>
       </c>
       <c r="B366">
         <v>999986</v>
@@ -9632,12 +9644,12 @@
         <v>5</v>
       </c>
       <c r="E366" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367">
-        <v>99998605003</v>
+        <v>99998605002</v>
       </c>
       <c r="B367">
         <v>999986</v>
@@ -9649,12 +9661,12 @@
         <v>5</v>
       </c>
       <c r="E367" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368">
-        <v>99998605004</v>
+        <v>99998605003</v>
       </c>
       <c r="B368">
         <v>999986</v>
@@ -9666,15 +9678,15 @@
         <v>5</v>
       </c>
       <c r="E368" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369">
-        <v>99998705001</v>
+        <v>99998605004</v>
       </c>
       <c r="B369">
-        <v>999987</v>
+        <v>999986</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -9683,12 +9695,12 @@
         <v>5</v>
       </c>
       <c r="E369" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370">
-        <v>99998705002</v>
+        <v>99998705001</v>
       </c>
       <c r="B370">
         <v>999987</v>
@@ -9700,12 +9712,12 @@
         <v>5</v>
       </c>
       <c r="E370" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371">
-        <v>99998705003</v>
+        <v>99998705002</v>
       </c>
       <c r="B371">
         <v>999987</v>
@@ -9717,12 +9729,12 @@
         <v>5</v>
       </c>
       <c r="E371" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372">
-        <v>99998705004</v>
+        <v>99998705003</v>
       </c>
       <c r="B372">
         <v>999987</v>
@@ -9734,46 +9746,46 @@
         <v>5</v>
       </c>
       <c r="E372" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373">
+        <v>99998705004</v>
+      </c>
+      <c r="B373">
+        <v>999987</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>5</v>
+      </c>
+      <c r="E373" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374">
         <v>99998705005</v>
       </c>
-      <c r="B373">
+      <c r="B374">
         <v>999988</v>
       </c>
-      <c r="C373">
-        <v>1</v>
-      </c>
-      <c r="D373">
-        <v>5</v>
-      </c>
-      <c r="E373" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="374" ht="12" customHeight="1" spans="1:5">
-      <c r="A374" s="2">
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>5</v>
+      </c>
+      <c r="E374" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="375" ht="12" customHeight="1" spans="1:5">
+      <c r="A375" s="2">
         <v>99998905001</v>
-      </c>
-      <c r="B374">
-        <v>999989</v>
-      </c>
-      <c r="C374">
-        <v>1</v>
-      </c>
-      <c r="D374">
-        <v>5</v>
-      </c>
-      <c r="E374" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="2">
-        <v>99998905002</v>
       </c>
       <c r="B375">
         <v>999989</v>
@@ -9785,12 +9797,12 @@
         <v>5</v>
       </c>
       <c r="E375" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2">
-        <v>99998905003</v>
+        <v>99998905002</v>
       </c>
       <c r="B376">
         <v>999989</v>
@@ -9802,12 +9814,12 @@
         <v>5</v>
       </c>
       <c r="E376" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2">
-        <v>99998905004</v>
+        <v>99998905003</v>
       </c>
       <c r="B377">
         <v>999989</v>
@@ -9819,15 +9831,15 @@
         <v>5</v>
       </c>
       <c r="E377" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2">
-        <v>99999505001</v>
-      </c>
-      <c r="B378" s="2">
-        <v>999995</v>
+        <v>99998905004</v>
+      </c>
+      <c r="B378">
+        <v>999989</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -9836,12 +9848,12 @@
         <v>5</v>
       </c>
       <c r="E378" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2">
-        <v>99999505002</v>
+        <v>99999505001</v>
       </c>
       <c r="B379" s="2">
         <v>999995</v>
@@ -9853,12 +9865,12 @@
         <v>5</v>
       </c>
       <c r="E379" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2">
-        <v>99999505003</v>
+        <v>99999505002</v>
       </c>
       <c r="B380" s="2">
         <v>999995</v>
@@ -9870,12 +9882,12 @@
         <v>5</v>
       </c>
       <c r="E380" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2">
-        <v>99999505004</v>
+        <v>99999505003</v>
       </c>
       <c r="B381" s="2">
         <v>999995</v>
@@ -9887,12 +9899,12 @@
         <v>5</v>
       </c>
       <c r="E381" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2">
-        <v>99999505005</v>
+        <v>99999505004</v>
       </c>
       <c r="B382" s="2">
         <v>999995</v>
@@ -9904,15 +9916,15 @@
         <v>5</v>
       </c>
       <c r="E382" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" s="2">
-        <v>99999605001</v>
-      </c>
-      <c r="B383">
-        <v>999996</v>
+        <v>99999505005</v>
+      </c>
+      <c r="B383" s="2">
+        <v>999995</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -9921,12 +9933,12 @@
         <v>5</v>
       </c>
       <c r="E383" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="384" ht="15" customHeight="1" spans="1:5">
       <c r="A384" s="2">
-        <v>99999605002</v>
+        <v>99999605001</v>
       </c>
       <c r="B384">
         <v>999996</v>
@@ -9938,12 +9950,12 @@
         <v>5</v>
       </c>
       <c r="E384" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="385" ht="15" customHeight="1" spans="1:5">
       <c r="A385" s="2">
-        <v>99999605003</v>
+        <v>99999605002</v>
       </c>
       <c r="B385">
         <v>999996</v>
@@ -9955,12 +9967,12 @@
         <v>5</v>
       </c>
       <c r="E385" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="386" ht="15" customHeight="1" spans="1:5">
       <c r="A386" s="2">
-        <v>99999605004</v>
+        <v>99999605003</v>
       </c>
       <c r="B386">
         <v>999996</v>
@@ -9972,12 +9984,12 @@
         <v>5</v>
       </c>
       <c r="E386" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="387" ht="15" customHeight="1" spans="1:5">
       <c r="A387" s="2">
-        <v>99999605005</v>
+        <v>99999605004</v>
       </c>
       <c r="B387">
         <v>999996</v>
@@ -9989,29 +10001,29 @@
         <v>5</v>
       </c>
       <c r="E387" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="388" customFormat="1" ht="15" customHeight="1" spans="1:5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1" spans="1:5">
       <c r="A388" s="2">
+        <v>99999605005</v>
+      </c>
+      <c r="B388">
+        <v>999996</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>5</v>
+      </c>
+      <c r="E388" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="389" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A389" s="2">
         <v>99999905001</v>
-      </c>
-      <c r="B388">
-        <v>999999</v>
-      </c>
-      <c r="C388">
-        <v>1</v>
-      </c>
-      <c r="D388">
-        <v>5</v>
-      </c>
-      <c r="E388" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1" spans="1:5">
-      <c r="A389" s="2">
-        <v>99999905002</v>
       </c>
       <c r="B389">
         <v>999999</v>
@@ -10023,12 +10035,12 @@
         <v>5</v>
       </c>
       <c r="E389" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="390" ht="15" customHeight="1" spans="1:5">
       <c r="A390" s="2">
-        <v>99999905003</v>
+        <v>99999905002</v>
       </c>
       <c r="B390">
         <v>999999</v>
@@ -10040,12 +10052,12 @@
         <v>5</v>
       </c>
       <c r="E390" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="391" ht="15" customHeight="1" spans="1:5">
       <c r="A391" s="2">
-        <v>99999905004</v>
+        <v>99999905003</v>
       </c>
       <c r="B391">
         <v>999999</v>
@@ -10057,12 +10069,12 @@
         <v>5</v>
       </c>
       <c r="E391" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="392" ht="15" customHeight="1" spans="1:5">
       <c r="A392" s="2">
-        <v>99999905005</v>
+        <v>99999905004</v>
       </c>
       <c r="B392">
         <v>999999</v>
@@ -10074,11 +10086,27 @@
         <v>5</v>
       </c>
       <c r="E392" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="425" ht="12" customHeight="1"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1" spans="1:5">
+      <c r="A393" s="2">
+        <v>99999905005</v>
+      </c>
+      <c r="B393">
+        <v>999999</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>5</v>
+      </c>
+      <c r="E393" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1"/>
     <row r="426" ht="12" customHeight="1"/>
     <row r="427" ht="12" customHeight="1"/>
     <row r="428" ht="12" customHeight="1"/>
@@ -10087,8 +10115,9 @@
     <row r="431" ht="12" customHeight="1"/>
     <row r="432" ht="12" customHeight="1"/>
     <row r="433" ht="12" customHeight="1"/>
+    <row r="434" ht="12" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G392" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G393" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="A4:G36">
